--- a/data/qqq_data.xlsx
+++ b/data/qqq_data.xlsx
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.320955</v>
+        <v>34.320947</v>
       </c>
       <c r="D2" t="n">
-        <v>34.492175</v>
+        <v>34.492167</v>
       </c>
       <c r="E2" t="n">
-        <v>31.213316</v>
+        <v>31.213309</v>
       </c>
       <c r="F2" t="n">
-        <v>32.018032</v>
+        <v>32.018024</v>
       </c>
       <c r="G2" t="n">
         <v>2234773200</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.063127</v>
+        <v>-0.063126</v>
       </c>
       <c r="I2" t="n">
         <v>-0.06260499999999999</v>
@@ -660,22 +660,22 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.09508</v>
+        <v>32.095091</v>
       </c>
       <c r="D3" t="n">
-        <v>32.942633</v>
+        <v>32.942606</v>
       </c>
       <c r="E3" t="n">
-        <v>31.418774</v>
+        <v>31.418755</v>
       </c>
       <c r="F3" t="n">
-        <v>31.863953</v>
+        <v>31.863935</v>
       </c>
       <c r="G3" t="n">
         <v>1765610600</v>
       </c>
       <c r="H3" t="n">
-        <v>-0.004812</v>
+        <v>-0.004813</v>
       </c>
       <c r="I3" t="n">
         <v>-0.005666</v>
@@ -684,10 +684,10 @@
         <v>0.010056</v>
       </c>
       <c r="K3" t="n">
-        <v>0.000854</v>
+        <v>0.000853</v>
       </c>
       <c r="L3" t="n">
-        <v>0.000854</v>
+        <v>0.000853</v>
       </c>
       <c r="M3" t="n">
         <v>333553435000</v>
@@ -743,16 +743,16 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.992352</v>
+        <v>31.992344</v>
       </c>
       <c r="D4" t="n">
-        <v>32.779967</v>
+        <v>32.779963</v>
       </c>
       <c r="E4" t="n">
-        <v>30.768147</v>
+        <v>30.768126</v>
       </c>
       <c r="F4" t="n">
-        <v>31.307472</v>
+        <v>31.307474</v>
       </c>
       <c r="G4" t="n">
         <v>2133973700</v>
@@ -826,16 +826,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.5215</v>
+        <v>31.521498</v>
       </c>
       <c r="D5" t="n">
-        <v>31.735529</v>
+        <v>31.735519</v>
       </c>
       <c r="E5" t="n">
-        <v>29.406952</v>
+        <v>29.406934</v>
       </c>
       <c r="F5" t="n">
-        <v>29.946295</v>
+        <v>29.946276</v>
       </c>
       <c r="G5" t="n">
         <v>2345433600</v>
@@ -909,22 +909,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.049011</v>
+        <v>30.049009</v>
       </c>
       <c r="D6" t="n">
-        <v>32.762856</v>
+        <v>32.762837</v>
       </c>
       <c r="E6" t="n">
-        <v>29.869232</v>
+        <v>29.86923</v>
       </c>
       <c r="F6" t="n">
-        <v>32.600178</v>
+        <v>32.600197</v>
       </c>
       <c r="G6" t="n">
         <v>1881340000</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08862100000000001</v>
+        <v>0.08862299999999999</v>
       </c>
       <c r="I6" t="n">
         <v>0.085755</v>
@@ -933,10 +933,10 @@
         <v>0.00633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002866</v>
+        <v>0.002868</v>
       </c>
       <c r="L6" t="n">
-        <v>0.002866</v>
+        <v>0.002868</v>
       </c>
       <c r="M6" t="n">
         <v>333553435000</v>
@@ -992,16 +992,16 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.557375</v>
+        <v>32.557363</v>
       </c>
       <c r="D7" t="n">
-        <v>33.113839</v>
+        <v>33.113828</v>
       </c>
       <c r="E7" t="n">
-        <v>31.447804</v>
+        <v>31.447817</v>
       </c>
       <c r="F7" t="n">
-        <v>31.516361</v>
+        <v>31.516378</v>
       </c>
       <c r="G7" t="n">
         <v>1943627500</v>
@@ -1016,10 +1016,10 @@
         <v>0.007409</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.00141</v>
+        <v>-0.001411</v>
       </c>
       <c r="L7" t="n">
-        <v>0.00141</v>
+        <v>0.001411</v>
       </c>
       <c r="M7" t="n">
         <v>333553435000</v>
@@ -1075,16 +1075,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.584899</v>
+        <v>31.584924</v>
       </c>
       <c r="D8" t="n">
-        <v>34.206992</v>
+        <v>34.206989</v>
       </c>
       <c r="E8" t="n">
-        <v>31.319262</v>
+        <v>31.319285</v>
       </c>
       <c r="F8" t="n">
-        <v>33.915653</v>
+        <v>33.915642</v>
       </c>
       <c r="G8" t="n">
         <v>1620613000</v>
@@ -1099,10 +1099,10 @@
         <v>0.007059</v>
       </c>
       <c r="K8" t="n">
-        <v>0.001392</v>
+        <v>0.001391</v>
       </c>
       <c r="L8" t="n">
-        <v>0.001392</v>
+        <v>0.001391</v>
       </c>
       <c r="M8" t="n">
         <v>333553435000</v>
@@ -1158,13 +1158,13 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.967072</v>
+        <v>33.967053</v>
       </c>
       <c r="D9" t="n">
-        <v>34.395512</v>
+        <v>34.395508</v>
       </c>
       <c r="E9" t="n">
-        <v>32.784553</v>
+        <v>32.784557</v>
       </c>
       <c r="F9" t="n">
         <v>33.401512</v>
@@ -1182,10 +1182,10 @@
         <v>0.007347</v>
       </c>
       <c r="K9" t="n">
-        <v>-0.000563</v>
+        <v>-0.000562</v>
       </c>
       <c r="L9" t="n">
-        <v>0.000563</v>
+        <v>0.000562</v>
       </c>
       <c r="M9" t="n">
         <v>333553435000</v>
@@ -1241,16 +1241,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.418654</v>
+        <v>33.41865</v>
       </c>
       <c r="D10" t="n">
-        <v>34.198428</v>
+        <v>34.19842</v>
       </c>
       <c r="E10" t="n">
-        <v>32.767426</v>
+        <v>32.767415</v>
       </c>
       <c r="F10" t="n">
-        <v>33.812832</v>
+        <v>33.812828</v>
       </c>
       <c r="G10" t="n">
         <v>1676662500</v>
@@ -1327,13 +1327,13 @@
         <v>33.881372</v>
       </c>
       <c r="D11" t="n">
-        <v>34.172713</v>
+        <v>34.172737</v>
       </c>
       <c r="E11" t="n">
-        <v>31.987648</v>
+        <v>31.987656</v>
       </c>
       <c r="F11" t="n">
-        <v>33.307259</v>
+        <v>33.307251</v>
       </c>
       <c r="G11" t="n">
         <v>2279169700</v>
@@ -1407,22 +1407,22 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.230144</v>
+        <v>33.230133</v>
       </c>
       <c r="D12" t="n">
-        <v>36.006452</v>
+        <v>36.006475</v>
       </c>
       <c r="E12" t="n">
         <v>33.170151</v>
       </c>
       <c r="F12" t="n">
-        <v>35.3381</v>
+        <v>35.338074</v>
       </c>
       <c r="G12" t="n">
         <v>1718491700</v>
       </c>
       <c r="H12" t="n">
-        <v>0.060973</v>
+        <v>0.060972</v>
       </c>
       <c r="I12" t="n">
         <v>0.059132</v>
@@ -1431,10 +1431,10 @@
         <v>0.006504</v>
       </c>
       <c r="K12" t="n">
-        <v>0.001841</v>
+        <v>0.00184</v>
       </c>
       <c r="L12" t="n">
-        <v>0.001841</v>
+        <v>0.00184</v>
       </c>
       <c r="M12" t="n">
         <v>333553435000</v>
@@ -1490,22 +1490,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35.56945</v>
+        <v>35.569435</v>
       </c>
       <c r="D13" t="n">
-        <v>36.254944</v>
+        <v>36.254967</v>
       </c>
       <c r="E13" t="n">
-        <v>34.66746</v>
+        <v>34.667445</v>
       </c>
       <c r="F13" t="n">
-        <v>34.710407</v>
+        <v>34.710392</v>
       </c>
       <c r="G13" t="n">
         <v>1416706400</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.017763</v>
+        <v>-0.017762</v>
       </c>
       <c r="I13" t="n">
         <v>-0.016358</v>
@@ -1576,19 +1576,19 @@
         <v>34.916549</v>
       </c>
       <c r="D14" t="n">
-        <v>37.201368</v>
+        <v>37.201361</v>
       </c>
       <c r="E14" t="n">
         <v>34.495659</v>
       </c>
       <c r="F14" t="n">
-        <v>36.076138</v>
+        <v>36.076145</v>
       </c>
       <c r="G14" t="n">
         <v>1968905800</v>
       </c>
       <c r="H14" t="n">
-        <v>0.039346</v>
+        <v>0.039347</v>
       </c>
       <c r="I14" t="n">
         <v>0.039843</v>
@@ -1597,10 +1597,10 @@
         <v>0.011184</v>
       </c>
       <c r="K14" t="n">
-        <v>-0.000497</v>
+        <v>-0.000496</v>
       </c>
       <c r="L14" t="n">
-        <v>0.000497</v>
+        <v>0.000496</v>
       </c>
       <c r="M14" t="n">
         <v>333553435000</v>
@@ -1656,16 +1656,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35.8528</v>
+        <v>35.852815</v>
       </c>
       <c r="D15" t="n">
-        <v>36.222148</v>
+        <v>36.222163</v>
       </c>
       <c r="E15" t="n">
-        <v>34.58155</v>
+        <v>34.581557</v>
       </c>
       <c r="F15" t="n">
-        <v>35.303074</v>
+        <v>35.303066</v>
       </c>
       <c r="G15" t="n">
         <v>1646562100</v>
@@ -1739,22 +1739,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.414729</v>
+        <v>35.414748</v>
       </c>
       <c r="D16" t="n">
-        <v>36.359302</v>
+        <v>36.359314</v>
       </c>
       <c r="E16" t="n">
-        <v>34.521421</v>
+        <v>34.521429</v>
       </c>
       <c r="F16" t="n">
-        <v>36.041267</v>
+        <v>36.041279</v>
       </c>
       <c r="G16" t="n">
         <v>2185862300</v>
       </c>
       <c r="H16" t="n">
-        <v>0.02091</v>
+        <v>0.020911</v>
       </c>
       <c r="I16" t="n">
         <v>0.019808</v>
@@ -1822,16 +1822,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.230374</v>
+        <v>36.230382</v>
       </c>
       <c r="D17" t="n">
         <v>37.003988</v>
       </c>
       <c r="E17" t="n">
-        <v>35.577104</v>
+        <v>35.577123</v>
       </c>
       <c r="F17" t="n">
-        <v>35.972496</v>
+        <v>35.972511</v>
       </c>
       <c r="G17" t="n">
         <v>1763904700</v>
@@ -1846,10 +1846,10 @@
         <v>0.007926000000000001</v>
       </c>
       <c r="K17" t="n">
-        <v>-0.000177</v>
+        <v>-0.000176</v>
       </c>
       <c r="L17" t="n">
-        <v>0.000177</v>
+        <v>0.000176</v>
       </c>
       <c r="M17" t="n">
         <v>333553435000</v>
@@ -1908,13 +1908,13 @@
         <v>36.032682</v>
       </c>
       <c r="D18" t="n">
-        <v>36.342128</v>
+        <v>36.342109</v>
       </c>
       <c r="E18" t="n">
-        <v>32.860912</v>
+        <v>32.860908</v>
       </c>
       <c r="F18" t="n">
-        <v>33.368042</v>
+        <v>33.368057</v>
       </c>
       <c r="G18" t="n">
         <v>2709535300</v>
@@ -1988,13 +1988,13 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33.462601</v>
+        <v>33.462597</v>
       </c>
       <c r="D19" t="n">
-        <v>34.382333</v>
+        <v>34.382317</v>
       </c>
       <c r="E19" t="n">
-        <v>31.941194</v>
+        <v>31.941179</v>
       </c>
       <c r="F19" t="n">
         <v>33.347504</v>
@@ -2071,22 +2071,22 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33.450722</v>
+        <v>33.450699</v>
       </c>
       <c r="D20" t="n">
-        <v>33.545338</v>
+        <v>33.545315</v>
       </c>
       <c r="E20" t="n">
-        <v>30.569261</v>
+        <v>30.569262</v>
       </c>
       <c r="F20" t="n">
-        <v>31.911081</v>
+        <v>31.911068</v>
       </c>
       <c r="G20" t="n">
         <v>2462886000</v>
       </c>
       <c r="H20" t="n">
-        <v>-0.043074</v>
+        <v>-0.043075</v>
       </c>
       <c r="I20" t="n">
         <v>-0.041772</v>
@@ -2154,16 +2154,16 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.627223</v>
+        <v>31.627212</v>
       </c>
       <c r="D21" t="n">
-        <v>33.571155</v>
+        <v>33.571153</v>
       </c>
       <c r="E21" t="n">
-        <v>31.188552</v>
+        <v>31.18854</v>
       </c>
       <c r="F21" t="n">
-        <v>33.433533</v>
+        <v>33.43351</v>
       </c>
       <c r="G21" t="n">
         <v>2281929100</v>
@@ -2237,22 +2237,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33.614147</v>
+        <v>33.614151</v>
       </c>
       <c r="D22" t="n">
-        <v>35.242871</v>
+        <v>35.242867</v>
       </c>
       <c r="E22" t="n">
-        <v>32.960446</v>
+        <v>32.960453</v>
       </c>
       <c r="F22" t="n">
-        <v>34.984673</v>
+        <v>34.984695</v>
       </c>
       <c r="G22" t="n">
         <v>2234461000</v>
       </c>
       <c r="H22" t="n">
-        <v>0.046395</v>
+        <v>0.046396</v>
       </c>
       <c r="I22" t="n">
         <v>0.047097</v>
@@ -2261,10 +2261,10 @@
         <v>0.009383000000000001</v>
       </c>
       <c r="K22" t="n">
-        <v>-0.000702</v>
+        <v>-0.000701</v>
       </c>
       <c r="L22" t="n">
-        <v>0.000702</v>
+        <v>0.000701</v>
       </c>
       <c r="M22" t="n">
         <v>333553435000</v>
@@ -2320,22 +2320,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.941643</v>
+        <v>34.941632</v>
       </c>
       <c r="D23" t="n">
-        <v>36.938311</v>
+        <v>36.9383</v>
       </c>
       <c r="E23" t="n">
-        <v>34.322002</v>
+        <v>34.321994</v>
       </c>
       <c r="F23" t="n">
-        <v>36.645702</v>
+        <v>36.645683</v>
       </c>
       <c r="G23" t="n">
         <v>2410484000</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047479</v>
+        <v>0.047478</v>
       </c>
       <c r="I23" t="n">
         <v>0.047403</v>
@@ -2344,10 +2344,10 @@
         <v>0.009153</v>
       </c>
       <c r="K23" t="n">
-        <v>7.6e-05</v>
+        <v>7.499999999999999e-05</v>
       </c>
       <c r="L23" t="n">
-        <v>7.6e-05</v>
+        <v>7.499999999999999e-05</v>
       </c>
       <c r="M23" t="n">
         <v>333553435000</v>
@@ -2403,16 +2403,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36.774787</v>
+        <v>36.774806</v>
       </c>
       <c r="D24" t="n">
-        <v>38.607951</v>
+        <v>38.60794</v>
       </c>
       <c r="E24" t="n">
         <v>35.810887</v>
       </c>
       <c r="F24" t="n">
-        <v>37.902233</v>
+        <v>37.902229</v>
       </c>
       <c r="G24" t="n">
         <v>2370363000</v>
@@ -2486,16 +2486,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37.867799</v>
+        <v>37.867803</v>
       </c>
       <c r="D25" t="n">
-        <v>38.568838</v>
+        <v>38.56883</v>
       </c>
       <c r="E25" t="n">
-        <v>36.948859</v>
+        <v>36.948855</v>
       </c>
       <c r="F25" t="n">
-        <v>37.190136</v>
+        <v>37.190117</v>
       </c>
       <c r="G25" t="n">
         <v>1898275500</v>
@@ -2510,10 +2510,10 @@
         <v>0.006999</v>
       </c>
       <c r="K25" t="n">
-        <v>0.000389</v>
+        <v>0.000388</v>
       </c>
       <c r="L25" t="n">
-        <v>0.000389</v>
+        <v>0.000388</v>
       </c>
       <c r="M25" t="n">
         <v>333553435000</v>
@@ -2569,22 +2569,22 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37.448654</v>
+        <v>37.448643</v>
       </c>
       <c r="D26" t="n">
-        <v>39.120296</v>
+        <v>39.120292</v>
       </c>
       <c r="E26" t="n">
-        <v>36.638675</v>
+        <v>36.638664</v>
       </c>
       <c r="F26" t="n">
-        <v>37.974251</v>
+        <v>37.974266</v>
       </c>
       <c r="G26" t="n">
         <v>2620557700</v>
       </c>
       <c r="H26" t="n">
-        <v>0.021084</v>
+        <v>0.021085</v>
       </c>
       <c r="I26" t="n">
         <v>0.020138</v>
@@ -2593,10 +2593,10 @@
         <v>0.009499</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000946</v>
+        <v>0.000947</v>
       </c>
       <c r="L26" t="n">
-        <v>0.000946</v>
+        <v>0.000947</v>
       </c>
       <c r="M26" t="n">
         <v>333553435000</v>
@@ -2652,22 +2652,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38.146591</v>
+        <v>38.146606</v>
       </c>
       <c r="D27" t="n">
-        <v>39.249543</v>
+        <v>39.249547</v>
       </c>
       <c r="E27" t="n">
-        <v>36.991951</v>
+        <v>36.991947</v>
       </c>
       <c r="F27" t="n">
-        <v>37.336624</v>
+        <v>37.33662</v>
       </c>
       <c r="G27" t="n">
         <v>2394303300</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.016791</v>
+        <v>-0.016792</v>
       </c>
       <c r="I27" t="n">
         <v>-0.017118</v>
@@ -2676,10 +2676,10 @@
         <v>0.011576</v>
       </c>
       <c r="K27" t="n">
-        <v>0.000327</v>
+        <v>0.000326</v>
       </c>
       <c r="L27" t="n">
-        <v>0.000327</v>
+        <v>0.000326</v>
       </c>
       <c r="M27" t="n">
         <v>333553435000</v>
@@ -2735,16 +2735,16 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.6645</v>
+        <v>36.664496</v>
       </c>
       <c r="D28" t="n">
-        <v>38.325831</v>
+        <v>38.325835</v>
       </c>
       <c r="E28" t="n">
         <v>36.24228</v>
       </c>
       <c r="F28" t="n">
-        <v>37.532585</v>
+        <v>37.532581</v>
       </c>
       <c r="G28" t="n">
         <v>2886831700</v>
@@ -2818,22 +2818,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37.653285</v>
+        <v>37.653292</v>
       </c>
       <c r="D29" t="n">
-        <v>40.265818</v>
+        <v>40.265838</v>
       </c>
       <c r="E29" t="n">
-        <v>37.334263</v>
+        <v>37.334271</v>
       </c>
       <c r="F29" t="n">
-        <v>39.627766</v>
+        <v>39.6278</v>
       </c>
       <c r="G29" t="n">
         <v>1840448700</v>
       </c>
       <c r="H29" t="n">
-        <v>0.055823</v>
+        <v>0.055824</v>
       </c>
       <c r="I29" t="n">
         <v>0.053821</v>
@@ -2842,10 +2842,10 @@
         <v>0.006409</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002002</v>
+        <v>0.002003</v>
       </c>
       <c r="L29" t="n">
-        <v>0.002002</v>
+        <v>0.002003</v>
       </c>
       <c r="M29" t="n">
         <v>333553435000</v>
@@ -2901,16 +2901,16 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.636398</v>
+        <v>39.636391</v>
       </c>
       <c r="D30" t="n">
-        <v>40.972843</v>
+        <v>40.972851</v>
       </c>
       <c r="E30" t="n">
-        <v>39.369108</v>
+        <v>39.3691</v>
       </c>
       <c r="F30" t="n">
-        <v>40.877998</v>
+        <v>40.878006</v>
       </c>
       <c r="G30" t="n">
         <v>2575501900</v>
@@ -2925,10 +2925,10 @@
         <v>0.007893000000000001</v>
       </c>
       <c r="K30" t="n">
-        <v>-0.00081</v>
+        <v>-0.000811</v>
       </c>
       <c r="L30" t="n">
-        <v>0.00081</v>
+        <v>0.000811</v>
       </c>
       <c r="M30" t="n">
         <v>333553435000</v>
@@ -2984,22 +2984,22 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>41.024595</v>
+        <v>41.024591</v>
       </c>
       <c r="D31" t="n">
         <v>41.350046</v>
       </c>
       <c r="E31" t="n">
-        <v>39.800243</v>
+        <v>39.800221</v>
       </c>
       <c r="F31" t="n">
-        <v>41.073906</v>
+        <v>41.073917</v>
       </c>
       <c r="G31" t="n">
         <v>2815209900</v>
       </c>
       <c r="H31" t="n">
-        <v>0.004792</v>
+        <v>0.004793</v>
       </c>
       <c r="I31" t="n">
         <v>0.003065</v>
@@ -3008,10 +3008,10 @@
         <v>0.008217</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001727</v>
+        <v>0.001728</v>
       </c>
       <c r="L31" t="n">
-        <v>0.001727</v>
+        <v>0.001728</v>
       </c>
       <c r="M31" t="n">
         <v>333553435000</v>
@@ -3067,16 +3067,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>41.168842</v>
+        <v>41.168831</v>
       </c>
       <c r="D32" t="n">
-        <v>43.714391</v>
+        <v>43.714383</v>
       </c>
       <c r="E32" t="n">
-        <v>40.927216</v>
+        <v>40.927223</v>
       </c>
       <c r="F32" t="n">
-        <v>41.013504</v>
+        <v>41.013512</v>
       </c>
       <c r="G32" t="n">
         <v>2780452500</v>
@@ -3153,13 +3153,13 @@
         <v>40.892703</v>
       </c>
       <c r="D33" t="n">
-        <v>42.333745</v>
+        <v>42.333756</v>
       </c>
       <c r="E33" t="n">
-        <v>38.304013</v>
+        <v>38.303998</v>
       </c>
       <c r="F33" t="n">
-        <v>42.169792</v>
+        <v>42.169804</v>
       </c>
       <c r="G33" t="n">
         <v>3835583500</v>
@@ -3233,16 +3233,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.221571</v>
+        <v>42.221575</v>
       </c>
       <c r="D34" t="n">
-        <v>44.617728</v>
+        <v>44.617736</v>
       </c>
       <c r="E34" t="n">
-        <v>41.25513</v>
+        <v>41.255138</v>
       </c>
       <c r="F34" t="n">
-        <v>44.384624</v>
+        <v>44.384632</v>
       </c>
       <c r="G34" t="n">
         <v>1980639900</v>
@@ -3316,16 +3316,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44.419154</v>
+        <v>44.419173</v>
       </c>
       <c r="D35" t="n">
-        <v>47.544472</v>
+        <v>47.544468</v>
       </c>
       <c r="E35" t="n">
-        <v>44.324195</v>
+        <v>44.324177</v>
       </c>
       <c r="F35" t="n">
-        <v>47.509937</v>
+        <v>47.509933</v>
       </c>
       <c r="G35" t="n">
         <v>3400285100</v>
@@ -3340,10 +3340,10 @@
         <v>0.012246</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.000299</v>
+        <v>-0.0003</v>
       </c>
       <c r="L35" t="n">
-        <v>0.000299</v>
+        <v>0.0003</v>
       </c>
       <c r="M35" t="n">
         <v>333553435000</v>
@@ -3405,16 +3405,16 @@
         <v>47.285466</v>
       </c>
       <c r="E36" t="n">
-        <v>42.001781</v>
+        <v>42.001796</v>
       </c>
       <c r="F36" t="n">
-        <v>44.298275</v>
+        <v>44.298294</v>
       </c>
       <c r="G36" t="n">
         <v>4567776300</v>
       </c>
       <c r="H36" t="n">
-        <v>-0.06759999999999999</v>
+        <v>-0.06759900000000001</v>
       </c>
       <c r="I36" t="n">
         <v>-0.066941</v>
@@ -3423,10 +3423,10 @@
         <v>0.020136</v>
       </c>
       <c r="K36" t="n">
-        <v>-0.000659</v>
+        <v>-0.0006579999999999999</v>
       </c>
       <c r="L36" t="n">
-        <v>0.000659</v>
+        <v>0.0006579999999999999</v>
       </c>
       <c r="M36" t="n">
         <v>333553435000</v>
@@ -3482,22 +3482,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>44.108338</v>
+        <v>44.108353</v>
       </c>
       <c r="D37" t="n">
-        <v>45.619205</v>
+        <v>45.619213</v>
       </c>
       <c r="E37" t="n">
-        <v>42.459363</v>
+        <v>42.459352</v>
       </c>
       <c r="F37" t="n">
-        <v>44.266682</v>
+        <v>44.26667</v>
       </c>
       <c r="G37" t="n">
         <v>2233867700</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.000713</v>
+        <v>-0.000714</v>
       </c>
       <c r="I37" t="n">
         <v>-0.001996</v>
@@ -3506,10 +3506,10 @@
         <v>0.013125</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001283</v>
+        <v>0.001282</v>
       </c>
       <c r="L37" t="n">
-        <v>0.001283</v>
+        <v>0.001282</v>
       </c>
       <c r="M37" t="n">
         <v>333553435000</v>
@@ -3565,16 +3565,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.309899</v>
+        <v>44.309883</v>
       </c>
       <c r="D38" t="n">
-        <v>44.482749</v>
+        <v>44.482733</v>
       </c>
       <c r="E38" t="n">
-        <v>35.961277</v>
+        <v>35.961284</v>
       </c>
       <c r="F38" t="n">
-        <v>39.003437</v>
+        <v>39.003429</v>
       </c>
       <c r="G38" t="n">
         <v>4828694600</v>
@@ -3648,22 +3648,22 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39.323188</v>
+        <v>39.323207</v>
       </c>
       <c r="D39" t="n">
-        <v>39.651603</v>
+        <v>39.651622</v>
       </c>
       <c r="E39" t="n">
-        <v>36.427977</v>
+        <v>36.427969</v>
       </c>
       <c r="F39" t="n">
-        <v>37.119347</v>
+        <v>37.119373</v>
       </c>
       <c r="G39" t="n">
         <v>3020516600</v>
       </c>
       <c r="H39" t="n">
-        <v>-0.048306</v>
+        <v>-0.048305</v>
       </c>
       <c r="I39" t="n">
         <v>-0.052215</v>
@@ -3672,10 +3672,10 @@
         <v>0.014387</v>
       </c>
       <c r="K39" t="n">
-        <v>0.003909</v>
+        <v>0.00391</v>
       </c>
       <c r="L39" t="n">
-        <v>0.003909</v>
+        <v>0.00391</v>
       </c>
       <c r="M39" t="n">
         <v>333553435000</v>
@@ -3731,22 +3731,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37.093446</v>
+        <v>37.093434</v>
       </c>
       <c r="D40" t="n">
         <v>38.982009</v>
       </c>
       <c r="E40" t="n">
-        <v>35.4773</v>
+        <v>35.477312</v>
       </c>
       <c r="F40" t="n">
-        <v>37.814369</v>
+        <v>37.814346</v>
       </c>
       <c r="G40" t="n">
         <v>3404279700</v>
       </c>
       <c r="H40" t="n">
-        <v>0.018724</v>
+        <v>0.018723</v>
       </c>
       <c r="I40" t="n">
         <v>0.021005</v>
@@ -3755,10 +3755,10 @@
         <v>0.021003</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.002281</v>
+        <v>-0.002283</v>
       </c>
       <c r="L40" t="n">
-        <v>0.002281</v>
+        <v>0.002283</v>
       </c>
       <c r="M40" t="n">
         <v>333553435000</v>
@@ -3814,16 +3814,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38.419822</v>
+        <v>38.41981</v>
       </c>
       <c r="D41" t="n">
-        <v>41.56812</v>
+        <v>41.568113</v>
       </c>
       <c r="E41" t="n">
-        <v>37.779776</v>
+        <v>37.779768</v>
       </c>
       <c r="F41" t="n">
-        <v>40.832935</v>
+        <v>40.832928</v>
       </c>
       <c r="G41" t="n">
         <v>2616810900</v>
@@ -3838,10 +3838,10 @@
         <v>0.01599</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003633</v>
+        <v>0.003634</v>
       </c>
       <c r="L41" t="n">
-        <v>0.003633</v>
+        <v>0.003634</v>
       </c>
       <c r="M41" t="n">
         <v>333553435000</v>
@@ -3897,22 +3897,22 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.850231</v>
+        <v>40.850242</v>
       </c>
       <c r="D42" t="n">
-        <v>43.652583</v>
+        <v>43.652587</v>
       </c>
       <c r="E42" t="n">
-        <v>40.841583</v>
+        <v>40.841594</v>
       </c>
       <c r="F42" t="n">
-        <v>43.254707</v>
+        <v>43.254723</v>
       </c>
       <c r="G42" t="n">
         <v>2682797700</v>
       </c>
       <c r="H42" t="n">
-        <v>0.059309</v>
+        <v>0.05931</v>
       </c>
       <c r="I42" t="n">
         <v>0.0599</v>
@@ -3921,10 +3921,10 @@
         <v>0.012616</v>
       </c>
       <c r="K42" t="n">
-        <v>-0.0005910000000000001</v>
+        <v>-0.00059</v>
       </c>
       <c r="L42" t="n">
-        <v>0.0005910000000000001</v>
+        <v>0.00059</v>
       </c>
       <c r="M42" t="n">
         <v>333553435000</v>
@@ -3980,16 +3980,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>43.176856</v>
+        <v>43.176887</v>
       </c>
       <c r="D43" t="n">
-        <v>43.773668</v>
+        <v>43.773675</v>
       </c>
       <c r="E43" t="n">
         <v>38.922658</v>
       </c>
       <c r="F43" t="n">
-        <v>39.095745</v>
+        <v>39.095718</v>
       </c>
       <c r="G43" t="n">
         <v>3542909100</v>
@@ -4004,10 +4004,10 @@
         <v>0.016738</v>
       </c>
       <c r="K43" t="n">
-        <v>2.3e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="L43" t="n">
-        <v>2.3e-05</v>
+        <v>2.2e-05</v>
       </c>
       <c r="M43" t="n">
         <v>333553435000</v>
@@ -4063,16 +4063,16 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>38.784164</v>
+        <v>38.784168</v>
       </c>
       <c r="D44" t="n">
-        <v>39.943974</v>
+        <v>39.943966</v>
       </c>
       <c r="E44" t="n">
         <v>37.477218</v>
       </c>
       <c r="F44" t="n">
-        <v>39.34676</v>
+        <v>39.346752</v>
       </c>
       <c r="G44" t="n">
         <v>3953264300</v>
@@ -4149,13 +4149,13 @@
         <v>39.390039</v>
       </c>
       <c r="D45" t="n">
-        <v>42.038531</v>
+        <v>42.038539</v>
       </c>
       <c r="E45" t="n">
         <v>38.34275</v>
       </c>
       <c r="F45" t="n">
-        <v>39.917995</v>
+        <v>39.918003</v>
       </c>
       <c r="G45" t="n">
         <v>2893866300</v>
@@ -4229,16 +4229,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40.567145</v>
+        <v>40.567152</v>
       </c>
       <c r="D46" t="n">
-        <v>40.748907</v>
+        <v>40.748915</v>
       </c>
       <c r="E46" t="n">
-        <v>32.201909</v>
+        <v>32.201902</v>
       </c>
       <c r="F46" t="n">
-        <v>33.70026</v>
+        <v>33.700268</v>
       </c>
       <c r="G46" t="n">
         <v>5188670400</v>
@@ -4318,10 +4318,10 @@
         <v>33.752241</v>
       </c>
       <c r="E47" t="n">
-        <v>24.328974</v>
+        <v>24.328985</v>
       </c>
       <c r="F47" t="n">
-        <v>28.486307</v>
+        <v>28.486301</v>
       </c>
       <c r="G47" t="n">
         <v>7240779800</v>
@@ -4336,10 +4336,10 @@
         <v>0.050567</v>
       </c>
       <c r="K47" t="n">
-        <v>0.008238000000000001</v>
+        <v>0.008237</v>
       </c>
       <c r="L47" t="n">
-        <v>0.008238000000000001</v>
+        <v>0.008237</v>
       </c>
       <c r="M47" t="n">
         <v>333553435000</v>
@@ -4395,16 +4395,16 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28.417007</v>
+        <v>28.417022</v>
       </c>
       <c r="D48" t="n">
-        <v>29.456348</v>
+        <v>29.45634</v>
       </c>
       <c r="E48" t="n">
-        <v>21.696012</v>
+        <v>21.696006</v>
       </c>
       <c r="F48" t="n">
-        <v>25.221075</v>
+        <v>25.221073</v>
       </c>
       <c r="G48" t="n">
         <v>3919285900</v>
@@ -4478,16 +4478,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24.684083</v>
+        <v>24.684087</v>
       </c>
       <c r="D49" t="n">
-        <v>26.702118</v>
+        <v>26.702119</v>
       </c>
       <c r="E49" t="n">
-        <v>23.246343</v>
+        <v>23.246334</v>
       </c>
       <c r="F49" t="n">
-        <v>25.795458</v>
+        <v>25.79546</v>
       </c>
       <c r="G49" t="n">
         <v>2944238700</v>
@@ -4561,16 +4561,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25.804124</v>
+        <v>25.804122</v>
       </c>
       <c r="D50" t="n">
         <v>27.434773</v>
       </c>
       <c r="E50" t="n">
-        <v>24.251541</v>
+        <v>24.251537</v>
       </c>
       <c r="F50" t="n">
-        <v>25.205643</v>
+        <v>25.205647</v>
       </c>
       <c r="G50" t="n">
         <v>2829542600</v>
@@ -4644,22 +4644,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24.962784</v>
+        <v>24.962786</v>
       </c>
       <c r="D51" t="n">
-        <v>27.47814</v>
+        <v>27.478144</v>
       </c>
       <c r="E51" t="n">
-        <v>23.75715</v>
+        <v>23.757144</v>
       </c>
       <c r="F51" t="n">
-        <v>23.878582</v>
+        <v>23.878576</v>
       </c>
       <c r="G51" t="n">
         <v>3324074200</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.052649</v>
+        <v>-0.05265</v>
       </c>
       <c r="I51" t="n">
         <v>-0.053599</v>
@@ -4727,16 +4727,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23.522954</v>
+        <v>23.522952</v>
       </c>
       <c r="D52" t="n">
-        <v>27.332443</v>
+        <v>27.332454</v>
       </c>
       <c r="E52" t="n">
-        <v>22.230574</v>
+        <v>22.23058</v>
       </c>
       <c r="F52" t="n">
-        <v>26.342018</v>
+        <v>26.342016</v>
       </c>
       <c r="G52" t="n">
         <v>3805123800</v>
@@ -4810,22 +4810,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>26.011875</v>
+        <v>26.011873</v>
       </c>
       <c r="D53" t="n">
-        <v>30.321112</v>
+        <v>30.32112</v>
       </c>
       <c r="E53" t="n">
-        <v>25.881555</v>
+        <v>25.881553</v>
       </c>
       <c r="F53" t="n">
-        <v>29.782454</v>
+        <v>29.782461</v>
       </c>
       <c r="G53" t="n">
         <v>2991632100</v>
       </c>
       <c r="H53" t="n">
-        <v>0.130606</v>
+        <v>0.130607</v>
       </c>
       <c r="I53" t="n">
         <v>0.127178</v>
@@ -4893,16 +4893,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29.773767</v>
+        <v>29.773778</v>
       </c>
       <c r="D54" t="n">
-        <v>30.842389</v>
+        <v>30.842395</v>
       </c>
       <c r="E54" t="n">
-        <v>28.63564</v>
+        <v>28.635653</v>
       </c>
       <c r="F54" t="n">
-        <v>30.738134</v>
+        <v>30.73814</v>
       </c>
       <c r="G54" t="n">
         <v>2734076200</v>
@@ -4976,16 +4976,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31.06829</v>
+        <v>31.068286</v>
       </c>
       <c r="D55" t="n">
-        <v>32.34543</v>
+        <v>32.345441</v>
       </c>
       <c r="E55" t="n">
-        <v>30.245333</v>
+        <v>30.245329</v>
       </c>
       <c r="F55" t="n">
-        <v>31.645811</v>
+        <v>31.645821</v>
       </c>
       <c r="G55" t="n">
         <v>2511948000</v>
@@ -5059,22 +5059,22 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31.802394</v>
+        <v>31.802387</v>
       </c>
       <c r="D56" t="n">
-        <v>34.951313</v>
+        <v>34.95132</v>
       </c>
       <c r="E56" t="n">
-        <v>29.836488</v>
+        <v>29.836486</v>
       </c>
       <c r="F56" t="n">
-        <v>34.31633</v>
+        <v>34.316311</v>
       </c>
       <c r="G56" t="n">
         <v>2575607800</v>
       </c>
       <c r="H56" t="n">
-        <v>0.084388</v>
+        <v>0.084387</v>
       </c>
       <c r="I56" t="n">
         <v>0.085368</v>
@@ -5083,10 +5083,10 @@
         <v>0.012816</v>
       </c>
       <c r="K56" t="n">
-        <v>-0.00098</v>
+        <v>-0.0009810000000000001</v>
       </c>
       <c r="L56" t="n">
-        <v>0.00098</v>
+        <v>0.0009810000000000001</v>
       </c>
       <c r="M56" t="n">
         <v>333553435000</v>
@@ -5142,16 +5142,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34.681657</v>
+        <v>34.681649</v>
       </c>
       <c r="D57" t="n">
-        <v>35.734217</v>
+        <v>35.73419</v>
       </c>
       <c r="E57" t="n">
         <v>33.455144</v>
       </c>
       <c r="F57" t="n">
-        <v>34.820839</v>
+        <v>34.820831</v>
       </c>
       <c r="G57" t="n">
         <v>2248149500</v>
@@ -5228,13 +5228,13 @@
         <v>34.699054</v>
       </c>
       <c r="D58" t="n">
-        <v>37.588564</v>
+        <v>37.588575</v>
       </c>
       <c r="E58" t="n">
-        <v>33.94227</v>
+        <v>33.942274</v>
       </c>
       <c r="F58" t="n">
-        <v>36.787506</v>
+        <v>36.787514</v>
       </c>
       <c r="G58" t="n">
         <v>2114774900</v>
@@ -5249,10 +5249,10 @@
         <v>0.009211</v>
       </c>
       <c r="K58" t="n">
-        <v>-0.001237</v>
+        <v>-0.001236</v>
       </c>
       <c r="L58" t="n">
-        <v>0.001237</v>
+        <v>0.001236</v>
       </c>
       <c r="M58" t="n">
         <v>333553435000</v>
@@ -5308,22 +5308,22 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36.656903</v>
+        <v>36.656888</v>
       </c>
       <c r="D59" t="n">
-        <v>38.154538</v>
+        <v>38.154518</v>
       </c>
       <c r="E59" t="n">
-        <v>35.455318</v>
+        <v>35.455329</v>
       </c>
       <c r="F59" t="n">
-        <v>35.664288</v>
+        <v>35.664299</v>
       </c>
       <c r="G59" t="n">
         <v>2291065900</v>
       </c>
       <c r="H59" t="n">
-        <v>-0.030533</v>
+        <v>-0.030532</v>
       </c>
       <c r="I59" t="n">
         <v>-0.030169</v>
@@ -5391,13 +5391,13 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.699143</v>
+        <v>35.699112</v>
       </c>
       <c r="D60" t="n">
-        <v>38.877198</v>
+        <v>38.877202</v>
       </c>
       <c r="E60" t="n">
-        <v>35.385686</v>
+        <v>35.385656</v>
       </c>
       <c r="F60" t="n">
         <v>37.92815</v>
@@ -5415,10 +5415,10 @@
         <v>0.010378</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003314</v>
+        <v>0.003313</v>
       </c>
       <c r="L60" t="n">
-        <v>0.003314</v>
+        <v>0.003313</v>
       </c>
       <c r="M60" t="n">
         <v>333553435000</v>
@@ -5474,16 +5474,16 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>38.215466</v>
+        <v>38.215492</v>
       </c>
       <c r="D61" t="n">
-        <v>40.381142</v>
+        <v>40.381157</v>
       </c>
       <c r="E61" t="n">
         <v>37.719167</v>
       </c>
       <c r="F61" t="n">
-        <v>39.901478</v>
+        <v>39.901463</v>
       </c>
       <c r="G61" t="n">
         <v>1524036700</v>
@@ -5557,16 +5557,16 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40.407322</v>
+        <v>40.407325</v>
       </c>
       <c r="D62" t="n">
-        <v>40.677695</v>
+        <v>40.67769</v>
       </c>
       <c r="E62" t="n">
-        <v>37.180305</v>
+        <v>37.180297</v>
       </c>
       <c r="F62" t="n">
-        <v>37.319851</v>
+        <v>37.319843</v>
       </c>
       <c r="G62" t="n">
         <v>2382152500</v>
@@ -5640,16 +5640,16 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37.415799</v>
+        <v>37.415806</v>
       </c>
       <c r="D63" t="n">
-        <v>39.290945</v>
+        <v>39.29096</v>
       </c>
       <c r="E63" t="n">
-        <v>36.735504</v>
+        <v>36.735519</v>
       </c>
       <c r="F63" t="n">
-        <v>39.038021</v>
+        <v>39.038029</v>
       </c>
       <c r="G63" t="n">
         <v>1932176400</v>
@@ -5723,16 +5723,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>39.212472</v>
+        <v>39.212457</v>
       </c>
       <c r="D64" t="n">
-        <v>42.432362</v>
+        <v>42.43237</v>
       </c>
       <c r="E64" t="n">
-        <v>39.203752</v>
+        <v>39.203737</v>
       </c>
       <c r="F64" t="n">
-        <v>42.048206</v>
+        <v>42.048222</v>
       </c>
       <c r="G64" t="n">
         <v>1623606900</v>
@@ -5806,16 +5806,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42.222826</v>
+        <v>42.222841</v>
       </c>
       <c r="D65" t="n">
-        <v>44.222213</v>
+        <v>44.222216</v>
       </c>
       <c r="E65" t="n">
-        <v>41.725162</v>
+        <v>41.725178</v>
       </c>
       <c r="F65" t="n">
-        <v>42.991146</v>
+        <v>42.991169</v>
       </c>
       <c r="G65" t="n">
         <v>1701457500</v>
@@ -5830,10 +5830,10 @@
         <v>0.00941</v>
       </c>
       <c r="K65" t="n">
-        <v>0.00083</v>
+        <v>0.000831</v>
       </c>
       <c r="L65" t="n">
-        <v>0.00083</v>
+        <v>0.000831</v>
       </c>
       <c r="M65" t="n">
         <v>333553435000</v>
@@ -5889,22 +5889,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>43.174513</v>
+        <v>43.174494</v>
       </c>
       <c r="D66" t="n">
-        <v>43.803138</v>
+        <v>43.803119</v>
       </c>
       <c r="E66" t="n">
-        <v>37.228715</v>
+        <v>37.228739</v>
       </c>
       <c r="F66" t="n">
-        <v>39.813095</v>
+        <v>39.813103</v>
       </c>
       <c r="G66" t="n">
         <v>2952228100</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.073923</v>
+        <v>-0.073924</v>
       </c>
       <c r="I66" t="n">
         <v>-0.074097</v>
@@ -5975,13 +5975,13 @@
         <v>39.664669</v>
       </c>
       <c r="D67" t="n">
-        <v>41.708025</v>
+        <v>41.708028</v>
       </c>
       <c r="E67" t="n">
-        <v>37.372626</v>
+        <v>37.372642</v>
       </c>
       <c r="F67" t="n">
-        <v>37.433979</v>
+        <v>37.433994</v>
       </c>
       <c r="G67" t="n">
         <v>2058088600</v>
@@ -6055,22 +6055,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37.547933</v>
+        <v>37.547917</v>
       </c>
       <c r="D68" t="n">
-        <v>40.948616</v>
+        <v>40.948624</v>
       </c>
       <c r="E68" t="n">
-        <v>36.610111</v>
+        <v>36.610096</v>
       </c>
       <c r="F68" t="n">
-        <v>40.151043</v>
+        <v>40.151047</v>
       </c>
       <c r="G68" t="n">
         <v>1748673600</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07258299999999999</v>
+        <v>0.07258199999999999</v>
       </c>
       <c r="I68" t="n">
         <v>0.071794</v>
@@ -6079,10 +6079,10 @@
         <v>0.012576</v>
       </c>
       <c r="K68" t="n">
-        <v>0.000789</v>
+        <v>0.000788</v>
       </c>
       <c r="L68" t="n">
-        <v>0.000789</v>
+        <v>0.000788</v>
       </c>
       <c r="M68" t="n">
         <v>333553435000</v>
@@ -6138,16 +6138,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40.659375</v>
+        <v>40.659398</v>
       </c>
       <c r="D69" t="n">
-        <v>41.360561</v>
+        <v>41.360569</v>
       </c>
       <c r="E69" t="n">
-        <v>37.661888</v>
+        <v>37.66187</v>
       </c>
       <c r="F69" t="n">
-        <v>38.091351</v>
+        <v>38.091328</v>
       </c>
       <c r="G69" t="n">
         <v>1483278100</v>
@@ -6221,16 +6221,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38.652274</v>
+        <v>38.652267</v>
       </c>
       <c r="D70" t="n">
-        <v>43.785505</v>
+        <v>43.785493</v>
       </c>
       <c r="E70" t="n">
-        <v>38.625981</v>
+        <v>38.625974</v>
       </c>
       <c r="F70" t="n">
-        <v>43.109043</v>
+        <v>43.109032</v>
       </c>
       <c r="G70" t="n">
         <v>1574743200</v>
@@ -6245,10 +6245,10 @@
         <v>0.009802</v>
       </c>
       <c r="K70" t="n">
-        <v>0.00125</v>
+        <v>0.001251</v>
       </c>
       <c r="L70" t="n">
-        <v>0.00125</v>
+        <v>0.001251</v>
       </c>
       <c r="M70" t="n">
         <v>333553435000</v>
@@ -6304,16 +6304,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>43.469242</v>
+        <v>43.469234</v>
       </c>
       <c r="D71" t="n">
-        <v>46.113579</v>
+        <v>46.113587</v>
       </c>
       <c r="E71" t="n">
-        <v>42.344732</v>
+        <v>42.344736</v>
       </c>
       <c r="F71" t="n">
-        <v>45.841236</v>
+        <v>45.841244</v>
       </c>
       <c r="G71" t="n">
         <v>1538354800</v>
@@ -6387,16 +6387,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>46.008157</v>
+        <v>46.008176</v>
       </c>
       <c r="D72" t="n">
-        <v>47.475302</v>
+        <v>47.47529</v>
       </c>
       <c r="E72" t="n">
-        <v>44.672813</v>
+        <v>44.672817</v>
       </c>
       <c r="F72" t="n">
-        <v>45.76218</v>
+        <v>45.762184</v>
       </c>
       <c r="G72" t="n">
         <v>1564994700</v>
@@ -6470,16 +6470,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46.43864</v>
+        <v>46.438643</v>
       </c>
       <c r="D73" t="n">
-        <v>48.379276</v>
+        <v>48.379253</v>
       </c>
       <c r="E73" t="n">
-        <v>46.421069</v>
+        <v>46.421073</v>
       </c>
       <c r="F73" t="n">
-        <v>47.939133</v>
+        <v>47.939144</v>
       </c>
       <c r="G73" t="n">
         <v>1006766900</v>
@@ -6494,10 +6494,10 @@
         <v>0.005754</v>
       </c>
       <c r="K73" t="n">
-        <v>9.1e-05</v>
+        <v>9.2e-05</v>
       </c>
       <c r="L73" t="n">
-        <v>9.1e-05</v>
+        <v>9.2e-05</v>
       </c>
       <c r="M73" t="n">
         <v>333553435000</v>
@@ -6553,22 +6553,22 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>48.388073</v>
+        <v>48.388077</v>
       </c>
       <c r="D74" t="n">
         <v>50.483097</v>
       </c>
       <c r="E74" t="n">
-        <v>48.344063</v>
+        <v>48.344051</v>
       </c>
       <c r="F74" t="n">
-        <v>49.294739</v>
+        <v>49.294743</v>
       </c>
       <c r="G74" t="n">
         <v>1265608600</v>
       </c>
       <c r="H74" t="n">
-        <v>0.028278</v>
+        <v>0.028277</v>
       </c>
       <c r="I74" t="n">
         <v>0.028879</v>
@@ -6577,10 +6577,10 @@
         <v>0.00924</v>
       </c>
       <c r="K74" t="n">
-        <v>-0.000601</v>
+        <v>-0.000602</v>
       </c>
       <c r="L74" t="n">
-        <v>0.000601</v>
+        <v>0.000602</v>
       </c>
       <c r="M74" t="n">
         <v>333553435000</v>
@@ -6636,16 +6636,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>49.66445</v>
+        <v>49.664454</v>
       </c>
       <c r="D75" t="n">
-        <v>51.970745</v>
+        <v>51.970729</v>
       </c>
       <c r="E75" t="n">
-        <v>49.409168</v>
+        <v>49.409187</v>
       </c>
       <c r="F75" t="n">
-        <v>50.852814</v>
+        <v>50.852802</v>
       </c>
       <c r="G75" t="n">
         <v>1101561900</v>
@@ -6719,22 +6719,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>51.072868</v>
+        <v>51.072864</v>
       </c>
       <c r="D76" t="n">
-        <v>51.380963</v>
+        <v>51.380959</v>
       </c>
       <c r="E76" t="n">
-        <v>47.331751</v>
+        <v>47.331759</v>
       </c>
       <c r="F76" t="n">
-        <v>50.624847</v>
+        <v>50.624866</v>
       </c>
       <c r="G76" t="n">
         <v>1729243300</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.004483</v>
+        <v>-0.004482</v>
       </c>
       <c r="I76" t="n">
         <v>-0.005104</v>
@@ -6743,10 +6743,10 @@
         <v>0.011714</v>
       </c>
       <c r="K76" t="n">
-        <v>0.000621</v>
+        <v>0.000622</v>
       </c>
       <c r="L76" t="n">
-        <v>0.000621</v>
+        <v>0.000622</v>
       </c>
       <c r="M76" t="n">
         <v>333553435000</v>
@@ -6802,22 +6802,22 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>50.880492</v>
+        <v>50.880476</v>
       </c>
       <c r="D77" t="n">
-        <v>52.264453</v>
+        <v>52.264449</v>
       </c>
       <c r="E77" t="n">
-        <v>48.764867</v>
+        <v>48.764875</v>
       </c>
       <c r="F77" t="n">
-        <v>52.079338</v>
+        <v>52.079323</v>
       </c>
       <c r="G77" t="n">
         <v>1032891200</v>
       </c>
       <c r="H77" t="n">
-        <v>0.028731</v>
+        <v>0.02873</v>
       </c>
       <c r="I77" t="n">
         <v>0.027828</v>
@@ -6885,16 +6885,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52.158671</v>
+        <v>52.158655</v>
       </c>
       <c r="D78" t="n">
-        <v>52.308528</v>
+        <v>52.308513</v>
       </c>
       <c r="E78" t="n">
-        <v>49.778591</v>
+        <v>49.778607</v>
       </c>
       <c r="F78" t="n">
-        <v>51.444645</v>
+        <v>51.444637</v>
       </c>
       <c r="G78" t="n">
         <v>1054622500</v>
@@ -6974,10 +6974,10 @@
         <v>51.444646</v>
       </c>
       <c r="E79" t="n">
-        <v>47.266308</v>
+        <v>47.266296</v>
       </c>
       <c r="F79" t="n">
-        <v>50.402645</v>
+        <v>50.402637</v>
       </c>
       <c r="G79" t="n">
         <v>1155628500</v>
@@ -7051,16 +7051,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50.429149</v>
+        <v>50.429145</v>
       </c>
       <c r="D80" t="n">
-        <v>52.858742</v>
+        <v>52.858727</v>
       </c>
       <c r="E80" t="n">
         <v>50.243617</v>
       </c>
       <c r="F80" t="n">
-        <v>51.241962</v>
+        <v>51.241947</v>
       </c>
       <c r="G80" t="n">
         <v>1277418400</v>
@@ -7134,16 +7134,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>51.860401</v>
+        <v>51.860389</v>
       </c>
       <c r="D81" t="n">
-        <v>51.966417</v>
+        <v>51.966406</v>
       </c>
       <c r="E81" t="n">
-        <v>44.112255</v>
+        <v>44.112258</v>
       </c>
       <c r="F81" t="n">
-        <v>48.644539</v>
+        <v>48.64452</v>
       </c>
       <c r="G81" t="n">
         <v>2526145600</v>
@@ -7217,16 +7217,16 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>48.768194</v>
+        <v>48.76821</v>
       </c>
       <c r="D82" t="n">
-        <v>50.761666</v>
+        <v>50.761651</v>
       </c>
       <c r="E82" t="n">
-        <v>45.861532</v>
+        <v>45.861544</v>
       </c>
       <c r="F82" t="n">
-        <v>46.45998</v>
+        <v>46.459965</v>
       </c>
       <c r="G82" t="n">
         <v>1666877800</v>
@@ -7300,16 +7300,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>46.043971</v>
+        <v>46.043979</v>
       </c>
       <c r="D83" t="n">
-        <v>52.399142</v>
+        <v>52.399138</v>
       </c>
       <c r="E83" t="n">
-        <v>44.344537</v>
+        <v>44.344533</v>
       </c>
       <c r="F83" t="n">
-        <v>51.292736</v>
+        <v>51.292732</v>
       </c>
       <c r="G83" t="n">
         <v>1616785100</v>
@@ -7383,16 +7383,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>50.027019</v>
+        <v>50.027003</v>
       </c>
       <c r="D84" t="n">
-        <v>52.204413</v>
+        <v>52.20442</v>
       </c>
       <c r="E84" t="n">
         <v>46.79633</v>
       </c>
       <c r="F84" t="n">
-        <v>49.911942</v>
+        <v>49.911949</v>
       </c>
       <c r="G84" t="n">
         <v>1295070500</v>
@@ -7466,16 +7466,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>49.903091</v>
+        <v>49.90308</v>
       </c>
       <c r="D85" t="n">
-        <v>51.000658</v>
+        <v>51.000646</v>
       </c>
       <c r="E85" t="n">
-        <v>48.088412</v>
+        <v>48.088408</v>
       </c>
       <c r="F85" t="n">
-        <v>49.605389</v>
+        <v>49.605392</v>
       </c>
       <c r="G85" t="n">
         <v>1004361600</v>
@@ -7549,16 +7549,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>50.564986</v>
+        <v>50.564975</v>
       </c>
       <c r="D86" t="n">
-        <v>54.074593</v>
+        <v>54.07457</v>
       </c>
       <c r="E86" t="n">
-        <v>50.254004</v>
+        <v>50.253996</v>
       </c>
       <c r="F86" t="n">
-        <v>53.781384</v>
+        <v>53.781361</v>
       </c>
       <c r="G86" t="n">
         <v>828883900</v>
@@ -7573,10 +7573,10 @@
         <v>0.006281</v>
       </c>
       <c r="K86" t="n">
-        <v>0.000719</v>
+        <v>0.000718</v>
       </c>
       <c r="L86" t="n">
-        <v>0.000719</v>
+        <v>0.000718</v>
       </c>
       <c r="M86" t="n">
         <v>333553435000</v>
@@ -7632,22 +7632,22 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>54.092361</v>
+        <v>54.092364</v>
       </c>
       <c r="D87" t="n">
-        <v>57.717469</v>
+        <v>57.717477</v>
       </c>
       <c r="E87" t="n">
-        <v>53.896888</v>
+        <v>53.896892</v>
       </c>
       <c r="F87" t="n">
-        <v>57.228794</v>
+        <v>57.228802</v>
       </c>
       <c r="G87" t="n">
         <v>1018602500</v>
       </c>
       <c r="H87" t="n">
-        <v>0.0641</v>
+        <v>0.06410100000000001</v>
       </c>
       <c r="I87" t="n">
         <v>0.06286600000000001</v>
@@ -7656,10 +7656,10 @@
         <v>0.006194</v>
       </c>
       <c r="K87" t="n">
-        <v>0.001234</v>
+        <v>0.001235</v>
       </c>
       <c r="L87" t="n">
-        <v>0.001234</v>
+        <v>0.001235</v>
       </c>
       <c r="M87" t="n">
         <v>333553435000</v>
@@ -7715,13 +7715,13 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>57.442017</v>
+        <v>57.442029</v>
       </c>
       <c r="D88" t="n">
-        <v>60.975006</v>
+        <v>60.975021</v>
       </c>
       <c r="E88" t="n">
-        <v>56.180341</v>
+        <v>56.180348</v>
       </c>
       <c r="F88" t="n">
         <v>60.120602</v>
@@ -7730,7 +7730,7 @@
         <v>1070054300</v>
       </c>
       <c r="H88" t="n">
-        <v>0.050531</v>
+        <v>0.05053</v>
       </c>
       <c r="I88" t="n">
         <v>0.050387</v>
@@ -7798,16 +7798,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>60.058271</v>
+        <v>60.058286</v>
       </c>
       <c r="D89" t="n">
         <v>61.01062</v>
       </c>
       <c r="E89" t="n">
-        <v>57.361542</v>
+        <v>57.361534</v>
       </c>
       <c r="F89" t="n">
-        <v>59.417503</v>
+        <v>59.417477</v>
       </c>
       <c r="G89" t="n">
         <v>1056184900</v>
@@ -7822,10 +7822,10 @@
         <v>0.011802</v>
       </c>
       <c r="K89" t="n">
-        <v>-0.000229</v>
+        <v>-0.00023</v>
       </c>
       <c r="L89" t="n">
-        <v>0.000229</v>
+        <v>0.00023</v>
       </c>
       <c r="M89" t="n">
         <v>333553435000</v>
@@ -7881,22 +7881,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>59.355178</v>
+        <v>59.355189</v>
       </c>
       <c r="D90" t="n">
-        <v>60.191788</v>
+        <v>60.1918</v>
       </c>
       <c r="E90" t="n">
-        <v>54.077384</v>
+        <v>54.07738</v>
       </c>
       <c r="F90" t="n">
-        <v>55.234398</v>
+        <v>55.234402</v>
       </c>
       <c r="G90" t="n">
         <v>1300328800</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.07040200000000001</v>
+        <v>-0.07040100000000001</v>
       </c>
       <c r="I90" t="n">
         <v>-0.072993</v>
@@ -7905,10 +7905,10 @@
         <v>0.010437</v>
       </c>
       <c r="K90" t="n">
-        <v>0.002591</v>
+        <v>0.002592</v>
       </c>
       <c r="L90" t="n">
-        <v>0.002591</v>
+        <v>0.002592</v>
       </c>
       <c r="M90" t="n">
         <v>333553435000</v>
@@ -7964,22 +7964,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>54.237592</v>
+        <v>54.237588</v>
       </c>
       <c r="D91" t="n">
-        <v>57.600431</v>
+        <v>57.600423</v>
       </c>
       <c r="E91" t="n">
-        <v>53.43657</v>
+        <v>53.436562</v>
       </c>
       <c r="F91" t="n">
-        <v>57.234673</v>
+        <v>57.234692</v>
       </c>
       <c r="G91" t="n">
         <v>973815200</v>
       </c>
       <c r="H91" t="n">
-        <v>0.036214</v>
+        <v>0.036215</v>
       </c>
       <c r="I91" t="n">
         <v>0.035982</v>
@@ -7988,10 +7988,10 @@
         <v>0.015044</v>
       </c>
       <c r="K91" t="n">
-        <v>0.000232</v>
+        <v>0.000233</v>
       </c>
       <c r="L91" t="n">
-        <v>0.000232</v>
+        <v>0.000233</v>
       </c>
       <c r="M91" t="n">
         <v>333553435000</v>
@@ -8047,16 +8047,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>57.314978</v>
+        <v>57.31497</v>
       </c>
       <c r="D92" t="n">
-        <v>58.260548</v>
+        <v>58.260551</v>
       </c>
       <c r="E92" t="n">
-        <v>55.182928</v>
+        <v>55.182947</v>
       </c>
       <c r="F92" t="n">
-        <v>57.805595</v>
+        <v>57.805592</v>
       </c>
       <c r="G92" t="n">
         <v>860805100</v>
@@ -8071,10 +8071,10 @@
         <v>0.010673</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.000274</v>
+        <v>-0.000275</v>
       </c>
       <c r="L92" t="n">
-        <v>0.000274</v>
+        <v>0.000275</v>
       </c>
       <c r="M92" t="n">
         <v>333553435000</v>
@@ -8130,16 +8130,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>58.215958</v>
+        <v>58.21595</v>
       </c>
       <c r="D93" t="n">
-        <v>61.445204</v>
+        <v>61.445196</v>
       </c>
       <c r="E93" t="n">
-        <v>57.011668</v>
+        <v>57.011645</v>
       </c>
       <c r="F93" t="n">
-        <v>60.802914</v>
+        <v>60.802948</v>
       </c>
       <c r="G93" t="n">
         <v>679866200</v>
@@ -8154,10 +8154,10 @@
         <v>0.006344</v>
       </c>
       <c r="K93" t="n">
-        <v>0.002766</v>
+        <v>0.002767</v>
       </c>
       <c r="L93" t="n">
-        <v>0.002766</v>
+        <v>0.002767</v>
       </c>
       <c r="M93" t="n">
         <v>333553435000</v>
@@ -8213,16 +8213,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>60.686961</v>
+        <v>60.686942</v>
       </c>
       <c r="D94" t="n">
-        <v>63.105472</v>
+        <v>63.105499</v>
       </c>
       <c r="E94" t="n">
-        <v>60.142803</v>
+        <v>60.142784</v>
       </c>
       <c r="F94" t="n">
-        <v>61.343105</v>
+        <v>61.343109</v>
       </c>
       <c r="G94" t="n">
         <v>639521900</v>
@@ -8237,10 +8237,10 @@
         <v>0.009242999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.000837</v>
+        <v>-0.000838</v>
       </c>
       <c r="L94" t="n">
-        <v>0.000837</v>
+        <v>0.000838</v>
       </c>
       <c r="M94" t="n">
         <v>333553435000</v>
@@ -8299,13 +8299,13 @@
         <v>61.638316</v>
       </c>
       <c r="D95" t="n">
-        <v>62.443492</v>
+        <v>62.443484</v>
       </c>
       <c r="E95" t="n">
-        <v>57.836269</v>
+        <v>57.83625</v>
       </c>
       <c r="F95" t="n">
-        <v>58.104641</v>
+        <v>58.104637</v>
       </c>
       <c r="G95" t="n">
         <v>863124200</v>
@@ -8379,16 +8379,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>58.471423</v>
+        <v>58.471438</v>
       </c>
       <c r="D96" t="n">
-        <v>59.231843</v>
+        <v>59.23184</v>
       </c>
       <c r="E96" t="n">
         <v>54.848279</v>
       </c>
       <c r="F96" t="n">
-        <v>58.865063</v>
+        <v>58.865047</v>
       </c>
       <c r="G96" t="n">
         <v>901783900</v>
@@ -8403,10 +8403,10 @@
         <v>0.011191</v>
       </c>
       <c r="K96" t="n">
-        <v>0.001773</v>
+        <v>0.001772</v>
       </c>
       <c r="L96" t="n">
-        <v>0.001773</v>
+        <v>0.001772</v>
       </c>
       <c r="M96" t="n">
         <v>333553435000</v>
@@ -8462,22 +8462,22 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>59.321307</v>
+        <v>59.321296</v>
       </c>
       <c r="D97" t="n">
-        <v>59.723884</v>
+        <v>59.72388</v>
       </c>
       <c r="E97" t="n">
-        <v>57.195829</v>
+        <v>57.195822</v>
       </c>
       <c r="F97" t="n">
-        <v>58.590187</v>
+        <v>58.590179</v>
       </c>
       <c r="G97" t="n">
         <v>815856000</v>
       </c>
       <c r="H97" t="n">
-        <v>-0.00467</v>
+        <v>-0.004669</v>
       </c>
       <c r="I97" t="n">
         <v>-0.00633</v>
@@ -8545,16 +8545,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>60.029542</v>
+        <v>60.029527</v>
       </c>
       <c r="D98" t="n">
-        <v>60.983076</v>
+        <v>60.983099</v>
       </c>
       <c r="E98" t="n">
-        <v>59.525764</v>
+        <v>59.52576</v>
       </c>
       <c r="F98" t="n">
-        <v>60.155457</v>
+        <v>60.155487</v>
       </c>
       <c r="G98" t="n">
         <v>741836700</v>
@@ -8569,10 +8569,10 @@
         <v>0.008486</v>
       </c>
       <c r="K98" t="n">
-        <v>0.000183</v>
+        <v>0.000184</v>
       </c>
       <c r="L98" t="n">
-        <v>0.000183</v>
+        <v>0.000184</v>
       </c>
       <c r="M98" t="n">
         <v>333553435000</v>
@@ -8628,22 +8628,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>60.578298</v>
+        <v>60.578279</v>
       </c>
       <c r="D99" t="n">
-        <v>61.405916</v>
+        <v>61.405901</v>
       </c>
       <c r="E99" t="n">
-        <v>59.336873</v>
+        <v>59.336843</v>
       </c>
       <c r="F99" t="n">
-        <v>60.362389</v>
+        <v>60.362381</v>
       </c>
       <c r="G99" t="n">
         <v>656562100</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00344</v>
+        <v>0.003439</v>
       </c>
       <c r="I99" t="n">
         <v>0.002581</v>
@@ -8652,10 +8652,10 @@
         <v>0.009436</v>
       </c>
       <c r="K99" t="n">
-        <v>0.000859</v>
+        <v>0.000858</v>
       </c>
       <c r="L99" t="n">
-        <v>0.000859</v>
+        <v>0.000858</v>
       </c>
       <c r="M99" t="n">
         <v>333553435000</v>
@@ -8711,16 +8711,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>60.155469</v>
+        <v>60.155499</v>
       </c>
       <c r="D100" t="n">
-        <v>62.269345</v>
+        <v>62.269326</v>
       </c>
       <c r="E100" t="n">
-        <v>59.858603</v>
+        <v>59.858633</v>
       </c>
       <c r="F100" t="n">
-        <v>62.188198</v>
+        <v>62.188179</v>
       </c>
       <c r="G100" t="n">
         <v>557979300</v>
@@ -8794,16 +8794,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>62.233289</v>
+        <v>62.23327</v>
       </c>
       <c r="D101" t="n">
-        <v>63.775143</v>
+        <v>63.775128</v>
       </c>
       <c r="E101" t="n">
-        <v>60.303719</v>
+        <v>60.3037</v>
       </c>
       <c r="F101" t="n">
-        <v>63.766125</v>
+        <v>63.766109</v>
       </c>
       <c r="G101" t="n">
         <v>835537700</v>
@@ -8877,16 +8877,16 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>63.784165</v>
+        <v>63.784139</v>
       </c>
       <c r="D102" t="n">
-        <v>67.580206</v>
+        <v>67.58022099999999</v>
       </c>
       <c r="E102" t="n">
-        <v>63.342349</v>
+        <v>63.342322</v>
       </c>
       <c r="F102" t="n">
-        <v>66.04734000000001</v>
+        <v>66.047348</v>
       </c>
       <c r="G102" t="n">
         <v>680414200</v>
@@ -8960,16 +8960,16 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>66.056378</v>
+        <v>66.05634000000001</v>
       </c>
       <c r="D103" t="n">
-        <v>66.561307</v>
+        <v>66.56129199999999</v>
       </c>
       <c r="E103" t="n">
-        <v>62.547751</v>
+        <v>62.547767</v>
       </c>
       <c r="F103" t="n">
-        <v>64.46534</v>
+        <v>64.465332</v>
       </c>
       <c r="G103" t="n">
         <v>748561600</v>
@@ -9043,16 +9043,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>64.89950899999999</v>
+        <v>64.899501</v>
       </c>
       <c r="D104" t="n">
-        <v>68.93369</v>
+        <v>68.933683</v>
       </c>
       <c r="E104" t="n">
         <v>64.53770900000001</v>
       </c>
       <c r="F104" t="n">
-        <v>68.535698</v>
+        <v>68.53569</v>
       </c>
       <c r="G104" t="n">
         <v>581695700</v>
@@ -9126,13 +9126,13 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>69.006024</v>
+        <v>69.00606999999999</v>
       </c>
       <c r="D105" t="n">
-        <v>69.901526</v>
+        <v>69.901511</v>
       </c>
       <c r="E105" t="n">
-        <v>67.80303600000001</v>
+        <v>67.803014</v>
       </c>
       <c r="F105" t="n">
         <v>68.264313</v>
@@ -9209,16 +9209,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>68.82512199999999</v>
+        <v>68.825129</v>
       </c>
       <c r="D106" t="n">
-        <v>72.161788</v>
+        <v>72.16177999999999</v>
       </c>
       <c r="E106" t="n">
-        <v>68.32763799999999</v>
+        <v>68.327646</v>
       </c>
       <c r="F106" t="n">
-        <v>71.562973</v>
+        <v>71.56298099999999</v>
       </c>
       <c r="G106" t="n">
         <v>503988800</v>
@@ -9298,10 +9298,10 @@
         <v>75.745379</v>
       </c>
       <c r="E107" t="n">
-        <v>69.267691</v>
+        <v>69.267684</v>
       </c>
       <c r="F107" t="n">
-        <v>75.110291</v>
+        <v>75.110321</v>
       </c>
       <c r="G107" t="n">
         <v>817353700</v>
@@ -9375,22 +9375,22 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>75.364333</v>
+        <v>75.36431</v>
       </c>
       <c r="D108" t="n">
-        <v>77.87737</v>
+        <v>77.877385</v>
       </c>
       <c r="E108" t="n">
-        <v>73.82203</v>
+        <v>73.822022</v>
       </c>
       <c r="F108" t="n">
-        <v>77.77758</v>
+        <v>77.777596</v>
       </c>
       <c r="G108" t="n">
         <v>542339400</v>
       </c>
       <c r="H108" t="n">
-        <v>0.035512</v>
+        <v>0.035511</v>
       </c>
       <c r="I108" t="n">
         <v>0.032593</v>
@@ -9458,16 +9458,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>77.868313</v>
+        <v>77.86826000000001</v>
       </c>
       <c r="D109" t="n">
-        <v>80.05424499999999</v>
+        <v>80.054253</v>
       </c>
       <c r="E109" t="n">
-        <v>76.253433</v>
+        <v>76.253426</v>
       </c>
       <c r="F109" t="n">
-        <v>80.05424499999999</v>
+        <v>80.054253</v>
       </c>
       <c r="G109" t="n">
         <v>651649200</v>
@@ -9541,16 +9541,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>79.681056</v>
+        <v>79.68104</v>
       </c>
       <c r="D110" t="n">
         <v>81.00075</v>
       </c>
       <c r="E110" t="n">
-        <v>77.14184299999999</v>
+        <v>77.141828</v>
       </c>
       <c r="F110" t="n">
-        <v>78.516098</v>
+        <v>78.51610599999999</v>
       </c>
       <c r="G110" t="n">
         <v>831732700</v>
@@ -9624,16 +9624,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>78.37051599999999</v>
+        <v>78.370532</v>
       </c>
       <c r="D111" t="n">
-        <v>83.128212</v>
+        <v>83.128227</v>
       </c>
       <c r="E111" t="n">
-        <v>76.213506</v>
+        <v>76.213499</v>
       </c>
       <c r="F111" t="n">
-        <v>82.561592</v>
+        <v>82.561607</v>
       </c>
       <c r="G111" t="n">
         <v>713558700</v>
@@ -9707,22 +9707,22 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>81.78483900000001</v>
+        <v>81.78479299999999</v>
       </c>
       <c r="D112" t="n">
-        <v>83.49379</v>
+        <v>83.493782</v>
       </c>
       <c r="E112" t="n">
-        <v>79.14142200000001</v>
+        <v>79.141407</v>
       </c>
       <c r="F112" t="n">
-        <v>80.304733</v>
+        <v>80.30471799999999</v>
       </c>
       <c r="G112" t="n">
         <v>809345400</v>
       </c>
       <c r="H112" t="n">
-        <v>-0.027335</v>
+        <v>-0.027336</v>
       </c>
       <c r="I112" t="n">
         <v>-0.027153</v>
@@ -9731,10 +9731,10 @@
         <v>0.008107</v>
       </c>
       <c r="K112" t="n">
-        <v>-0.000182</v>
+        <v>-0.000183</v>
       </c>
       <c r="L112" t="n">
-        <v>0.000182</v>
+        <v>0.000183</v>
       </c>
       <c r="M112" t="n">
         <v>333553435000</v>
@@ -9793,13 +9793,13 @@
         <v>80.698592</v>
       </c>
       <c r="D113" t="n">
-        <v>82.145882</v>
+        <v>82.145853</v>
       </c>
       <c r="E113" t="n">
-        <v>76.283535</v>
+        <v>76.283512</v>
       </c>
       <c r="F113" t="n">
-        <v>80.04821800000001</v>
+        <v>80.048248</v>
       </c>
       <c r="G113" t="n">
         <v>1141398200</v>
@@ -9814,10 +9814,10 @@
         <v>0.013335</v>
       </c>
       <c r="K113" t="n">
-        <v>0.000621</v>
+        <v>0.000622</v>
       </c>
       <c r="L113" t="n">
-        <v>0.000621</v>
+        <v>0.000622</v>
       </c>
       <c r="M113" t="n">
         <v>333553435000</v>
@@ -9876,13 +9876,13 @@
         <v>80.17647100000001</v>
       </c>
       <c r="D114" t="n">
-        <v>83.767123</v>
+        <v>83.767154</v>
       </c>
       <c r="E114" t="n">
-        <v>78.34447400000001</v>
+        <v>78.344497</v>
       </c>
       <c r="F114" t="n">
-        <v>83.638885</v>
+        <v>83.63891599999999</v>
       </c>
       <c r="G114" t="n">
         <v>789193700</v>
@@ -9956,13 +9956,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>83.73966799999999</v>
+        <v>83.73966</v>
       </c>
       <c r="D115" t="n">
         <v>86.46286499999999</v>
       </c>
       <c r="E115" t="n">
-        <v>83.025198</v>
+        <v>83.02518999999999</v>
       </c>
       <c r="F115" t="n">
         <v>86.251625</v>
@@ -9980,10 +9980,10 @@
         <v>0.003781</v>
       </c>
       <c r="K115" t="n">
-        <v>0.00109</v>
+        <v>0.001089</v>
       </c>
       <c r="L115" t="n">
-        <v>0.00109</v>
+        <v>0.001089</v>
       </c>
       <c r="M115" t="n">
         <v>333553435000</v>
@@ -10039,13 +10039,13 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>86.554743</v>
+        <v>86.55472</v>
       </c>
       <c r="D116" t="n">
-        <v>89.55807799999999</v>
+        <v>89.55806200000001</v>
       </c>
       <c r="E116" t="n">
-        <v>85.994466</v>
+        <v>85.994474</v>
       </c>
       <c r="F116" t="n">
         <v>87.271118</v>
@@ -10122,16 +10122,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>87.087423</v>
+        <v>87.08743</v>
       </c>
       <c r="D117" t="n">
-        <v>91.76236299999999</v>
+        <v>91.76233999999999</v>
       </c>
       <c r="E117" t="n">
         <v>86.23326400000001</v>
       </c>
       <c r="F117" t="n">
-        <v>91.64296</v>
+        <v>91.642937</v>
       </c>
       <c r="G117" t="n">
         <v>645904700</v>
@@ -10146,10 +10146,10 @@
         <v>0.004744</v>
       </c>
       <c r="K117" t="n">
-        <v>0.001268</v>
+        <v>0.001267</v>
       </c>
       <c r="L117" t="n">
-        <v>0.001268</v>
+        <v>0.001267</v>
       </c>
       <c r="M117" t="n">
         <v>333553435000</v>
@@ -10205,22 +10205,22 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>91.863354</v>
+        <v>91.863361</v>
       </c>
       <c r="D118" t="n">
-        <v>92.57903</v>
+        <v>92.579037</v>
       </c>
       <c r="E118" t="n">
-        <v>89.946031</v>
+        <v>89.946046</v>
       </c>
       <c r="F118" t="n">
-        <v>90.949532</v>
+        <v>90.949524</v>
       </c>
       <c r="G118" t="n">
         <v>755958700</v>
       </c>
       <c r="H118" t="n">
-        <v>-0.007567</v>
+        <v>-0.007566</v>
       </c>
       <c r="I118" t="n">
         <v>-0.008109999999999999</v>
@@ -10288,16 +10288,16 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>90.69174700000001</v>
+        <v>90.691762</v>
       </c>
       <c r="D119" t="n">
-        <v>93.674638</v>
+        <v>93.674615</v>
       </c>
       <c r="E119" t="n">
-        <v>83.07809</v>
+        <v>83.07812800000001</v>
       </c>
       <c r="F119" t="n">
-        <v>93.352417</v>
+        <v>93.352394</v>
       </c>
       <c r="G119" t="n">
         <v>1285037500</v>
@@ -10371,22 +10371,22 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>93.51809900000001</v>
+        <v>93.518114</v>
       </c>
       <c r="D120" t="n">
-        <v>97.81747</v>
+        <v>97.817485</v>
       </c>
       <c r="E120" t="n">
-        <v>92.680342</v>
+        <v>92.68032700000001</v>
       </c>
       <c r="F120" t="n">
-        <v>97.596519</v>
+        <v>97.596535</v>
       </c>
       <c r="G120" t="n">
         <v>434990100</v>
       </c>
       <c r="H120" t="n">
-        <v>0.045463</v>
+        <v>0.045464</v>
       </c>
       <c r="I120" t="n">
         <v>0.043187</v>
@@ -10395,10 +10395,10 @@
         <v>0.003423</v>
       </c>
       <c r="K120" t="n">
-        <v>0.002276</v>
+        <v>0.002277</v>
       </c>
       <c r="L120" t="n">
-        <v>0.002276</v>
+        <v>0.002277</v>
       </c>
       <c r="M120" t="n">
         <v>333553435000</v>
@@ -10454,22 +10454,22 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>97.329526</v>
+        <v>97.329511</v>
       </c>
       <c r="D121" t="n">
-        <v>97.51365</v>
+        <v>97.51363499999999</v>
       </c>
       <c r="E121" t="n">
-        <v>91.989859</v>
+        <v>91.989836</v>
       </c>
       <c r="F121" t="n">
-        <v>95.409752</v>
+        <v>95.40973700000001</v>
       </c>
       <c r="G121" t="n">
         <v>815702200</v>
       </c>
       <c r="H121" t="n">
-        <v>-0.022406</v>
+        <v>-0.022407</v>
       </c>
       <c r="I121" t="n">
         <v>-0.023401</v>
@@ -10537,16 +10537,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>95.881024</v>
+        <v>95.88104</v>
       </c>
       <c r="D122" t="n">
-        <v>96.638756</v>
+        <v>96.638741</v>
       </c>
       <c r="E122" t="n">
-        <v>91.81514900000001</v>
+        <v>91.815134</v>
       </c>
       <c r="F122" t="n">
-        <v>93.422989</v>
+        <v>93.42300400000001</v>
       </c>
       <c r="G122" t="n">
         <v>826291600</v>
@@ -10620,16 +10620,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>93.635547</v>
+        <v>93.635532</v>
       </c>
       <c r="D123" t="n">
         <v>100.667677</v>
       </c>
       <c r="E123" t="n">
-        <v>92.175522</v>
+        <v>92.175507</v>
       </c>
       <c r="F123" t="n">
-        <v>100.168709</v>
+        <v>100.168686</v>
       </c>
       <c r="G123" t="n">
         <v>472456500</v>
@@ -10703,16 +10703,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>100.362745</v>
+        <v>100.36276</v>
       </c>
       <c r="D124" t="n">
-        <v>101.111236</v>
+        <v>101.111251</v>
       </c>
       <c r="E124" t="n">
         <v>96.546104</v>
       </c>
       <c r="F124" t="n">
-        <v>97.805733</v>
+        <v>97.805717</v>
       </c>
       <c r="G124" t="n">
         <v>633635600</v>
@@ -10786,22 +10786,22 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>97.80572600000001</v>
+        <v>97.805734</v>
       </c>
       <c r="D125" t="n">
-        <v>102.955369</v>
+        <v>102.955338</v>
       </c>
       <c r="E125" t="n">
-        <v>96.638733</v>
+        <v>96.63874800000001</v>
       </c>
       <c r="F125" t="n">
-        <v>99.68590500000001</v>
+        <v>99.685883</v>
       </c>
       <c r="G125" t="n">
         <v>568699300</v>
       </c>
       <c r="H125" t="n">
-        <v>0.019224</v>
+        <v>0.019223</v>
       </c>
       <c r="I125" t="n">
         <v>0.018589</v>
@@ -10869,16 +10869,16 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>100.074908</v>
+        <v>100.074863</v>
       </c>
       <c r="D126" t="n">
-        <v>102.881241</v>
+        <v>102.881257</v>
       </c>
       <c r="E126" t="n">
-        <v>98.176199</v>
+        <v>98.17620700000001</v>
       </c>
       <c r="F126" t="n">
-        <v>101.927307</v>
+        <v>101.927277</v>
       </c>
       <c r="G126" t="n">
         <v>518233500</v>
@@ -10952,16 +10952,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>102.473737</v>
+        <v>102.473722</v>
       </c>
       <c r="D127" t="n">
-        <v>103.164295</v>
+        <v>103.164287</v>
       </c>
       <c r="E127" t="n">
         <v>98.996123</v>
       </c>
       <c r="F127" t="n">
-        <v>99.395309</v>
+        <v>99.395302</v>
       </c>
       <c r="G127" t="n">
         <v>577030600</v>
@@ -11035,13 +11035,13 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>100.379311</v>
+        <v>100.379334</v>
       </c>
       <c r="D128" t="n">
-        <v>106.190628</v>
+        <v>106.190605</v>
       </c>
       <c r="E128" t="n">
-        <v>98.244191</v>
+        <v>98.24420600000001</v>
       </c>
       <c r="F128" t="n">
         <v>103.925522</v>
@@ -11118,16 +11118,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>103.944113</v>
+        <v>103.944105</v>
       </c>
       <c r="D129" t="n">
-        <v>104.900235</v>
+        <v>104.900251</v>
       </c>
       <c r="E129" t="n">
-        <v>78.665897</v>
+        <v>78.665916</v>
       </c>
       <c r="F129" t="n">
-        <v>96.833145</v>
+        <v>96.83313</v>
       </c>
       <c r="G129" t="n">
         <v>1010304800</v>
@@ -11201,16 +11201,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>94.419504</v>
+        <v>94.41951899999999</v>
       </c>
       <c r="D130" t="n">
-        <v>100.936315</v>
+        <v>100.936323</v>
       </c>
       <c r="E130" t="n">
         <v>91.89471</v>
       </c>
       <c r="F130" t="n">
-        <v>94.69575500000001</v>
+        <v>94.69573200000001</v>
       </c>
       <c r="G130" t="n">
         <v>881201500</v>
@@ -11284,16 +11284,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>94.863241</v>
+        <v>94.86323400000001</v>
       </c>
       <c r="D131" t="n">
-        <v>106.16052</v>
+        <v>106.160489</v>
       </c>
       <c r="E131" t="n">
-        <v>93.5046</v>
+        <v>93.50460699999999</v>
       </c>
       <c r="F131" t="n">
-        <v>105.462585</v>
+        <v>105.462555</v>
       </c>
       <c r="G131" t="n">
         <v>740627200</v>
@@ -11367,16 +11367,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>105.741693</v>
+        <v>105.741723</v>
       </c>
       <c r="D132" t="n">
-        <v>107.453975</v>
+        <v>107.45399</v>
       </c>
       <c r="E132" t="n">
-        <v>101.879809</v>
+        <v>101.879824</v>
       </c>
       <c r="F132" t="n">
-        <v>106.10463</v>
+        <v>106.104652</v>
       </c>
       <c r="G132" t="n">
         <v>543413300</v>
@@ -11391,10 +11391,10 @@
         <v>0.00855</v>
       </c>
       <c r="K132" t="n">
-        <v>0.002715</v>
+        <v>0.002716</v>
       </c>
       <c r="L132" t="n">
-        <v>0.002715</v>
+        <v>0.002716</v>
       </c>
       <c r="M132" t="n">
         <v>333553435000</v>
@@ -11453,19 +11453,19 @@
         <v>106.532718</v>
       </c>
       <c r="D133" t="n">
-        <v>107.714563</v>
+        <v>107.714555</v>
       </c>
       <c r="E133" t="n">
-        <v>101.786781</v>
+        <v>101.786751</v>
       </c>
       <c r="F133" t="n">
-        <v>104.412537</v>
+        <v>104.412514</v>
       </c>
       <c r="G133" t="n">
         <v>757497500</v>
       </c>
       <c r="H133" t="n">
-        <v>-0.015947</v>
+        <v>-0.015948</v>
       </c>
       <c r="I133" t="n">
         <v>-0.015273</v>
@@ -11533,16 +11533,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>102.162967</v>
+        <v>102.162974</v>
       </c>
       <c r="D134" t="n">
-        <v>102.84439</v>
+        <v>102.844351</v>
       </c>
       <c r="E134" t="n">
-        <v>90.775216</v>
+        <v>90.775246</v>
       </c>
       <c r="F134" t="n">
-        <v>97.197166</v>
+        <v>97.197159</v>
       </c>
       <c r="G134" t="n">
         <v>1077308200</v>
@@ -11622,10 +11622,10 @@
         <v>97.822576</v>
       </c>
       <c r="E135" t="n">
-        <v>88.525676</v>
+        <v>88.525706</v>
       </c>
       <c r="F135" t="n">
-        <v>95.67572800000001</v>
+        <v>95.675697</v>
       </c>
       <c r="G135" t="n">
         <v>942259600</v>
@@ -11699,16 +11699,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>96.590464</v>
+        <v>96.590479</v>
       </c>
       <c r="D136" t="n">
-        <v>103.018362</v>
+        <v>103.018385</v>
       </c>
       <c r="E136" t="n">
-        <v>96.29177</v>
+        <v>96.291785</v>
       </c>
       <c r="F136" t="n">
-        <v>102.231987</v>
+        <v>102.231949</v>
       </c>
       <c r="G136" t="n">
         <v>601605100</v>
@@ -11785,13 +11785,13 @@
         <v>101.614082</v>
       </c>
       <c r="D137" t="n">
-        <v>104.329058</v>
+        <v>104.329035</v>
       </c>
       <c r="E137" t="n">
-        <v>98.187634</v>
+        <v>98.187656</v>
       </c>
       <c r="F137" t="n">
-        <v>98.974037</v>
+        <v>98.97405999999999</v>
       </c>
       <c r="G137" t="n">
         <v>559253800</v>
@@ -11865,16 +11865,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>99.22681799999999</v>
+        <v>99.226795</v>
       </c>
       <c r="D138" t="n">
-        <v>103.45839</v>
+        <v>103.458398</v>
       </c>
       <c r="E138" t="n">
-        <v>97.738252</v>
+        <v>97.738275</v>
       </c>
       <c r="F138" t="n">
-        <v>103.299232</v>
+        <v>103.29924</v>
       </c>
       <c r="G138" t="n">
         <v>536482700</v>
@@ -11948,16 +11948,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>102.980951</v>
+        <v>102.980944</v>
       </c>
       <c r="D139" t="n">
-        <v>103.683056</v>
+        <v>103.683087</v>
       </c>
       <c r="E139" t="n">
-        <v>95.511065</v>
+        <v>95.511073</v>
       </c>
       <c r="F139" t="n">
-        <v>100.946083</v>
+        <v>100.946075</v>
       </c>
       <c r="G139" t="n">
         <v>577926300</v>
@@ -12034,13 +12034,13 @@
         <v>100.89913</v>
       </c>
       <c r="D140" t="n">
-        <v>108.455518</v>
+        <v>108.455533</v>
       </c>
       <c r="E140" t="n">
-        <v>100.035521</v>
+        <v>100.035513</v>
       </c>
       <c r="F140" t="n">
-        <v>108.164528</v>
+        <v>108.164543</v>
       </c>
       <c r="G140" t="n">
         <v>421072600</v>
@@ -12114,13 +12114,13 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>108.239605</v>
+        <v>108.23962</v>
       </c>
       <c r="D141" t="n">
-        <v>110.774074</v>
+        <v>110.774066</v>
       </c>
       <c r="E141" t="n">
-        <v>107.216471</v>
+        <v>107.216463</v>
       </c>
       <c r="F141" t="n">
         <v>109.300346</v>
@@ -12197,7 +12197,7 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>109.337902</v>
+        <v>109.337887</v>
       </c>
       <c r="D142" t="n">
         <v>112.190264</v>
@@ -12280,16 +12280,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>111.578594</v>
+        <v>111.578624</v>
       </c>
       <c r="D143" t="n">
-        <v>112.604329</v>
+        <v>112.604306</v>
       </c>
       <c r="E143" t="n">
-        <v>109.103685</v>
+        <v>109.103678</v>
       </c>
       <c r="F143" t="n">
-        <v>110.091766</v>
+        <v>110.091751</v>
       </c>
       <c r="G143" t="n">
         <v>406941800</v>
@@ -12304,10 +12304,10 @@
         <v>0.005691</v>
       </c>
       <c r="K143" t="n">
-        <v>0.000694</v>
+        <v>0.000693</v>
       </c>
       <c r="L143" t="n">
-        <v>0.000694</v>
+        <v>0.000693</v>
       </c>
       <c r="M143" t="n">
         <v>333553435000</v>
@@ -12363,16 +12363,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>110.279977</v>
+        <v>110.279954</v>
       </c>
       <c r="D144" t="n">
-        <v>112.463171</v>
+        <v>112.463178</v>
       </c>
       <c r="E144" t="n">
-        <v>106.760489</v>
+        <v>106.760473</v>
       </c>
       <c r="F144" t="n">
-        <v>110.571671</v>
+        <v>110.571678</v>
       </c>
       <c r="G144" t="n">
         <v>598118800</v>
@@ -12446,22 +12446,22 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>110.534036</v>
+        <v>110.534051</v>
       </c>
       <c r="D145" t="n">
-        <v>114.692828</v>
+        <v>114.692813</v>
       </c>
       <c r="E145" t="n">
-        <v>108.426137</v>
+        <v>108.426122</v>
       </c>
       <c r="F145" t="n">
-        <v>111.823631</v>
+        <v>111.823593</v>
       </c>
       <c r="G145" t="n">
         <v>498414300</v>
       </c>
       <c r="H145" t="n">
-        <v>0.011323</v>
+        <v>0.011322</v>
       </c>
       <c r="I145" t="n">
         <v>0.010977</v>
@@ -12529,16 +12529,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>112.569231</v>
+        <v>112.569239</v>
       </c>
       <c r="D146" t="n">
-        <v>118.84563</v>
+        <v>118.845599</v>
       </c>
       <c r="E146" t="n">
-        <v>112.210583</v>
+        <v>112.21059</v>
       </c>
       <c r="F146" t="n">
-        <v>117.571472</v>
+        <v>117.571457</v>
       </c>
       <c r="G146" t="n">
         <v>366254600</v>
@@ -12612,13 +12612,13 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>118.402029</v>
+        <v>118.402021</v>
       </c>
       <c r="D147" t="n">
-        <v>123.357063</v>
+        <v>123.357078</v>
       </c>
       <c r="E147" t="n">
-        <v>117.84518</v>
+        <v>117.845164</v>
       </c>
       <c r="F147" t="n">
         <v>122.715271</v>
@@ -12627,7 +12627,7 @@
         <v>307437600</v>
       </c>
       <c r="H147" t="n">
-        <v>0.04375</v>
+        <v>0.043751</v>
       </c>
       <c r="I147" t="n">
         <v>0.041733</v>
@@ -12695,16 +12695,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>123.498677</v>
+        <v>123.498609</v>
       </c>
       <c r="D148" t="n">
-        <v>125.54305</v>
+        <v>125.543058</v>
       </c>
       <c r="E148" t="n">
-        <v>122.384105</v>
+        <v>122.384128</v>
       </c>
       <c r="F148" t="n">
-        <v>125.202568</v>
+        <v>125.202576</v>
       </c>
       <c r="G148" t="n">
         <v>442963500</v>
@@ -12778,13 +12778,13 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>125.306608</v>
+        <v>125.306616</v>
       </c>
       <c r="D149" t="n">
         <v>128.947851</v>
       </c>
       <c r="E149" t="n">
-        <v>123.310982</v>
+        <v>123.31102</v>
       </c>
       <c r="F149" t="n">
         <v>128.616837</v>
@@ -12861,16 +12861,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>129.042457</v>
+        <v>129.042411</v>
       </c>
       <c r="D150" t="n">
-        <v>134.149638</v>
+        <v>134.149654</v>
       </c>
       <c r="E150" t="n">
-        <v>128.503282</v>
+        <v>128.503357</v>
       </c>
       <c r="F150" t="n">
-        <v>133.629456</v>
+        <v>133.629471</v>
       </c>
       <c r="G150" t="n">
         <v>532489700</v>
@@ -12947,19 +12947,19 @@
         <v>133.903745</v>
       </c>
       <c r="D151" t="n">
-        <v>136.097949</v>
+        <v>136.097965</v>
       </c>
       <c r="E151" t="n">
-        <v>129.213822</v>
+        <v>129.213792</v>
       </c>
       <c r="F151" t="n">
-        <v>130.532028</v>
+        <v>130.531998</v>
       </c>
       <c r="G151" t="n">
         <v>1046003200</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.023179</v>
+        <v>-0.02318</v>
       </c>
       <c r="I151" t="n">
         <v>-0.024509</v>
@@ -13027,7 +13027,7 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>131.129477</v>
+        <v>131.129462</v>
       </c>
       <c r="D152" t="n">
         <v>138.422382</v>
@@ -13036,7 +13036,7 @@
         <v>128.787038</v>
       </c>
       <c r="F152" t="n">
-        <v>135.833344</v>
+        <v>135.833328</v>
       </c>
       <c r="G152" t="n">
         <v>705002300</v>
@@ -13110,22 +13110,22 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>136.298057</v>
+        <v>136.298027</v>
       </c>
       <c r="D153" t="n">
-        <v>138.659395</v>
+        <v>138.659456</v>
       </c>
       <c r="E153" t="n">
-        <v>132.940864</v>
+        <v>132.940818</v>
       </c>
       <c r="F153" t="n">
-        <v>138.649902</v>
+        <v>138.649963</v>
       </c>
       <c r="G153" t="n">
         <v>810771900</v>
       </c>
       <c r="H153" t="n">
-        <v>0.020735</v>
+        <v>0.020736</v>
       </c>
       <c r="I153" t="n">
         <v>0.018412</v>
@@ -13134,10 +13134,10 @@
         <v>0.008813</v>
       </c>
       <c r="K153" t="n">
-        <v>0.002323</v>
+        <v>0.002324</v>
       </c>
       <c r="L153" t="n">
-        <v>0.002323</v>
+        <v>0.002324</v>
       </c>
       <c r="M153" t="n">
         <v>333553435000</v>
@@ -13202,7 +13202,7 @@
         <v>135.056669</v>
       </c>
       <c r="F154" t="n">
-        <v>138.240585</v>
+        <v>138.240662</v>
       </c>
       <c r="G154" t="n">
         <v>631562000</v>
@@ -13291,7 +13291,7 @@
         <v>549094600</v>
       </c>
       <c r="H155" t="n">
-        <v>0.046064</v>
+        <v>0.046063</v>
       </c>
       <c r="I155" t="n">
         <v>0.045032</v>
@@ -13300,10 +13300,10 @@
         <v>0.00694</v>
       </c>
       <c r="K155" t="n">
-        <v>0.001032</v>
+        <v>0.001031</v>
       </c>
       <c r="L155" t="n">
-        <v>0.001032</v>
+        <v>0.001031</v>
       </c>
       <c r="M155" t="n">
         <v>333553435000</v>
@@ -13359,16 +13359,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>145.18828</v>
+        <v>145.188265</v>
       </c>
       <c r="D156" t="n">
-        <v>148.923495</v>
+        <v>148.92351</v>
       </c>
       <c r="E156" t="n">
-        <v>143.296925</v>
+        <v>143.29694</v>
       </c>
       <c r="F156" t="n">
-        <v>147.459808</v>
+        <v>147.459793</v>
       </c>
       <c r="G156" t="n">
         <v>584198400</v>
@@ -13442,13 +13442,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>146.556886</v>
+        <v>146.556916</v>
       </c>
       <c r="D157" t="n">
-        <v>151.215952</v>
+        <v>151.215983</v>
       </c>
       <c r="E157" t="n">
-        <v>144.522959</v>
+        <v>144.522929</v>
       </c>
       <c r="F157" t="n">
         <v>148.349182</v>
@@ -13534,13 +13534,13 @@
         <v>148.73967</v>
       </c>
       <c r="F158" t="n">
-        <v>161.340149</v>
+        <v>161.34021</v>
       </c>
       <c r="G158" t="n">
         <v>698394900</v>
       </c>
       <c r="H158" t="n">
-        <v>0.08757</v>
+        <v>0.087571</v>
       </c>
       <c r="I158" t="n">
         <v>0.086544</v>
@@ -13549,10 +13549,10 @@
         <v>0.007125</v>
       </c>
       <c r="K158" t="n">
-        <v>0.001026</v>
+        <v>0.001027</v>
       </c>
       <c r="L158" t="n">
-        <v>0.001026</v>
+        <v>0.001027</v>
       </c>
       <c r="M158" t="n">
         <v>333553435000</v>
@@ -13608,16 +13608,16 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>160.102073</v>
+        <v>160.102027</v>
       </c>
       <c r="D159" t="n">
-        <v>162.606916</v>
+        <v>162.6069</v>
       </c>
       <c r="E159" t="n">
-        <v>142.987076</v>
+        <v>142.987105</v>
       </c>
       <c r="F159" t="n">
-        <v>159.254379</v>
+        <v>159.254364</v>
       </c>
       <c r="G159" t="n">
         <v>1179841200</v>
@@ -13691,16 +13691,16 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>159.340117</v>
+        <v>159.340133</v>
       </c>
       <c r="D160" t="n">
         <v>166.873774</v>
       </c>
       <c r="E160" t="n">
-        <v>148.85694</v>
+        <v>148.856955</v>
       </c>
       <c r="F160" t="n">
-        <v>152.758682</v>
+        <v>152.758667</v>
       </c>
       <c r="G160" t="n">
         <v>1085306700</v>
@@ -13774,13 +13774,13 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>151.671179</v>
+        <v>151.671163</v>
       </c>
       <c r="D161" t="n">
-        <v>159.312463</v>
+        <v>159.312433</v>
       </c>
       <c r="E161" t="n">
-        <v>146.796408</v>
+        <v>146.796393</v>
       </c>
       <c r="F161" t="n">
         <v>153.531372</v>
@@ -13857,16 +13857,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>153.130708</v>
+        <v>153.130753</v>
       </c>
       <c r="D162" t="n">
-        <v>163.319107</v>
+        <v>163.319123</v>
       </c>
       <c r="E162" t="n">
         <v>151.890556</v>
       </c>
       <c r="F162" t="n">
-        <v>162.241135</v>
+        <v>162.24115</v>
       </c>
       <c r="G162" t="n">
         <v>687987000</v>
@@ -13940,7 +13940,7 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>163.051997</v>
+        <v>163.051967</v>
       </c>
       <c r="D163" t="n">
         <v>170.150351</v>
@@ -13949,7 +13949,7 @@
         <v>161.727977</v>
       </c>
       <c r="F163" t="n">
-        <v>164.098816</v>
+        <v>164.098846</v>
       </c>
       <c r="G163" t="n">
         <v>784338500</v>
@@ -14023,16 +14023,16 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>162.559665</v>
+        <v>162.55968</v>
       </c>
       <c r="D164" t="n">
-        <v>174.882597</v>
+        <v>174.882628</v>
       </c>
       <c r="E164" t="n">
-        <v>162.205946</v>
+        <v>162.205961</v>
       </c>
       <c r="F164" t="n">
-        <v>168.687714</v>
+        <v>168.687653</v>
       </c>
       <c r="G164" t="n">
         <v>708010500</v>
@@ -14047,10 +14047,10 @@
         <v>0.009695</v>
       </c>
       <c r="K164" t="n">
-        <v>0.000811</v>
+        <v>0.00081</v>
       </c>
       <c r="L164" t="n">
-        <v>0.000811</v>
+        <v>0.00081</v>
       </c>
       <c r="M164" t="n">
         <v>333553435000</v>
@@ -14106,16 +14106,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>169.079675</v>
+        <v>169.07966</v>
       </c>
       <c r="D165" t="n">
         <v>179.270688</v>
       </c>
       <c r="E165" t="n">
-        <v>168.05677</v>
+        <v>168.056755</v>
       </c>
       <c r="F165" t="n">
-        <v>178.439026</v>
+        <v>178.438965</v>
       </c>
       <c r="G165" t="n">
         <v>667523000</v>
@@ -14189,22 +14189,22 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>177.894057</v>
+        <v>177.894072</v>
       </c>
       <c r="D166" t="n">
-        <v>178.606882</v>
+        <v>178.606867</v>
       </c>
       <c r="E166" t="n">
-        <v>172.502161</v>
+        <v>172.502191</v>
       </c>
       <c r="F166" t="n">
-        <v>177.936447</v>
+        <v>177.936462</v>
       </c>
       <c r="G166" t="n">
         <v>645534400</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002817</v>
+        <v>-0.002816</v>
       </c>
       <c r="I166" t="n">
         <v>-0.003514</v>
@@ -14272,16 +14272,16 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>178.970761</v>
+        <v>178.970777</v>
       </c>
       <c r="D167" t="n">
-        <v>179.602866</v>
+        <v>179.602881</v>
       </c>
       <c r="E167" t="n">
-        <v>153.322825</v>
+        <v>153.322795</v>
       </c>
       <c r="F167" t="n">
-        <v>162.641495</v>
+        <v>162.641541</v>
       </c>
       <c r="G167" t="n">
         <v>1817070600</v>
@@ -14361,10 +14361,10 @@
         <v>168.15802</v>
       </c>
       <c r="E168" t="n">
-        <v>150.487956</v>
+        <v>150.487986</v>
       </c>
       <c r="F168" t="n">
-        <v>162.210526</v>
+        <v>162.210495</v>
       </c>
       <c r="G168" t="n">
         <v>1152121500</v>
@@ -14379,10 +14379,10 @@
         <v>0.017557</v>
       </c>
       <c r="K168" t="n">
-        <v>-5.3e-05</v>
+        <v>-5.4e-05</v>
       </c>
       <c r="L168" t="n">
-        <v>5.3e-05</v>
+        <v>5.4e-05</v>
       </c>
       <c r="M168" t="n">
         <v>333553435000</v>
@@ -14438,16 +14438,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>165.792483</v>
+        <v>165.792453</v>
       </c>
       <c r="D169" t="n">
-        <v>165.984026</v>
+        <v>165.983996</v>
       </c>
       <c r="E169" t="n">
-        <v>137.788904</v>
+        <v>137.788873</v>
       </c>
       <c r="F169" t="n">
-        <v>148.161957</v>
+        <v>148.161942</v>
       </c>
       <c r="G169" t="n">
         <v>1395544900</v>
@@ -14521,22 +14521,22 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>145.021222</v>
+        <v>145.021178</v>
       </c>
       <c r="D170" t="n">
-        <v>162.309627</v>
+        <v>162.309642</v>
       </c>
       <c r="E170" t="n">
-        <v>143.580504</v>
+        <v>143.580474</v>
       </c>
       <c r="F170" t="n">
-        <v>161.512436</v>
+        <v>161.512451</v>
       </c>
       <c r="G170" t="n">
         <v>933706500</v>
       </c>
       <c r="H170" t="n">
-        <v>0.09010700000000001</v>
+        <v>0.09010799999999999</v>
       </c>
       <c r="I170" t="n">
         <v>0.09113300000000001</v>
@@ -14604,16 +14604,16 @@
         </is>
       </c>
       <c r="C171" t="n">
-        <v>160.715269</v>
+        <v>160.715239</v>
       </c>
       <c r="D171" t="n">
-        <v>167.755548</v>
+        <v>167.755533</v>
       </c>
       <c r="E171" t="n">
         <v>159.985328</v>
       </c>
       <c r="F171" t="n">
-        <v>166.343643</v>
+        <v>166.343628</v>
       </c>
       <c r="G171" t="n">
         <v>535964100</v>
@@ -14687,16 +14687,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>167.544196</v>
+        <v>167.544227</v>
       </c>
       <c r="D172" t="n">
-        <v>175.922122</v>
+        <v>175.922138</v>
       </c>
       <c r="E172" t="n">
         <v>162.645798</v>
       </c>
       <c r="F172" t="n">
-        <v>172.871902</v>
+        <v>172.871872</v>
       </c>
       <c r="G172" t="n">
         <v>781972700</v>
@@ -14711,10 +14711,10 @@
         <v>0.009148999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.000379</v>
+        <v>-0.00038</v>
       </c>
       <c r="L172" t="n">
-        <v>0.000379</v>
+        <v>0.00038</v>
       </c>
       <c r="M172" t="n">
         <v>333553435000</v>
@@ -14770,16 +14770,16 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>174.652029</v>
+        <v>174.652013</v>
       </c>
       <c r="D173" t="n">
-        <v>184.091311</v>
+        <v>184.091372</v>
       </c>
       <c r="E173" t="n">
-        <v>173.939997</v>
+        <v>173.939982</v>
       </c>
       <c r="F173" t="n">
-        <v>182.378632</v>
+        <v>182.378601</v>
       </c>
       <c r="G173" t="n">
         <v>550157700</v>
@@ -14853,16 +14853,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>183.571779</v>
+        <v>183.571733</v>
       </c>
       <c r="D174" t="n">
-        <v>184.091385</v>
+        <v>184.091338</v>
       </c>
       <c r="E174" t="n">
-        <v>167.300676</v>
+        <v>167.300645</v>
       </c>
       <c r="F174" t="n">
-        <v>167.377655</v>
+        <v>167.377625</v>
       </c>
       <c r="G174" t="n">
         <v>901554000</v>
@@ -14936,13 +14936,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>166.925386</v>
+        <v>166.925418</v>
       </c>
       <c r="D175" t="n">
-        <v>182.599909</v>
+        <v>182.59994</v>
       </c>
       <c r="E175" t="n">
-        <v>162.874461</v>
+        <v>162.874492</v>
       </c>
       <c r="F175" t="n">
         <v>180.08168</v>
@@ -14951,7 +14951,7 @@
         <v>688730400</v>
       </c>
       <c r="H175" t="n">
-        <v>0.0759</v>
+        <v>0.075901</v>
       </c>
       <c r="I175" t="n">
         <v>0.076196</v>
@@ -15019,13 +15019,13 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>183.534028</v>
+        <v>183.534012</v>
       </c>
       <c r="D176" t="n">
-        <v>188.577567</v>
+        <v>188.577552</v>
       </c>
       <c r="E176" t="n">
-        <v>181.663197</v>
+        <v>181.663182</v>
       </c>
       <c r="F176" t="n">
         <v>184.286194</v>
@@ -15102,16 +15102,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>184.604431</v>
+        <v>184.604446</v>
       </c>
       <c r="D177" t="n">
-        <v>188.027856</v>
+        <v>188.027872</v>
       </c>
       <c r="E177" t="n">
-        <v>172.810489</v>
+        <v>172.810504</v>
       </c>
       <c r="F177" t="n">
-        <v>180.785599</v>
+        <v>180.785645</v>
       </c>
       <c r="G177" t="n">
         <v>814286500</v>
@@ -15185,13 +15185,13 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>179.580277</v>
+        <v>179.580201</v>
       </c>
       <c r="D178" t="n">
-        <v>187.767527</v>
+        <v>187.767481</v>
       </c>
       <c r="E178" t="n">
-        <v>178.432705</v>
+        <v>178.432629</v>
       </c>
       <c r="F178" t="n">
         <v>182.445038</v>
@@ -15268,16 +15268,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>183.111806</v>
+        <v>183.111791</v>
       </c>
       <c r="D179" t="n">
-        <v>191.160959</v>
+        <v>191.160944</v>
       </c>
       <c r="E179" t="n">
-        <v>175.690666</v>
+        <v>175.690696</v>
       </c>
       <c r="F179" t="n">
-        <v>190.436249</v>
+        <v>190.436234</v>
       </c>
       <c r="G179" t="n">
         <v>576983400</v>
@@ -15351,16 +15351,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>191.257549</v>
+        <v>191.257564</v>
       </c>
       <c r="D180" t="n">
-        <v>199.103865</v>
+        <v>199.103895</v>
       </c>
       <c r="E180" t="n">
-        <v>190.967674</v>
+        <v>190.967689</v>
       </c>
       <c r="F180" t="n">
-        <v>198.185898</v>
+        <v>198.185913</v>
       </c>
       <c r="G180" t="n">
         <v>351429700</v>
@@ -15440,16 +15440,16 @@
         <v>207.776468</v>
       </c>
       <c r="E181" t="n">
-        <v>192.513767</v>
+        <v>192.513737</v>
       </c>
       <c r="F181" t="n">
-        <v>205.888123</v>
+        <v>205.888092</v>
       </c>
       <c r="G181" t="n">
         <v>429951100</v>
       </c>
       <c r="H181" t="n">
-        <v>0.038864</v>
+        <v>0.038863</v>
       </c>
       <c r="I181" t="n">
         <v>0.039196</v>
@@ -15458,10 +15458,10 @@
         <v>0.005757</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.000332</v>
+        <v>-0.000333</v>
       </c>
       <c r="L181" t="n">
-        <v>0.000332</v>
+        <v>0.000333</v>
       </c>
       <c r="M181" t="n">
         <v>333553435000</v>
@@ -15517,16 +15517,16 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>207.621562</v>
+        <v>207.621517</v>
       </c>
       <c r="D182" t="n">
-        <v>218.738603</v>
+        <v>218.738588</v>
       </c>
       <c r="E182" t="n">
         <v>205.529846</v>
       </c>
       <c r="F182" t="n">
-        <v>212.143906</v>
+        <v>212.14389</v>
       </c>
       <c r="G182" t="n">
         <v>585493000</v>
@@ -15606,10 +15606,10 @@
         <v>229.962154</v>
       </c>
       <c r="E183" t="n">
-        <v>191.904667</v>
+        <v>191.904681</v>
       </c>
       <c r="F183" t="n">
-        <v>199.293442</v>
+        <v>199.293457</v>
       </c>
       <c r="G183" t="n">
         <v>952392300</v>
@@ -15683,22 +15683,22 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>202.276088</v>
+        <v>202.276132</v>
       </c>
       <c r="D184" t="n">
-        <v>212.666837</v>
+        <v>212.666805</v>
       </c>
       <c r="E184" t="n">
-        <v>160.055912</v>
+        <v>160.055927</v>
       </c>
       <c r="F184" t="n">
-        <v>184.773209</v>
+        <v>184.773239</v>
       </c>
       <c r="G184" t="n">
         <v>2191775700</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.07285899999999999</v>
+        <v>-0.07285800000000001</v>
       </c>
       <c r="I184" t="n">
         <v>-0.07661800000000001</v>
@@ -15769,13 +15769,13 @@
         <v>179.309625</v>
       </c>
       <c r="D185" t="n">
-        <v>213.5373</v>
+        <v>213.537346</v>
       </c>
       <c r="E185" t="n">
         <v>175.515171</v>
       </c>
       <c r="F185" t="n">
-        <v>212.440704</v>
+        <v>212.44075</v>
       </c>
       <c r="G185" t="n">
         <v>1092071200</v>
@@ -15849,16 +15849,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>208.161062</v>
+        <v>208.161016</v>
       </c>
       <c r="D186" t="n">
-        <v>226.696612</v>
+        <v>226.696582</v>
       </c>
       <c r="E186" t="n">
-        <v>204.88093</v>
+        <v>204.880945</v>
       </c>
       <c r="F186" t="n">
-        <v>226.463699</v>
+        <v>226.463669</v>
       </c>
       <c r="G186" t="n">
         <v>846592000</v>
@@ -15873,10 +15873,10 @@
         <v>0.013468</v>
       </c>
       <c r="K186" t="n">
-        <v>0.004344</v>
+        <v>0.004343</v>
       </c>
       <c r="L186" t="n">
-        <v>0.004344</v>
+        <v>0.004343</v>
       </c>
       <c r="M186" t="n">
         <v>333553435000</v>
@@ -15932,13 +15932,13 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>225.590283</v>
+        <v>225.590267</v>
       </c>
       <c r="D187" t="n">
         <v>244.151789</v>
       </c>
       <c r="E187" t="n">
-        <v>224.629539</v>
+        <v>224.629524</v>
       </c>
       <c r="F187" t="n">
         <v>240.700699</v>
@@ -16015,22 +16015,22 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>240.739571</v>
+        <v>240.739586</v>
       </c>
       <c r="D188" t="n">
         <v>262.272415</v>
       </c>
       <c r="E188" t="n">
-        <v>240.195178</v>
+        <v>240.195193</v>
       </c>
       <c r="F188" t="n">
-        <v>258.38382</v>
+        <v>258.383942</v>
       </c>
       <c r="G188" t="n">
         <v>924935100</v>
       </c>
       <c r="H188" t="n">
-        <v>0.073465</v>
+        <v>0.073466</v>
       </c>
       <c r="I188" t="n">
         <v>0.07374600000000001</v>
@@ -16098,16 +16098,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>260.532289</v>
+        <v>260.532198</v>
       </c>
       <c r="D189" t="n">
-        <v>288.481127</v>
+        <v>288.481096</v>
       </c>
       <c r="E189" t="n">
         <v>257.256205</v>
       </c>
       <c r="F189" t="n">
-        <v>286.663239</v>
+        <v>286.663208</v>
       </c>
       <c r="G189" t="n">
         <v>701414600</v>
@@ -16122,10 +16122,10 @@
         <v>0.010558</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.001027</v>
+        <v>-0.001028</v>
       </c>
       <c r="L189" t="n">
-        <v>0.001027</v>
+        <v>0.001028</v>
       </c>
       <c r="M189" t="n">
         <v>333553435000</v>
@@ -16181,7 +16181,7 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>289.326937</v>
+        <v>289.326907</v>
       </c>
       <c r="D190" t="n">
         <v>295.043101</v>
@@ -16190,7 +16190,7 @@
         <v>252.862113</v>
       </c>
       <c r="F190" t="n">
-        <v>270.098114</v>
+        <v>270.098083</v>
       </c>
       <c r="G190" t="n">
         <v>1325374300</v>
@@ -16264,16 +16264,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>273.937958</v>
+        <v>273.938019</v>
       </c>
       <c r="D191" t="n">
-        <v>289.171347</v>
+        <v>289.171409</v>
       </c>
       <c r="E191" t="n">
-        <v>259.62821</v>
+        <v>259.628119</v>
       </c>
       <c r="F191" t="n">
-        <v>261.87384</v>
+        <v>261.873749</v>
       </c>
       <c r="G191" t="n">
         <v>936826500</v>
@@ -16347,13 +16347,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>264.275042</v>
+        <v>264.275011</v>
       </c>
       <c r="D192" t="n">
-        <v>291.805842</v>
+        <v>291.805873</v>
       </c>
       <c r="E192" t="n">
-        <v>259.531016</v>
+        <v>259.530986</v>
       </c>
       <c r="F192" t="n">
         <v>291.271179</v>
@@ -16430,16 +16430,16 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>293.555709</v>
+        <v>293.555769</v>
       </c>
       <c r="D193" t="n">
-        <v>306.475747</v>
+        <v>306.475808</v>
       </c>
       <c r="E193" t="n">
-        <v>289.78384</v>
+        <v>289.78387</v>
       </c>
       <c r="F193" t="n">
-        <v>305.550537</v>
+        <v>305.550507</v>
       </c>
       <c r="G193" t="n">
         <v>569870600</v>
@@ -16513,16 +16513,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>306.884892</v>
+        <v>306.884799</v>
       </c>
       <c r="D194" t="n">
-        <v>321.697867</v>
+        <v>321.697806</v>
       </c>
       <c r="E194" t="n">
-        <v>297.214095</v>
+        <v>297.214005</v>
       </c>
       <c r="F194" t="n">
-        <v>306.349213</v>
+        <v>306.349152</v>
       </c>
       <c r="G194" t="n">
         <v>655263000</v>
@@ -16596,16 +16596,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>309.806443</v>
+        <v>309.806533</v>
       </c>
       <c r="D195" t="n">
-        <v>329.362408</v>
+        <v>329.362377</v>
       </c>
       <c r="E195" t="n">
-        <v>302.76524</v>
+        <v>302.76521</v>
       </c>
       <c r="F195" t="n">
-        <v>305.940155</v>
+        <v>305.940125</v>
       </c>
       <c r="G195" t="n">
         <v>795468600</v>
@@ -16679,13 +16679,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>310.936249</v>
+        <v>310.936219</v>
       </c>
       <c r="D196" t="n">
-        <v>315.864164</v>
+        <v>315.864133</v>
       </c>
       <c r="E196" t="n">
-        <v>289.685801</v>
+        <v>289.68583</v>
       </c>
       <c r="F196" t="n">
         <v>311.192383</v>
@@ -16762,16 +16762,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>315.03441</v>
+        <v>315.034501</v>
       </c>
       <c r="D197" t="n">
-        <v>334.273628</v>
+        <v>334.27372</v>
       </c>
       <c r="E197" t="n">
-        <v>314.780867</v>
+        <v>314.780958</v>
       </c>
       <c r="F197" t="n">
-        <v>329.583313</v>
+        <v>329.583344</v>
       </c>
       <c r="G197" t="n">
         <v>771139800</v>
@@ -16845,16 +16845,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>330.792583</v>
+        <v>330.792552</v>
       </c>
       <c r="D198" t="n">
-        <v>331.54342</v>
+        <v>331.543389</v>
       </c>
       <c r="E198" t="n">
-        <v>308.140331</v>
+        <v>308.14024</v>
       </c>
       <c r="F198" t="n">
-        <v>325.624329</v>
+        <v>325.624268</v>
       </c>
       <c r="G198" t="n">
         <v>965410800</v>
@@ -16928,7 +16928,7 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>326.960228</v>
+        <v>326.960197</v>
       </c>
       <c r="D199" t="n">
         <v>346.796375</v>
@@ -16943,7 +16943,7 @@
         <v>751288500</v>
       </c>
       <c r="H199" t="n">
-        <v>0.062621</v>
+        <v>0.062622</v>
       </c>
       <c r="I199" t="n">
         <v>0.063441</v>
@@ -17011,16 +17011,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>345.663879</v>
+        <v>345.663909</v>
       </c>
       <c r="D200" t="n">
-        <v>360.132104</v>
+        <v>360.131982</v>
       </c>
       <c r="E200" t="n">
-        <v>343.682039</v>
+        <v>343.68213</v>
       </c>
       <c r="F200" t="n">
-        <v>355.914673</v>
+        <v>355.914581</v>
       </c>
       <c r="G200" t="n">
         <v>813285700</v>
@@ -17035,10 +17035,10 @@
         <v>0.006975</v>
       </c>
       <c r="K200" t="n">
-        <v>0.000777</v>
+        <v>0.000776</v>
       </c>
       <c r="L200" t="n">
-        <v>0.000777</v>
+        <v>0.000776</v>
       </c>
       <c r="M200" t="n">
         <v>333553435000</v>
@@ -17094,7 +17094,7 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>357.583924</v>
+        <v>357.583985</v>
       </c>
       <c r="D201" t="n">
         <v>371.720215</v>
@@ -17103,7 +17103,7 @@
         <v>351.414057</v>
       </c>
       <c r="F201" t="n">
-        <v>370.929474</v>
+        <v>370.929443</v>
       </c>
       <c r="G201" t="n">
         <v>683466500</v>
@@ -17183,10 +17183,10 @@
         <v>373.692284</v>
       </c>
       <c r="E202" t="n">
-        <v>349.008439</v>
+        <v>349.008409</v>
       </c>
       <c r="F202" t="n">
-        <v>349.848938</v>
+        <v>349.848907</v>
       </c>
       <c r="G202" t="n">
         <v>931849900</v>
@@ -17263,13 +17263,13 @@
         <v>350.47443</v>
       </c>
       <c r="D203" t="n">
-        <v>377.527276</v>
+        <v>377.527184</v>
       </c>
       <c r="E203" t="n">
-        <v>342.382102</v>
+        <v>342.382072</v>
       </c>
       <c r="F203" t="n">
-        <v>377.361115</v>
+        <v>377.361023</v>
       </c>
       <c r="G203" t="n">
         <v>878747900</v>
@@ -17346,19 +17346,19 @@
         <v>377.800872</v>
       </c>
       <c r="D204" t="n">
-        <v>399.44901</v>
+        <v>399.449041</v>
       </c>
       <c r="E204" t="n">
         <v>375.709378</v>
       </c>
       <c r="F204" t="n">
-        <v>384.896423</v>
+        <v>384.896454</v>
       </c>
       <c r="G204" t="n">
         <v>922244500</v>
       </c>
       <c r="H204" t="n">
-        <v>0.019968</v>
+        <v>0.019969</v>
       </c>
       <c r="I204" t="n">
         <v>0.018009</v>
@@ -17367,10 +17367,10 @@
         <v>0.010662</v>
       </c>
       <c r="K204" t="n">
-        <v>0.001959</v>
+        <v>0.00196</v>
       </c>
       <c r="L204" t="n">
-        <v>0.001959</v>
+        <v>0.00196</v>
       </c>
       <c r="M204" t="n">
         <v>333553435000</v>
@@ -17429,13 +17429,13 @@
         <v>389.255334</v>
       </c>
       <c r="D205" t="n">
-        <v>395.917642</v>
+        <v>395.917611</v>
       </c>
       <c r="E205" t="n">
-        <v>369.388035</v>
+        <v>369.388095</v>
       </c>
       <c r="F205" t="n">
-        <v>389.331726</v>
+        <v>389.331757</v>
       </c>
       <c r="G205" t="n">
         <v>1232817200</v>
@@ -17518,7 +17518,7 @@
         <v>326.995558</v>
       </c>
       <c r="F206" t="n">
-        <v>355.276825</v>
+        <v>355.276794</v>
       </c>
       <c r="G206" t="n">
         <v>1847203000</v>
@@ -17592,22 +17592,22 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>356.62722</v>
+        <v>356.62728</v>
       </c>
       <c r="D207" t="n">
-        <v>362.175855</v>
+        <v>362.175917</v>
       </c>
       <c r="E207" t="n">
-        <v>311.445782</v>
+        <v>311.445867</v>
       </c>
       <c r="F207" t="n">
-        <v>339.374817</v>
+        <v>339.374725</v>
       </c>
       <c r="G207" t="n">
         <v>1522923600</v>
       </c>
       <c r="H207" t="n">
-        <v>-0.044759</v>
+        <v>-0.04476</v>
       </c>
       <c r="I207" t="n">
         <v>-0.046366</v>
@@ -17675,13 +17675,13 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>338.347143</v>
+        <v>338.347205</v>
       </c>
       <c r="D208" t="n">
-        <v>364.318645</v>
+        <v>364.318706</v>
       </c>
       <c r="E208" t="n">
-        <v>310.653142</v>
+        <v>310.653203</v>
       </c>
       <c r="F208" t="n">
         <v>355.216339</v>
@@ -17699,10 +17699,10 @@
         <v>0.020705</v>
       </c>
       <c r="K208" t="n">
-        <v>0.004489</v>
+        <v>0.00449</v>
       </c>
       <c r="L208" t="n">
-        <v>0.004489</v>
+        <v>0.00449</v>
       </c>
       <c r="M208" t="n">
         <v>333553435000</v>
@@ -17758,16 +17758,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>355.480882</v>
+        <v>355.480912</v>
       </c>
       <c r="D209" t="n">
-        <v>361.84959</v>
+        <v>361.849529</v>
       </c>
       <c r="E209" t="n">
-        <v>306.285164</v>
+        <v>306.285195</v>
       </c>
       <c r="F209" t="n">
-        <v>306.922028</v>
+        <v>306.922058</v>
       </c>
       <c r="G209" t="n">
         <v>1501959100</v>
@@ -17841,16 +17841,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>306.510499</v>
+        <v>306.510529</v>
       </c>
       <c r="D210" t="n">
-        <v>323.617867</v>
+        <v>323.617897</v>
       </c>
       <c r="E210" t="n">
-        <v>274.549489</v>
+        <v>274.54943</v>
       </c>
       <c r="F210" t="n">
-        <v>302.05249</v>
+        <v>302.05246</v>
       </c>
       <c r="G210" t="n">
         <v>1951162500</v>
@@ -17865,10 +17865,10 @@
         <v>0.026925</v>
       </c>
       <c r="K210" t="n">
-        <v>0.000681</v>
+        <v>0.00068</v>
       </c>
       <c r="L210" t="n">
-        <v>0.000681</v>
+        <v>0.00068</v>
       </c>
       <c r="M210" t="n">
         <v>333553435000</v>
@@ -17924,16 +17924,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>304.198184</v>
+        <v>304.198246</v>
       </c>
       <c r="D211" t="n">
-        <v>308.205592</v>
+        <v>308.205562</v>
       </c>
       <c r="E211" t="n">
-        <v>263.840293</v>
+        <v>263.840262</v>
       </c>
       <c r="F211" t="n">
-        <v>275.145966</v>
+        <v>275.145996</v>
       </c>
       <c r="G211" t="n">
         <v>1359608000</v>
@@ -18013,7 +18013,7 @@
         <v>310.594567</v>
       </c>
       <c r="E212" t="n">
-        <v>271.680643</v>
+        <v>271.680584</v>
       </c>
       <c r="F212" t="n">
         <v>309.68158</v>
@@ -18090,10 +18090,10 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>307.904705</v>
+        <v>307.904674</v>
       </c>
       <c r="D213" t="n">
-        <v>328.294297</v>
+        <v>328.294204</v>
       </c>
       <c r="E213" t="n">
         <v>292.973315</v>
@@ -18173,22 +18173,22 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>291.284809</v>
+        <v>291.284779</v>
       </c>
       <c r="D214" t="n">
-        <v>305.381803</v>
+        <v>305.381711</v>
       </c>
       <c r="E214" t="n">
-        <v>262.678552</v>
+        <v>262.678613</v>
       </c>
       <c r="F214" t="n">
-        <v>262.835907</v>
+        <v>262.835968</v>
       </c>
       <c r="G214" t="n">
         <v>1370988700</v>
       </c>
       <c r="H214" t="n">
-        <v>-0.105356</v>
+        <v>-0.105355</v>
       </c>
       <c r="I214" t="n">
         <v>-0.105998</v>
@@ -18197,10 +18197,10 @@
         <v>0.018212</v>
       </c>
       <c r="K214" t="n">
-        <v>0.000642</v>
+        <v>0.000643</v>
       </c>
       <c r="L214" t="n">
-        <v>0.000642</v>
+        <v>0.000643</v>
       </c>
       <c r="M214" t="n">
         <v>333553435000</v>
@@ -18256,22 +18256,22 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>264.615973</v>
+        <v>264.616003</v>
       </c>
       <c r="D215" t="n">
-        <v>279.88893</v>
+        <v>279.888869</v>
       </c>
       <c r="E215" t="n">
-        <v>250.051093</v>
+        <v>250.051151</v>
       </c>
       <c r="F215" t="n">
-        <v>273.34903</v>
+        <v>273.348999</v>
       </c>
       <c r="G215" t="n">
         <v>1356809000</v>
       </c>
       <c r="H215" t="n">
-        <v>0.039999</v>
+        <v>0.039998</v>
       </c>
       <c r="I215" t="n">
         <v>0.03959</v>
@@ -18280,10 +18280,10 @@
         <v>0.021452</v>
       </c>
       <c r="K215" t="n">
-        <v>0.000409</v>
+        <v>0.000408</v>
       </c>
       <c r="L215" t="n">
-        <v>0.000409</v>
+        <v>0.000408</v>
       </c>
       <c r="M215" t="n">
         <v>333553435000</v>
@@ -18339,22 +18339,22 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>276.840238</v>
+        <v>276.840176</v>
       </c>
       <c r="D216" t="n">
-        <v>288.612132</v>
+        <v>288.61207</v>
       </c>
       <c r="E216" t="n">
         <v>254.791368</v>
       </c>
       <c r="F216" t="n">
-        <v>288.503937</v>
+        <v>288.503876</v>
       </c>
       <c r="G216" t="n">
         <v>1195762800</v>
       </c>
       <c r="H216" t="n">
-        <v>0.055442</v>
+        <v>0.055441</v>
       </c>
       <c r="I216" t="n">
         <v>0.054753</v>
@@ -18363,10 +18363,10 @@
         <v>0.024235</v>
       </c>
       <c r="K216" t="n">
-        <v>0.0006890000000000001</v>
+        <v>0.000688</v>
       </c>
       <c r="L216" t="n">
-        <v>0.0006890000000000001</v>
+        <v>0.000688</v>
       </c>
       <c r="M216" t="n">
         <v>333553435000</v>
@@ -18422,16 +18422,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>288.828438</v>
+        <v>288.828469</v>
       </c>
       <c r="D217" t="n">
-        <v>291.965633</v>
+        <v>291.965664</v>
       </c>
       <c r="E217" t="n">
-        <v>256.042149</v>
+        <v>256.042058</v>
       </c>
       <c r="F217" t="n">
-        <v>262.499146</v>
+        <v>262.499115</v>
       </c>
       <c r="G217" t="n">
         <v>1057037700</v>
@@ -18508,10 +18508,10 @@
         <v>264.835444</v>
       </c>
       <c r="D218" t="n">
-        <v>294.025008</v>
+        <v>294.025038</v>
       </c>
       <c r="E218" t="n">
-        <v>256.643439</v>
+        <v>256.643409</v>
       </c>
       <c r="F218" t="n">
         <v>290.436737</v>
@@ -18588,16 +18588,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>290.229733</v>
+        <v>290.229673</v>
       </c>
       <c r="D219" t="n">
-        <v>309.226076</v>
+        <v>309.226107</v>
       </c>
       <c r="E219" t="n">
         <v>285.931595</v>
       </c>
       <c r="F219" t="n">
-        <v>289.391785</v>
+        <v>289.391815</v>
       </c>
       <c r="G219" t="n">
         <v>1094424800</v>
@@ -18671,16 +18671,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>289.096025</v>
+        <v>289.095994</v>
       </c>
       <c r="D220" t="n">
-        <v>317.099864</v>
+        <v>317.099925</v>
       </c>
       <c r="E220" t="n">
-        <v>281.140654</v>
+        <v>281.140624</v>
       </c>
       <c r="F220" t="n">
-        <v>316.862885</v>
+        <v>316.862946</v>
       </c>
       <c r="G220" t="n">
         <v>1544782600</v>
@@ -18754,16 +18754,16 @@
         </is>
       </c>
       <c r="C221" t="n">
-        <v>314.730318</v>
+        <v>314.730288</v>
       </c>
       <c r="D221" t="n">
-        <v>318.561115</v>
+        <v>318.561085</v>
       </c>
       <c r="E221" t="n">
-        <v>305.962876</v>
+        <v>305.962845</v>
       </c>
       <c r="F221" t="n">
-        <v>318.47226</v>
+        <v>318.472229</v>
       </c>
       <c r="G221" t="n">
         <v>993494600</v>
@@ -18837,13 +18837,13 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>318.008195</v>
+        <v>318.008225</v>
       </c>
       <c r="D222" t="n">
         <v>349.444724</v>
       </c>
       <c r="E222" t="n">
-        <v>311.126527</v>
+        <v>311.126588</v>
       </c>
       <c r="F222" t="n">
         <v>343.579987</v>
@@ -18920,16 +18920,16 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>343.323253</v>
+        <v>343.323313</v>
       </c>
       <c r="D223" t="n">
-        <v>368.124967</v>
+        <v>368.125029</v>
       </c>
       <c r="E223" t="n">
-        <v>342.266805</v>
+        <v>342.266865</v>
       </c>
       <c r="F223" t="n">
-        <v>365.238739</v>
+        <v>365.238708</v>
       </c>
       <c r="G223" t="n">
         <v>1137710300</v>
@@ -19003,16 +19003,16 @@
         </is>
       </c>
       <c r="C224" t="n">
-        <v>365.881366</v>
+        <v>365.881396</v>
       </c>
       <c r="D224" t="n">
         <v>383.588679</v>
       </c>
       <c r="E224" t="n">
-        <v>359.296756</v>
+        <v>359.296786</v>
       </c>
       <c r="F224" t="n">
-        <v>379.337341</v>
+        <v>379.337311</v>
       </c>
       <c r="G224" t="n">
         <v>974997400</v>
@@ -19086,16 +19086,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>377.98285</v>
+        <v>377.982819</v>
       </c>
       <c r="D225" t="n">
-        <v>379.218702</v>
+        <v>379.218671</v>
       </c>
       <c r="E225" t="n">
         <v>350.695234</v>
       </c>
       <c r="F225" t="n">
-        <v>373.711761</v>
+        <v>373.711731</v>
       </c>
       <c r="G225" t="n">
         <v>1202220400</v>
@@ -19169,16 +19169,16 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>376.094446</v>
+        <v>376.094477</v>
       </c>
       <c r="D226" t="n">
-        <v>376.519572</v>
+        <v>376.519603</v>
       </c>
       <c r="E226" t="n">
         <v>347.885995</v>
       </c>
       <c r="F226" t="n">
-        <v>354.727661</v>
+        <v>354.727692</v>
       </c>
       <c r="G226" t="n">
         <v>959714600</v>
@@ -19193,10 +19193,10 @@
         <v>0.009016</v>
       </c>
       <c r="K226" t="n">
-        <v>-0.000104</v>
+        <v>-0.000103</v>
       </c>
       <c r="L226" t="n">
-        <v>0.000104</v>
+        <v>0.000103</v>
       </c>
       <c r="M226" t="n">
         <v>333553435000</v>
@@ -19255,10 +19255,10 @@
         <v>354.995033</v>
       </c>
       <c r="D227" t="n">
-        <v>370.044758</v>
+        <v>370.044696</v>
       </c>
       <c r="E227" t="n">
-        <v>338.965101</v>
+        <v>338.965131</v>
       </c>
       <c r="F227" t="n">
         <v>347.400848</v>
@@ -19335,16 +19335,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>348.242452</v>
+        <v>348.242422</v>
       </c>
       <c r="D228" t="n">
-        <v>390.243046</v>
+        <v>390.243015</v>
       </c>
       <c r="E228" t="n">
-        <v>348.143435</v>
+        <v>348.143405</v>
       </c>
       <c r="F228" t="n">
-        <v>384.985504</v>
+        <v>384.985535</v>
       </c>
       <c r="G228" t="n">
         <v>971319100</v>
@@ -19442,10 +19442,10 @@
         <v>0.007517</v>
       </c>
       <c r="K229" t="n">
-        <v>0.000812</v>
+        <v>0.000811</v>
       </c>
       <c r="L229" t="n">
-        <v>0.000812</v>
+        <v>0.000811</v>
       </c>
       <c r="M229" t="n">
         <v>333553435000</v>
@@ -19510,7 +19510,7 @@
         <v>392.419291</v>
       </c>
       <c r="F230" t="n">
-        <v>413.889526</v>
+        <v>413.889496</v>
       </c>
       <c r="G230" t="n">
         <v>972918400</v>
@@ -19593,7 +19593,7 @@
         <v>414.723306</v>
       </c>
       <c r="F231" t="n">
-        <v>435.756775</v>
+        <v>435.756744</v>
       </c>
       <c r="G231" t="n">
         <v>866229300</v>
@@ -19750,13 +19750,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>442.266663</v>
+        <v>442.266694</v>
       </c>
       <c r="D233" t="n">
-        <v>444.811108</v>
+        <v>444.811139</v>
       </c>
       <c r="E233" t="n">
-        <v>410.560472</v>
+        <v>410.560502</v>
       </c>
       <c r="F233" t="n">
         <v>422.010468</v>

--- a/data/qqq_data.xlsx
+++ b/data/qqq_data.xlsx
@@ -577,16 +577,16 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.282431</v>
+        <v>34.282447</v>
       </c>
       <c r="D2" t="n">
-        <v>34.453459</v>
+        <v>34.453475</v>
       </c>
       <c r="E2" t="n">
-        <v>31.178283</v>
+        <v>31.178296</v>
       </c>
       <c r="F2" t="n">
-        <v>31.982122</v>
+        <v>31.982111</v>
       </c>
       <c r="G2" t="n">
         <v>2234773200</v>
@@ -615,7 +615,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O2" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P2" t="n">
         <v>57.99999999999999</v>
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.059075</v>
+        <v>32.059079</v>
       </c>
       <c r="D3" t="n">
         <v>32.905666</v>
       </c>
       <c r="E3" t="n">
-        <v>31.383514</v>
+        <v>31.383527</v>
       </c>
       <c r="F3" t="n">
-        <v>31.828194</v>
+        <v>31.828186</v>
       </c>
       <c r="G3" t="n">
         <v>1765610600</v>
@@ -700,7 +700,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O3" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P3" t="n">
         <v>57.99999999999999</v>
@@ -747,22 +747,22 @@
         </is>
       </c>
       <c r="C4" t="n">
-        <v>31.956469</v>
+        <v>31.956457</v>
       </c>
       <c r="D4" t="n">
-        <v>32.743178</v>
+        <v>32.74319</v>
       </c>
       <c r="E4" t="n">
-        <v>30.733604</v>
+        <v>30.733617</v>
       </c>
       <c r="F4" t="n">
-        <v>31.272335</v>
+        <v>31.272364</v>
       </c>
       <c r="G4" t="n">
         <v>2133973700</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.017464</v>
+        <v>-0.017463</v>
       </c>
       <c r="I4" t="n">
         <v>-0.018855</v>
@@ -771,7 +771,7 @@
         <v>0.008751</v>
       </c>
       <c r="K4" t="n">
-        <v>0.00139</v>
+        <v>0.001392</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -785,7 +785,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O4" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P4" t="n">
         <v>57.99999999999999</v>
@@ -832,16 +832,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.486153</v>
+        <v>31.486145</v>
       </c>
       <c r="D5" t="n">
-        <v>31.699931</v>
+        <v>31.699933</v>
       </c>
       <c r="E5" t="n">
-        <v>29.373954</v>
+        <v>29.373952</v>
       </c>
       <c r="F5" t="n">
-        <v>29.912691</v>
+        <v>29.912689</v>
       </c>
       <c r="G5" t="n">
         <v>2345433600</v>
@@ -870,7 +870,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O5" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P5" t="n">
         <v>57.99999999999999</v>
@@ -917,22 +917,22 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>30.015297</v>
+        <v>30.015303</v>
       </c>
       <c r="D6" t="n">
-        <v>32.726078</v>
+        <v>32.726062</v>
       </c>
       <c r="E6" t="n">
-        <v>29.835719</v>
+        <v>29.835725</v>
       </c>
       <c r="F6" t="n">
-        <v>32.563637</v>
+        <v>32.563618</v>
       </c>
       <c r="G6" t="n">
         <v>1881340000</v>
       </c>
       <c r="H6" t="n">
-        <v>0.08862299999999999</v>
+        <v>0.08862200000000001</v>
       </c>
       <c r="I6" t="n">
         <v>0.085755</v>
@@ -941,7 +941,7 @@
         <v>0.00633</v>
       </c>
       <c r="K6" t="n">
-        <v>0.002868</v>
+        <v>0.002867</v>
       </c>
       <c r="L6" t="inlineStr">
         <is>
@@ -955,7 +955,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O6" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P6" t="n">
         <v>57.99999999999999</v>
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.520851</v>
+        <v>32.520859</v>
       </c>
       <c r="D7" t="n">
-        <v>33.076691</v>
+        <v>33.076699</v>
       </c>
       <c r="E7" t="n">
-        <v>31.412524</v>
+        <v>31.412536</v>
       </c>
       <c r="F7" t="n">
-        <v>31.480995</v>
+        <v>31.481005</v>
       </c>
       <c r="G7" t="n">
         <v>1943627500</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.033247</v>
+        <v>-0.033246</v>
       </c>
       <c r="I7" t="n">
         <v>-0.031835</v>
@@ -1026,7 +1026,7 @@
         <v>0.007409</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001412</v>
+        <v>-0.001411</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1040,7 +1040,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O7" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P7" t="n">
         <v>57.99999999999999</v>
@@ -1087,16 +1087,16 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.549468</v>
+        <v>31.549485</v>
       </c>
       <c r="D8" t="n">
-        <v>34.168623</v>
+        <v>34.168626</v>
       </c>
       <c r="E8" t="n">
-        <v>31.284152</v>
+        <v>31.284121</v>
       </c>
       <c r="F8" t="n">
-        <v>33.877602</v>
+        <v>33.877609</v>
       </c>
       <c r="G8" t="n">
         <v>1620613000</v>
@@ -1125,7 +1125,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O8" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P8" t="n">
         <v>57.99999999999999</v>
@@ -1172,16 +1172,16 @@
         </is>
       </c>
       <c r="C9" t="n">
-        <v>33.928966</v>
+        <v>33.928958</v>
       </c>
       <c r="D9" t="n">
-        <v>34.356922</v>
+        <v>34.35693</v>
       </c>
       <c r="E9" t="n">
-        <v>32.747779</v>
+        <v>32.747783</v>
       </c>
       <c r="F9" t="n">
-        <v>33.364037</v>
+        <v>33.364044</v>
       </c>
       <c r="G9" t="n">
         <v>1714890300</v>
@@ -1210,7 +1210,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O9" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P9" t="n">
         <v>57.99999999999999</v>
@@ -1257,16 +1257,16 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.381174</v>
+        <v>33.381186</v>
       </c>
       <c r="D10" t="n">
-        <v>34.160057</v>
+        <v>34.160038</v>
       </c>
       <c r="E10" t="n">
-        <v>32.730652</v>
+        <v>32.73066</v>
       </c>
       <c r="F10" t="n">
-        <v>33.774891</v>
+        <v>33.774895</v>
       </c>
       <c r="G10" t="n">
         <v>1676662500</v>
@@ -1295,7 +1295,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O10" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P10" t="n">
         <v>57.99999999999999</v>
@@ -1342,16 +1342,16 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.843359</v>
+        <v>33.84337</v>
       </c>
       <c r="D11" t="n">
-        <v>34.134375</v>
+        <v>34.134379</v>
       </c>
       <c r="E11" t="n">
-        <v>31.951757</v>
+        <v>31.951761</v>
       </c>
       <c r="F11" t="n">
-        <v>33.269882</v>
+        <v>33.269897</v>
       </c>
       <c r="G11" t="n">
         <v>2279169700</v>
@@ -1366,7 +1366,7 @@
         <v>0.010775</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.000917</v>
+        <v>-0.000916</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1380,7 +1380,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O11" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P11" t="n">
         <v>57.99999999999999</v>
@@ -1427,16 +1427,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.19286</v>
+        <v>33.192872</v>
       </c>
       <c r="D12" t="n">
-        <v>35.96608</v>
+        <v>35.966072</v>
       </c>
       <c r="E12" t="n">
         <v>33.132944</v>
       </c>
       <c r="F12" t="n">
-        <v>35.298431</v>
+        <v>35.298454</v>
       </c>
       <c r="G12" t="n">
         <v>1718491700</v>
@@ -1465,7 +1465,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O12" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P12" t="n">
         <v>57.99999999999999</v>
@@ -1512,22 +1512,22 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35.529548</v>
+        <v>35.529529</v>
       </c>
       <c r="D13" t="n">
-        <v>36.214278</v>
+        <v>36.214298</v>
       </c>
       <c r="E13" t="n">
-        <v>34.628556</v>
+        <v>34.628541</v>
       </c>
       <c r="F13" t="n">
-        <v>34.671455</v>
+        <v>34.67144</v>
       </c>
       <c r="G13" t="n">
         <v>1416706400</v>
       </c>
       <c r="H13" t="n">
-        <v>-0.017762</v>
+        <v>-0.017763</v>
       </c>
       <c r="I13" t="n">
         <v>-0.016358</v>
@@ -1536,7 +1536,7 @@
         <v>0.007271</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001404</v>
+        <v>-0.001405</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1550,7 +1550,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O13" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P13" t="n">
         <v>57.99999999999999</v>
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34.877382</v>
+        <v>34.877397</v>
       </c>
       <c r="D14" t="n">
         <v>37.159623</v>
       </c>
       <c r="E14" t="n">
-        <v>34.456965</v>
+        <v>34.456979</v>
       </c>
       <c r="F14" t="n">
-        <v>36.035667</v>
+        <v>36.035671</v>
       </c>
       <c r="G14" t="n">
         <v>1968905800</v>
@@ -1635,7 +1635,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O14" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P14" t="n">
         <v>57.99999999999999</v>
@@ -1682,22 +1682,22 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35.812583</v>
+        <v>35.812572</v>
       </c>
       <c r="D15" t="n">
-        <v>36.181517</v>
+        <v>36.181506</v>
       </c>
       <c r="E15" t="n">
-        <v>34.542765</v>
+        <v>34.542746</v>
       </c>
       <c r="F15" t="n">
-        <v>35.263474</v>
+        <v>35.263481</v>
       </c>
       <c r="G15" t="n">
         <v>1646562100</v>
       </c>
       <c r="H15" t="n">
-        <v>-0.021429</v>
+        <v>-0.021428</v>
       </c>
       <c r="I15" t="n">
         <v>-0.023487</v>
@@ -1720,7 +1720,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O15" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P15" t="n">
         <v>57.99999999999999</v>
@@ -1767,22 +1767,22 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.375005</v>
+        <v>35.375002</v>
       </c>
       <c r="D16" t="n">
-        <v>36.31853</v>
+        <v>36.318519</v>
       </c>
       <c r="E16" t="n">
-        <v>34.4827</v>
+        <v>34.482708</v>
       </c>
       <c r="F16" t="n">
-        <v>36.000851</v>
+        <v>36.000847</v>
       </c>
       <c r="G16" t="n">
         <v>2185862300</v>
       </c>
       <c r="H16" t="n">
-        <v>0.020911</v>
+        <v>0.02091</v>
       </c>
       <c r="I16" t="n">
         <v>0.019808</v>
@@ -1805,7 +1805,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O16" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P16" t="n">
         <v>57.99999999999999</v>
@@ -1852,16 +1852,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.189729</v>
+        <v>36.189713</v>
       </c>
       <c r="D17" t="n">
-        <v>36.962478</v>
+        <v>36.962459</v>
       </c>
       <c r="E17" t="n">
-        <v>35.537165</v>
+        <v>35.537226</v>
       </c>
       <c r="F17" t="n">
-        <v>35.932159</v>
+        <v>35.932156</v>
       </c>
       <c r="G17" t="n">
         <v>1763904700</v>
@@ -1890,7 +1890,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O17" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P17" t="n">
         <v>57.99999999999999</v>
@@ -1937,13 +1937,13 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35.992241</v>
+        <v>35.992276</v>
       </c>
       <c r="D18" t="n">
-        <v>36.301348</v>
+        <v>36.301363</v>
       </c>
       <c r="E18" t="n">
-        <v>32.824049</v>
+        <v>32.824034</v>
       </c>
       <c r="F18" t="n">
         <v>33.33062</v>
@@ -1975,7 +1975,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O18" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P18" t="n">
         <v>57.99999999999999</v>
@@ -2022,16 +2022,16 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33.425052</v>
+        <v>33.425082</v>
       </c>
       <c r="D19" t="n">
-        <v>34.343762</v>
+        <v>34.343759</v>
       </c>
       <c r="E19" t="n">
-        <v>31.905343</v>
+        <v>31.90535</v>
       </c>
       <c r="F19" t="n">
-        <v>33.310093</v>
+        <v>33.310078</v>
       </c>
       <c r="G19" t="n">
         <v>3052135000</v>
@@ -2060,7 +2060,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O19" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P19" t="n">
         <v>57.99999999999999</v>
@@ -2107,16 +2107,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33.4132</v>
+        <v>33.413211</v>
       </c>
       <c r="D20" t="n">
-        <v>33.50771</v>
+        <v>33.507721</v>
       </c>
       <c r="E20" t="n">
-        <v>30.534962</v>
+        <v>30.534971</v>
       </c>
       <c r="F20" t="n">
-        <v>31.875284</v>
+        <v>31.875265</v>
       </c>
       <c r="G20" t="n">
         <v>2462886000</v>
@@ -2145,7 +2145,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O20" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P20" t="n">
         <v>57.99999999999999</v>
@@ -2192,22 +2192,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.591747</v>
+        <v>31.591749</v>
       </c>
       <c r="D21" t="n">
-        <v>33.533467</v>
+        <v>33.533478</v>
       </c>
       <c r="E21" t="n">
-        <v>31.153568</v>
+        <v>31.15357</v>
       </c>
       <c r="F21" t="n">
-        <v>33.396</v>
+        <v>33.396004</v>
       </c>
       <c r="G21" t="n">
         <v>2281929100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.047708</v>
+        <v>0.047709</v>
       </c>
       <c r="I21" t="n">
         <v>0.046574</v>
@@ -2216,7 +2216,7 @@
         <v>0.009743</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001134</v>
+        <v>0.001135</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2230,7 +2230,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O21" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P21" t="n">
         <v>57.99999999999999</v>
@@ -2280,13 +2280,13 @@
         <v>33.576431</v>
       </c>
       <c r="D22" t="n">
-        <v>35.203342</v>
+        <v>35.203327</v>
       </c>
       <c r="E22" t="n">
-        <v>32.92347</v>
+        <v>32.923477</v>
       </c>
       <c r="F22" t="n">
-        <v>34.945427</v>
+        <v>34.945442</v>
       </c>
       <c r="G22" t="n">
         <v>2234461000</v>
@@ -2315,7 +2315,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O22" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P22" t="n">
         <v>57.99999999999999</v>
@@ -2362,13 +2362,13 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.902449</v>
+        <v>34.902457</v>
       </c>
       <c r="D23" t="n">
-        <v>36.896875</v>
+        <v>36.896871</v>
       </c>
       <c r="E23" t="n">
-        <v>34.283477</v>
+        <v>34.283488</v>
       </c>
       <c r="F23" t="n">
         <v>36.604595</v>
@@ -2377,7 +2377,7 @@
         <v>2410484000</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047479</v>
+        <v>0.047478</v>
       </c>
       <c r="I23" t="n">
         <v>0.047403</v>
@@ -2400,7 +2400,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O23" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P23" t="n">
         <v>57.99999999999999</v>
@@ -2447,16 +2447,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36.733524</v>
+        <v>36.733555</v>
       </c>
       <c r="D24" t="n">
-        <v>38.564631</v>
+        <v>38.564627</v>
       </c>
       <c r="E24" t="n">
-        <v>35.770714</v>
+        <v>35.770725</v>
       </c>
       <c r="F24" t="n">
-        <v>37.859699</v>
+        <v>37.859703</v>
       </c>
       <c r="G24" t="n">
         <v>2370363000</v>
@@ -2485,7 +2485,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O24" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P24" t="n">
         <v>57.99999999999999</v>
@@ -2532,22 +2532,22 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37.825341</v>
+        <v>37.825326</v>
       </c>
       <c r="D25" t="n">
         <v>38.525546</v>
       </c>
       <c r="E25" t="n">
-        <v>36.907417</v>
+        <v>36.907402</v>
       </c>
       <c r="F25" t="n">
-        <v>37.148407</v>
+        <v>37.148415</v>
       </c>
       <c r="G25" t="n">
         <v>1898275500</v>
       </c>
       <c r="H25" t="n">
-        <v>-0.018788</v>
+        <v>-0.018787</v>
       </c>
       <c r="I25" t="n">
         <v>-0.019177</v>
@@ -2570,7 +2570,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O25" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P25" t="n">
         <v>57.99999999999999</v>
@@ -2620,19 +2620,19 @@
         <v>37.406617</v>
       </c>
       <c r="D26" t="n">
-        <v>39.07641</v>
+        <v>39.076413</v>
       </c>
       <c r="E26" t="n">
         <v>36.597547</v>
       </c>
       <c r="F26" t="n">
-        <v>37.931675</v>
+        <v>37.931652</v>
       </c>
       <c r="G26" t="n">
         <v>2620557700</v>
       </c>
       <c r="H26" t="n">
-        <v>0.021085</v>
+        <v>0.021084</v>
       </c>
       <c r="I26" t="n">
         <v>0.020138</v>
@@ -2641,7 +2641,7 @@
         <v>0.009499</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000947</v>
+        <v>0.000946</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2655,7 +2655,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O26" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P26" t="n">
         <v>57.99999999999999</v>
@@ -2702,22 +2702,22 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38.103796</v>
+        <v>38.103804</v>
       </c>
       <c r="D27" t="n">
-        <v>39.205518</v>
+        <v>39.205503</v>
       </c>
       <c r="E27" t="n">
-        <v>36.950441</v>
+        <v>36.950459</v>
       </c>
       <c r="F27" t="n">
-        <v>37.294727</v>
+        <v>37.294746</v>
       </c>
       <c r="G27" t="n">
         <v>2394303300</v>
       </c>
       <c r="H27" t="n">
-        <v>-0.016792</v>
+        <v>-0.016791</v>
       </c>
       <c r="I27" t="n">
         <v>-0.017118</v>
@@ -2726,7 +2726,7 @@
         <v>0.011576</v>
       </c>
       <c r="K27" t="n">
-        <v>0.000326</v>
+        <v>0.000327</v>
       </c>
       <c r="L27" t="inlineStr">
         <is>
@@ -2740,7 +2740,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O27" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P27" t="n">
         <v>57.99999999999999</v>
@@ -2787,22 +2787,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.623374</v>
+        <v>36.623377</v>
       </c>
       <c r="D28" t="n">
-        <v>38.282827</v>
+        <v>38.282831</v>
       </c>
       <c r="E28" t="n">
         <v>36.201619</v>
       </c>
       <c r="F28" t="n">
-        <v>37.490475</v>
+        <v>37.490463</v>
       </c>
       <c r="G28" t="n">
         <v>2886831700</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005249</v>
+        <v>0.005248</v>
       </c>
       <c r="I28" t="n">
         <v>0.006108</v>
@@ -2811,7 +2811,7 @@
         <v>0.009922</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.000859</v>
+        <v>-0.00086</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2825,7 +2825,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O28" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P28" t="n">
         <v>57.99999999999999</v>
@@ -2872,16 +2872,16 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37.611059</v>
+        <v>37.61104</v>
       </c>
       <c r="D29" t="n">
-        <v>40.220649</v>
+        <v>40.220645</v>
       </c>
       <c r="E29" t="n">
-        <v>37.292395</v>
+        <v>37.292376</v>
       </c>
       <c r="F29" t="n">
-        <v>39.583324</v>
+        <v>39.583336</v>
       </c>
       <c r="G29" t="n">
         <v>1840448700</v>
@@ -2910,7 +2910,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O29" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P29" t="n">
         <v>57.99999999999999</v>
@@ -2957,13 +2957,13 @@
         </is>
       </c>
       <c r="C30" t="n">
-        <v>39.591924</v>
+        <v>39.591936</v>
       </c>
       <c r="D30" t="n">
         <v>40.926877</v>
       </c>
       <c r="E30" t="n">
-        <v>39.324934</v>
+        <v>39.324945</v>
       </c>
       <c r="F30" t="n">
         <v>40.832138</v>
@@ -2995,7 +2995,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O30" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P30" t="n">
         <v>57.99999999999999</v>
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40.97855</v>
+        <v>40.978557</v>
       </c>
       <c r="D31" t="n">
-        <v>41.303652</v>
+        <v>41.303656</v>
       </c>
       <c r="E31" t="n">
-        <v>39.755593</v>
+        <v>39.755566</v>
       </c>
       <c r="F31" t="n">
         <v>41.02784</v>
@@ -3080,7 +3080,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O31" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P31" t="n">
         <v>57.99999999999999</v>
@@ -3127,22 +3127,22 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>41.122647</v>
+        <v>41.122666</v>
       </c>
       <c r="D32" t="n">
-        <v>43.665344</v>
+        <v>43.66534</v>
       </c>
       <c r="E32" t="n">
-        <v>40.881326</v>
+        <v>40.8813</v>
       </c>
       <c r="F32" t="n">
-        <v>40.967518</v>
+        <v>40.967491</v>
       </c>
       <c r="G32" t="n">
         <v>2780452500</v>
       </c>
       <c r="H32" t="n">
-        <v>-0.00147</v>
+        <v>-0.001471</v>
       </c>
       <c r="I32" t="n">
         <v>-0.001055</v>
@@ -3165,7 +3165,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O32" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P32" t="n">
         <v>57.99999999999999</v>
@@ -3212,13 +3212,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40.846844</v>
+        <v>40.846818</v>
       </c>
       <c r="D33" t="n">
-        <v>42.286255</v>
+        <v>42.286256</v>
       </c>
       <c r="E33" t="n">
-        <v>38.261048</v>
+        <v>38.261036</v>
       </c>
       <c r="F33" t="n">
         <v>42.122486</v>
@@ -3227,7 +3227,7 @@
         <v>3835583500</v>
       </c>
       <c r="H33" t="n">
-        <v>0.028192</v>
+        <v>0.028193</v>
       </c>
       <c r="I33" t="n">
         <v>0.029331</v>
@@ -3236,7 +3236,7 @@
         <v>0.01578</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001139</v>
+        <v>-0.001138</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3250,7 +3250,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O33" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P33" t="n">
         <v>57.99999999999999</v>
@@ -3297,7 +3297,7 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.174216</v>
+        <v>42.174209</v>
       </c>
       <c r="D34" t="n">
         <v>44.567677</v>
@@ -3335,7 +3335,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O34" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P34" t="n">
         <v>57.99999999999999</v>
@@ -3382,16 +3382,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44.369306</v>
+        <v>44.369329</v>
       </c>
       <c r="D35" t="n">
-        <v>47.491127</v>
+        <v>47.491119</v>
       </c>
       <c r="E35" t="n">
-        <v>44.274464</v>
+        <v>44.274468</v>
       </c>
       <c r="F35" t="n">
-        <v>47.456631</v>
+        <v>47.456623</v>
       </c>
       <c r="G35" t="n">
         <v>3400285100</v>
@@ -3420,7 +3420,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O35" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P35" t="n">
         <v>57.99999999999999</v>
@@ -3467,16 +3467,16 @@
         </is>
       </c>
       <c r="C36" t="n">
-        <v>47.154807</v>
+        <v>47.154811</v>
       </c>
       <c r="D36" t="n">
-        <v>47.232421</v>
+        <v>47.232425</v>
       </c>
       <c r="E36" t="n">
-        <v>41.954674</v>
+        <v>41.954663</v>
       </c>
       <c r="F36" t="n">
-        <v>44.2486</v>
+        <v>44.248611</v>
       </c>
       <c r="G36" t="n">
         <v>4567776300</v>
@@ -3505,7 +3505,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O36" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P36" t="n">
         <v>57.99999999999999</v>
@@ -3555,19 +3555,19 @@
         <v>44.058876</v>
       </c>
       <c r="D37" t="n">
-        <v>45.568024</v>
+        <v>45.56804</v>
       </c>
       <c r="E37" t="n">
         <v>42.411723</v>
       </c>
       <c r="F37" t="n">
-        <v>44.217033</v>
+        <v>44.21703</v>
       </c>
       <c r="G37" t="n">
         <v>2233867700</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.000713</v>
+        <v>-0.000714</v>
       </c>
       <c r="I37" t="n">
         <v>-0.001996</v>
@@ -3576,7 +3576,7 @@
         <v>0.013125</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001283</v>
+        <v>0.001282</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3590,7 +3590,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O37" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P37" t="n">
         <v>57.99999999999999</v>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.260183</v>
+        <v>44.260195</v>
       </c>
       <c r="D38" t="n">
-        <v>44.432839</v>
+        <v>44.432851</v>
       </c>
       <c r="E38" t="n">
-        <v>35.920929</v>
+        <v>35.920933</v>
       </c>
       <c r="F38" t="n">
-        <v>38.959671</v>
+        <v>38.95966</v>
       </c>
       <c r="G38" t="n">
         <v>4828694600</v>
@@ -3675,7 +3675,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O38" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P38" t="n">
         <v>57.99999999999999</v>
@@ -3722,13 +3722,13 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39.279082</v>
+        <v>39.279075</v>
       </c>
       <c r="D39" t="n">
-        <v>39.607128</v>
+        <v>39.60712</v>
       </c>
       <c r="E39" t="n">
-        <v>36.387117</v>
+        <v>36.38711</v>
       </c>
       <c r="F39" t="n">
         <v>37.077728</v>
@@ -3746,7 +3746,7 @@
         <v>0.014387</v>
       </c>
       <c r="K39" t="n">
-        <v>0.00391</v>
+        <v>0.003911</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3760,7 +3760,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O39" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P39" t="n">
         <v>57.99999999999999</v>
@@ -3807,16 +3807,16 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37.05181</v>
+        <v>37.051833</v>
       </c>
       <c r="D40" t="n">
-        <v>38.938273</v>
+        <v>38.938261</v>
       </c>
       <c r="E40" t="n">
         <v>35.437491</v>
       </c>
       <c r="F40" t="n">
-        <v>37.771927</v>
+        <v>37.771946</v>
       </c>
       <c r="G40" t="n">
         <v>3404279700</v>
@@ -3831,7 +3831,7 @@
         <v>0.021003</v>
       </c>
       <c r="K40" t="n">
-        <v>-0.002283</v>
+        <v>-0.002282</v>
       </c>
       <c r="L40" t="inlineStr">
         <is>
@@ -3845,7 +3845,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O40" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P40" t="n">
         <v>57.99999999999999</v>
@@ -3892,16 +3892,16 @@
         </is>
       </c>
       <c r="C41" t="n">
-        <v>38.376722</v>
+        <v>38.376703</v>
       </c>
       <c r="D41" t="n">
-        <v>41.521485</v>
+        <v>41.521493</v>
       </c>
       <c r="E41" t="n">
-        <v>37.737372</v>
+        <v>37.737383</v>
       </c>
       <c r="F41" t="n">
-        <v>40.787125</v>
+        <v>40.787132</v>
       </c>
       <c r="G41" t="n">
         <v>2616810900</v>
@@ -3916,7 +3916,7 @@
         <v>0.01599</v>
       </c>
       <c r="K41" t="n">
-        <v>0.003634</v>
+        <v>0.003633</v>
       </c>
       <c r="L41" t="inlineStr">
         <is>
@@ -3930,7 +3930,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O41" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P41" t="n">
         <v>57.99999999999999</v>
@@ -3977,16 +3977,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.804412</v>
+        <v>40.804419</v>
       </c>
       <c r="D42" t="n">
-        <v>43.603616</v>
+        <v>43.603619</v>
       </c>
       <c r="E42" t="n">
-        <v>40.795774</v>
+        <v>40.795781</v>
       </c>
       <c r="F42" t="n">
-        <v>43.206192</v>
+        <v>43.206211</v>
       </c>
       <c r="G42" t="n">
         <v>2682797700</v>
@@ -4015,7 +4015,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O42" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P42" t="n">
         <v>57.99999999999999</v>
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>43.128436</v>
+        <v>43.128439</v>
       </c>
       <c r="D43" t="n">
-        <v>43.72456</v>
+        <v>43.724568</v>
       </c>
       <c r="E43" t="n">
-        <v>38.878984</v>
+        <v>38.878991</v>
       </c>
       <c r="F43" t="n">
-        <v>39.051888</v>
+        <v>39.051907</v>
       </c>
       <c r="G43" t="n">
         <v>3542909100</v>
@@ -4100,7 +4100,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O43" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P43" t="n">
         <v>57.99999999999999</v>
@@ -4150,19 +4150,19 @@
         <v>38.740659</v>
       </c>
       <c r="D44" t="n">
-        <v>39.899172</v>
+        <v>39.899153</v>
       </c>
       <c r="E44" t="n">
-        <v>37.435166</v>
+        <v>37.435181</v>
       </c>
       <c r="F44" t="n">
-        <v>39.302628</v>
+        <v>39.302608</v>
       </c>
       <c r="G44" t="n">
         <v>3953264300</v>
       </c>
       <c r="H44" t="n">
-        <v>0.006421</v>
+        <v>0.00642</v>
       </c>
       <c r="I44" t="n">
         <v>0.006565</v>
@@ -4171,7 +4171,7 @@
         <v>0.016009</v>
       </c>
       <c r="K44" t="n">
-        <v>-0.000144</v>
+        <v>-0.000145</v>
       </c>
       <c r="L44" t="inlineStr">
         <is>
@@ -4185,7 +4185,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O44" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P44" t="n">
         <v>57.99999999999999</v>
@@ -4232,16 +4232,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39.345848</v>
+        <v>39.345833</v>
       </c>
       <c r="D45" t="n">
-        <v>41.991376</v>
+        <v>41.991392</v>
       </c>
       <c r="E45" t="n">
-        <v>38.299732</v>
+        <v>38.299736</v>
       </c>
       <c r="F45" t="n">
-        <v>39.87323</v>
+        <v>39.873219</v>
       </c>
       <c r="G45" t="n">
         <v>2893866300</v>
@@ -4270,7 +4270,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O45" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P45" t="n">
         <v>57.99999999999999</v>
@@ -4317,13 +4317,13 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40.521639</v>
+        <v>40.521627</v>
       </c>
       <c r="D46" t="n">
-        <v>40.703198</v>
+        <v>40.703186</v>
       </c>
       <c r="E46" t="n">
-        <v>32.165788</v>
+        <v>32.165773</v>
       </c>
       <c r="F46" t="n">
         <v>33.662468</v>
@@ -4332,7 +4332,7 @@
         <v>5188670400</v>
       </c>
       <c r="H46" t="n">
-        <v>-0.155763</v>
+        <v>-0.155762</v>
       </c>
       <c r="I46" t="n">
         <v>-0.148413</v>
@@ -4355,7 +4355,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O46" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P46" t="n">
         <v>57.99999999999999</v>
@@ -4402,16 +4402,16 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33.60189</v>
+        <v>33.601893</v>
       </c>
       <c r="D47" t="n">
-        <v>33.714358</v>
+        <v>33.714362</v>
       </c>
       <c r="E47" t="n">
-        <v>24.301677</v>
+        <v>24.301688</v>
       </c>
       <c r="F47" t="n">
-        <v>28.454344</v>
+        <v>28.454348</v>
       </c>
       <c r="G47" t="n">
         <v>7240779800</v>
@@ -4440,7 +4440,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O47" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P47" t="n">
         <v>57.99999999999999</v>
@@ -4487,13 +4487,13 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28.385126</v>
+        <v>28.385124</v>
       </c>
       <c r="D48" t="n">
-        <v>29.423291</v>
+        <v>29.423295</v>
       </c>
       <c r="E48" t="n">
-        <v>21.671663</v>
+        <v>21.671669</v>
       </c>
       <c r="F48" t="n">
         <v>25.192778</v>
@@ -4525,7 +4525,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O48" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P48" t="n">
         <v>57.99999999999999</v>
@@ -4572,13 +4572,13 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24.65639</v>
+        <v>24.656388</v>
       </c>
       <c r="D49" t="n">
-        <v>26.672167</v>
+        <v>26.672163</v>
       </c>
       <c r="E49" t="n">
-        <v>23.220265</v>
+        <v>23.220267</v>
       </c>
       <c r="F49" t="n">
         <v>25.766512</v>
@@ -4610,7 +4610,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O49" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P49" t="n">
         <v>57.99999999999999</v>
@@ -4657,16 +4657,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25.775182</v>
+        <v>25.775172</v>
       </c>
       <c r="D50" t="n">
-        <v>27.403991</v>
+        <v>27.404006</v>
       </c>
       <c r="E50" t="n">
-        <v>24.224339</v>
+        <v>24.22434</v>
       </c>
       <c r="F50" t="n">
-        <v>25.177362</v>
+        <v>25.177366</v>
       </c>
       <c r="G50" t="n">
         <v>2829542600</v>
@@ -4695,7 +4695,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O50" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P50" t="n">
         <v>57.99999999999999</v>
@@ -4742,22 +4742,22 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24.934789</v>
+        <v>24.934778</v>
       </c>
       <c r="D51" t="n">
-        <v>27.447314</v>
+        <v>27.44732</v>
       </c>
       <c r="E51" t="n">
-        <v>23.730495</v>
+        <v>23.730491</v>
       </c>
       <c r="F51" t="n">
-        <v>23.851791</v>
+        <v>23.851788</v>
       </c>
       <c r="G51" t="n">
         <v>3324074200</v>
       </c>
       <c r="H51" t="n">
-        <v>-0.052649</v>
+        <v>-0.05265</v>
       </c>
       <c r="I51" t="n">
         <v>-0.053599</v>
@@ -4766,7 +4766,7 @@
         <v>0.022636</v>
       </c>
       <c r="K51" t="n">
-        <v>0.00095</v>
+        <v>0.000949</v>
       </c>
       <c r="L51" t="inlineStr">
         <is>
@@ -4780,7 +4780,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O51" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P51" t="n">
         <v>57.99999999999999</v>
@@ -4827,16 +4827,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23.496574</v>
+        <v>23.496562</v>
       </c>
       <c r="D52" t="n">
         <v>27.301783</v>
       </c>
       <c r="E52" t="n">
-        <v>22.205647</v>
+        <v>22.205643</v>
       </c>
       <c r="F52" t="n">
-        <v>26.31246</v>
+        <v>26.312462</v>
       </c>
       <c r="G52" t="n">
         <v>3805123800</v>
@@ -4851,7 +4851,7 @@
         <v>0.029162</v>
       </c>
       <c r="K52" t="n">
-        <v>-0.004285</v>
+        <v>-0.004284</v>
       </c>
       <c r="L52" t="inlineStr">
         <is>
@@ -4865,7 +4865,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O52" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P52" t="n">
         <v>57.99999999999999</v>
@@ -4912,16 +4912,16 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25.982685</v>
+        <v>25.982691</v>
       </c>
       <c r="D53" t="n">
-        <v>30.287102</v>
+        <v>30.287108</v>
       </c>
       <c r="E53" t="n">
-        <v>25.852512</v>
+        <v>25.852517</v>
       </c>
       <c r="F53" t="n">
-        <v>29.749048</v>
+        <v>29.749054</v>
       </c>
       <c r="G53" t="n">
         <v>2991632100</v>
@@ -4950,7 +4950,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O53" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P53" t="n">
         <v>57.99999999999999</v>
@@ -4997,16 +4997,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29.740367</v>
+        <v>29.740371</v>
       </c>
       <c r="D54" t="n">
-        <v>30.807797</v>
+        <v>30.807799</v>
       </c>
       <c r="E54" t="n">
-        <v>28.603516</v>
+        <v>28.603529</v>
       </c>
       <c r="F54" t="n">
-        <v>30.703659</v>
+        <v>30.703661</v>
       </c>
       <c r="G54" t="n">
         <v>2734076200</v>
@@ -5035,7 +5035,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O54" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P54" t="n">
         <v>57.99999999999999</v>
@@ -5082,16 +5082,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31.033427</v>
+        <v>31.033442</v>
       </c>
       <c r="D55" t="n">
-        <v>32.309137</v>
+        <v>32.309135</v>
       </c>
       <c r="E55" t="n">
-        <v>30.211389</v>
+        <v>30.211395</v>
       </c>
       <c r="F55" t="n">
-        <v>31.610304</v>
+        <v>31.610315</v>
       </c>
       <c r="G55" t="n">
         <v>2511948000</v>
@@ -5120,7 +5120,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O55" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P55" t="n">
         <v>57.99999999999999</v>
@@ -5167,16 +5167,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31.766722</v>
+        <v>31.766712</v>
       </c>
       <c r="D56" t="n">
-        <v>34.912109</v>
+        <v>34.912124</v>
       </c>
       <c r="E56" t="n">
-        <v>29.803008</v>
+        <v>29.803029</v>
       </c>
       <c r="F56" t="n">
-        <v>34.277817</v>
+        <v>34.277805</v>
       </c>
       <c r="G56" t="n">
         <v>2575607800</v>
@@ -5205,7 +5205,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O56" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P56" t="n">
         <v>57.99999999999999</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34.642738</v>
+        <v>34.642753</v>
       </c>
       <c r="D57" t="n">
         <v>35.694106</v>
       </c>
       <c r="E57" t="n">
-        <v>33.4176</v>
+        <v>33.417608</v>
       </c>
       <c r="F57" t="n">
-        <v>34.781776</v>
+        <v>34.781773</v>
       </c>
       <c r="G57" t="n">
         <v>2248149500</v>
@@ -5290,7 +5290,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O57" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P57" t="n">
         <v>57.99999999999999</v>
@@ -5337,16 +5337,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34.660129</v>
+        <v>34.660133</v>
       </c>
       <c r="D58" t="n">
-        <v>37.546391</v>
+        <v>37.546395</v>
       </c>
       <c r="E58" t="n">
         <v>33.904185</v>
       </c>
       <c r="F58" t="n">
-        <v>36.746246</v>
+        <v>36.746243</v>
       </c>
       <c r="G58" t="n">
         <v>2114774900</v>
@@ -5375,7 +5375,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O58" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P58" t="n">
         <v>57.99999999999999</v>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36.615782</v>
+        <v>36.615774</v>
       </c>
       <c r="D59" t="n">
         <v>38.111721</v>
       </c>
       <c r="E59" t="n">
-        <v>35.415546</v>
+        <v>35.415557</v>
       </c>
       <c r="F59" t="n">
-        <v>35.624283</v>
+        <v>35.624275</v>
       </c>
       <c r="G59" t="n">
         <v>2291065900</v>
@@ -5460,7 +5460,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O59" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P59" t="n">
         <v>57.99999999999999</v>
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.659063</v>
+        <v>35.659089</v>
       </c>
       <c r="D60" t="n">
         <v>38.833598</v>
       </c>
       <c r="E60" t="n">
-        <v>35.345958</v>
+        <v>35.345985</v>
       </c>
       <c r="F60" t="n">
-        <v>37.885578</v>
+        <v>37.885593</v>
       </c>
       <c r="G60" t="n">
         <v>1807922400</v>
       </c>
       <c r="H60" t="n">
-        <v>0.063476</v>
+        <v>0.06347700000000001</v>
       </c>
       <c r="I60" t="n">
         <v>0.060163</v>
@@ -5531,7 +5531,7 @@
         <v>0.010378</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003313</v>
+        <v>0.003314</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5545,7 +5545,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O60" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P60" t="n">
         <v>57.99999999999999</v>
@@ -5592,22 +5592,22 @@
         </is>
       </c>
       <c r="C61" t="n">
-        <v>38.172603</v>
+        <v>38.172599</v>
       </c>
       <c r="D61" t="n">
-        <v>40.335848</v>
+        <v>40.335844</v>
       </c>
       <c r="E61" t="n">
-        <v>37.676846</v>
+        <v>37.676853</v>
       </c>
       <c r="F61" t="n">
-        <v>39.856709</v>
+        <v>39.856697</v>
       </c>
       <c r="G61" t="n">
         <v>1524036700</v>
       </c>
       <c r="H61" t="n">
-        <v>0.052029</v>
+        <v>0.052028</v>
       </c>
       <c r="I61" t="n">
         <v>0.052551</v>
@@ -5616,7 +5616,7 @@
         <v>0.007742</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.000522</v>
+        <v>-0.000523</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5630,7 +5630,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O61" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P61" t="n">
         <v>57.99999999999999</v>
@@ -5677,22 +5677,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40.361984</v>
+        <v>40.361996</v>
       </c>
       <c r="D62" t="n">
         <v>40.632057</v>
       </c>
       <c r="E62" t="n">
-        <v>37.138607</v>
+        <v>37.138622</v>
       </c>
       <c r="F62" t="n">
-        <v>37.277996</v>
+        <v>37.278011</v>
       </c>
       <c r="G62" t="n">
         <v>2382152500</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.06469999999999999</v>
+        <v>-0.06469900000000001</v>
       </c>
       <c r="I62" t="n">
         <v>-0.064113</v>
@@ -5701,7 +5701,7 @@
         <v>0.013159</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.000587</v>
+        <v>-0.000586</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5715,7 +5715,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O62" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P62" t="n">
         <v>57.99999999999999</v>
@@ -5762,22 +5762,22 @@
         </is>
       </c>
       <c r="C63" t="n">
-        <v>37.37383</v>
+        <v>37.373838</v>
       </c>
       <c r="D63" t="n">
-        <v>39.246884</v>
+        <v>39.246865</v>
       </c>
       <c r="E63" t="n">
-        <v>36.694296</v>
+        <v>36.694285</v>
       </c>
       <c r="F63" t="n">
-        <v>38.994232</v>
+        <v>38.994221</v>
       </c>
       <c r="G63" t="n">
         <v>1932176400</v>
       </c>
       <c r="H63" t="n">
-        <v>0.046039</v>
+        <v>0.046038</v>
       </c>
       <c r="I63" t="n">
         <v>0.044594</v>
@@ -5786,7 +5786,7 @@
         <v>0.010414</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001445</v>
+        <v>0.001444</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5800,7 +5800,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O63" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P63" t="n">
         <v>57.99999999999999</v>
@@ -5847,16 +5847,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>39.168467</v>
+        <v>39.168471</v>
       </c>
       <c r="D64" t="n">
-        <v>42.384763</v>
+        <v>42.384774</v>
       </c>
       <c r="E64" t="n">
-        <v>39.159757</v>
+        <v>39.159761</v>
       </c>
       <c r="F64" t="n">
-        <v>42.001041</v>
+        <v>42.001045</v>
       </c>
       <c r="G64" t="n">
         <v>1623606900</v>
@@ -5871,7 +5871,7 @@
         <v>0.005616</v>
       </c>
       <c r="K64" t="n">
-        <v>0.000317</v>
+        <v>0.000318</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5885,7 +5885,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O64" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P64" t="n">
         <v>57.99999999999999</v>
@@ -5932,16 +5932,16 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42.175465</v>
+        <v>42.175469</v>
       </c>
       <c r="D65" t="n">
-        <v>44.172608</v>
+        <v>44.172615</v>
       </c>
       <c r="E65" t="n">
-        <v>41.67836</v>
+        <v>41.678364</v>
       </c>
       <c r="F65" t="n">
-        <v>42.942924</v>
+        <v>42.942921</v>
       </c>
       <c r="G65" t="n">
         <v>1701457500</v>
@@ -5970,7 +5970,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O65" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P65" t="n">
         <v>57.99999999999999</v>
@@ -6017,22 +6017,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>43.126075</v>
+        <v>43.126078</v>
       </c>
       <c r="D66" t="n">
-        <v>43.753995</v>
+        <v>43.753999</v>
       </c>
       <c r="E66" t="n">
         <v>37.186965</v>
       </c>
       <c r="F66" t="n">
-        <v>39.768417</v>
+        <v>39.768433</v>
       </c>
       <c r="G66" t="n">
         <v>2952228100</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.073924</v>
+        <v>-0.073923</v>
       </c>
       <c r="I66" t="n">
         <v>-0.074097</v>
@@ -6055,7 +6055,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O66" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P66" t="n">
         <v>57.99999999999999</v>
@@ -6102,16 +6102,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>39.62017</v>
+        <v>39.620163</v>
       </c>
       <c r="D67" t="n">
-        <v>41.661238</v>
+        <v>41.661246</v>
       </c>
       <c r="E67" t="n">
-        <v>37.330711</v>
+        <v>37.330707</v>
       </c>
       <c r="F67" t="n">
-        <v>37.391994</v>
+        <v>37.391991</v>
       </c>
       <c r="G67" t="n">
         <v>2058088600</v>
@@ -6126,7 +6126,7 @@
         <v>0.016962</v>
       </c>
       <c r="K67" t="n">
-        <v>0.001381</v>
+        <v>0.00138</v>
       </c>
       <c r="L67" t="inlineStr">
         <is>
@@ -6140,7 +6140,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O67" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P67" t="n">
         <v>57.99999999999999</v>
@@ -6187,13 +6187,13 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37.505794</v>
+        <v>37.505813</v>
       </c>
       <c r="D68" t="n">
-        <v>40.902694</v>
+        <v>40.902678</v>
       </c>
       <c r="E68" t="n">
-        <v>36.569025</v>
+        <v>36.569043</v>
       </c>
       <c r="F68" t="n">
         <v>40.105999</v>
@@ -6211,7 +6211,7 @@
         <v>0.012576</v>
       </c>
       <c r="K68" t="n">
-        <v>0.000788</v>
+        <v>0.000789</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -6225,7 +6225,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O68" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P68" t="n">
         <v>57.99999999999999</v>
@@ -6272,16 +6272,16 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40.613779</v>
+        <v>40.61379</v>
       </c>
       <c r="D69" t="n">
         <v>41.314162</v>
       </c>
       <c r="E69" t="n">
-        <v>37.619624</v>
+        <v>37.619616</v>
       </c>
       <c r="F69" t="n">
-        <v>38.048592</v>
+        <v>38.048611</v>
       </c>
       <c r="G69" t="n">
         <v>1483278100</v>
@@ -6310,7 +6310,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O69" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P69" t="n">
         <v>57.99999999999999</v>
@@ -6357,13 +6357,13 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38.608928</v>
+        <v>38.608909</v>
       </c>
       <c r="D70" t="n">
         <v>43.736387</v>
       </c>
       <c r="E70" t="n">
-        <v>38.582664</v>
+        <v>38.582646</v>
       </c>
       <c r="F70" t="n">
         <v>43.060684</v>
@@ -6372,7 +6372,7 @@
         <v>1574743200</v>
       </c>
       <c r="H70" t="n">
-        <v>0.131729</v>
+        <v>0.131728</v>
       </c>
       <c r="I70" t="n">
         <v>0.130478</v>
@@ -6395,7 +6395,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O70" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P70" t="n">
         <v>57.99999999999999</v>
@@ -6442,16 +6442,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>43.420473</v>
+        <v>43.420465</v>
       </c>
       <c r="D71" t="n">
-        <v>46.061855</v>
+        <v>46.061867</v>
       </c>
       <c r="E71" t="n">
-        <v>42.297225</v>
+        <v>42.297233</v>
       </c>
       <c r="F71" t="n">
-        <v>45.789818</v>
+        <v>45.789829</v>
       </c>
       <c r="G71" t="n">
         <v>1538354800</v>
@@ -6480,7 +6480,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O71" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P71" t="n">
         <v>57.99999999999999</v>
@@ -6527,16 +6527,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45.956545</v>
+        <v>45.956538</v>
       </c>
       <c r="D72" t="n">
-        <v>47.422039</v>
+        <v>47.422036</v>
       </c>
       <c r="E72" t="n">
-        <v>44.622692</v>
+        <v>44.622688</v>
       </c>
       <c r="F72" t="n">
-        <v>45.710838</v>
+        <v>45.710846</v>
       </c>
       <c r="G72" t="n">
         <v>1564994700</v>
@@ -6551,7 +6551,7 @@
         <v>0.010527</v>
       </c>
       <c r="K72" t="n">
-        <v>0.001627</v>
+        <v>0.001626</v>
       </c>
       <c r="L72" t="inlineStr">
         <is>
@@ -6565,7 +6565,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O72" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P72" t="n">
         <v>57.99999999999999</v>
@@ -6612,16 +6612,16 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46.386532</v>
+        <v>46.386547</v>
       </c>
       <c r="D73" t="n">
-        <v>48.32499</v>
+        <v>48.324994</v>
       </c>
       <c r="E73" t="n">
-        <v>46.368981</v>
+        <v>46.368996</v>
       </c>
       <c r="F73" t="n">
-        <v>47.885365</v>
+        <v>47.885353</v>
       </c>
       <c r="G73" t="n">
         <v>1006766900</v>
@@ -6636,7 +6636,7 @@
         <v>0.005754</v>
       </c>
       <c r="K73" t="n">
-        <v>9.2e-05</v>
+        <v>9.1e-05</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -6650,7 +6650,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O73" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P73" t="n">
         <v>57.99999999999999</v>
@@ -6697,16 +6697,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>48.333775</v>
+        <v>48.333779</v>
       </c>
       <c r="D74" t="n">
-        <v>50.42646</v>
+        <v>50.426453</v>
       </c>
       <c r="E74" t="n">
-        <v>48.28982</v>
+        <v>48.289805</v>
       </c>
       <c r="F74" t="n">
-        <v>49.239437</v>
+        <v>49.239426</v>
       </c>
       <c r="G74" t="n">
         <v>1265608600</v>
@@ -6735,7 +6735,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O74" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P74" t="n">
         <v>57.99999999999999</v>
@@ -6782,13 +6782,13 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>49.608737</v>
+        <v>49.608726</v>
       </c>
       <c r="D75" t="n">
-        <v>51.912432</v>
+        <v>51.912451</v>
       </c>
       <c r="E75" t="n">
-        <v>49.353738</v>
+        <v>49.353757</v>
       </c>
       <c r="F75" t="n">
         <v>50.795757</v>
@@ -6806,7 +6806,7 @@
         <v>0.009677</v>
       </c>
       <c r="K75" t="n">
-        <v>0.001334</v>
+        <v>0.001335</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -6820,7 +6820,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O75" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P75" t="n">
         <v>57.99999999999999</v>
@@ -6867,16 +6867,16 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>51.015588</v>
+        <v>51.015565</v>
       </c>
       <c r="D76" t="n">
         <v>51.323324</v>
       </c>
       <c r="E76" t="n">
-        <v>47.27866</v>
+        <v>47.278637</v>
       </c>
       <c r="F76" t="n">
-        <v>50.568058</v>
+        <v>50.568054</v>
       </c>
       <c r="G76" t="n">
         <v>1729243300</v>
@@ -6905,7 +6905,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O76" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P76" t="n">
         <v>57.99999999999999</v>
@@ -6952,13 +6952,13 @@
         </is>
       </c>
       <c r="C77" t="n">
-        <v>50.823407</v>
+        <v>50.823415</v>
       </c>
       <c r="D77" t="n">
         <v>52.205816</v>
       </c>
       <c r="E77" t="n">
-        <v>48.710153</v>
+        <v>48.710157</v>
       </c>
       <c r="F77" t="n">
         <v>52.020908</v>
@@ -6990,7 +6990,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O77" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P77" t="n">
         <v>57.99999999999999</v>
@@ -7037,16 +7037,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52.100146</v>
+        <v>52.100165</v>
       </c>
       <c r="D78" t="n">
-        <v>52.249836</v>
+        <v>52.249855</v>
       </c>
       <c r="E78" t="n">
         <v>49.722759</v>
       </c>
       <c r="F78" t="n">
-        <v>51.386936</v>
+        <v>51.38694</v>
       </c>
       <c r="G78" t="n">
         <v>1054622500</v>
@@ -7075,7 +7075,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O78" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P78" t="n">
         <v>57.99999999999999</v>
@@ -7122,16 +7122,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>51.263646</v>
+        <v>51.263665</v>
       </c>
       <c r="D79" t="n">
-        <v>51.386917</v>
+        <v>51.386937</v>
       </c>
       <c r="E79" t="n">
-        <v>47.213284</v>
+        <v>47.213273</v>
       </c>
       <c r="F79" t="n">
-        <v>50.3461</v>
+        <v>50.346088</v>
       </c>
       <c r="G79" t="n">
         <v>1155628500</v>
@@ -7160,7 +7160,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O79" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P79" t="n">
         <v>57.99999999999999</v>
@@ -7207,13 +7207,13 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50.372576</v>
+        <v>50.372565</v>
       </c>
       <c r="D80" t="n">
         <v>52.799435</v>
       </c>
       <c r="E80" t="n">
-        <v>50.187237</v>
+        <v>50.18726</v>
       </c>
       <c r="F80" t="n">
         <v>51.184471</v>
@@ -7231,7 +7231,7 @@
         <v>0.011749</v>
       </c>
       <c r="K80" t="n">
-        <v>0.00042</v>
+        <v>0.000421</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -7245,7 +7245,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O80" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P80" t="n">
         <v>57.99999999999999</v>
@@ -7292,16 +7292,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>51.802211</v>
+        <v>51.802203</v>
       </c>
       <c r="D81" t="n">
-        <v>51.908109</v>
+        <v>51.908101</v>
       </c>
       <c r="E81" t="n">
-        <v>44.062779</v>
+        <v>44.062765</v>
       </c>
       <c r="F81" t="n">
-        <v>48.589954</v>
+        <v>48.589947</v>
       </c>
       <c r="G81" t="n">
         <v>2526145600</v>
@@ -7330,7 +7330,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O81" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P81" t="n">
         <v>57.99999999999999</v>
@@ -7377,22 +7377,22 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>48.713483</v>
+        <v>48.713498</v>
       </c>
       <c r="D82" t="n">
-        <v>50.704718</v>
+        <v>50.70471</v>
       </c>
       <c r="E82" t="n">
-        <v>45.810119</v>
+        <v>45.810093</v>
       </c>
       <c r="F82" t="n">
-        <v>46.407852</v>
+        <v>46.407864</v>
       </c>
       <c r="G82" t="n">
         <v>1666877800</v>
       </c>
       <c r="H82" t="n">
-        <v>-0.044909</v>
+        <v>-0.044908</v>
       </c>
       <c r="I82" t="n">
         <v>-0.045439</v>
@@ -7415,7 +7415,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O82" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P82" t="n">
         <v>57.99999999999999</v>
@@ -7462,16 +7462,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45.992301</v>
+        <v>45.992305</v>
       </c>
       <c r="D83" t="n">
-        <v>52.340353</v>
+        <v>52.340365</v>
       </c>
       <c r="E83" t="n">
-        <v>44.294793</v>
+        <v>44.294786</v>
       </c>
       <c r="F83" t="n">
-        <v>51.235188</v>
+        <v>51.235195</v>
       </c>
       <c r="G83" t="n">
         <v>1616785100</v>
@@ -7500,7 +7500,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O83" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P83" t="n">
         <v>57.99999999999999</v>
@@ -7547,16 +7547,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>49.970894</v>
+        <v>49.970901</v>
       </c>
       <c r="D84" t="n">
-        <v>52.145845</v>
+        <v>52.145853</v>
       </c>
       <c r="E84" t="n">
-        <v>46.743827</v>
+        <v>46.743804</v>
       </c>
       <c r="F84" t="n">
-        <v>49.855961</v>
+        <v>49.855949</v>
       </c>
       <c r="G84" t="n">
         <v>1295070500</v>
@@ -7585,7 +7585,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O84" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P84" t="n">
         <v>57.99999999999999</v>
@@ -7632,16 +7632,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>49.847118</v>
+        <v>49.847107</v>
       </c>
       <c r="D85" t="n">
-        <v>50.943418</v>
+        <v>50.943415</v>
       </c>
       <c r="E85" t="n">
         <v>48.034465</v>
       </c>
       <c r="F85" t="n">
-        <v>49.549747</v>
+        <v>49.549751</v>
       </c>
       <c r="G85" t="n">
         <v>1004361600</v>
@@ -7670,7 +7670,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O85" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P85" t="n">
         <v>57.99999999999999</v>
@@ -7717,16 +7717,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>50.508244</v>
+        <v>50.508248</v>
       </c>
       <c r="D86" t="n">
-        <v>54.013923</v>
+        <v>54.013919</v>
       </c>
       <c r="E86" t="n">
-        <v>50.197629</v>
+        <v>50.197621</v>
       </c>
       <c r="F86" t="n">
-        <v>53.721043</v>
+        <v>53.721039</v>
       </c>
       <c r="G86" t="n">
         <v>828883900</v>
@@ -7741,7 +7741,7 @@
         <v>0.006281</v>
       </c>
       <c r="K86" t="n">
-        <v>0.000719</v>
+        <v>0.000718</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -7755,7 +7755,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O86" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P86" t="n">
         <v>57.99999999999999</v>
@@ -7802,16 +7802,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>54.031682</v>
+        <v>54.031679</v>
       </c>
       <c r="D87" t="n">
-        <v>57.65272</v>
+        <v>57.652727</v>
       </c>
       <c r="E87" t="n">
-        <v>53.836429</v>
+        <v>53.836425</v>
       </c>
       <c r="F87" t="n">
-        <v>57.164593</v>
+        <v>57.1646</v>
       </c>
       <c r="G87" t="n">
         <v>1018602500</v>
@@ -7840,7 +7840,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O87" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P87" t="n">
         <v>57.99999999999999</v>
@@ -7887,22 +7887,22 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>57.37762</v>
+        <v>57.377589</v>
       </c>
       <c r="D88" t="n">
-        <v>60.906627</v>
+        <v>60.906604</v>
       </c>
       <c r="E88" t="n">
         <v>56.117325</v>
       </c>
       <c r="F88" t="n">
-        <v>60.05315</v>
+        <v>60.053146</v>
       </c>
       <c r="G88" t="n">
         <v>1070054300</v>
       </c>
       <c r="H88" t="n">
-        <v>0.050531</v>
+        <v>0.05053</v>
       </c>
       <c r="I88" t="n">
         <v>0.050387</v>
@@ -7911,7 +7911,7 @@
         <v>0.007426</v>
       </c>
       <c r="K88" t="n">
-        <v>0.000144</v>
+        <v>0.000143</v>
       </c>
       <c r="L88" t="inlineStr">
         <is>
@@ -7925,7 +7925,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O88" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P88" t="n">
         <v>57.99999999999999</v>
@@ -7972,13 +7972,13 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>59.990905</v>
+        <v>59.990913</v>
       </c>
       <c r="D89" t="n">
-        <v>60.942166</v>
+        <v>60.942181</v>
       </c>
       <c r="E89" t="n">
-        <v>57.297189</v>
+        <v>57.297181</v>
       </c>
       <c r="F89" t="n">
         <v>59.350826</v>
@@ -8010,7 +8010,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O89" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P89" t="n">
         <v>57.99999999999999</v>
@@ -8057,16 +8057,16 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>59.288577</v>
+        <v>59.288608</v>
       </c>
       <c r="D90" t="n">
-        <v>60.124249</v>
+        <v>60.12428</v>
       </c>
       <c r="E90" t="n">
-        <v>54.016719</v>
+        <v>54.016711</v>
       </c>
       <c r="F90" t="n">
-        <v>55.172428</v>
+        <v>55.172436</v>
       </c>
       <c r="G90" t="n">
         <v>1300328800</v>
@@ -8081,7 +8081,7 @@
         <v>0.010437</v>
       </c>
       <c r="K90" t="n">
-        <v>0.002591</v>
+        <v>0.002592</v>
       </c>
       <c r="L90" t="inlineStr">
         <is>
@@ -8095,7 +8095,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O90" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P90" t="n">
         <v>57.99999999999999</v>
@@ -8142,16 +8142,16 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>54.176741</v>
+        <v>54.176729</v>
       </c>
       <c r="D91" t="n">
-        <v>57.5358</v>
+        <v>57.535797</v>
       </c>
       <c r="E91" t="n">
-        <v>53.37663</v>
+        <v>53.376619</v>
       </c>
       <c r="F91" t="n">
-        <v>57.170475</v>
+        <v>57.170479</v>
       </c>
       <c r="G91" t="n">
         <v>973815200</v>
@@ -8180,7 +8180,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O91" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P91" t="n">
         <v>57.99999999999999</v>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>57.250674</v>
+        <v>57.25067</v>
       </c>
       <c r="D92" t="n">
-        <v>58.195205</v>
+        <v>58.195193</v>
       </c>
       <c r="E92" t="n">
-        <v>55.12104</v>
+        <v>55.121036</v>
       </c>
       <c r="F92" t="n">
-        <v>57.740749</v>
+        <v>57.740738</v>
       </c>
       <c r="G92" t="n">
         <v>860805100</v>
@@ -8265,7 +8265,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O92" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P92" t="n">
         <v>57.99999999999999</v>
@@ -8312,16 +8312,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>58.150644</v>
+        <v>58.150636</v>
       </c>
       <c r="D93" t="n">
-        <v>61.376274</v>
+        <v>61.37627</v>
       </c>
       <c r="E93" t="n">
-        <v>56.947697</v>
+        <v>56.947708</v>
       </c>
       <c r="F93" t="n">
-        <v>60.734741</v>
+        <v>60.734726</v>
       </c>
       <c r="G93" t="n">
         <v>679866200</v>
@@ -8350,7 +8350,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O93" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P93" t="n">
         <v>57.99999999999999</v>
@@ -8397,16 +8397,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>60.618883</v>
+        <v>60.618879</v>
       </c>
       <c r="D94" t="n">
-        <v>63.034727</v>
+        <v>63.034704</v>
       </c>
       <c r="E94" t="n">
-        <v>60.075335</v>
+        <v>60.075331</v>
       </c>
       <c r="F94" t="n">
-        <v>61.274288</v>
+        <v>61.274281</v>
       </c>
       <c r="G94" t="n">
         <v>639521900</v>
@@ -8435,7 +8435,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O94" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P94" t="n">
         <v>57.99999999999999</v>
@@ -8482,22 +8482,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>61.569193</v>
+        <v>61.569197</v>
       </c>
       <c r="D95" t="n">
-        <v>62.373432</v>
+        <v>62.373428</v>
       </c>
       <c r="E95" t="n">
-        <v>57.771374</v>
+        <v>57.771363</v>
       </c>
       <c r="F95" t="n">
-        <v>58.039478</v>
+        <v>58.039455</v>
       </c>
       <c r="G95" t="n">
         <v>863124200</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.052792</v>
+        <v>-0.052793</v>
       </c>
       <c r="I95" t="n">
         <v>-0.054041</v>
@@ -8520,7 +8520,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O95" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P95" t="n">
         <v>57.99999999999999</v>
@@ -8567,16 +8567,16 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>58.405833</v>
+        <v>58.405841</v>
       </c>
       <c r="D96" t="n">
-        <v>59.165397</v>
+        <v>59.165401</v>
       </c>
       <c r="E96" t="n">
-        <v>54.78676</v>
+        <v>54.786745</v>
       </c>
       <c r="F96" t="n">
-        <v>58.799019</v>
+        <v>58.799023</v>
       </c>
       <c r="G96" t="n">
         <v>901783900</v>
@@ -8591,7 +8591,7 @@
         <v>0.011191</v>
       </c>
       <c r="K96" t="n">
-        <v>0.001772</v>
+        <v>0.001773</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -8605,7 +8605,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O96" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P96" t="n">
         <v>57.99999999999999</v>
@@ -8652,16 +8652,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>59.254743</v>
+        <v>59.254759</v>
       </c>
       <c r="D97" t="n">
-        <v>59.656888</v>
+        <v>59.656884</v>
       </c>
       <c r="E97" t="n">
-        <v>57.131659</v>
+        <v>57.131651</v>
       </c>
       <c r="F97" t="n">
-        <v>58.524452</v>
+        <v>58.524445</v>
       </c>
       <c r="G97" t="n">
         <v>815856000</v>
@@ -8690,7 +8690,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O97" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P97" t="n">
         <v>57.99999999999999</v>
@@ -8737,16 +8737,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>59.962206</v>
+        <v>59.962191</v>
       </c>
       <c r="D98" t="n">
-        <v>60.914709</v>
+        <v>60.914679</v>
       </c>
       <c r="E98" t="n">
-        <v>59.458986</v>
+        <v>59.458993</v>
       </c>
       <c r="F98" t="n">
-        <v>60.087982</v>
+        <v>60.088001</v>
       </c>
       <c r="G98" t="n">
         <v>741836700</v>
@@ -8775,7 +8775,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O98" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P98" t="n">
         <v>57.99999999999999</v>
@@ -8822,22 +8822,22 @@
         </is>
       </c>
       <c r="C99" t="n">
-        <v>60.510323</v>
+        <v>60.510311</v>
       </c>
       <c r="D99" t="n">
         <v>61.337014</v>
       </c>
       <c r="E99" t="n">
-        <v>59.270287</v>
+        <v>59.270279</v>
       </c>
       <c r="F99" t="n">
-        <v>60.294655</v>
+        <v>60.294666</v>
       </c>
       <c r="G99" t="n">
         <v>656562100</v>
       </c>
       <c r="H99" t="n">
-        <v>0.00344</v>
+        <v>0.003439</v>
       </c>
       <c r="I99" t="n">
         <v>0.002581</v>
@@ -8846,7 +8846,7 @@
         <v>0.009436</v>
       </c>
       <c r="K99" t="n">
-        <v>0.000859</v>
+        <v>0.000858</v>
       </c>
       <c r="L99" t="inlineStr">
         <is>
@@ -8860,7 +8860,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O99" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P99" t="n">
         <v>57.99999999999999</v>
@@ -8907,16 +8907,16 @@
         </is>
       </c>
       <c r="C100" t="n">
-        <v>60.087983</v>
+        <v>60.087994</v>
       </c>
       <c r="D100" t="n">
-        <v>62.199525</v>
+        <v>62.199499</v>
       </c>
       <c r="E100" t="n">
-        <v>59.79145</v>
+        <v>59.791461</v>
       </c>
       <c r="F100" t="n">
-        <v>62.118469</v>
+        <v>62.118443</v>
       </c>
       <c r="G100" t="n">
         <v>557979300</v>
@@ -8931,7 +8931,7 @@
         <v>0.005522</v>
       </c>
       <c r="K100" t="n">
-        <v>0.0009959999999999999</v>
+        <v>0.000995</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -8945,7 +8945,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O100" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P100" t="n">
         <v>57.99999999999999</v>
@@ -8992,16 +8992,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>62.163461</v>
+        <v>62.163465</v>
       </c>
       <c r="D101" t="n">
-        <v>63.703611</v>
+        <v>63.703608</v>
       </c>
       <c r="E101" t="n">
         <v>60.236054</v>
       </c>
       <c r="F101" t="n">
-        <v>63.694603</v>
+        <v>63.694599</v>
       </c>
       <c r="G101" t="n">
         <v>835537700</v>
@@ -9016,7 +9016,7 @@
         <v>0.01093</v>
       </c>
       <c r="K101" t="n">
-        <v>0.000982</v>
+        <v>0.0009829999999999999</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -9030,7 +9030,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O101" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P101" t="n">
         <v>57.99999999999999</v>
@@ -9077,22 +9077,22 @@
         </is>
       </c>
       <c r="C102" t="n">
-        <v>63.712614</v>
+        <v>63.712602</v>
       </c>
       <c r="D102" t="n">
-        <v>67.50440500000001</v>
+        <v>67.50439</v>
       </c>
       <c r="E102" t="n">
-        <v>63.271293</v>
+        <v>63.271282</v>
       </c>
       <c r="F102" t="n">
-        <v>65.97324399999999</v>
+        <v>65.973251</v>
       </c>
       <c r="G102" t="n">
         <v>680414200</v>
       </c>
       <c r="H102" t="n">
-        <v>0.035774</v>
+        <v>0.035775</v>
       </c>
       <c r="I102" t="n">
         <v>0.032666</v>
@@ -9115,7 +9115,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O102" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P102" t="n">
         <v>57.99999999999999</v>
@@ -9162,13 +9162,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>65.982265</v>
+        <v>65.98228</v>
       </c>
       <c r="D103" t="n">
         <v>66.486625</v>
       </c>
       <c r="E103" t="n">
-        <v>62.477585</v>
+        <v>62.477581</v>
       </c>
       <c r="F103" t="n">
         <v>64.393013</v>
@@ -9200,7 +9200,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O103" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P103" t="n">
         <v>57.99999999999999</v>
@@ -9247,13 +9247,13 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>64.826722</v>
+        <v>64.826714</v>
       </c>
       <c r="D104" t="n">
         <v>68.856347</v>
       </c>
       <c r="E104" t="n">
-        <v>64.465335</v>
+        <v>64.465298</v>
       </c>
       <c r="F104" t="n">
         <v>68.45880099999999</v>
@@ -9285,7 +9285,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O104" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P104" t="n">
         <v>57.99999999999999</v>
@@ -9332,16 +9332,16 @@
         </is>
       </c>
       <c r="C105" t="n">
-        <v>68.92864899999999</v>
+        <v>68.928633</v>
       </c>
       <c r="D105" t="n">
-        <v>69.823082</v>
+        <v>69.82311199999999</v>
       </c>
       <c r="E105" t="n">
-        <v>67.726956</v>
+        <v>67.726963</v>
       </c>
       <c r="F105" t="n">
-        <v>68.187759</v>
+        <v>68.187744</v>
       </c>
       <c r="G105" t="n">
         <v>529245500</v>
@@ -9370,7 +9370,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O105" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P105" t="n">
         <v>57.99999999999999</v>
@@ -9417,16 +9417,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>68.747925</v>
+        <v>68.747933</v>
       </c>
       <c r="D106" t="n">
-        <v>72.080806</v>
+        <v>72.08082899999999</v>
       </c>
       <c r="E106" t="n">
-        <v>68.251</v>
+        <v>68.251008</v>
       </c>
       <c r="F106" t="n">
-        <v>71.482719</v>
+        <v>71.482697</v>
       </c>
       <c r="G106" t="n">
         <v>503988800</v>
@@ -9455,7 +9455,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O106" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P106" t="n">
         <v>57.99999999999999</v>
@@ -9502,16 +9502,16 @@
         </is>
       </c>
       <c r="C107" t="n">
-        <v>71.491772</v>
+        <v>71.491749</v>
       </c>
       <c r="D107" t="n">
         <v>75.66039499999999</v>
       </c>
       <c r="E107" t="n">
-        <v>69.18997899999999</v>
+        <v>69.190001</v>
       </c>
       <c r="F107" t="n">
-        <v>75.026077</v>
+        <v>75.026054</v>
       </c>
       <c r="G107" t="n">
         <v>817353700</v>
@@ -9540,7 +9540,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O107" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P107" t="n">
         <v>57.99999999999999</v>
@@ -9587,22 +9587,22 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>75.279771</v>
+        <v>75.27977799999999</v>
       </c>
       <c r="D108" t="n">
-        <v>77.790008</v>
+        <v>77.790031</v>
       </c>
       <c r="E108" t="n">
-        <v>73.739215</v>
+        <v>73.739223</v>
       </c>
       <c r="F108" t="n">
-        <v>77.690331</v>
+        <v>77.690353</v>
       </c>
       <c r="G108" t="n">
         <v>542339400</v>
       </c>
       <c r="H108" t="n">
-        <v>0.035511</v>
+        <v>0.035512</v>
       </c>
       <c r="I108" t="n">
         <v>0.032593</v>
@@ -9611,7 +9611,7 @@
         <v>0.007337</v>
       </c>
       <c r="K108" t="n">
-        <v>0.002918</v>
+        <v>0.002919</v>
       </c>
       <c r="L108" t="inlineStr">
         <is>
@@ -9625,7 +9625,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O108" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P108" t="n">
         <v>57.99999999999999</v>
@@ -9672,16 +9672,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>77.780959</v>
+        <v>77.780967</v>
       </c>
       <c r="D109" t="n">
-        <v>79.964394</v>
+        <v>79.964417</v>
       </c>
       <c r="E109" t="n">
-        <v>76.16789799999999</v>
+        <v>76.167861</v>
       </c>
       <c r="F109" t="n">
-        <v>79.964394</v>
+        <v>79.964417</v>
       </c>
       <c r="G109" t="n">
         <v>651649200</v>
@@ -9710,7 +9710,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O109" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P109" t="n">
         <v>57.99999999999999</v>
@@ -9757,16 +9757,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>79.59170399999999</v>
+        <v>79.591712</v>
       </c>
       <c r="D110" t="n">
-        <v>80.909888</v>
+        <v>80.90991099999999</v>
       </c>
       <c r="E110" t="n">
-        <v>77.055286</v>
+        <v>77.055301</v>
       </c>
       <c r="F110" t="n">
-        <v>78.42804700000001</v>
+        <v>78.428032</v>
       </c>
       <c r="G110" t="n">
         <v>831732700</v>
@@ -9795,7 +9795,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O110" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P110" t="n">
         <v>57.99999999999999</v>
@@ -9842,16 +9842,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>78.282567</v>
+        <v>78.28259</v>
       </c>
       <c r="D111" t="n">
-        <v>83.034986</v>
+        <v>83.034955</v>
       </c>
       <c r="E111" t="n">
         <v>76.128012</v>
       </c>
       <c r="F111" t="n">
-        <v>82.469002</v>
+        <v>82.468971</v>
       </c>
       <c r="G111" t="n">
         <v>713558700</v>
@@ -9880,7 +9880,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O111" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P111" t="n">
         <v>57.99999999999999</v>
@@ -9927,16 +9927,16 @@
         </is>
       </c>
       <c r="C112" t="n">
-        <v>81.693043</v>
+        <v>81.693051</v>
       </c>
       <c r="D112" t="n">
-        <v>83.400128</v>
+        <v>83.400158</v>
       </c>
       <c r="E112" t="n">
-        <v>79.052621</v>
+        <v>79.05263600000001</v>
       </c>
       <c r="F112" t="n">
-        <v>80.21463</v>
+        <v>80.214607</v>
       </c>
       <c r="G112" t="n">
         <v>809345400</v>
@@ -9965,7 +9965,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O112" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P112" t="n">
         <v>57.99999999999999</v>
@@ -10012,16 +10012,16 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>80.60808</v>
+        <v>80.60802</v>
       </c>
       <c r="D113" t="n">
-        <v>82.053735</v>
+        <v>82.053712</v>
       </c>
       <c r="E113" t="n">
-        <v>76.19794400000001</v>
+        <v>76.197959</v>
       </c>
       <c r="F113" t="n">
-        <v>79.95845799999999</v>
+        <v>79.95843499999999</v>
       </c>
       <c r="G113" t="n">
         <v>1141398200</v>
@@ -10050,7 +10050,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O113" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P113" t="n">
         <v>57.99999999999999</v>
@@ -10097,22 +10097,22 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>80.086545</v>
+        <v>80.086529</v>
       </c>
       <c r="D114" t="n">
-        <v>83.673168</v>
+        <v>83.673191</v>
       </c>
       <c r="E114" t="n">
         <v>78.256619</v>
       </c>
       <c r="F114" t="n">
-        <v>83.545074</v>
+        <v>83.545097</v>
       </c>
       <c r="G114" t="n">
         <v>789193700</v>
       </c>
       <c r="H114" t="n">
-        <v>0.044856</v>
+        <v>0.044857</v>
       </c>
       <c r="I114" t="n">
         <v>0.043216</v>
@@ -10121,7 +10121,7 @@
         <v>0.00705</v>
       </c>
       <c r="K114" t="n">
-        <v>0.00164</v>
+        <v>0.001641</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -10135,7 +10135,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O114" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P114" t="n">
         <v>57.99999999999999</v>
@@ -10182,16 +10182,16 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>83.645743</v>
+        <v>83.64575000000001</v>
       </c>
       <c r="D115" t="n">
-        <v>86.365872</v>
+        <v>86.36589499999999</v>
       </c>
       <c r="E115" t="n">
-        <v>82.932074</v>
+        <v>82.93208199999999</v>
       </c>
       <c r="F115" t="n">
-        <v>86.15486900000001</v>
+        <v>86.154892</v>
       </c>
       <c r="G115" t="n">
         <v>567012900</v>
@@ -10220,7 +10220,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O115" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P115" t="n">
         <v>57.99999999999999</v>
@@ -10267,16 +10267,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>86.45761</v>
+        <v>86.457633</v>
       </c>
       <c r="D116" t="n">
-        <v>89.457593</v>
+        <v>89.457601</v>
       </c>
       <c r="E116" t="n">
-        <v>85.898016</v>
+        <v>85.89802299999999</v>
       </c>
       <c r="F116" t="n">
-        <v>87.17321800000001</v>
+        <v>87.173203</v>
       </c>
       <c r="G116" t="n">
         <v>661530400</v>
@@ -10305,7 +10305,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O116" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P116" t="n">
         <v>57.99999999999999</v>
@@ -10352,16 +10352,16 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>86.98971899999999</v>
+        <v>86.989726</v>
       </c>
       <c r="D117" t="n">
-        <v>91.659407</v>
+        <v>91.659392</v>
       </c>
       <c r="E117" t="n">
-        <v>86.13655799999999</v>
+        <v>86.13653499999999</v>
       </c>
       <c r="F117" t="n">
-        <v>91.540138</v>
+        <v>91.54012299999999</v>
       </c>
       <c r="G117" t="n">
         <v>645904700</v>
@@ -10390,7 +10390,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O117" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P117" t="n">
         <v>57.99999999999999</v>
@@ -10437,16 +10437,16 @@
         </is>
       </c>
       <c r="C118" t="n">
-        <v>91.76030900000001</v>
+        <v>91.760317</v>
       </c>
       <c r="D118" t="n">
         <v>92.47519699999999</v>
       </c>
       <c r="E118" t="n">
-        <v>89.84511999999999</v>
+        <v>89.84512700000001</v>
       </c>
       <c r="F118" t="n">
-        <v>90.847511</v>
+        <v>90.84749600000001</v>
       </c>
       <c r="G118" t="n">
         <v>755958700</v>
@@ -10475,7 +10475,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O118" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P118" t="n">
         <v>57.99999999999999</v>
@@ -10522,22 +10522,22 @@
         </is>
       </c>
       <c r="C119" t="n">
-        <v>90.590017</v>
+        <v>90.589994</v>
       </c>
       <c r="D119" t="n">
-        <v>93.56954</v>
+        <v>93.56949400000001</v>
       </c>
       <c r="E119" t="n">
-        <v>82.98490700000001</v>
+        <v>82.984922</v>
       </c>
       <c r="F119" t="n">
-        <v>93.247681</v>
+        <v>93.247635</v>
       </c>
       <c r="G119" t="n">
         <v>1285037500</v>
       </c>
       <c r="H119" t="n">
-        <v>0.02642</v>
+        <v>0.026419</v>
       </c>
       <c r="I119" t="n">
         <v>0.026858</v>
@@ -10546,7 +10546,7 @@
         <v>0.013637</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.000438</v>
+        <v>-0.000439</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -10560,7 +10560,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O119" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P119" t="n">
         <v>57.99999999999999</v>
@@ -10610,19 +10610,19 @@
         <v>93.413197</v>
       </c>
       <c r="D120" t="n">
-        <v>97.707717</v>
+        <v>97.707725</v>
       </c>
       <c r="E120" t="n">
         <v>92.57634899999999</v>
       </c>
       <c r="F120" t="n">
-        <v>97.487015</v>
+        <v>97.487022</v>
       </c>
       <c r="G120" t="n">
         <v>434990100</v>
       </c>
       <c r="H120" t="n">
-        <v>0.045463</v>
+        <v>0.045464</v>
       </c>
       <c r="I120" t="n">
         <v>0.043187</v>
@@ -10631,7 +10631,7 @@
         <v>0.003423</v>
       </c>
       <c r="K120" t="n">
-        <v>0.002276</v>
+        <v>0.002277</v>
       </c>
       <c r="L120" t="inlineStr">
         <is>
@@ -10645,7 +10645,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O120" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P120" t="n">
         <v>57.99999999999999</v>
@@ -10698,10 +10698,10 @@
         <v>97.40428900000001</v>
       </c>
       <c r="E121" t="n">
-        <v>91.88666000000001</v>
+        <v>91.88663699999999</v>
       </c>
       <c r="F121" t="n">
-        <v>95.302696</v>
+        <v>95.302719</v>
       </c>
       <c r="G121" t="n">
         <v>815702200</v>
@@ -10730,7 +10730,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O121" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P121" t="n">
         <v>57.99999999999999</v>
@@ -10777,13 +10777,13 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>95.773447</v>
+        <v>95.773477</v>
       </c>
       <c r="D122" t="n">
         <v>96.530339</v>
       </c>
       <c r="E122" t="n">
-        <v>91.712132</v>
+        <v>91.712147</v>
       </c>
       <c r="F122" t="n">
         <v>93.318192</v>
@@ -10815,7 +10815,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O122" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P122" t="n">
         <v>57.99999999999999</v>
@@ -10862,16 +10862,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>93.530508</v>
+        <v>93.530485</v>
       </c>
       <c r="D123" t="n">
-        <v>100.554738</v>
+        <v>100.554761</v>
       </c>
       <c r="E123" t="n">
-        <v>92.072121</v>
+        <v>92.072098</v>
       </c>
       <c r="F123" t="n">
-        <v>100.056297</v>
+        <v>100.05632</v>
       </c>
       <c r="G123" t="n">
         <v>472456500</v>
@@ -10900,7 +10900,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O123" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P123" t="n">
         <v>57.99999999999999</v>
@@ -10947,22 +10947,22 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>100.25014</v>
+        <v>100.250132</v>
       </c>
       <c r="D124" t="n">
-        <v>100.997791</v>
+        <v>100.997783</v>
       </c>
       <c r="E124" t="n">
-        <v>96.437775</v>
+        <v>96.43781300000001</v>
       </c>
       <c r="F124" t="n">
-        <v>97.69602999999999</v>
+        <v>97.695999</v>
       </c>
       <c r="G124" t="n">
         <v>633635600</v>
       </c>
       <c r="H124" t="n">
-        <v>-0.023589</v>
+        <v>-0.02359</v>
       </c>
       <c r="I124" t="n">
         <v>-0.024091</v>
@@ -10971,7 +10971,7 @@
         <v>0.009488</v>
       </c>
       <c r="K124" t="n">
-        <v>0.000502</v>
+        <v>0.000501</v>
       </c>
       <c r="L124" t="inlineStr">
         <is>
@@ -10985,7 +10985,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O124" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P124" t="n">
         <v>57.99999999999999</v>
@@ -11032,13 +11032,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>97.696009</v>
+        <v>97.696016</v>
       </c>
       <c r="D125" t="n">
-        <v>102.839848</v>
+        <v>102.839871</v>
       </c>
       <c r="E125" t="n">
-        <v>96.53030699999999</v>
+        <v>96.530299</v>
       </c>
       <c r="F125" t="n">
         <v>99.57405900000001</v>
@@ -11047,7 +11047,7 @@
         <v>568699300</v>
       </c>
       <c r="H125" t="n">
-        <v>0.019223</v>
+        <v>0.019224</v>
       </c>
       <c r="I125" t="n">
         <v>0.018589</v>
@@ -11070,7 +11070,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O125" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P125" t="n">
         <v>57.99999999999999</v>
@@ -11117,22 +11117,22 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>99.96263500000001</v>
+        <v>99.96262</v>
       </c>
       <c r="D126" t="n">
-        <v>102.765844</v>
+        <v>102.765821</v>
       </c>
       <c r="E126" t="n">
-        <v>98.066059</v>
+        <v>98.06608199999999</v>
       </c>
       <c r="F126" t="n">
-        <v>101.812935</v>
+        <v>101.81292</v>
       </c>
       <c r="G126" t="n">
         <v>518233500</v>
       </c>
       <c r="H126" t="n">
-        <v>0.022485</v>
+        <v>0.022484</v>
       </c>
       <c r="I126" t="n">
         <v>0.021295</v>
@@ -11155,7 +11155,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O126" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P126" t="n">
         <v>57.99999999999999</v>
@@ -11202,16 +11202,16 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>102.358793</v>
+        <v>102.358777</v>
       </c>
       <c r="D127" t="n">
-        <v>103.048571</v>
+        <v>103.048555</v>
       </c>
       <c r="E127" t="n">
         <v>98.885075</v>
       </c>
       <c r="F127" t="n">
-        <v>99.283821</v>
+        <v>99.28381299999999</v>
       </c>
       <c r="G127" t="n">
         <v>577030600</v>
@@ -11226,7 +11226,7 @@
         <v>0.007996</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.000111</v>
+        <v>-0.00011</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -11240,7 +11240,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O127" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P127" t="n">
         <v>57.99999999999999</v>
@@ -11287,22 +11287,22 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>100.266742</v>
+        <v>100.266704</v>
       </c>
       <c r="D128" t="n">
-        <v>106.071519</v>
+        <v>106.07148</v>
       </c>
       <c r="E128" t="n">
-        <v>98.133985</v>
+        <v>98.13399200000001</v>
       </c>
       <c r="F128" t="n">
-        <v>103.808907</v>
+        <v>103.808922</v>
       </c>
       <c r="G128" t="n">
         <v>644885700</v>
       </c>
       <c r="H128" t="n">
-        <v>0.045577</v>
+        <v>0.045578</v>
       </c>
       <c r="I128" t="n">
         <v>0.043703</v>
@@ -11325,7 +11325,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O128" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P128" t="n">
         <v>57.99999999999999</v>
@@ -11372,22 +11372,22 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>103.827494</v>
+        <v>103.827471</v>
       </c>
       <c r="D129" t="n">
-        <v>104.782587</v>
+        <v>104.78258</v>
       </c>
       <c r="E129" t="n">
-        <v>78.577646</v>
+        <v>78.57766599999999</v>
       </c>
       <c r="F129" t="n">
-        <v>96.72453299999999</v>
+        <v>96.724525</v>
       </c>
       <c r="G129" t="n">
         <v>1010304800</v>
       </c>
       <c r="H129" t="n">
-        <v>-0.068244</v>
+        <v>-0.068245</v>
       </c>
       <c r="I129" t="n">
         <v>-0.068498</v>
@@ -11410,7 +11410,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O129" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P129" t="n">
         <v>57.99999999999999</v>
@@ -11457,13 +11457,13 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>94.31359999999999</v>
+        <v>94.313585</v>
       </c>
       <c r="D130" t="n">
-        <v>100.823084</v>
+        <v>100.8231</v>
       </c>
       <c r="E130" t="n">
-        <v>91.791625</v>
+        <v>91.79161000000001</v>
       </c>
       <c r="F130" t="n">
         <v>94.589516</v>
@@ -11495,7 +11495,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O130" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P130" t="n">
         <v>57.99999999999999</v>
@@ -11542,13 +11542,13 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>94.756821</v>
+        <v>94.75683600000001</v>
       </c>
       <c r="D131" t="n">
         <v>106.04139</v>
       </c>
       <c r="E131" t="n">
-        <v>93.399725</v>
+        <v>93.39973999999999</v>
       </c>
       <c r="F131" t="n">
         <v>105.344238</v>
@@ -11580,7 +11580,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O131" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P131" t="n">
         <v>57.99999999999999</v>
@@ -11627,16 +11627,16 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>105.623125</v>
+        <v>105.623095</v>
       </c>
       <c r="D132" t="n">
-        <v>107.333426</v>
+        <v>107.333433</v>
       </c>
       <c r="E132" t="n">
         <v>101.765531</v>
       </c>
       <c r="F132" t="n">
-        <v>105.985611</v>
+        <v>105.985619</v>
       </c>
       <c r="G132" t="n">
         <v>543413300</v>
@@ -11665,7 +11665,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O132" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P132" t="n">
         <v>57.99999999999999</v>
@@ -11715,13 +11715,13 @@
         <v>106.413211</v>
       </c>
       <c r="D133" t="n">
-        <v>107.593675</v>
+        <v>107.593721</v>
       </c>
       <c r="E133" t="n">
-        <v>101.672561</v>
+        <v>101.672583</v>
       </c>
       <c r="F133" t="n">
-        <v>104.295395</v>
+        <v>104.295364</v>
       </c>
       <c r="G133" t="n">
         <v>757497500</v>
@@ -11750,7 +11750,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O133" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P133" t="n">
         <v>57.99999999999999</v>
@@ -11797,16 +11797,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>102.048387</v>
+        <v>102.048372</v>
       </c>
       <c r="D134" t="n">
-        <v>102.728992</v>
+        <v>102.729</v>
       </c>
       <c r="E134" t="n">
-        <v>90.673411</v>
+        <v>90.67342600000001</v>
       </c>
       <c r="F134" t="n">
-        <v>97.088142</v>
+        <v>97.08815</v>
       </c>
       <c r="G134" t="n">
         <v>1077308200</v>
@@ -11821,7 +11821,7 @@
         <v>0.018997</v>
       </c>
       <c r="K134" t="n">
-        <v>-0.000722</v>
+        <v>-0.000721</v>
       </c>
       <c r="L134" t="inlineStr">
         <is>
@@ -11835,7 +11835,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O134" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P134" t="n">
         <v>57.99999999999999</v>
@@ -11882,16 +11882,16 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>96.62194</v>
+        <v>96.621955</v>
       </c>
       <c r="D135" t="n">
-        <v>97.712823</v>
+        <v>97.712838</v>
       </c>
       <c r="E135" t="n">
-        <v>88.42638100000001</v>
+        <v>88.426366</v>
       </c>
       <c r="F135" t="n">
-        <v>95.56836699999999</v>
+        <v>95.568352</v>
       </c>
       <c r="G135" t="n">
         <v>942259600</v>
@@ -11920,7 +11920,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O135" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P135" t="n">
         <v>57.99999999999999</v>
@@ -11967,13 +11967,13 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>96.48207499999999</v>
+        <v>96.482097</v>
       </c>
       <c r="D136" t="n">
-        <v>102.902802</v>
+        <v>102.902795</v>
       </c>
       <c r="E136" t="n">
-        <v>96.18371500000001</v>
+        <v>96.18373800000001</v>
       </c>
       <c r="F136" t="n">
         <v>102.117294</v>
@@ -12005,7 +12005,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O136" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P136" t="n">
         <v>57.99999999999999</v>
@@ -12052,16 +12052,16 @@
         </is>
       </c>
       <c r="C137" t="n">
-        <v>101.500087</v>
+        <v>101.50011</v>
       </c>
       <c r="D137" t="n">
-        <v>104.212012</v>
+        <v>104.212043</v>
       </c>
       <c r="E137" t="n">
-        <v>98.077485</v>
+        <v>98.0775</v>
       </c>
       <c r="F137" t="n">
-        <v>98.863007</v>
+        <v>98.863022</v>
       </c>
       <c r="G137" t="n">
         <v>559253800</v>
@@ -12090,7 +12090,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O137" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P137" t="n">
         <v>57.99999999999999</v>
@@ -12137,16 +12137,16 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>99.115516</v>
+        <v>99.115494</v>
       </c>
       <c r="D138" t="n">
-        <v>103.342336</v>
+        <v>103.342321</v>
       </c>
       <c r="E138" t="n">
-        <v>97.628621</v>
+        <v>97.628613</v>
       </c>
       <c r="F138" t="n">
-        <v>103.183357</v>
+        <v>103.183342</v>
       </c>
       <c r="G138" t="n">
         <v>536482700</v>
@@ -12175,7 +12175,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O138" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P138" t="n">
         <v>57.99999999999999</v>
@@ -12222,16 +12222,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>102.865383</v>
+        <v>102.865398</v>
       </c>
       <c r="D139" t="n">
-        <v>103.566747</v>
+        <v>103.566769</v>
       </c>
       <c r="E139" t="n">
-        <v>95.403925</v>
+        <v>95.40394000000001</v>
       </c>
       <c r="F139" t="n">
-        <v>100.832794</v>
+        <v>100.832809</v>
       </c>
       <c r="G139" t="n">
         <v>577926300</v>
@@ -12260,7 +12260,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O139" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P139" t="n">
         <v>57.99999999999999</v>
@@ -12307,16 +12307,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>100.785951</v>
+        <v>100.785928</v>
       </c>
       <c r="D140" t="n">
-        <v>108.333853</v>
+        <v>108.333869</v>
       </c>
       <c r="E140" t="n">
-        <v>99.923298</v>
+        <v>99.923306</v>
       </c>
       <c r="F140" t="n">
-        <v>108.04319</v>
+        <v>108.043205</v>
       </c>
       <c r="G140" t="n">
         <v>421072600</v>
@@ -12345,7 +12345,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O140" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P140" t="n">
         <v>57.99999999999999</v>
@@ -12395,13 +12395,13 @@
         <v>108.118207</v>
       </c>
       <c r="D141" t="n">
-        <v>110.649798</v>
+        <v>110.649828</v>
       </c>
       <c r="E141" t="n">
-        <v>107.096194</v>
+        <v>107.096187</v>
       </c>
       <c r="F141" t="n">
-        <v>109.177711</v>
+        <v>109.177719</v>
       </c>
       <c r="G141" t="n">
         <v>369269900</v>
@@ -12430,7 +12430,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O141" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P141" t="n">
         <v>57.99999999999999</v>
@@ -12480,13 +12480,13 @@
         <v>109.215236</v>
       </c>
       <c r="D142" t="n">
-        <v>112.064409</v>
+        <v>112.064425</v>
       </c>
       <c r="E142" t="n">
-        <v>106.54297</v>
+        <v>106.542993</v>
       </c>
       <c r="F142" t="n">
-        <v>111.594421</v>
+        <v>111.594429</v>
       </c>
       <c r="G142" t="n">
         <v>540756600</v>
@@ -12515,7 +12515,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O142" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P142" t="n">
         <v>57.99999999999999</v>
@@ -12562,16 +12562,16 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>111.453413</v>
+        <v>111.453405</v>
       </c>
       <c r="D143" t="n">
         <v>112.477993</v>
       </c>
       <c r="E143" t="n">
-        <v>108.981285</v>
+        <v>108.9813</v>
       </c>
       <c r="F143" t="n">
-        <v>109.968254</v>
+        <v>109.968262</v>
       </c>
       <c r="G143" t="n">
         <v>406941800</v>
@@ -12600,7 +12600,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O143" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P143" t="n">
         <v>57.99999999999999</v>
@@ -12647,16 +12647,16 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>110.156255</v>
+        <v>110.156271</v>
       </c>
       <c r="D144" t="n">
-        <v>112.337035</v>
+        <v>112.337012</v>
       </c>
       <c r="E144" t="n">
-        <v>106.640705</v>
+        <v>106.640735</v>
       </c>
       <c r="F144" t="n">
-        <v>110.447624</v>
+        <v>110.447647</v>
       </c>
       <c r="G144" t="n">
         <v>598118800</v>
@@ -12685,7 +12685,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O144" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P144" t="n">
         <v>57.99999999999999</v>
@@ -12735,19 +12735,19 @@
         <v>110.410056</v>
       </c>
       <c r="D145" t="n">
-        <v>114.564188</v>
+        <v>114.564165</v>
       </c>
       <c r="E145" t="n">
         <v>108.30449</v>
       </c>
       <c r="F145" t="n">
-        <v>111.698174</v>
+        <v>111.698166</v>
       </c>
       <c r="G145" t="n">
         <v>498414300</v>
       </c>
       <c r="H145" t="n">
-        <v>0.011323</v>
+        <v>0.011322</v>
       </c>
       <c r="I145" t="n">
         <v>0.010977</v>
@@ -12770,7 +12770,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O145" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P145" t="n">
         <v>57.99999999999999</v>
@@ -12820,13 +12820,13 @@
         <v>112.442945</v>
       </c>
       <c r="D146" t="n">
-        <v>118.712309</v>
+        <v>118.712286</v>
       </c>
       <c r="E146" t="n">
         <v>112.084699</v>
       </c>
       <c r="F146" t="n">
-        <v>117.439568</v>
+        <v>117.439575</v>
       </c>
       <c r="G146" t="n">
         <v>366254600</v>
@@ -12855,7 +12855,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O146" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P146" t="n">
         <v>57.99999999999999</v>
@@ -12902,16 +12902,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>118.269195</v>
+        <v>118.269203</v>
       </c>
       <c r="D147" t="n">
-        <v>123.218652</v>
+        <v>123.218683</v>
       </c>
       <c r="E147" t="n">
         <v>117.712961</v>
       </c>
       <c r="F147" t="n">
-        <v>122.577606</v>
+        <v>122.577599</v>
       </c>
       <c r="G147" t="n">
         <v>307437600</v>
@@ -12940,7 +12940,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O147" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P147" t="n">
         <v>57.99999999999999</v>
@@ -12987,16 +12987,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>123.360119</v>
+        <v>123.360111</v>
       </c>
       <c r="D148" t="n">
-        <v>125.402226</v>
+        <v>125.402203</v>
       </c>
       <c r="E148" t="n">
-        <v>122.246877</v>
+        <v>122.246854</v>
       </c>
       <c r="F148" t="n">
-        <v>125.062126</v>
+        <v>125.062103</v>
       </c>
       <c r="G148" t="n">
         <v>442963500</v>
@@ -13025,7 +13025,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O148" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P148" t="n">
         <v>57.99999999999999</v>
@@ -13072,22 +13072,22 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>125.16601</v>
+        <v>125.166018</v>
       </c>
       <c r="D149" t="n">
-        <v>128.803147</v>
+        <v>128.803224</v>
       </c>
       <c r="E149" t="n">
-        <v>123.172667</v>
+        <v>123.172675</v>
       </c>
       <c r="F149" t="n">
-        <v>128.472504</v>
+        <v>128.47258</v>
       </c>
       <c r="G149" t="n">
         <v>388248100</v>
       </c>
       <c r="H149" t="n">
-        <v>0.027269</v>
+        <v>0.02727</v>
       </c>
       <c r="I149" t="n">
         <v>0.027096</v>
@@ -13110,7 +13110,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O149" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P149" t="n">
         <v>57.99999999999999</v>
@@ -13157,22 +13157,22 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>128.897679</v>
+        <v>128.897634</v>
       </c>
       <c r="D150" t="n">
-        <v>133.999214</v>
+        <v>133.999198</v>
       </c>
       <c r="E150" t="n">
-        <v>128.359187</v>
+        <v>128.359127</v>
       </c>
       <c r="F150" t="n">
-        <v>133.479614</v>
+        <v>133.479599</v>
       </c>
       <c r="G150" t="n">
         <v>532489700</v>
       </c>
       <c r="H150" t="n">
-        <v>0.038974</v>
+        <v>0.038973</v>
       </c>
       <c r="I150" t="n">
         <v>0.036763</v>
@@ -13181,7 +13181,7 @@
         <v>0.006805</v>
       </c>
       <c r="K150" t="n">
-        <v>0.002211</v>
+        <v>0.00221</v>
       </c>
       <c r="L150" t="inlineStr">
         <is>
@@ -13195,7 +13195,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O150" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P150" t="n">
         <v>57.99999999999999</v>
@@ -13242,7 +13242,7 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>133.753554</v>
+        <v>133.753523</v>
       </c>
       <c r="D151" t="n">
         <v>135.945292</v>
@@ -13251,7 +13251,7 @@
         <v>129.068855</v>
       </c>
       <c r="F151" t="n">
-        <v>130.385559</v>
+        <v>130.38559</v>
       </c>
       <c r="G151" t="n">
         <v>1046003200</v>
@@ -13266,7 +13266,7 @@
         <v>0.010196</v>
       </c>
       <c r="K151" t="n">
-        <v>0.001329</v>
+        <v>0.00133</v>
       </c>
       <c r="L151" t="inlineStr">
         <is>
@@ -13280,7 +13280,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O151" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P151" t="n">
         <v>57.99999999999999</v>
@@ -13327,16 +13327,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>130.982382</v>
+        <v>130.982413</v>
       </c>
       <c r="D152" t="n">
-        <v>138.267086</v>
+        <v>138.267148</v>
       </c>
       <c r="E152" t="n">
-        <v>128.642525</v>
+        <v>128.642555</v>
       </c>
       <c r="F152" t="n">
-        <v>135.680939</v>
+        <v>135.680969</v>
       </c>
       <c r="G152" t="n">
         <v>705002300</v>
@@ -13365,7 +13365,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O152" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P152" t="n">
         <v>57.99999999999999</v>
@@ -13412,16 +13412,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>136.145101</v>
+        <v>136.145116</v>
       </c>
       <c r="D153" t="n">
-        <v>138.503913</v>
+        <v>138.503928</v>
       </c>
       <c r="E153" t="n">
         <v>132.791674</v>
       </c>
       <c r="F153" t="n">
-        <v>138.494431</v>
+        <v>138.494446</v>
       </c>
       <c r="G153" t="n">
         <v>810771900</v>
@@ -13450,7 +13450,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O153" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P153" t="n">
         <v>57.99999999999999</v>
@@ -13497,16 +13497,16 @@
         </is>
       </c>
       <c r="C154" t="n">
-        <v>138.674406</v>
+        <v>138.674391</v>
       </c>
       <c r="D154" t="n">
-        <v>138.958955</v>
+        <v>138.958986</v>
       </c>
       <c r="E154" t="n">
-        <v>134.905178</v>
+        <v>134.905208</v>
       </c>
       <c r="F154" t="n">
-        <v>138.085526</v>
+        <v>138.08551</v>
       </c>
       <c r="G154" t="n">
         <v>631562000</v>
@@ -13535,7 +13535,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O154" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P154" t="n">
         <v>57.99999999999999</v>
@@ -13620,7 +13620,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O155" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P155" t="n">
         <v>57.99999999999999</v>
@@ -13667,16 +13667,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>145.025421</v>
+        <v>145.025437</v>
       </c>
       <c r="D156" t="n">
         <v>148.756411</v>
       </c>
       <c r="E156" t="n">
-        <v>143.136199</v>
+        <v>143.136169</v>
       </c>
       <c r="F156" t="n">
-        <v>147.294403</v>
+        <v>147.294388</v>
       </c>
       <c r="G156" t="n">
         <v>584198400</v>
@@ -13705,7 +13705,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O156" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P156" t="n">
         <v>57.99999999999999</v>
@@ -13752,13 +13752,13 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>146.392537</v>
+        <v>146.392552</v>
       </c>
       <c r="D157" t="n">
-        <v>151.046303</v>
+        <v>151.046334</v>
       </c>
       <c r="E157" t="n">
-        <v>144.360844</v>
+        <v>144.360874</v>
       </c>
       <c r="F157" t="n">
         <v>148.182739</v>
@@ -13790,7 +13790,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O157" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P157" t="n">
         <v>57.99999999999999</v>
@@ -13837,16 +13837,16 @@
         </is>
       </c>
       <c r="C158" t="n">
-        <v>148.943834</v>
+        <v>148.943819</v>
       </c>
       <c r="D158" t="n">
-        <v>162.633762</v>
+        <v>162.633838</v>
       </c>
       <c r="E158" t="n">
-        <v>148.572807</v>
+        <v>148.572792</v>
       </c>
       <c r="F158" t="n">
-        <v>161.15918</v>
+        <v>161.15921</v>
       </c>
       <c r="G158" t="n">
         <v>698394900</v>
@@ -13875,7 +13875,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O158" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P158" t="n">
         <v>57.99999999999999</v>
@@ -13925,13 +13925,13 @@
         <v>159.922465</v>
       </c>
       <c r="D159" t="n">
-        <v>162.424468</v>
+        <v>162.424545</v>
       </c>
       <c r="E159" t="n">
-        <v>142.826646</v>
+        <v>142.826632</v>
       </c>
       <c r="F159" t="n">
-        <v>159.07576</v>
+        <v>159.075775</v>
       </c>
       <c r="G159" t="n">
         <v>1179841200</v>
@@ -13960,7 +13960,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O159" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P159" t="n">
         <v>57.99999999999999</v>
@@ -14013,16 +14013,16 @@
         <v>166.686547</v>
       </c>
       <c r="E160" t="n">
-        <v>148.689961</v>
+        <v>148.68993</v>
       </c>
       <c r="F160" t="n">
-        <v>152.587341</v>
+        <v>152.587311</v>
       </c>
       <c r="G160" t="n">
         <v>1085306700</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.040788</v>
+        <v>-0.040789</v>
       </c>
       <c r="I160" t="n">
         <v>-0.039871</v>
@@ -14045,7 +14045,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O160" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P160" t="n">
         <v>57.99999999999999</v>
@@ -14092,16 +14092,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>151.501027</v>
+        <v>151.500996</v>
       </c>
       <c r="D161" t="n">
-        <v>159.133702</v>
+        <v>159.133733</v>
       </c>
       <c r="E161" t="n">
-        <v>146.631725</v>
+        <v>146.631695</v>
       </c>
       <c r="F161" t="n">
-        <v>153.359146</v>
+        <v>153.359131</v>
       </c>
       <c r="G161" t="n">
         <v>987380500</v>
@@ -14116,7 +14116,7 @@
         <v>0.014637</v>
       </c>
       <c r="K161" t="n">
-        <v>0.001344</v>
+        <v>0.001345</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -14130,7 +14130,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O161" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P161" t="n">
         <v>57.99999999999999</v>
@@ -14177,16 +14177,16 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>152.958977</v>
+        <v>152.958947</v>
       </c>
       <c r="D162" t="n">
-        <v>163.135891</v>
+        <v>163.13586</v>
       </c>
       <c r="E162" t="n">
         <v>151.720175</v>
       </c>
       <c r="F162" t="n">
-        <v>162.059128</v>
+        <v>162.059097</v>
       </c>
       <c r="G162" t="n">
         <v>687987000</v>
@@ -14215,7 +14215,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O162" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P162" t="n">
         <v>57.99999999999999</v>
@@ -14262,22 +14262,22 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>162.869069</v>
+        <v>162.869009</v>
       </c>
       <c r="D163" t="n">
-        <v>169.959535</v>
+        <v>169.95952</v>
       </c>
       <c r="E163" t="n">
-        <v>161.54655</v>
+        <v>161.546459</v>
       </c>
       <c r="F163" t="n">
-        <v>163.914764</v>
+        <v>163.91478</v>
       </c>
       <c r="G163" t="n">
         <v>784338500</v>
       </c>
       <c r="H163" t="n">
-        <v>0.01145</v>
+        <v>0.011451</v>
       </c>
       <c r="I163" t="n">
         <v>0.010487</v>
@@ -14286,7 +14286,7 @@
         <v>0.008769000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>0.000963</v>
+        <v>0.000964</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -14300,7 +14300,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O163" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P163" t="n">
         <v>57.99999999999999</v>
@@ -14356,7 +14356,7 @@
         <v>162.024</v>
       </c>
       <c r="F164" t="n">
-        <v>168.498444</v>
+        <v>168.498459</v>
       </c>
       <c r="G164" t="n">
         <v>708010500</v>
@@ -14385,7 +14385,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O164" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P164" t="n">
         <v>57.99999999999999</v>
@@ -14432,16 +14432,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>168.889951</v>
+        <v>168.889967</v>
       </c>
       <c r="D165" t="n">
         <v>179.069608</v>
       </c>
       <c r="E165" t="n">
-        <v>167.868201</v>
+        <v>167.868216</v>
       </c>
       <c r="F165" t="n">
-        <v>178.238754</v>
+        <v>178.238815</v>
       </c>
       <c r="G165" t="n">
         <v>667523000</v>
@@ -14470,7 +14470,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O165" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P165" t="n">
         <v>57.99999999999999</v>
@@ -14517,22 +14517,22 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>177.694469</v>
+        <v>177.6945</v>
       </c>
       <c r="D166" t="n">
-        <v>178.406511</v>
+        <v>178.406481</v>
       </c>
       <c r="E166" t="n">
-        <v>172.308681</v>
+        <v>172.30865</v>
       </c>
       <c r="F166" t="n">
-        <v>177.736801</v>
+        <v>177.736786</v>
       </c>
       <c r="G166" t="n">
         <v>645534400</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002816</v>
+        <v>-0.002817</v>
       </c>
       <c r="I166" t="n">
         <v>-0.003514</v>
@@ -14555,7 +14555,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O166" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P166" t="n">
         <v>57.99999999999999</v>
@@ -14602,10 +14602,10 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>178.770058</v>
+        <v>178.770012</v>
       </c>
       <c r="D167" t="n">
-        <v>179.401454</v>
+        <v>179.401408</v>
       </c>
       <c r="E167" t="n">
         <v>153.150814</v>
@@ -14640,7 +14640,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O167" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P167" t="n">
         <v>57.99999999999999</v>
@@ -14687,7 +14687,7 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>162.698226</v>
+        <v>162.698196</v>
       </c>
       <c r="D168" t="n">
         <v>167.969391</v>
@@ -14696,7 +14696,7 @@
         <v>150.319101</v>
       </c>
       <c r="F168" t="n">
-        <v>162.02858</v>
+        <v>162.028564</v>
       </c>
       <c r="G168" t="n">
         <v>1152121500</v>
@@ -14725,7 +14725,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O168" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P168" t="n">
         <v>57.99999999999999</v>
@@ -14772,16 +14772,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>165.606419</v>
+        <v>165.606449</v>
       </c>
       <c r="D169" t="n">
-        <v>165.797747</v>
+        <v>165.797777</v>
       </c>
       <c r="E169" t="n">
-        <v>137.634314</v>
+        <v>137.63436</v>
       </c>
       <c r="F169" t="n">
-        <v>147.995743</v>
+        <v>147.995758</v>
       </c>
       <c r="G169" t="n">
         <v>1395544900</v>
@@ -14810,7 +14810,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O169" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P169" t="n">
         <v>57.99999999999999</v>
@@ -14857,16 +14857,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>144.858514</v>
+        <v>144.858558</v>
       </c>
       <c r="D170" t="n">
-        <v>162.127565</v>
+        <v>162.12755</v>
       </c>
       <c r="E170" t="n">
         <v>143.419468</v>
       </c>
       <c r="F170" t="n">
-        <v>161.331268</v>
+        <v>161.331253</v>
       </c>
       <c r="G170" t="n">
         <v>933706500</v>
@@ -14895,7 +14895,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O170" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P170" t="n">
         <v>57.99999999999999</v>
@@ -14948,7 +14948,7 @@
         <v>167.567323</v>
       </c>
       <c r="E171" t="n">
-        <v>159.805877</v>
+        <v>159.805817</v>
       </c>
       <c r="F171" t="n">
         <v>166.157028</v>
@@ -14980,7 +14980,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O171" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P171" t="n">
         <v>57.99999999999999</v>
@@ -15027,16 +15027,16 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>167.356261</v>
+        <v>167.356276</v>
       </c>
       <c r="D172" t="n">
         <v>175.724759</v>
       </c>
       <c r="E172" t="n">
-        <v>162.463337</v>
+        <v>162.463367</v>
       </c>
       <c r="F172" t="n">
-        <v>172.677948</v>
+        <v>172.678009</v>
       </c>
       <c r="G172" t="n">
         <v>781972700</v>
@@ -15051,7 +15051,7 @@
         <v>0.009148999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.00038</v>
+        <v>-0.000379</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -15065,7 +15065,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O172" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P172" t="n">
         <v>57.99999999999999</v>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>174.456052</v>
+        <v>174.456068</v>
       </c>
       <c r="D173" t="n">
         <v>183.884856</v>
       </c>
       <c r="E173" t="n">
-        <v>173.74482</v>
+        <v>173.744835</v>
       </c>
       <c r="F173" t="n">
-        <v>182.173981</v>
+        <v>182.173996</v>
       </c>
       <c r="G173" t="n">
         <v>550157700</v>
       </c>
       <c r="H173" t="n">
-        <v>0.054993</v>
+        <v>0.054992</v>
       </c>
       <c r="I173" t="n">
         <v>0.054574</v>
@@ -15136,7 +15136,7 @@
         <v>0.004885</v>
       </c>
       <c r="K173" t="n">
-        <v>0.000419</v>
+        <v>0.000418</v>
       </c>
       <c r="L173" t="inlineStr">
         <is>
@@ -15150,7 +15150,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O173" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P173" t="n">
         <v>57.99999999999999</v>
@@ -15197,16 +15197,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>183.365833</v>
+        <v>183.365802</v>
       </c>
       <c r="D174" t="n">
-        <v>183.884856</v>
+        <v>183.884825</v>
       </c>
       <c r="E174" t="n">
-        <v>167.112988</v>
+        <v>167.112972</v>
       </c>
       <c r="F174" t="n">
-        <v>167.18988</v>
+        <v>167.189865</v>
       </c>
       <c r="G174" t="n">
         <v>901554000</v>
@@ -15235,7 +15235,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O174" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P174" t="n">
         <v>57.99999999999999</v>
@@ -15282,16 +15282,16 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>166.738104</v>
+        <v>166.738151</v>
       </c>
       <c r="D175" t="n">
         <v>182.395092</v>
       </c>
       <c r="E175" t="n">
-        <v>162.691724</v>
+        <v>162.69177</v>
       </c>
       <c r="F175" t="n">
-        <v>179.879639</v>
+        <v>179.879654</v>
       </c>
       <c r="G175" t="n">
         <v>688730400</v>
@@ -15320,7 +15320,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O175" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P175" t="n">
         <v>57.99999999999999</v>
@@ -15367,16 +15367,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>183.328154</v>
+        <v>183.328093</v>
       </c>
       <c r="D176" t="n">
-        <v>188.366013</v>
+        <v>188.365967</v>
       </c>
       <c r="E176" t="n">
-        <v>181.459422</v>
+        <v>181.459361</v>
       </c>
       <c r="F176" t="n">
-        <v>184.079498</v>
+        <v>184.079483</v>
       </c>
       <c r="G176" t="n">
         <v>494025500</v>
@@ -15405,7 +15405,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O176" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P176" t="n">
         <v>57.99999999999999</v>
@@ -15452,16 +15452,16 @@
         </is>
       </c>
       <c r="C177" t="n">
-        <v>184.397343</v>
+        <v>184.397296</v>
       </c>
       <c r="D177" t="n">
-        <v>187.816928</v>
+        <v>187.816881</v>
       </c>
       <c r="E177" t="n">
-        <v>172.616648</v>
+        <v>172.616663</v>
       </c>
       <c r="F177" t="n">
-        <v>180.582825</v>
+        <v>180.58284</v>
       </c>
       <c r="G177" t="n">
         <v>814286500</v>
@@ -15490,7 +15490,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O177" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P177" t="n">
         <v>57.99999999999999</v>
@@ -15537,16 +15537,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>179.378763</v>
+        <v>179.378794</v>
       </c>
       <c r="D178" t="n">
-        <v>187.556865</v>
+        <v>187.556849</v>
       </c>
       <c r="E178" t="n">
-        <v>178.232479</v>
+        <v>178.232509</v>
       </c>
       <c r="F178" t="n">
-        <v>182.240402</v>
+        <v>182.240433</v>
       </c>
       <c r="G178" t="n">
         <v>550650200</v>
@@ -15575,7 +15575,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O178" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P178" t="n">
         <v>57.99999999999999</v>
@@ -15622,16 +15622,16 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>182.90634</v>
+        <v>182.906355</v>
       </c>
       <c r="D179" t="n">
-        <v>190.94655</v>
+        <v>190.94652</v>
       </c>
       <c r="E179" t="n">
-        <v>175.493582</v>
+        <v>175.493597</v>
       </c>
       <c r="F179" t="n">
-        <v>190.22261</v>
+        <v>190.222641</v>
       </c>
       <c r="G179" t="n">
         <v>576983400</v>
@@ -15660,7 +15660,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O179" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P179" t="n">
         <v>57.99999999999999</v>
@@ -15707,16 +15707,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>191.042992</v>
+        <v>191.043007</v>
       </c>
       <c r="D180" t="n">
-        <v>198.880511</v>
+        <v>198.880496</v>
       </c>
       <c r="E180" t="n">
-        <v>190.753442</v>
+        <v>190.753457</v>
       </c>
       <c r="F180" t="n">
-        <v>197.963531</v>
+        <v>197.963577</v>
       </c>
       <c r="G180" t="n">
         <v>351429700</v>
@@ -15745,7 +15745,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O180" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P180" t="n">
         <v>57.99999999999999</v>
@@ -15795,13 +15795,13 @@
         <v>197.973214</v>
       </c>
       <c r="D181" t="n">
-        <v>207.54338</v>
+        <v>207.543396</v>
       </c>
       <c r="E181" t="n">
-        <v>192.297808</v>
+        <v>192.297792</v>
       </c>
       <c r="F181" t="n">
-        <v>205.657135</v>
+        <v>205.657166</v>
       </c>
       <c r="G181" t="n">
         <v>429951100</v>
@@ -15830,7 +15830,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O181" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P181" t="n">
         <v>57.99999999999999</v>
@@ -15877,10 +15877,10 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>207.388581</v>
+        <v>207.388626</v>
       </c>
       <c r="D182" t="n">
-        <v>218.493174</v>
+        <v>218.493251</v>
       </c>
       <c r="E182" t="n">
         <v>205.299261</v>
@@ -15915,7 +15915,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O182" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P182" t="n">
         <v>57.99999999999999</v>
@@ -15962,16 +15962,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>212.940914</v>
+        <v>212.940929</v>
       </c>
       <c r="D183" t="n">
-        <v>229.704175</v>
+        <v>229.704206</v>
       </c>
       <c r="E183" t="n">
-        <v>191.689384</v>
+        <v>191.689398</v>
       </c>
       <c r="F183" t="n">
-        <v>199.06987</v>
+        <v>199.069885</v>
       </c>
       <c r="G183" t="n">
         <v>952392300</v>
@@ -16000,7 +16000,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O183" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P183" t="n">
         <v>57.99999999999999</v>
@@ -16047,13 +16047,13 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>202.049171</v>
+        <v>202.049142</v>
       </c>
       <c r="D184" t="n">
-        <v>212.428199</v>
+        <v>212.428247</v>
       </c>
       <c r="E184" t="n">
-        <v>159.876399</v>
+        <v>159.876414</v>
       </c>
       <c r="F184" t="n">
         <v>184.565964</v>
@@ -16085,7 +16085,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O184" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P184" t="n">
         <v>57.99999999999999</v>
@@ -16132,22 +16132,22 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>179.108476</v>
+        <v>179.108461</v>
       </c>
       <c r="D185" t="n">
-        <v>213.297743</v>
+        <v>213.297789</v>
       </c>
       <c r="E185" t="n">
-        <v>175.318279</v>
+        <v>175.318264</v>
       </c>
       <c r="F185" t="n">
-        <v>212.202377</v>
+        <v>212.202423</v>
       </c>
       <c r="G185" t="n">
         <v>1092071200</v>
       </c>
       <c r="H185" t="n">
-        <v>0.149737</v>
+        <v>0.149738</v>
       </c>
       <c r="I185" t="n">
         <v>0.151918</v>
@@ -16170,7 +16170,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O185" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P185" t="n">
         <v>57.99999999999999</v>
@@ -16217,16 +16217,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>207.927533</v>
+        <v>207.927502</v>
       </c>
       <c r="D186" t="n">
-        <v>226.442307</v>
+        <v>226.442292</v>
       </c>
       <c r="E186" t="n">
-        <v>204.651095</v>
+        <v>204.651065</v>
       </c>
       <c r="F186" t="n">
-        <v>226.209656</v>
+        <v>226.209641</v>
       </c>
       <c r="G186" t="n">
         <v>846592000</v>
@@ -16241,7 +16241,7 @@
         <v>0.013468</v>
       </c>
       <c r="K186" t="n">
-        <v>0.004344</v>
+        <v>0.004343</v>
       </c>
       <c r="L186" t="inlineStr">
         <is>
@@ -16255,7 +16255,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O186" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P186" t="n">
         <v>57.99999999999999</v>
@@ -16308,10 +16308,10 @@
         <v>243.877877</v>
       </c>
       <c r="E187" t="n">
-        <v>224.377575</v>
+        <v>224.377546</v>
       </c>
       <c r="F187" t="n">
-        <v>240.430679</v>
+        <v>240.43071</v>
       </c>
       <c r="G187" t="n">
         <v>928360400</v>
@@ -16340,7 +16340,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O187" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P187" t="n">
         <v>57.99999999999999</v>
@@ -16387,22 +16387,22 @@
         </is>
       </c>
       <c r="C188" t="n">
-        <v>240.469501</v>
+        <v>240.469546</v>
       </c>
       <c r="D188" t="n">
-        <v>261.978162</v>
+        <v>261.978226</v>
       </c>
       <c r="E188" t="n">
-        <v>239.925718</v>
+        <v>239.925764</v>
       </c>
       <c r="F188" t="n">
-        <v>258.093964</v>
+        <v>258.094086</v>
       </c>
       <c r="G188" t="n">
         <v>924935100</v>
       </c>
       <c r="H188" t="n">
-        <v>0.073465</v>
+        <v>0.073466</v>
       </c>
       <c r="I188" t="n">
         <v>0.07374600000000001</v>
@@ -16425,7 +16425,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O188" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P188" t="n">
         <v>57.99999999999999</v>
@@ -16472,13 +16472,13 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>260.240001</v>
+        <v>260.240092</v>
       </c>
       <c r="D189" t="n">
         <v>288.157524</v>
       </c>
       <c r="E189" t="n">
-        <v>256.967661</v>
+        <v>256.9676</v>
       </c>
       <c r="F189" t="n">
         <v>286.341675</v>
@@ -16496,7 +16496,7 @@
         <v>0.010558</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.001027</v>
+        <v>-0.001028</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -16510,7 +16510,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O189" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P189" t="n">
         <v>57.99999999999999</v>
@@ -16557,13 +16557,13 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>289.002388</v>
+        <v>289.002358</v>
       </c>
       <c r="D190" t="n">
-        <v>294.712063</v>
+        <v>294.712125</v>
       </c>
       <c r="E190" t="n">
-        <v>252.578495</v>
+        <v>252.578376</v>
       </c>
       <c r="F190" t="n">
         <v>269.795044</v>
@@ -16595,7 +16595,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O190" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P190" t="n">
         <v>57.99999999999999</v>
@@ -16642,16 +16642,16 @@
         </is>
       </c>
       <c r="C191" t="n">
-        <v>273.630751</v>
+        <v>273.63072</v>
       </c>
       <c r="D191" t="n">
         <v>288.846954</v>
       </c>
       <c r="E191" t="n">
-        <v>259.336937</v>
+        <v>259.337027</v>
       </c>
       <c r="F191" t="n">
-        <v>261.580048</v>
+        <v>261.580139</v>
       </c>
       <c r="G191" t="n">
         <v>936826500</v>
@@ -16666,7 +16666,7 @@
         <v>0.017982</v>
       </c>
       <c r="K191" t="n">
-        <v>0.001527</v>
+        <v>0.001528</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -16680,7 +16680,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O191" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P191" t="n">
         <v>57.99999999999999</v>
@@ -16727,13 +16727,13 @@
         </is>
       </c>
       <c r="C192" t="n">
-        <v>263.978569</v>
+        <v>263.978538</v>
       </c>
       <c r="D192" t="n">
         <v>291.478589</v>
       </c>
       <c r="E192" t="n">
-        <v>259.239865</v>
+        <v>259.239835</v>
       </c>
       <c r="F192" t="n">
         <v>290.944427</v>
@@ -16742,7 +16742,7 @@
         <v>751645800</v>
       </c>
       <c r="H192" t="n">
-        <v>0.112258</v>
+        <v>0.112257</v>
       </c>
       <c r="I192" t="n">
         <v>0.109959</v>
@@ -16751,7 +16751,7 @@
         <v>0.015029</v>
       </c>
       <c r="K192" t="n">
-        <v>0.002299</v>
+        <v>0.002298</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -16765,7 +16765,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O192" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P192" t="n">
         <v>57.99999999999999</v>
@@ -16815,13 +16815,13 @@
         <v>293.226401</v>
       </c>
       <c r="D193" t="n">
-        <v>306.131968</v>
+        <v>306.131938</v>
       </c>
       <c r="E193" t="n">
-        <v>289.458716</v>
+        <v>289.458746</v>
       </c>
       <c r="F193" t="n">
-        <v>305.207794</v>
+        <v>305.207764</v>
       </c>
       <c r="G193" t="n">
         <v>569870600</v>
@@ -16850,7 +16850,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O193" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P193" t="n">
         <v>57.99999999999999</v>
@@ -16900,7 +16900,7 @@
         <v>306.54051</v>
       </c>
       <c r="D194" t="n">
-        <v>321.336963</v>
+        <v>321.336932</v>
       </c>
       <c r="E194" t="n">
         <v>296.880566</v>
@@ -16935,7 +16935,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O194" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P194" t="n">
         <v>57.99999999999999</v>
@@ -16982,16 +16982,16 @@
         </is>
       </c>
       <c r="C195" t="n">
-        <v>309.458978</v>
+        <v>309.458948</v>
       </c>
       <c r="D195" t="n">
-        <v>328.992844</v>
+        <v>328.992905</v>
       </c>
       <c r="E195" t="n">
-        <v>302.425631</v>
+        <v>302.42554</v>
       </c>
       <c r="F195" t="n">
-        <v>305.596985</v>
+        <v>305.596893</v>
       </c>
       <c r="G195" t="n">
         <v>795468600</v>
@@ -17020,7 +17020,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O195" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P195" t="n">
         <v>57.99999999999999</v>
@@ -17067,13 +17067,13 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>310.587393</v>
+        <v>310.587483</v>
       </c>
       <c r="D196" t="n">
-        <v>315.509815</v>
+        <v>315.509753</v>
       </c>
       <c r="E196" t="n">
-        <v>289.360703</v>
+        <v>289.360821</v>
       </c>
       <c r="F196" t="n">
         <v>310.843323</v>
@@ -17091,7 +17091,7 @@
         <v>0.018965</v>
       </c>
       <c r="K196" t="n">
-        <v>0.003069</v>
+        <v>0.00307</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -17105,7 +17105,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O196" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P196" t="n">
         <v>57.99999999999999</v>
@@ -17152,16 +17152,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>314.681009</v>
+        <v>314.680979</v>
       </c>
       <c r="D197" t="n">
-        <v>333.898736</v>
+        <v>333.898675</v>
       </c>
       <c r="E197" t="n">
-        <v>314.427751</v>
+        <v>314.427721</v>
       </c>
       <c r="F197" t="n">
-        <v>329.213562</v>
+        <v>329.213593</v>
       </c>
       <c r="G197" t="n">
         <v>771139800</v>
@@ -17190,7 +17190,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O197" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P197" t="n">
         <v>57.99999999999999</v>
@@ -17237,10 +17237,10 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>330.421336</v>
+        <v>330.421428</v>
       </c>
       <c r="D198" t="n">
-        <v>331.171331</v>
+        <v>331.171423</v>
       </c>
       <c r="E198" t="n">
         <v>307.794564</v>
@@ -17275,7 +17275,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O198" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P198" t="n">
         <v>57.99999999999999</v>
@@ -17322,16 +17322,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>326.593379</v>
+        <v>326.593348</v>
       </c>
       <c r="D199" t="n">
-        <v>346.407346</v>
+        <v>346.407315</v>
       </c>
       <c r="E199" t="n">
-        <v>319.755752</v>
+        <v>319.755692</v>
       </c>
       <c r="F199" t="n">
-        <v>345.627197</v>
+        <v>345.627167</v>
       </c>
       <c r="G199" t="n">
         <v>751288500</v>
@@ -17360,7 +17360,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O199" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P199" t="n">
         <v>57.99999999999999</v>
@@ -17407,16 +17407,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>345.27609</v>
+        <v>345.276182</v>
       </c>
       <c r="D200" t="n">
-        <v>359.728041</v>
+        <v>359.728102</v>
       </c>
       <c r="E200" t="n">
         <v>343.296552</v>
       </c>
       <c r="F200" t="n">
-        <v>355.515259</v>
+        <v>355.515381</v>
       </c>
       <c r="G200" t="n">
         <v>813285700</v>
@@ -17431,7 +17431,7 @@
         <v>0.006975</v>
       </c>
       <c r="K200" t="n">
-        <v>0.000776</v>
+        <v>0.000777</v>
       </c>
       <c r="L200" t="inlineStr">
         <is>
@@ -17445,7 +17445,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O200" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P200" t="n">
         <v>57.99999999999999</v>
@@ -17492,16 +17492,16 @@
         </is>
       </c>
       <c r="C201" t="n">
-        <v>357.182884</v>
+        <v>357.182823</v>
       </c>
       <c r="D201" t="n">
         <v>371.303194</v>
       </c>
       <c r="E201" t="n">
-        <v>351.019817</v>
+        <v>351.019848</v>
       </c>
       <c r="F201" t="n">
-        <v>370.513306</v>
+        <v>370.513367</v>
       </c>
       <c r="G201" t="n">
         <v>683466500</v>
@@ -17530,7 +17530,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O201" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P201" t="n">
         <v>57.99999999999999</v>
@@ -17592,7 +17592,7 @@
         <v>931849900</v>
       </c>
       <c r="H202" t="n">
-        <v>-0.056831</v>
+        <v>-0.056832</v>
       </c>
       <c r="I202" t="n">
         <v>-0.057301</v>
@@ -17615,7 +17615,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O202" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P202" t="n">
         <v>57.99999999999999</v>
@@ -17662,16 +17662,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>350.081296</v>
+        <v>350.081326</v>
       </c>
       <c r="D203" t="n">
-        <v>377.10381</v>
+        <v>377.103658</v>
       </c>
       <c r="E203" t="n">
-        <v>341.997936</v>
+        <v>341.997966</v>
       </c>
       <c r="F203" t="n">
-        <v>376.937836</v>
+        <v>376.937683</v>
       </c>
       <c r="G203" t="n">
         <v>878747900</v>
@@ -17700,7 +17700,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O203" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P203" t="n">
         <v>57.99999999999999</v>
@@ -17747,22 +17747,22 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>377.377112</v>
+        <v>377.377021</v>
       </c>
       <c r="D204" t="n">
-        <v>399.000825</v>
+        <v>399.000856</v>
       </c>
       <c r="E204" t="n">
-        <v>375.287964</v>
+        <v>375.287874</v>
       </c>
       <c r="F204" t="n">
-        <v>384.46463</v>
+        <v>384.464691</v>
       </c>
       <c r="G204" t="n">
         <v>922244500</v>
       </c>
       <c r="H204" t="n">
-        <v>0.019968</v>
+        <v>0.019969</v>
       </c>
       <c r="I204" t="n">
         <v>0.018009</v>
@@ -17771,7 +17771,7 @@
         <v>0.010662</v>
       </c>
       <c r="K204" t="n">
-        <v>0.001959</v>
+        <v>0.00196</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -17785,7 +17785,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O204" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P204" t="n">
         <v>57.99999999999999</v>
@@ -17832,16 +17832,16 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>388.818691</v>
+        <v>388.818722</v>
       </c>
       <c r="D205" t="n">
-        <v>395.473525</v>
+        <v>395.473432</v>
       </c>
       <c r="E205" t="n">
-        <v>368.973692</v>
+        <v>368.973722</v>
       </c>
       <c r="F205" t="n">
-        <v>388.894989</v>
+        <v>388.89502</v>
       </c>
       <c r="G205" t="n">
         <v>1232817200</v>
@@ -17870,7 +17870,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O205" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P205" t="n">
         <v>57.99999999999999</v>
@@ -17917,16 +17917,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>390.068017</v>
+        <v>390.067956</v>
       </c>
       <c r="D206" t="n">
-        <v>393.225274</v>
+        <v>393.225212</v>
       </c>
       <c r="E206" t="n">
-        <v>326.628733</v>
+        <v>326.628791</v>
       </c>
       <c r="F206" t="n">
-        <v>354.878265</v>
+        <v>354.878204</v>
       </c>
       <c r="G206" t="n">
         <v>1847203000</v>
@@ -17955,7 +17955,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O206" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P206" t="n">
         <v>57.99999999999999</v>
@@ -18002,16 +18002,16 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>356.227201</v>
+        <v>356.227232</v>
       </c>
       <c r="D207" t="n">
-        <v>361.769577</v>
+        <v>361.769639</v>
       </c>
       <c r="E207" t="n">
-        <v>311.096434</v>
+        <v>311.096406</v>
       </c>
       <c r="F207" t="n">
-        <v>338.994049</v>
+        <v>338.994019</v>
       </c>
       <c r="G207" t="n">
         <v>1522923600</v>
@@ -18040,7 +18040,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O207" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P207" t="n">
         <v>57.99999999999999</v>
@@ -18087,16 +18087,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>337.967651</v>
+        <v>337.967682</v>
       </c>
       <c r="D208" t="n">
-        <v>363.909983</v>
+        <v>363.909922</v>
       </c>
       <c r="E208" t="n">
-        <v>310.304719</v>
+        <v>310.304689</v>
       </c>
       <c r="F208" t="n">
-        <v>354.817963</v>
+        <v>354.817902</v>
       </c>
       <c r="G208" t="n">
         <v>1686792800</v>
@@ -18125,7 +18125,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O208" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P208" t="n">
         <v>57.99999999999999</v>
@@ -18172,16 +18172,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>355.082122</v>
+        <v>355.082152</v>
       </c>
       <c r="D209" t="n">
         <v>361.443604</v>
       </c>
       <c r="E209" t="n">
-        <v>305.94161</v>
+        <v>305.941579</v>
       </c>
       <c r="F209" t="n">
-        <v>306.577759</v>
+        <v>306.577728</v>
       </c>
       <c r="G209" t="n">
         <v>1501959100</v>
@@ -18210,7 +18210,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O209" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P209" t="n">
         <v>57.99999999999999</v>
@@ -18257,13 +18257,13 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>306.166702</v>
+        <v>306.166642</v>
       </c>
       <c r="D210" t="n">
-        <v>323.254773</v>
+        <v>323.254804</v>
       </c>
       <c r="E210" t="n">
-        <v>274.241508</v>
+        <v>274.241537</v>
       </c>
       <c r="F210" t="n">
         <v>301.713593</v>
@@ -18295,7 +18295,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O210" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P210" t="n">
         <v>57.99999999999999</v>
@@ -18342,16 +18342,16 @@
         </is>
       </c>
       <c r="C211" t="n">
-        <v>303.856968</v>
+        <v>303.856937</v>
       </c>
       <c r="D211" t="n">
-        <v>307.859875</v>
+        <v>307.859844</v>
       </c>
       <c r="E211" t="n">
-        <v>263.544333</v>
+        <v>263.544303</v>
       </c>
       <c r="F211" t="n">
-        <v>274.83728</v>
+        <v>274.83725</v>
       </c>
       <c r="G211" t="n">
         <v>1359608000</v>
@@ -18380,7 +18380,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O211" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P211" t="n">
         <v>57.99999999999999</v>
@@ -18427,13 +18427,13 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>273.533096</v>
+        <v>273.533126</v>
       </c>
       <c r="D212" t="n">
         <v>310.24607</v>
       </c>
       <c r="E212" t="n">
-        <v>271.375877</v>
+        <v>271.375818</v>
       </c>
       <c r="F212" t="n">
         <v>309.334106</v>
@@ -18465,7 +18465,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O212" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P212" t="n">
         <v>57.99999999999999</v>
@@ -18512,13 +18512,13 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>307.55923</v>
+        <v>307.559351</v>
       </c>
       <c r="D213" t="n">
-        <v>327.925942</v>
+        <v>327.925973</v>
       </c>
       <c r="E213" t="n">
-        <v>292.644644</v>
+        <v>292.644614</v>
       </c>
       <c r="F213" t="n">
         <v>293.458527</v>
@@ -18550,7 +18550,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O213" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P213" t="n">
         <v>57.99999999999999</v>
@@ -18597,10 +18597,10 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>290.958048</v>
+        <v>290.958078</v>
       </c>
       <c r="D214" t="n">
-        <v>305.039113</v>
+        <v>305.039205</v>
       </c>
       <c r="E214" t="n">
         <v>262.383898</v>
@@ -18635,7 +18635,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O214" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P214" t="n">
         <v>57.99999999999999</v>
@@ -18682,13 +18682,13 @@
         </is>
       </c>
       <c r="C215" t="n">
-        <v>264.319135</v>
+        <v>264.319195</v>
       </c>
       <c r="D215" t="n">
-        <v>279.574931</v>
+        <v>279.574992</v>
       </c>
       <c r="E215" t="n">
-        <v>249.770644</v>
+        <v>249.770587</v>
       </c>
       <c r="F215" t="n">
         <v>273.042328</v>
@@ -18720,7 +18720,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O215" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P215" t="n">
         <v>57.99999999999999</v>
@@ -18767,16 +18767,16 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>276.529692</v>
+        <v>276.529723</v>
       </c>
       <c r="D216" t="n">
-        <v>288.288341</v>
+        <v>288.28831</v>
       </c>
       <c r="E216" t="n">
-        <v>254.505553</v>
+        <v>254.505464</v>
       </c>
       <c r="F216" t="n">
-        <v>288.180267</v>
+        <v>288.180237</v>
       </c>
       <c r="G216" t="n">
         <v>1195762800</v>
@@ -18805,7 +18805,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O216" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P216" t="n">
         <v>57.99999999999999</v>
@@ -18858,10 +18858,10 @@
         <v>291.638102</v>
       </c>
       <c r="E217" t="n">
-        <v>255.754869</v>
+        <v>255.7549</v>
       </c>
       <c r="F217" t="n">
-        <v>262.204651</v>
+        <v>262.20459</v>
       </c>
       <c r="G217" t="n">
         <v>1057037700</v>
@@ -18876,7 +18876,7 @@
         <v>0.014424</v>
       </c>
       <c r="K217" t="n">
-        <v>0.000495</v>
+        <v>0.000494</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -18890,7 +18890,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O217" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P217" t="n">
         <v>57.99999999999999</v>
@@ -18943,16 +18943,16 @@
         <v>293.695221</v>
       </c>
       <c r="E218" t="n">
-        <v>256.355552</v>
+        <v>256.355523</v>
       </c>
       <c r="F218" t="n">
-        <v>290.110931</v>
+        <v>290.110901</v>
       </c>
       <c r="G218" t="n">
         <v>961927300</v>
       </c>
       <c r="H218" t="n">
-        <v>0.106429</v>
+        <v>0.10643</v>
       </c>
       <c r="I218" t="n">
         <v>0.106234</v>
@@ -18975,7 +18975,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O218" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P218" t="n">
         <v>57.99999999999999</v>
@@ -19022,16 +19022,16 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>289.904079</v>
+        <v>289.904138</v>
       </c>
       <c r="D219" t="n">
-        <v>308.879152</v>
+        <v>308.879244</v>
       </c>
       <c r="E219" t="n">
         <v>285.610801</v>
       </c>
       <c r="F219" t="n">
-        <v>289.067169</v>
+        <v>289.067108</v>
       </c>
       <c r="G219" t="n">
         <v>1094424800</v>
@@ -19060,7 +19060,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O219" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P219" t="n">
         <v>57.99999999999999</v>
@@ -19107,13 +19107,13 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>288.771725</v>
+        <v>288.771695</v>
       </c>
       <c r="D220" t="n">
         <v>316.74419</v>
       </c>
       <c r="E220" t="n">
-        <v>280.825235</v>
+        <v>280.825205</v>
       </c>
       <c r="F220" t="n">
         <v>316.507477</v>
@@ -19131,7 +19131,7 @@
         <v>0.01284</v>
       </c>
       <c r="K220" t="n">
-        <v>0.000323</v>
+        <v>0.000324</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -19145,7 +19145,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O220" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P220" t="n">
         <v>57.99999999999999</v>
@@ -19195,13 +19195,13 @@
         <v>314.377232</v>
       </c>
       <c r="D221" t="n">
-        <v>318.203746</v>
+        <v>318.203777</v>
       </c>
       <c r="E221" t="n">
         <v>305.619603</v>
       </c>
       <c r="F221" t="n">
-        <v>318.11499</v>
+        <v>318.115021</v>
       </c>
       <c r="G221" t="n">
         <v>993494600</v>
@@ -19230,7 +19230,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O221" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P221" t="n">
         <v>57.99999999999999</v>
@@ -19277,7 +19277,7 @@
         </is>
       </c>
       <c r="C222" t="n">
-        <v>317.651494</v>
+        <v>317.651464</v>
       </c>
       <c r="D222" t="n">
         <v>349.052653</v>
@@ -19286,7 +19286,7 @@
         <v>310.777531</v>
       </c>
       <c r="F222" t="n">
-        <v>343.19458</v>
+        <v>343.194519</v>
       </c>
       <c r="G222" t="n">
         <v>1149079300</v>
@@ -19315,7 +19315,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O222" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P222" t="n">
         <v>57.99999999999999</v>
@@ -19362,22 +19362,22 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>342.938191</v>
+        <v>342.938131</v>
       </c>
       <c r="D223" t="n">
-        <v>367.712016</v>
+        <v>367.711954</v>
       </c>
       <c r="E223" t="n">
-        <v>341.882929</v>
+        <v>341.882869</v>
       </c>
       <c r="F223" t="n">
-        <v>364.828979</v>
+        <v>364.82901</v>
       </c>
       <c r="G223" t="n">
         <v>1137710300</v>
       </c>
       <c r="H223" t="n">
-        <v>0.063038</v>
+        <v>0.063039</v>
       </c>
       <c r="I223" t="n">
         <v>0.064902</v>
@@ -19400,7 +19400,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O223" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P223" t="n">
         <v>57.99999999999999</v>
@@ -19450,10 +19450,10 @@
         <v>365.470935</v>
       </c>
       <c r="D224" t="n">
-        <v>383.15836</v>
+        <v>383.158391</v>
       </c>
       <c r="E224" t="n">
-        <v>358.893686</v>
+        <v>358.893717</v>
       </c>
       <c r="F224" t="n">
         <v>378.911774</v>
@@ -19471,7 +19471,7 @@
         <v>0.009117</v>
       </c>
       <c r="K224" t="n">
-        <v>0.000537</v>
+        <v>0.000536</v>
       </c>
       <c r="L224" t="inlineStr">
         <is>
@@ -19485,7 +19485,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O224" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P224" t="n">
         <v>57.99999999999999</v>
@@ -19532,13 +19532,13 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>377.558791</v>
+        <v>377.558883</v>
       </c>
       <c r="D225" t="n">
-        <v>378.793257</v>
+        <v>378.793349</v>
       </c>
       <c r="E225" t="n">
-        <v>350.30181</v>
+        <v>350.30178</v>
       </c>
       <c r="F225" t="n">
         <v>373.29248</v>
@@ -19570,7 +19570,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O225" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P225" t="n">
         <v>57.99999999999999</v>
@@ -19617,13 +19617,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>375.672506</v>
+        <v>375.672537</v>
       </c>
       <c r="D226" t="n">
-        <v>376.097155</v>
+        <v>376.097186</v>
       </c>
       <c r="E226" t="n">
-        <v>347.495764</v>
+        <v>347.495734</v>
       </c>
       <c r="F226" t="n">
         <v>354.329742</v>
@@ -19655,7 +19655,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O226" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P226" t="n">
         <v>57.99999999999999</v>
@@ -19702,16 +19702,16 @@
         </is>
       </c>
       <c r="C227" t="n">
-        <v>354.596779</v>
+        <v>354.596748</v>
       </c>
       <c r="D227" t="n">
-        <v>369.629607</v>
+        <v>369.629545</v>
       </c>
       <c r="E227" t="n">
-        <v>338.584812</v>
+        <v>338.584872</v>
       </c>
       <c r="F227" t="n">
-        <v>347.011108</v>
+        <v>347.011139</v>
       </c>
       <c r="G227" t="n">
         <v>1238424400</v>
@@ -19740,7 +19740,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O227" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P227" t="n">
         <v>57.99999999999999</v>
@@ -19787,16 +19787,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>347.851788</v>
+        <v>347.851818</v>
       </c>
       <c r="D228" t="n">
-        <v>389.805191</v>
+        <v>389.805284</v>
       </c>
       <c r="E228" t="n">
-        <v>347.752882</v>
+        <v>347.752912</v>
       </c>
       <c r="F228" t="n">
-        <v>384.55368</v>
+        <v>384.553589</v>
       </c>
       <c r="G228" t="n">
         <v>971319100</v>
@@ -19825,7 +19825,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O228" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P228" t="n">
         <v>57.99999999999999</v>
@@ -19878,10 +19878,10 @@
         <v>409.409628</v>
       </c>
       <c r="E229" t="n">
-        <v>378.451538</v>
+        <v>378.451508</v>
       </c>
       <c r="F229" t="n">
-        <v>406.038544</v>
+        <v>406.038513</v>
       </c>
       <c r="G229" t="n">
         <v>867235900</v>
@@ -19896,7 +19896,7 @@
         <v>0.007517</v>
       </c>
       <c r="K229" t="n">
-        <v>0.000811</v>
+        <v>0.000812</v>
       </c>
       <c r="L229" t="inlineStr">
         <is>
@@ -19910,7 +19910,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O229" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P229" t="n">
         <v>57.99999999999999</v>
@@ -19957,13 +19957,13 @@
         </is>
       </c>
       <c r="C230" t="n">
-        <v>402.38979</v>
+        <v>402.389821</v>
       </c>
       <c r="D230" t="n">
-        <v>426.195713</v>
+        <v>426.195683</v>
       </c>
       <c r="E230" t="n">
-        <v>391.979059</v>
+        <v>391.979089</v>
       </c>
       <c r="F230" t="n">
         <v>413.425232</v>
@@ -19995,7 +19995,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O230" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P230" t="n">
         <v>57.99999999999999</v>
@@ -20051,7 +20051,7 @@
         <v>414.25808</v>
       </c>
       <c r="F231" t="n">
-        <v>435.267883</v>
+        <v>435.267914</v>
       </c>
       <c r="G231" t="n">
         <v>866229300</v>
@@ -20066,7 +20066,7 @@
         <v>0.010598</v>
       </c>
       <c r="K231" t="n">
-        <v>-6.999999999999999e-05</v>
+        <v>-6.9e-05</v>
       </c>
       <c r="L231" t="inlineStr">
         <is>
@@ -20080,7 +20080,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O231" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P231" t="n">
         <v>57.99999999999999</v>
@@ -20130,13 +20130,13 @@
         <v>436.160237</v>
       </c>
       <c r="D232" t="n">
-        <v>446.109144</v>
+        <v>446.109113</v>
       </c>
       <c r="E232" t="n">
         <v>429.061118</v>
       </c>
       <c r="F232" t="n">
-        <v>440.817474</v>
+        <v>440.817444</v>
       </c>
       <c r="G232" t="n">
         <v>904777500</v>
@@ -20165,7 +20165,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O232" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P232" t="n">
         <v>57.99999999999999</v>
@@ -20212,13 +20212,13 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>441.770547</v>
+        <v>441.770578</v>
       </c>
       <c r="D233" t="n">
-        <v>444.312138</v>
+        <v>444.312168</v>
       </c>
       <c r="E233" t="n">
-        <v>410.099923</v>
+        <v>410.099892</v>
       </c>
       <c r="F233" t="n">
         <v>421.537048</v>
@@ -20250,7 +20250,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O233" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P233" t="n">
         <v>57.99999999999999</v>
@@ -20297,13 +20297,13 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>420.10739</v>
+        <v>420.107451</v>
       </c>
       <c r="D234" t="n">
-        <v>457.268298</v>
+        <v>457.268329</v>
       </c>
       <c r="E234" t="n">
-        <v>417.605569</v>
+        <v>417.605539</v>
       </c>
       <c r="F234" t="n">
         <v>447.469269</v>
@@ -20335,7 +20335,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O234" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P234" t="n">
         <v>57.99999999999999</v>
@@ -20382,13 +20382,13 @@
         </is>
       </c>
       <c r="C235" t="n">
-        <v>451.301566</v>
+        <v>451.301505</v>
       </c>
       <c r="D235" t="n">
         <v>484.465705</v>
       </c>
       <c r="E235" t="n">
-        <v>444.679511</v>
+        <v>444.679451</v>
       </c>
       <c r="F235" t="n">
         <v>476.421082</v>
@@ -20420,7 +20420,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O235" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P235" t="n">
         <v>57.99999999999999</v>
@@ -20473,7 +20473,7 @@
         <v>500.694092</v>
       </c>
       <c r="E236" t="n">
-        <v>451.601184</v>
+        <v>451.601154</v>
       </c>
       <c r="F236" t="n">
         <v>468.426208</v>
@@ -20505,7 +20505,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O236" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P236" t="n">
         <v>57.99999999999999</v>
@@ -20552,16 +20552,16 @@
         </is>
       </c>
       <c r="C237" t="n">
-        <v>469.112327</v>
+        <v>469.112359</v>
       </c>
       <c r="D237" t="n">
         <v>482.815036</v>
       </c>
       <c r="E237" t="n">
-        <v>421.07352</v>
+        <v>421.07349</v>
       </c>
       <c r="F237" t="n">
-        <v>473.597046</v>
+        <v>473.596985</v>
       </c>
       <c r="G237" t="n">
         <v>908585600</v>
@@ -20590,7 +20590,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O237" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P237" t="n">
         <v>57.99999999999999</v>
@@ -20637,13 +20637,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>470.544292</v>
+        <v>470.54426</v>
       </c>
       <c r="D238" t="n">
-        <v>491.619134</v>
+        <v>491.619103</v>
       </c>
       <c r="E238" t="n">
-        <v>445.67462</v>
+        <v>445.674651</v>
       </c>
       <c r="F238" t="n">
         <v>486.012848</v>
@@ -20661,7 +20661,7 @@
         <v>0.013263</v>
       </c>
       <c r="K238" t="n">
-        <v>0.001385</v>
+        <v>0.001386</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -20675,7 +20675,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O238" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P238" t="n">
         <v>57.99999999999999</v>
@@ -20722,16 +20722,16 @@
         </is>
       </c>
       <c r="C239" t="n">
-        <v>485.644407</v>
+        <v>485.644376</v>
       </c>
       <c r="D239" t="n">
         <v>499.236867</v>
       </c>
       <c r="E239" t="n">
-        <v>475.387802</v>
+        <v>475.387772</v>
       </c>
       <c r="F239" t="n">
-        <v>481.810608</v>
+        <v>481.810638</v>
       </c>
       <c r="G239" t="n">
         <v>660176300</v>
@@ -20760,7 +20760,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O239" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P239" t="n">
         <v>57.99999999999999</v>
@@ -20810,7 +20810,7 @@
         <v>483.453661</v>
       </c>
       <c r="D240" t="n">
-        <v>513.406881</v>
+        <v>513.406912</v>
       </c>
       <c r="E240" t="n">
         <v>482.208926</v>
@@ -20845,7 +20845,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O240" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P240" t="n">
         <v>57.99999999999999</v>
@@ -20892,13 +20892,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>508.856114</v>
+        <v>508.856174</v>
       </c>
       <c r="D241" t="n">
-        <v>536.877522</v>
+        <v>536.877583</v>
       </c>
       <c r="E241" t="n">
-        <v>507.143346</v>
+        <v>507.143406</v>
       </c>
       <c r="F241" t="n">
         <v>514.264648</v>
@@ -20930,7 +20930,7 @@
         <v>530.8200000000001</v>
       </c>
       <c r="O241" t="n">
-        <v>32.484203</v>
+        <v>32.577915</v>
       </c>
       <c r="P241" t="n">
         <v>57.99999999999999</v>

--- a/data/qqq_data.xlsx
+++ b/data/qqq_data.xlsx
@@ -577,22 +577,22 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34.282447</v>
+        <v>34.282459</v>
       </c>
       <c r="D2" t="n">
-        <v>34.453475</v>
+        <v>34.453487</v>
       </c>
       <c r="E2" t="n">
-        <v>31.178296</v>
+        <v>31.178304</v>
       </c>
       <c r="F2" t="n">
-        <v>31.982111</v>
+        <v>31.982122</v>
       </c>
       <c r="G2" t="n">
         <v>2234773200</v>
       </c>
       <c r="H2" t="n">
-        <v>-0.063127</v>
+        <v>-0.063126</v>
       </c>
       <c r="I2" t="n">
         <v>-0.06260499999999999</v>
@@ -601,7 +601,7 @@
         <v>0.010865</v>
       </c>
       <c r="K2" t="n">
-        <v>-0.000522</v>
+        <v>-0.000521</v>
       </c>
       <c r="L2" t="inlineStr">
         <is>
@@ -662,16 +662,16 @@
         </is>
       </c>
       <c r="C3" t="n">
-        <v>32.059079</v>
+        <v>32.059087</v>
       </c>
       <c r="D3" t="n">
-        <v>32.905666</v>
+        <v>32.905655</v>
       </c>
       <c r="E3" t="n">
-        <v>31.383527</v>
+        <v>31.383518</v>
       </c>
       <c r="F3" t="n">
-        <v>31.828186</v>
+        <v>31.828196</v>
       </c>
       <c r="G3" t="n">
         <v>1765610600</v>
@@ -750,19 +750,19 @@
         <v>31.956457</v>
       </c>
       <c r="D4" t="n">
-        <v>32.74319</v>
+        <v>32.743198</v>
       </c>
       <c r="E4" t="n">
-        <v>30.733617</v>
+        <v>30.733607</v>
       </c>
       <c r="F4" t="n">
-        <v>31.272364</v>
+        <v>31.272354</v>
       </c>
       <c r="G4" t="n">
         <v>2133973700</v>
       </c>
       <c r="H4" t="n">
-        <v>-0.017463</v>
+        <v>-0.017464</v>
       </c>
       <c r="I4" t="n">
         <v>-0.018855</v>
@@ -771,7 +771,7 @@
         <v>0.008751</v>
       </c>
       <c r="K4" t="n">
-        <v>0.001392</v>
+        <v>0.001391</v>
       </c>
       <c r="L4" t="inlineStr">
         <is>
@@ -832,16 +832,16 @@
         </is>
       </c>
       <c r="C5" t="n">
-        <v>31.486145</v>
+        <v>31.486138</v>
       </c>
       <c r="D5" t="n">
-        <v>31.699933</v>
+        <v>31.699916</v>
       </c>
       <c r="E5" t="n">
-        <v>29.373952</v>
+        <v>29.373945</v>
       </c>
       <c r="F5" t="n">
-        <v>29.912689</v>
+        <v>29.912682</v>
       </c>
       <c r="G5" t="n">
         <v>2345433600</v>
@@ -920,13 +920,13 @@
         <v>30.015303</v>
       </c>
       <c r="D6" t="n">
-        <v>32.726062</v>
+        <v>32.726089</v>
       </c>
       <c r="E6" t="n">
         <v>29.835725</v>
       </c>
       <c r="F6" t="n">
-        <v>32.563618</v>
+        <v>32.563595</v>
       </c>
       <c r="G6" t="n">
         <v>1881340000</v>
@@ -1002,22 +1002,22 @@
         </is>
       </c>
       <c r="C7" t="n">
-        <v>32.520859</v>
+        <v>32.52084</v>
       </c>
       <c r="D7" t="n">
-        <v>33.076699</v>
+        <v>33.07668</v>
       </c>
       <c r="E7" t="n">
-        <v>31.412536</v>
+        <v>31.412517</v>
       </c>
       <c r="F7" t="n">
-        <v>31.481005</v>
+        <v>31.48102</v>
       </c>
       <c r="G7" t="n">
         <v>1943627500</v>
       </c>
       <c r="H7" t="n">
-        <v>-0.033246</v>
+        <v>-0.033245</v>
       </c>
       <c r="I7" t="n">
         <v>-0.031835</v>
@@ -1026,7 +1026,7 @@
         <v>0.007409</v>
       </c>
       <c r="K7" t="n">
-        <v>-0.001411</v>
+        <v>-0.00141</v>
       </c>
       <c r="L7" t="inlineStr">
         <is>
@@ -1087,22 +1087,22 @@
         </is>
       </c>
       <c r="C8" t="n">
-        <v>31.549485</v>
+        <v>31.54947</v>
       </c>
       <c r="D8" t="n">
-        <v>34.168626</v>
+        <v>34.168615</v>
       </c>
       <c r="E8" t="n">
-        <v>31.284121</v>
+        <v>31.28415</v>
       </c>
       <c r="F8" t="n">
-        <v>33.877609</v>
+        <v>33.877598</v>
       </c>
       <c r="G8" t="n">
         <v>1620613000</v>
       </c>
       <c r="H8" t="n">
-        <v>0.076129</v>
+        <v>0.076128</v>
       </c>
       <c r="I8" t="n">
         <v>0.074736</v>
@@ -1175,19 +1175,19 @@
         <v>33.928958</v>
       </c>
       <c r="D9" t="n">
-        <v>34.35693</v>
+        <v>34.356918</v>
       </c>
       <c r="E9" t="n">
         <v>32.747783</v>
       </c>
       <c r="F9" t="n">
-        <v>33.364044</v>
+        <v>33.364025</v>
       </c>
       <c r="G9" t="n">
         <v>1714890300</v>
       </c>
       <c r="H9" t="n">
-        <v>-0.015159</v>
+        <v>-0.01516</v>
       </c>
       <c r="I9" t="n">
         <v>-0.014597</v>
@@ -1257,22 +1257,22 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>33.381186</v>
+        <v>33.381174</v>
       </c>
       <c r="D10" t="n">
-        <v>34.160038</v>
+        <v>34.160061</v>
       </c>
       <c r="E10" t="n">
         <v>32.73066</v>
       </c>
       <c r="F10" t="n">
-        <v>33.774895</v>
+        <v>33.774891</v>
       </c>
       <c r="G10" t="n">
         <v>1676662500</v>
       </c>
       <c r="H10" t="n">
-        <v>0.012314</v>
+        <v>0.012315</v>
       </c>
       <c r="I10" t="n">
         <v>0.012613</v>
@@ -1281,7 +1281,7 @@
         <v>0.006849</v>
       </c>
       <c r="K10" t="n">
-        <v>-0.000299</v>
+        <v>-0.000298</v>
       </c>
       <c r="L10" t="inlineStr">
         <is>
@@ -1342,22 +1342,22 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>33.84337</v>
+        <v>33.843366</v>
       </c>
       <c r="D11" t="n">
         <v>34.134379</v>
       </c>
       <c r="E11" t="n">
-        <v>31.951761</v>
+        <v>31.951772</v>
       </c>
       <c r="F11" t="n">
-        <v>33.269897</v>
+        <v>33.269871</v>
       </c>
       <c r="G11" t="n">
         <v>2279169700</v>
       </c>
       <c r="H11" t="n">
-        <v>-0.014952</v>
+        <v>-0.014953</v>
       </c>
       <c r="I11" t="n">
         <v>-0.014035</v>
@@ -1366,7 +1366,7 @@
         <v>0.010775</v>
       </c>
       <c r="K11" t="n">
-        <v>-0.000916</v>
+        <v>-0.000917</v>
       </c>
       <c r="L11" t="inlineStr">
         <is>
@@ -1427,16 +1427,16 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>33.192872</v>
+        <v>33.192849</v>
       </c>
       <c r="D12" t="n">
-        <v>35.966072</v>
+        <v>35.96608</v>
       </c>
       <c r="E12" t="n">
-        <v>33.132944</v>
+        <v>33.132929</v>
       </c>
       <c r="F12" t="n">
-        <v>35.298454</v>
+        <v>35.298443</v>
       </c>
       <c r="G12" t="n">
         <v>1718491700</v>
@@ -1512,16 +1512,16 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>35.529529</v>
+        <v>35.529548</v>
       </c>
       <c r="D13" t="n">
-        <v>36.214298</v>
+        <v>36.214286</v>
       </c>
       <c r="E13" t="n">
-        <v>34.628541</v>
+        <v>34.628553</v>
       </c>
       <c r="F13" t="n">
-        <v>34.67144</v>
+        <v>34.671452</v>
       </c>
       <c r="G13" t="n">
         <v>1416706400</v>
@@ -1536,7 +1536,7 @@
         <v>0.007271</v>
       </c>
       <c r="K13" t="n">
-        <v>-0.001405</v>
+        <v>-0.001404</v>
       </c>
       <c r="L13" t="inlineStr">
         <is>
@@ -1597,16 +1597,16 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>34.877397</v>
+        <v>34.877382</v>
       </c>
       <c r="D14" t="n">
-        <v>37.159623</v>
+        <v>37.15965</v>
       </c>
       <c r="E14" t="n">
-        <v>34.456979</v>
+        <v>34.456965</v>
       </c>
       <c r="F14" t="n">
-        <v>36.035671</v>
+        <v>36.03566</v>
       </c>
       <c r="G14" t="n">
         <v>1968905800</v>
@@ -1682,16 +1682,16 @@
         </is>
       </c>
       <c r="C15" t="n">
-        <v>35.812572</v>
+        <v>35.812599</v>
       </c>
       <c r="D15" t="n">
-        <v>36.181506</v>
+        <v>36.181532</v>
       </c>
       <c r="E15" t="n">
-        <v>34.542746</v>
+        <v>34.542765</v>
       </c>
       <c r="F15" t="n">
-        <v>35.263481</v>
+        <v>35.263477</v>
       </c>
       <c r="G15" t="n">
         <v>1646562100</v>
@@ -1706,7 +1706,7 @@
         <v>0.009872000000000001</v>
       </c>
       <c r="K15" t="n">
-        <v>0.002058</v>
+        <v>0.002059</v>
       </c>
       <c r="L15" t="inlineStr">
         <is>
@@ -1767,16 +1767,16 @@
         </is>
       </c>
       <c r="C16" t="n">
-        <v>35.375002</v>
+        <v>35.375005</v>
       </c>
       <c r="D16" t="n">
-        <v>36.318519</v>
+        <v>36.318515</v>
       </c>
       <c r="E16" t="n">
-        <v>34.482708</v>
+        <v>34.4827</v>
       </c>
       <c r="F16" t="n">
-        <v>36.000847</v>
+        <v>36.000835</v>
       </c>
       <c r="G16" t="n">
         <v>2185862300</v>
@@ -1791,7 +1791,7 @@
         <v>0.007963</v>
       </c>
       <c r="K16" t="n">
-        <v>0.001103</v>
+        <v>0.001102</v>
       </c>
       <c r="L16" t="inlineStr">
         <is>
@@ -1852,16 +1852,16 @@
         </is>
       </c>
       <c r="C17" t="n">
-        <v>36.189713</v>
+        <v>36.189725</v>
       </c>
       <c r="D17" t="n">
-        <v>36.962459</v>
+        <v>36.962474</v>
       </c>
       <c r="E17" t="n">
-        <v>35.537226</v>
+        <v>35.537192</v>
       </c>
       <c r="F17" t="n">
-        <v>35.932156</v>
+        <v>35.932159</v>
       </c>
       <c r="G17" t="n">
         <v>1763904700</v>
@@ -1937,16 +1937,16 @@
         </is>
       </c>
       <c r="C18" t="n">
-        <v>35.992276</v>
+        <v>35.99226</v>
       </c>
       <c r="D18" t="n">
-        <v>36.301363</v>
+        <v>36.301352</v>
       </c>
       <c r="E18" t="n">
-        <v>32.824034</v>
+        <v>32.824049</v>
       </c>
       <c r="F18" t="n">
-        <v>33.33062</v>
+        <v>33.330631</v>
       </c>
       <c r="G18" t="n">
         <v>2709535300</v>
@@ -2022,22 +2022,22 @@
         </is>
       </c>
       <c r="C19" t="n">
-        <v>33.425082</v>
+        <v>33.425067</v>
       </c>
       <c r="D19" t="n">
-        <v>34.343759</v>
+        <v>34.343755</v>
       </c>
       <c r="E19" t="n">
-        <v>31.90535</v>
+        <v>31.905362</v>
       </c>
       <c r="F19" t="n">
-        <v>33.310078</v>
+        <v>33.31007</v>
       </c>
       <c r="G19" t="n">
         <v>3052135000</v>
       </c>
       <c r="H19" t="n">
-        <v>-0.000616</v>
+        <v>-0.000617</v>
       </c>
       <c r="I19" t="n">
         <v>-0.002754</v>
@@ -2046,7 +2046,7 @@
         <v>0.014361</v>
       </c>
       <c r="K19" t="n">
-        <v>0.002138</v>
+        <v>0.002137</v>
       </c>
       <c r="L19" t="inlineStr">
         <is>
@@ -2107,16 +2107,16 @@
         </is>
       </c>
       <c r="C20" t="n">
-        <v>33.413211</v>
+        <v>33.413192</v>
       </c>
       <c r="D20" t="n">
-        <v>33.507721</v>
+        <v>33.507702</v>
       </c>
       <c r="E20" t="n">
-        <v>30.534971</v>
+        <v>30.534966</v>
       </c>
       <c r="F20" t="n">
-        <v>31.875265</v>
+        <v>31.875288</v>
       </c>
       <c r="G20" t="n">
         <v>2462886000</v>
@@ -2131,7 +2131,7 @@
         <v>0.012425</v>
       </c>
       <c r="K20" t="n">
-        <v>-0.001303</v>
+        <v>-0.001302</v>
       </c>
       <c r="L20" t="inlineStr">
         <is>
@@ -2192,22 +2192,22 @@
         </is>
       </c>
       <c r="C21" t="n">
-        <v>31.591749</v>
+        <v>31.591753</v>
       </c>
       <c r="D21" t="n">
         <v>33.533478</v>
       </c>
       <c r="E21" t="n">
-        <v>31.15357</v>
+        <v>31.153573</v>
       </c>
       <c r="F21" t="n">
-        <v>33.396004</v>
+        <v>33.396</v>
       </c>
       <c r="G21" t="n">
         <v>2281929100</v>
       </c>
       <c r="H21" t="n">
-        <v>0.047709</v>
+        <v>0.047708</v>
       </c>
       <c r="I21" t="n">
         <v>0.046574</v>
@@ -2216,7 +2216,7 @@
         <v>0.009743</v>
       </c>
       <c r="K21" t="n">
-        <v>0.001135</v>
+        <v>0.001134</v>
       </c>
       <c r="L21" t="inlineStr">
         <is>
@@ -2277,22 +2277,22 @@
         </is>
       </c>
       <c r="C22" t="n">
-        <v>33.576431</v>
+        <v>33.576439</v>
       </c>
       <c r="D22" t="n">
-        <v>35.203327</v>
+        <v>35.20335</v>
       </c>
       <c r="E22" t="n">
-        <v>32.923477</v>
+        <v>32.923488</v>
       </c>
       <c r="F22" t="n">
-        <v>34.945442</v>
+        <v>34.945423</v>
       </c>
       <c r="G22" t="n">
         <v>2234461000</v>
       </c>
       <c r="H22" t="n">
-        <v>0.046396</v>
+        <v>0.046395</v>
       </c>
       <c r="I22" t="n">
         <v>0.047097</v>
@@ -2362,22 +2362,22 @@
         </is>
       </c>
       <c r="C23" t="n">
-        <v>34.902457</v>
+        <v>34.902461</v>
       </c>
       <c r="D23" t="n">
-        <v>36.896871</v>
+        <v>36.896863</v>
       </c>
       <c r="E23" t="n">
         <v>34.283488</v>
       </c>
       <c r="F23" t="n">
-        <v>36.604595</v>
+        <v>36.604599</v>
       </c>
       <c r="G23" t="n">
         <v>2410484000</v>
       </c>
       <c r="H23" t="n">
-        <v>0.047478</v>
+        <v>0.047479</v>
       </c>
       <c r="I23" t="n">
         <v>0.047403</v>
@@ -2447,16 +2447,16 @@
         </is>
       </c>
       <c r="C24" t="n">
-        <v>36.733555</v>
+        <v>36.733532</v>
       </c>
       <c r="D24" t="n">
         <v>38.564627</v>
       </c>
       <c r="E24" t="n">
-        <v>35.770725</v>
+        <v>35.77071</v>
       </c>
       <c r="F24" t="n">
-        <v>37.859703</v>
+        <v>37.859688</v>
       </c>
       <c r="G24" t="n">
         <v>2370363000</v>
@@ -2471,7 +2471,7 @@
         <v>0.008407</v>
       </c>
       <c r="K24" t="n">
-        <v>0.000402</v>
+        <v>0.000401</v>
       </c>
       <c r="L24" t="inlineStr">
         <is>
@@ -2532,16 +2532,16 @@
         </is>
       </c>
       <c r="C25" t="n">
-        <v>37.825326</v>
+        <v>37.82533</v>
       </c>
       <c r="D25" t="n">
-        <v>38.525546</v>
+        <v>38.525562</v>
       </c>
       <c r="E25" t="n">
-        <v>36.907402</v>
+        <v>36.907417</v>
       </c>
       <c r="F25" t="n">
-        <v>37.148415</v>
+        <v>37.148407</v>
       </c>
       <c r="G25" t="n">
         <v>1898275500</v>
@@ -2617,16 +2617,16 @@
         </is>
       </c>
       <c r="C26" t="n">
-        <v>37.406617</v>
+        <v>37.406621</v>
       </c>
       <c r="D26" t="n">
-        <v>39.076413</v>
+        <v>39.076417</v>
       </c>
       <c r="E26" t="n">
-        <v>36.597547</v>
+        <v>36.597551</v>
       </c>
       <c r="F26" t="n">
-        <v>37.931652</v>
+        <v>37.931656</v>
       </c>
       <c r="G26" t="n">
         <v>2620557700</v>
@@ -2641,7 +2641,7 @@
         <v>0.009499</v>
       </c>
       <c r="K26" t="n">
-        <v>0.000946</v>
+        <v>0.000947</v>
       </c>
       <c r="L26" t="inlineStr">
         <is>
@@ -2702,16 +2702,16 @@
         </is>
       </c>
       <c r="C27" t="n">
-        <v>38.103804</v>
+        <v>38.103788</v>
       </c>
       <c r="D27" t="n">
-        <v>39.205503</v>
+        <v>39.205514</v>
       </c>
       <c r="E27" t="n">
-        <v>36.950459</v>
+        <v>36.950448</v>
       </c>
       <c r="F27" t="n">
-        <v>37.294746</v>
+        <v>37.294735</v>
       </c>
       <c r="G27" t="n">
         <v>2394303300</v>
@@ -2787,22 +2787,22 @@
         </is>
       </c>
       <c r="C28" t="n">
-        <v>36.623377</v>
+        <v>36.623381</v>
       </c>
       <c r="D28" t="n">
-        <v>38.282831</v>
+        <v>38.282823</v>
       </c>
       <c r="E28" t="n">
-        <v>36.201619</v>
+        <v>36.201642</v>
       </c>
       <c r="F28" t="n">
-        <v>37.490463</v>
+        <v>37.49049</v>
       </c>
       <c r="G28" t="n">
         <v>2886831700</v>
       </c>
       <c r="H28" t="n">
-        <v>0.005248</v>
+        <v>0.005249</v>
       </c>
       <c r="I28" t="n">
         <v>0.006108</v>
@@ -2811,7 +2811,7 @@
         <v>0.009922</v>
       </c>
       <c r="K28" t="n">
-        <v>-0.00086</v>
+        <v>-0.000859</v>
       </c>
       <c r="L28" t="inlineStr">
         <is>
@@ -2872,22 +2872,22 @@
         </is>
       </c>
       <c r="C29" t="n">
-        <v>37.61104</v>
+        <v>37.611051</v>
       </c>
       <c r="D29" t="n">
-        <v>40.220645</v>
+        <v>40.220668</v>
       </c>
       <c r="E29" t="n">
-        <v>37.292376</v>
+        <v>37.292387</v>
       </c>
       <c r="F29" t="n">
-        <v>39.583336</v>
+        <v>39.583328</v>
       </c>
       <c r="G29" t="n">
         <v>1840448700</v>
       </c>
       <c r="H29" t="n">
-        <v>0.055824</v>
+        <v>0.055823</v>
       </c>
       <c r="I29" t="n">
         <v>0.053821</v>
@@ -2896,7 +2896,7 @@
         <v>0.006409</v>
       </c>
       <c r="K29" t="n">
-        <v>0.002003</v>
+        <v>0.002002</v>
       </c>
       <c r="L29" t="inlineStr">
         <is>
@@ -2960,13 +2960,13 @@
         <v>39.591936</v>
       </c>
       <c r="D30" t="n">
-        <v>40.926877</v>
+        <v>40.926888</v>
       </c>
       <c r="E30" t="n">
         <v>39.324945</v>
       </c>
       <c r="F30" t="n">
-        <v>40.832138</v>
+        <v>40.83215</v>
       </c>
       <c r="G30" t="n">
         <v>2575501900</v>
@@ -3042,13 +3042,13 @@
         </is>
       </c>
       <c r="C31" t="n">
-        <v>40.978557</v>
+        <v>40.978561</v>
       </c>
       <c r="D31" t="n">
-        <v>41.303656</v>
+        <v>41.303664</v>
       </c>
       <c r="E31" t="n">
-        <v>39.755566</v>
+        <v>39.755585</v>
       </c>
       <c r="F31" t="n">
         <v>41.02784</v>
@@ -3066,7 +3066,7 @@
         <v>0.008217</v>
       </c>
       <c r="K31" t="n">
-        <v>0.001728</v>
+        <v>0.001727</v>
       </c>
       <c r="L31" t="inlineStr">
         <is>
@@ -3127,16 +3127,16 @@
         </is>
       </c>
       <c r="C32" t="n">
-        <v>41.122666</v>
+        <v>41.122647</v>
       </c>
       <c r="D32" t="n">
-        <v>43.66534</v>
+        <v>43.665325</v>
       </c>
       <c r="E32" t="n">
-        <v>40.8813</v>
+        <v>40.881311</v>
       </c>
       <c r="F32" t="n">
-        <v>40.967491</v>
+        <v>40.967503</v>
       </c>
       <c r="G32" t="n">
         <v>2780452500</v>
@@ -3212,13 +3212,13 @@
         </is>
       </c>
       <c r="C33" t="n">
-        <v>40.846818</v>
+        <v>40.846833</v>
       </c>
       <c r="D33" t="n">
         <v>42.286256</v>
       </c>
       <c r="E33" t="n">
-        <v>38.261036</v>
+        <v>38.261025</v>
       </c>
       <c r="F33" t="n">
         <v>42.122486</v>
@@ -3236,7 +3236,7 @@
         <v>0.01578</v>
       </c>
       <c r="K33" t="n">
-        <v>-0.001138</v>
+        <v>-0.001139</v>
       </c>
       <c r="L33" t="inlineStr">
         <is>
@@ -3297,16 +3297,16 @@
         </is>
       </c>
       <c r="C34" t="n">
-        <v>42.174209</v>
+        <v>42.174186</v>
       </c>
       <c r="D34" t="n">
-        <v>44.567677</v>
+        <v>44.567674</v>
       </c>
       <c r="E34" t="n">
-        <v>41.20885</v>
+        <v>41.208854</v>
       </c>
       <c r="F34" t="n">
-        <v>44.334835</v>
+        <v>44.334831</v>
       </c>
       <c r="G34" t="n">
         <v>1980639900</v>
@@ -3382,16 +3382,16 @@
         </is>
       </c>
       <c r="C35" t="n">
-        <v>44.369329</v>
+        <v>44.369325</v>
       </c>
       <c r="D35" t="n">
-        <v>47.491119</v>
+        <v>47.491127</v>
       </c>
       <c r="E35" t="n">
-        <v>44.274468</v>
+        <v>44.274464</v>
       </c>
       <c r="F35" t="n">
-        <v>47.456623</v>
+        <v>47.456631</v>
       </c>
       <c r="G35" t="n">
         <v>3400285100</v>
@@ -3406,7 +3406,7 @@
         <v>0.012246</v>
       </c>
       <c r="K35" t="n">
-        <v>-0.0003</v>
+        <v>-0.000299</v>
       </c>
       <c r="L35" t="inlineStr">
         <is>
@@ -3476,7 +3476,7 @@
         <v>41.954663</v>
       </c>
       <c r="F36" t="n">
-        <v>44.248611</v>
+        <v>44.248589</v>
       </c>
       <c r="G36" t="n">
         <v>4567776300</v>
@@ -3552,22 +3552,22 @@
         </is>
       </c>
       <c r="C37" t="n">
-        <v>44.058876</v>
+        <v>44.058872</v>
       </c>
       <c r="D37" t="n">
-        <v>45.56804</v>
+        <v>45.568032</v>
       </c>
       <c r="E37" t="n">
-        <v>42.411723</v>
+        <v>42.41173</v>
       </c>
       <c r="F37" t="n">
-        <v>44.21703</v>
+        <v>44.217022</v>
       </c>
       <c r="G37" t="n">
         <v>2233867700</v>
       </c>
       <c r="H37" t="n">
-        <v>-0.000714</v>
+        <v>-0.000713</v>
       </c>
       <c r="I37" t="n">
         <v>-0.001996</v>
@@ -3576,7 +3576,7 @@
         <v>0.013125</v>
       </c>
       <c r="K37" t="n">
-        <v>0.001282</v>
+        <v>0.001283</v>
       </c>
       <c r="L37" t="inlineStr">
         <is>
@@ -3637,16 +3637,16 @@
         </is>
       </c>
       <c r="C38" t="n">
-        <v>44.260195</v>
+        <v>44.260187</v>
       </c>
       <c r="D38" t="n">
-        <v>44.432851</v>
+        <v>44.432843</v>
       </c>
       <c r="E38" t="n">
-        <v>35.920933</v>
+        <v>35.920922</v>
       </c>
       <c r="F38" t="n">
-        <v>38.95966</v>
+        <v>38.959648</v>
       </c>
       <c r="G38" t="n">
         <v>4828694600</v>
@@ -3722,16 +3722,16 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>39.279075</v>
+        <v>39.279082</v>
       </c>
       <c r="D39" t="n">
-        <v>39.60712</v>
+        <v>39.607128</v>
       </c>
       <c r="E39" t="n">
-        <v>36.38711</v>
+        <v>36.387102</v>
       </c>
       <c r="F39" t="n">
-        <v>37.077728</v>
+        <v>37.077713</v>
       </c>
       <c r="G39" t="n">
         <v>3020516600</v>
@@ -3746,7 +3746,7 @@
         <v>0.014387</v>
       </c>
       <c r="K39" t="n">
-        <v>0.003911</v>
+        <v>0.00391</v>
       </c>
       <c r="L39" t="inlineStr">
         <is>
@@ -3807,22 +3807,22 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>37.051833</v>
+        <v>37.051825</v>
       </c>
       <c r="D40" t="n">
-        <v>38.938261</v>
+        <v>38.938265</v>
       </c>
       <c r="E40" t="n">
-        <v>35.437491</v>
+        <v>35.437503</v>
       </c>
       <c r="F40" t="n">
-        <v>37.771946</v>
+        <v>37.771938</v>
       </c>
       <c r="G40" t="n">
         <v>3404279700</v>
       </c>
       <c r="H40" t="n">
-        <v>0.018723</v>
+        <v>0.018724</v>
       </c>
       <c r="I40" t="n">
         <v>0.021005</v>
@@ -3895,13 +3895,13 @@
         <v>38.376703</v>
       </c>
       <c r="D41" t="n">
-        <v>41.521493</v>
+        <v>41.521485</v>
       </c>
       <c r="E41" t="n">
-        <v>37.737383</v>
+        <v>37.737398</v>
       </c>
       <c r="F41" t="n">
-        <v>40.787132</v>
+        <v>40.787125</v>
       </c>
       <c r="G41" t="n">
         <v>2616810900</v>
@@ -3977,16 +3977,16 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>40.804419</v>
+        <v>40.804408</v>
       </c>
       <c r="D42" t="n">
-        <v>43.603619</v>
+        <v>43.603612</v>
       </c>
       <c r="E42" t="n">
-        <v>40.795781</v>
+        <v>40.79577</v>
       </c>
       <c r="F42" t="n">
-        <v>43.206211</v>
+        <v>43.206203</v>
       </c>
       <c r="G42" t="n">
         <v>2682797700</v>
@@ -4062,16 +4062,16 @@
         </is>
       </c>
       <c r="C43" t="n">
-        <v>43.128439</v>
+        <v>43.12842</v>
       </c>
       <c r="D43" t="n">
-        <v>43.724568</v>
+        <v>43.724572</v>
       </c>
       <c r="E43" t="n">
-        <v>38.878991</v>
+        <v>38.878995</v>
       </c>
       <c r="F43" t="n">
-        <v>39.051907</v>
+        <v>39.051903</v>
       </c>
       <c r="G43" t="n">
         <v>3542909100</v>
@@ -4147,13 +4147,13 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>38.740659</v>
+        <v>38.740644</v>
       </c>
       <c r="D44" t="n">
         <v>39.899153</v>
       </c>
       <c r="E44" t="n">
-        <v>37.435181</v>
+        <v>37.435185</v>
       </c>
       <c r="F44" t="n">
         <v>39.302608</v>
@@ -4232,16 +4232,16 @@
         </is>
       </c>
       <c r="C45" t="n">
-        <v>39.345833</v>
+        <v>39.345856</v>
       </c>
       <c r="D45" t="n">
-        <v>41.991392</v>
+        <v>41.991376</v>
       </c>
       <c r="E45" t="n">
-        <v>38.299736</v>
+        <v>38.29972</v>
       </c>
       <c r="F45" t="n">
-        <v>39.873219</v>
+        <v>39.873222</v>
       </c>
       <c r="G45" t="n">
         <v>2893866300</v>
@@ -4317,16 +4317,16 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>40.521627</v>
+        <v>40.521631</v>
       </c>
       <c r="D46" t="n">
-        <v>40.703186</v>
+        <v>40.70319</v>
       </c>
       <c r="E46" t="n">
-        <v>32.165773</v>
+        <v>32.16578</v>
       </c>
       <c r="F46" t="n">
-        <v>33.662468</v>
+        <v>33.662472</v>
       </c>
       <c r="G46" t="n">
         <v>5188670400</v>
@@ -4402,22 +4402,22 @@
         </is>
       </c>
       <c r="C47" t="n">
-        <v>33.601893</v>
+        <v>33.601905</v>
       </c>
       <c r="D47" t="n">
-        <v>33.714362</v>
+        <v>33.714374</v>
       </c>
       <c r="E47" t="n">
-        <v>24.301688</v>
+        <v>24.301677</v>
       </c>
       <c r="F47" t="n">
-        <v>28.454348</v>
+        <v>28.454329</v>
       </c>
       <c r="G47" t="n">
         <v>7240779800</v>
       </c>
       <c r="H47" t="n">
-        <v>-0.154716</v>
+        <v>-0.154717</v>
       </c>
       <c r="I47" t="n">
         <v>-0.162953</v>
@@ -4487,22 +4487,22 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>28.385124</v>
+        <v>28.385134</v>
       </c>
       <c r="D48" t="n">
         <v>29.423295</v>
       </c>
       <c r="E48" t="n">
-        <v>21.671669</v>
+        <v>21.671667</v>
       </c>
       <c r="F48" t="n">
-        <v>25.192778</v>
+        <v>25.19277</v>
       </c>
       <c r="G48" t="n">
         <v>3919285900</v>
       </c>
       <c r="H48" t="n">
-        <v>-0.114625</v>
+        <v>-0.114624</v>
       </c>
       <c r="I48" t="n">
         <v>-0.111651</v>
@@ -4572,16 +4572,16 @@
         </is>
       </c>
       <c r="C49" t="n">
-        <v>24.656388</v>
+        <v>24.65639</v>
       </c>
       <c r="D49" t="n">
-        <v>26.672163</v>
+        <v>26.672167</v>
       </c>
       <c r="E49" t="n">
         <v>23.220267</v>
       </c>
       <c r="F49" t="n">
-        <v>25.766512</v>
+        <v>25.76652</v>
       </c>
       <c r="G49" t="n">
         <v>2944238700</v>
@@ -4596,7 +4596,7 @@
         <v>0.031001</v>
       </c>
       <c r="K49" t="n">
-        <v>0.000931</v>
+        <v>0.000932</v>
       </c>
       <c r="L49" t="inlineStr">
         <is>
@@ -4657,16 +4657,16 @@
         </is>
       </c>
       <c r="C50" t="n">
-        <v>25.775172</v>
+        <v>25.775182</v>
       </c>
       <c r="D50" t="n">
-        <v>27.404006</v>
+        <v>27.404004</v>
       </c>
       <c r="E50" t="n">
-        <v>24.22434</v>
+        <v>24.224333</v>
       </c>
       <c r="F50" t="n">
-        <v>25.177366</v>
+        <v>25.177364</v>
       </c>
       <c r="G50" t="n">
         <v>2829542600</v>
@@ -4742,16 +4742,16 @@
         </is>
       </c>
       <c r="C51" t="n">
-        <v>24.934778</v>
+        <v>24.934783</v>
       </c>
       <c r="D51" t="n">
-        <v>27.44732</v>
+        <v>27.447324</v>
       </c>
       <c r="E51" t="n">
-        <v>23.730491</v>
+        <v>23.73049</v>
       </c>
       <c r="F51" t="n">
-        <v>23.851788</v>
+        <v>23.851786</v>
       </c>
       <c r="G51" t="n">
         <v>3324074200</v>
@@ -4827,16 +4827,16 @@
         </is>
       </c>
       <c r="C52" t="n">
-        <v>23.496562</v>
+        <v>23.49657</v>
       </c>
       <c r="D52" t="n">
-        <v>27.301783</v>
+        <v>27.301785</v>
       </c>
       <c r="E52" t="n">
-        <v>22.205643</v>
+        <v>22.205638</v>
       </c>
       <c r="F52" t="n">
-        <v>26.312462</v>
+        <v>26.312466</v>
       </c>
       <c r="G52" t="n">
         <v>3805123800</v>
@@ -4912,22 +4912,22 @@
         </is>
       </c>
       <c r="C53" t="n">
-        <v>25.982691</v>
+        <v>25.982689</v>
       </c>
       <c r="D53" t="n">
-        <v>30.287108</v>
+        <v>30.287098</v>
       </c>
       <c r="E53" t="n">
-        <v>25.852517</v>
+        <v>25.852515</v>
       </c>
       <c r="F53" t="n">
-        <v>29.749054</v>
+        <v>29.749044</v>
       </c>
       <c r="G53" t="n">
         <v>2991632100</v>
       </c>
       <c r="H53" t="n">
-        <v>0.130607</v>
+        <v>0.130606</v>
       </c>
       <c r="I53" t="n">
         <v>0.127178</v>
@@ -4997,16 +4997,16 @@
         </is>
       </c>
       <c r="C54" t="n">
-        <v>29.740371</v>
+        <v>29.740386</v>
       </c>
       <c r="D54" t="n">
-        <v>30.807799</v>
+        <v>30.807801</v>
       </c>
       <c r="E54" t="n">
-        <v>28.603529</v>
+        <v>28.603517</v>
       </c>
       <c r="F54" t="n">
-        <v>30.703661</v>
+        <v>30.703663</v>
       </c>
       <c r="G54" t="n">
         <v>2734076200</v>
@@ -5082,16 +5082,16 @@
         </is>
       </c>
       <c r="C55" t="n">
-        <v>31.033442</v>
+        <v>31.033427</v>
       </c>
       <c r="D55" t="n">
-        <v>32.309135</v>
+        <v>32.309137</v>
       </c>
       <c r="E55" t="n">
-        <v>30.211395</v>
+        <v>30.211402</v>
       </c>
       <c r="F55" t="n">
-        <v>31.610315</v>
+        <v>31.610308</v>
       </c>
       <c r="G55" t="n">
         <v>2511948000</v>
@@ -5167,16 +5167,16 @@
         </is>
       </c>
       <c r="C56" t="n">
-        <v>31.766712</v>
+        <v>31.766724</v>
       </c>
       <c r="D56" t="n">
-        <v>34.912124</v>
+        <v>34.912113</v>
       </c>
       <c r="E56" t="n">
-        <v>29.803029</v>
+        <v>29.803022</v>
       </c>
       <c r="F56" t="n">
-        <v>34.277805</v>
+        <v>34.277817</v>
       </c>
       <c r="G56" t="n">
         <v>2575607800</v>
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="C57" t="n">
-        <v>34.642753</v>
+        <v>34.642749</v>
       </c>
       <c r="D57" t="n">
-        <v>35.694106</v>
+        <v>35.694129</v>
       </c>
       <c r="E57" t="n">
-        <v>33.417608</v>
+        <v>33.417612</v>
       </c>
       <c r="F57" t="n">
-        <v>34.781773</v>
+        <v>34.781765</v>
       </c>
       <c r="G57" t="n">
         <v>2248149500</v>
@@ -5337,16 +5337,16 @@
         </is>
       </c>
       <c r="C58" t="n">
-        <v>34.660133</v>
+        <v>34.660141</v>
       </c>
       <c r="D58" t="n">
-        <v>37.546395</v>
+        <v>37.546387</v>
       </c>
       <c r="E58" t="n">
-        <v>33.904185</v>
+        <v>33.904193</v>
       </c>
       <c r="F58" t="n">
-        <v>36.746243</v>
+        <v>36.746246</v>
       </c>
       <c r="G58" t="n">
         <v>2114774900</v>
@@ -5422,16 +5422,16 @@
         </is>
       </c>
       <c r="C59" t="n">
-        <v>36.615774</v>
+        <v>36.615782</v>
       </c>
       <c r="D59" t="n">
-        <v>38.111721</v>
+        <v>38.111725</v>
       </c>
       <c r="E59" t="n">
-        <v>35.415557</v>
+        <v>35.415553</v>
       </c>
       <c r="F59" t="n">
-        <v>35.624275</v>
+        <v>35.624283</v>
       </c>
       <c r="G59" t="n">
         <v>2291065900</v>
@@ -5507,22 +5507,22 @@
         </is>
       </c>
       <c r="C60" t="n">
-        <v>35.659089</v>
+        <v>35.659067</v>
       </c>
       <c r="D60" t="n">
-        <v>38.833598</v>
+        <v>38.833602</v>
       </c>
       <c r="E60" t="n">
-        <v>35.345985</v>
+        <v>35.345962</v>
       </c>
       <c r="F60" t="n">
-        <v>37.885593</v>
+        <v>37.885582</v>
       </c>
       <c r="G60" t="n">
         <v>1807922400</v>
       </c>
       <c r="H60" t="n">
-        <v>0.06347700000000001</v>
+        <v>0.063476</v>
       </c>
       <c r="I60" t="n">
         <v>0.060163</v>
@@ -5531,7 +5531,7 @@
         <v>0.010378</v>
       </c>
       <c r="K60" t="n">
-        <v>0.003314</v>
+        <v>0.003313</v>
       </c>
       <c r="L60" t="inlineStr">
         <is>
@@ -5595,13 +5595,13 @@
         <v>38.172599</v>
       </c>
       <c r="D61" t="n">
-        <v>40.335844</v>
+        <v>40.335856</v>
       </c>
       <c r="E61" t="n">
         <v>37.676853</v>
       </c>
       <c r="F61" t="n">
-        <v>39.856697</v>
+        <v>39.856709</v>
       </c>
       <c r="G61" t="n">
         <v>1524036700</v>
@@ -5616,7 +5616,7 @@
         <v>0.007742</v>
       </c>
       <c r="K61" t="n">
-        <v>-0.000523</v>
+        <v>-0.000522</v>
       </c>
       <c r="L61" t="inlineStr">
         <is>
@@ -5677,22 +5677,22 @@
         </is>
       </c>
       <c r="C62" t="n">
-        <v>40.361996</v>
+        <v>40.36198</v>
       </c>
       <c r="D62" t="n">
-        <v>40.632057</v>
+        <v>40.632075</v>
       </c>
       <c r="E62" t="n">
-        <v>37.138622</v>
+        <v>37.138603</v>
       </c>
       <c r="F62" t="n">
-        <v>37.278011</v>
+        <v>37.277992</v>
       </c>
       <c r="G62" t="n">
         <v>2382152500</v>
       </c>
       <c r="H62" t="n">
-        <v>-0.06469900000000001</v>
+        <v>-0.06469999999999999</v>
       </c>
       <c r="I62" t="n">
         <v>-0.064113</v>
@@ -5701,7 +5701,7 @@
         <v>0.013159</v>
       </c>
       <c r="K62" t="n">
-        <v>-0.000586</v>
+        <v>-0.000587</v>
       </c>
       <c r="L62" t="inlineStr">
         <is>
@@ -5768,7 +5768,7 @@
         <v>39.246865</v>
       </c>
       <c r="E63" t="n">
-        <v>36.694285</v>
+        <v>36.694311</v>
       </c>
       <c r="F63" t="n">
         <v>38.994221</v>
@@ -5777,7 +5777,7 @@
         <v>1932176400</v>
       </c>
       <c r="H63" t="n">
-        <v>0.046038</v>
+        <v>0.046039</v>
       </c>
       <c r="I63" t="n">
         <v>0.044594</v>
@@ -5786,7 +5786,7 @@
         <v>0.010414</v>
       </c>
       <c r="K63" t="n">
-        <v>0.001444</v>
+        <v>0.001445</v>
       </c>
       <c r="L63" t="inlineStr">
         <is>
@@ -5847,16 +5847,16 @@
         </is>
       </c>
       <c r="C64" t="n">
-        <v>39.168471</v>
+        <v>39.168479</v>
       </c>
       <c r="D64" t="n">
-        <v>42.384774</v>
+        <v>42.384759</v>
       </c>
       <c r="E64" t="n">
-        <v>39.159761</v>
+        <v>39.159768</v>
       </c>
       <c r="F64" t="n">
-        <v>42.001045</v>
+        <v>42.00103</v>
       </c>
       <c r="G64" t="n">
         <v>1623606900</v>
@@ -5871,7 +5871,7 @@
         <v>0.005616</v>
       </c>
       <c r="K64" t="n">
-        <v>0.000318</v>
+        <v>0.000317</v>
       </c>
       <c r="L64" t="inlineStr">
         <is>
@@ -5932,22 +5932,22 @@
         </is>
       </c>
       <c r="C65" t="n">
-        <v>42.175469</v>
+        <v>42.175454</v>
       </c>
       <c r="D65" t="n">
-        <v>44.172615</v>
+        <v>44.172623</v>
       </c>
       <c r="E65" t="n">
-        <v>41.678364</v>
+        <v>41.678349</v>
       </c>
       <c r="F65" t="n">
-        <v>42.942921</v>
+        <v>42.94294</v>
       </c>
       <c r="G65" t="n">
         <v>1701457500</v>
       </c>
       <c r="H65" t="n">
-        <v>0.022425</v>
+        <v>0.022426</v>
       </c>
       <c r="I65" t="n">
         <v>0.021595</v>
@@ -5956,7 +5956,7 @@
         <v>0.00941</v>
       </c>
       <c r="K65" t="n">
-        <v>0.00083</v>
+        <v>0.000831</v>
       </c>
       <c r="L65" t="inlineStr">
         <is>
@@ -6017,22 +6017,22 @@
         </is>
       </c>
       <c r="C66" t="n">
-        <v>43.126078</v>
+        <v>43.126063</v>
       </c>
       <c r="D66" t="n">
-        <v>43.753999</v>
+        <v>43.753983</v>
       </c>
       <c r="E66" t="n">
-        <v>37.186965</v>
+        <v>37.186972</v>
       </c>
       <c r="F66" t="n">
-        <v>39.768433</v>
+        <v>39.768436</v>
       </c>
       <c r="G66" t="n">
         <v>2952228100</v>
       </c>
       <c r="H66" t="n">
-        <v>-0.073923</v>
+        <v>-0.073924</v>
       </c>
       <c r="I66" t="n">
         <v>-0.074097</v>
@@ -6102,16 +6102,16 @@
         </is>
       </c>
       <c r="C67" t="n">
-        <v>39.620163</v>
+        <v>39.620166</v>
       </c>
       <c r="D67" t="n">
-        <v>41.661246</v>
+        <v>41.661238</v>
       </c>
       <c r="E67" t="n">
-        <v>37.330707</v>
+        <v>37.330715</v>
       </c>
       <c r="F67" t="n">
-        <v>37.391991</v>
+        <v>37.391998</v>
       </c>
       <c r="G67" t="n">
         <v>2058088600</v>
@@ -6187,22 +6187,22 @@
         </is>
       </c>
       <c r="C68" t="n">
-        <v>37.505813</v>
+        <v>37.505801</v>
       </c>
       <c r="D68" t="n">
         <v>40.902678</v>
       </c>
       <c r="E68" t="n">
-        <v>36.569043</v>
+        <v>36.569032</v>
       </c>
       <c r="F68" t="n">
-        <v>40.105999</v>
+        <v>40.105991</v>
       </c>
       <c r="G68" t="n">
         <v>1748673600</v>
       </c>
       <c r="H68" t="n">
-        <v>0.07258299999999999</v>
+        <v>0.07258199999999999</v>
       </c>
       <c r="I68" t="n">
         <v>0.071794</v>
@@ -6211,7 +6211,7 @@
         <v>0.012576</v>
       </c>
       <c r="K68" t="n">
-        <v>0.000789</v>
+        <v>0.000788</v>
       </c>
       <c r="L68" t="inlineStr">
         <is>
@@ -6272,13 +6272,13 @@
         </is>
       </c>
       <c r="C69" t="n">
-        <v>40.61379</v>
+        <v>40.613786</v>
       </c>
       <c r="D69" t="n">
-        <v>41.314162</v>
+        <v>41.314173</v>
       </c>
       <c r="E69" t="n">
-        <v>37.619616</v>
+        <v>37.619609</v>
       </c>
       <c r="F69" t="n">
         <v>38.048611</v>
@@ -6357,16 +6357,16 @@
         </is>
       </c>
       <c r="C70" t="n">
-        <v>38.608909</v>
+        <v>38.608913</v>
       </c>
       <c r="D70" t="n">
-        <v>43.736387</v>
+        <v>43.736383</v>
       </c>
       <c r="E70" t="n">
-        <v>38.582646</v>
+        <v>38.582649</v>
       </c>
       <c r="F70" t="n">
-        <v>43.060684</v>
+        <v>43.06068</v>
       </c>
       <c r="G70" t="n">
         <v>1574743200</v>
@@ -6381,7 +6381,7 @@
         <v>0.009802</v>
       </c>
       <c r="K70" t="n">
-        <v>0.001251</v>
+        <v>0.00125</v>
       </c>
       <c r="L70" t="inlineStr">
         <is>
@@ -6442,16 +6442,16 @@
         </is>
       </c>
       <c r="C71" t="n">
-        <v>43.420465</v>
+        <v>43.420492</v>
       </c>
       <c r="D71" t="n">
-        <v>46.061867</v>
+        <v>46.061863</v>
       </c>
       <c r="E71" t="n">
-        <v>42.297233</v>
+        <v>42.297218</v>
       </c>
       <c r="F71" t="n">
-        <v>45.789829</v>
+        <v>45.789825</v>
       </c>
       <c r="G71" t="n">
         <v>1538354800</v>
@@ -6527,16 +6527,16 @@
         </is>
       </c>
       <c r="C72" t="n">
-        <v>45.956538</v>
+        <v>45.956557</v>
       </c>
       <c r="D72" t="n">
-        <v>47.422036</v>
+        <v>47.422028</v>
       </c>
       <c r="E72" t="n">
-        <v>44.622688</v>
+        <v>44.622696</v>
       </c>
       <c r="F72" t="n">
-        <v>45.710846</v>
+        <v>45.710835</v>
       </c>
       <c r="G72" t="n">
         <v>1564994700</v>
@@ -6612,13 +6612,13 @@
         </is>
       </c>
       <c r="C73" t="n">
-        <v>46.386547</v>
+        <v>46.386555</v>
       </c>
       <c r="D73" t="n">
-        <v>48.324994</v>
+        <v>48.32499</v>
       </c>
       <c r="E73" t="n">
-        <v>46.368996</v>
+        <v>46.369004</v>
       </c>
       <c r="F73" t="n">
         <v>47.885353</v>
@@ -6636,7 +6636,7 @@
         <v>0.005754</v>
       </c>
       <c r="K73" t="n">
-        <v>9.1e-05</v>
+        <v>9.2e-05</v>
       </c>
       <c r="L73" t="inlineStr">
         <is>
@@ -6697,16 +6697,16 @@
         </is>
       </c>
       <c r="C74" t="n">
-        <v>48.333779</v>
+        <v>48.33379</v>
       </c>
       <c r="D74" t="n">
-        <v>50.426453</v>
+        <v>50.426457</v>
       </c>
       <c r="E74" t="n">
-        <v>48.289805</v>
+        <v>48.289816</v>
       </c>
       <c r="F74" t="n">
-        <v>49.239426</v>
+        <v>49.239429</v>
       </c>
       <c r="G74" t="n">
         <v>1265608600</v>
@@ -6782,16 +6782,16 @@
         </is>
       </c>
       <c r="C75" t="n">
-        <v>49.608726</v>
+        <v>49.608729</v>
       </c>
       <c r="D75" t="n">
-        <v>51.912451</v>
+        <v>51.912435</v>
       </c>
       <c r="E75" t="n">
-        <v>49.353757</v>
+        <v>49.353727</v>
       </c>
       <c r="F75" t="n">
-        <v>50.795757</v>
+        <v>50.795753</v>
       </c>
       <c r="G75" t="n">
         <v>1101561900</v>
@@ -6806,7 +6806,7 @@
         <v>0.009677</v>
       </c>
       <c r="K75" t="n">
-        <v>0.001335</v>
+        <v>0.001334</v>
       </c>
       <c r="L75" t="inlineStr">
         <is>
@@ -6867,22 +6867,22 @@
         </is>
       </c>
       <c r="C76" t="n">
-        <v>51.015565</v>
+        <v>51.015569</v>
       </c>
       <c r="D76" t="n">
         <v>51.323324</v>
       </c>
       <c r="E76" t="n">
-        <v>47.278637</v>
+        <v>47.278652</v>
       </c>
       <c r="F76" t="n">
-        <v>50.568054</v>
+        <v>50.568069</v>
       </c>
       <c r="G76" t="n">
         <v>1729243300</v>
       </c>
       <c r="H76" t="n">
-        <v>-0.004483</v>
+        <v>-0.004482</v>
       </c>
       <c r="I76" t="n">
         <v>-0.005104</v>
@@ -6958,7 +6958,7 @@
         <v>52.205816</v>
       </c>
       <c r="E77" t="n">
-        <v>48.710157</v>
+        <v>48.710161</v>
       </c>
       <c r="F77" t="n">
         <v>52.020908</v>
@@ -6967,7 +6967,7 @@
         <v>1032891200</v>
       </c>
       <c r="H77" t="n">
-        <v>0.028731</v>
+        <v>0.02873</v>
       </c>
       <c r="I77" t="n">
         <v>0.027828</v>
@@ -7037,16 +7037,16 @@
         </is>
       </c>
       <c r="C78" t="n">
-        <v>52.100165</v>
+        <v>52.100154</v>
       </c>
       <c r="D78" t="n">
-        <v>52.249855</v>
+        <v>52.249843</v>
       </c>
       <c r="E78" t="n">
-        <v>49.722759</v>
+        <v>49.722771</v>
       </c>
       <c r="F78" t="n">
-        <v>51.38694</v>
+        <v>51.386936</v>
       </c>
       <c r="G78" t="n">
         <v>1054622500</v>
@@ -7122,16 +7122,16 @@
         </is>
       </c>
       <c r="C79" t="n">
-        <v>51.263665</v>
+        <v>51.263677</v>
       </c>
       <c r="D79" t="n">
-        <v>51.386937</v>
+        <v>51.386948</v>
       </c>
       <c r="E79" t="n">
-        <v>47.213273</v>
+        <v>47.213284</v>
       </c>
       <c r="F79" t="n">
-        <v>50.346088</v>
+        <v>50.346104</v>
       </c>
       <c r="G79" t="n">
         <v>1155628500</v>
@@ -7207,16 +7207,16 @@
         </is>
       </c>
       <c r="C80" t="n">
-        <v>50.372565</v>
+        <v>50.372572</v>
       </c>
       <c r="D80" t="n">
-        <v>52.799435</v>
+        <v>52.799412</v>
       </c>
       <c r="E80" t="n">
-        <v>50.18726</v>
+        <v>50.187267</v>
       </c>
       <c r="F80" t="n">
-        <v>51.184471</v>
+        <v>51.184464</v>
       </c>
       <c r="G80" t="n">
         <v>1277418400</v>
@@ -7231,7 +7231,7 @@
         <v>0.011749</v>
       </c>
       <c r="K80" t="n">
-        <v>0.000421</v>
+        <v>0.00042</v>
       </c>
       <c r="L80" t="inlineStr">
         <is>
@@ -7292,16 +7292,16 @@
         </is>
       </c>
       <c r="C81" t="n">
-        <v>51.802203</v>
+        <v>51.802219</v>
       </c>
       <c r="D81" t="n">
-        <v>51.908101</v>
+        <v>51.908117</v>
       </c>
       <c r="E81" t="n">
-        <v>44.062765</v>
+        <v>44.062772</v>
       </c>
       <c r="F81" t="n">
-        <v>48.589947</v>
+        <v>48.589939</v>
       </c>
       <c r="G81" t="n">
         <v>2526145600</v>
@@ -7377,13 +7377,13 @@
         </is>
       </c>
       <c r="C82" t="n">
-        <v>48.713498</v>
+        <v>48.713502</v>
       </c>
       <c r="D82" t="n">
-        <v>50.70471</v>
+        <v>50.704714</v>
       </c>
       <c r="E82" t="n">
-        <v>45.810093</v>
+        <v>45.810097</v>
       </c>
       <c r="F82" t="n">
         <v>46.407864</v>
@@ -7462,16 +7462,16 @@
         </is>
       </c>
       <c r="C83" t="n">
-        <v>45.992305</v>
+        <v>45.992316</v>
       </c>
       <c r="D83" t="n">
         <v>52.340365</v>
       </c>
       <c r="E83" t="n">
-        <v>44.294786</v>
+        <v>44.294782</v>
       </c>
       <c r="F83" t="n">
-        <v>51.235195</v>
+        <v>51.235191</v>
       </c>
       <c r="G83" t="n">
         <v>1616785100</v>
@@ -7547,16 +7547,16 @@
         </is>
       </c>
       <c r="C84" t="n">
-        <v>49.970901</v>
+        <v>49.970886</v>
       </c>
       <c r="D84" t="n">
-        <v>52.145853</v>
+        <v>52.145849</v>
       </c>
       <c r="E84" t="n">
-        <v>46.743804</v>
+        <v>46.743808</v>
       </c>
       <c r="F84" t="n">
-        <v>49.855949</v>
+        <v>49.855957</v>
       </c>
       <c r="G84" t="n">
         <v>1295070500</v>
@@ -7632,16 +7632,16 @@
         </is>
       </c>
       <c r="C85" t="n">
-        <v>49.847107</v>
+        <v>49.847111</v>
       </c>
       <c r="D85" t="n">
-        <v>50.943415</v>
+        <v>50.943422</v>
       </c>
       <c r="E85" t="n">
-        <v>48.034465</v>
+        <v>48.034469</v>
       </c>
       <c r="F85" t="n">
-        <v>49.549751</v>
+        <v>49.54974</v>
       </c>
       <c r="G85" t="n">
         <v>1004361600</v>
@@ -7717,16 +7717,16 @@
         </is>
       </c>
       <c r="C86" t="n">
-        <v>50.508248</v>
+        <v>50.508256</v>
       </c>
       <c r="D86" t="n">
-        <v>54.013919</v>
+        <v>54.013934</v>
       </c>
       <c r="E86" t="n">
-        <v>50.197621</v>
+        <v>50.19764</v>
       </c>
       <c r="F86" t="n">
-        <v>53.721039</v>
+        <v>53.721054</v>
       </c>
       <c r="G86" t="n">
         <v>828883900</v>
@@ -7741,7 +7741,7 @@
         <v>0.006281</v>
       </c>
       <c r="K86" t="n">
-        <v>0.000718</v>
+        <v>0.000719</v>
       </c>
       <c r="L86" t="inlineStr">
         <is>
@@ -7802,16 +7802,16 @@
         </is>
       </c>
       <c r="C87" t="n">
-        <v>54.031679</v>
+        <v>54.031667</v>
       </c>
       <c r="D87" t="n">
-        <v>57.652727</v>
+        <v>57.652731</v>
       </c>
       <c r="E87" t="n">
-        <v>53.836425</v>
+        <v>53.836414</v>
       </c>
       <c r="F87" t="n">
-        <v>57.1646</v>
+        <v>57.164604</v>
       </c>
       <c r="G87" t="n">
         <v>1018602500</v>
@@ -7887,16 +7887,16 @@
         </is>
       </c>
       <c r="C88" t="n">
-        <v>57.377589</v>
+        <v>57.377601</v>
       </c>
       <c r="D88" t="n">
-        <v>60.906604</v>
+        <v>60.9066</v>
       </c>
       <c r="E88" t="n">
-        <v>56.117325</v>
+        <v>56.117317</v>
       </c>
       <c r="F88" t="n">
-        <v>60.053146</v>
+        <v>60.053131</v>
       </c>
       <c r="G88" t="n">
         <v>1070054300</v>
@@ -7972,16 +7972,16 @@
         </is>
       </c>
       <c r="C89" t="n">
-        <v>59.990913</v>
+        <v>59.990898</v>
       </c>
       <c r="D89" t="n">
-        <v>60.942181</v>
+        <v>60.942147</v>
       </c>
       <c r="E89" t="n">
-        <v>57.297181</v>
+        <v>57.297193</v>
       </c>
       <c r="F89" t="n">
-        <v>59.350826</v>
+        <v>59.350811</v>
       </c>
       <c r="G89" t="n">
         <v>1056184900</v>
@@ -8057,22 +8057,22 @@
         </is>
       </c>
       <c r="C90" t="n">
-        <v>59.288608</v>
+        <v>59.2886</v>
       </c>
       <c r="D90" t="n">
-        <v>60.12428</v>
+        <v>60.124272</v>
       </c>
       <c r="E90" t="n">
-        <v>54.016711</v>
+        <v>54.016723</v>
       </c>
       <c r="F90" t="n">
-        <v>55.172436</v>
+        <v>55.17244</v>
       </c>
       <c r="G90" t="n">
         <v>1300328800</v>
       </c>
       <c r="H90" t="n">
-        <v>-0.07040200000000001</v>
+        <v>-0.07040100000000001</v>
       </c>
       <c r="I90" t="n">
         <v>-0.072993</v>
@@ -8142,22 +8142,22 @@
         </is>
       </c>
       <c r="C91" t="n">
-        <v>54.176729</v>
+        <v>54.176737</v>
       </c>
       <c r="D91" t="n">
-        <v>57.535797</v>
+        <v>57.535812</v>
       </c>
       <c r="E91" t="n">
         <v>53.376619</v>
       </c>
       <c r="F91" t="n">
-        <v>57.170479</v>
+        <v>57.170471</v>
       </c>
       <c r="G91" t="n">
         <v>973815200</v>
       </c>
       <c r="H91" t="n">
-        <v>0.036215</v>
+        <v>0.036214</v>
       </c>
       <c r="I91" t="n">
         <v>0.035982</v>
@@ -8166,7 +8166,7 @@
         <v>0.015044</v>
       </c>
       <c r="K91" t="n">
-        <v>0.000233</v>
+        <v>0.000232</v>
       </c>
       <c r="L91" t="inlineStr">
         <is>
@@ -8227,16 +8227,16 @@
         </is>
       </c>
       <c r="C92" t="n">
-        <v>57.25067</v>
+        <v>57.250686</v>
       </c>
       <c r="D92" t="n">
-        <v>58.195193</v>
+        <v>58.195194</v>
       </c>
       <c r="E92" t="n">
-        <v>55.121036</v>
+        <v>55.121025</v>
       </c>
       <c r="F92" t="n">
-        <v>57.740738</v>
+        <v>57.740761</v>
       </c>
       <c r="G92" t="n">
         <v>860805100</v>
@@ -8251,7 +8251,7 @@
         <v>0.010673</v>
       </c>
       <c r="K92" t="n">
-        <v>-0.000275</v>
+        <v>-0.000274</v>
       </c>
       <c r="L92" t="inlineStr">
         <is>
@@ -8312,16 +8312,16 @@
         </is>
       </c>
       <c r="C93" t="n">
-        <v>58.150636</v>
+        <v>58.150644</v>
       </c>
       <c r="D93" t="n">
-        <v>61.37627</v>
+        <v>61.376282</v>
       </c>
       <c r="E93" t="n">
-        <v>56.947708</v>
+        <v>56.947705</v>
       </c>
       <c r="F93" t="n">
-        <v>60.734726</v>
+        <v>60.734715</v>
       </c>
       <c r="G93" t="n">
         <v>679866200</v>
@@ -8336,7 +8336,7 @@
         <v>0.006344</v>
       </c>
       <c r="K93" t="n">
-        <v>0.002767</v>
+        <v>0.002766</v>
       </c>
       <c r="L93" t="inlineStr">
         <is>
@@ -8397,16 +8397,16 @@
         </is>
       </c>
       <c r="C94" t="n">
-        <v>60.618879</v>
+        <v>60.618883</v>
       </c>
       <c r="D94" t="n">
-        <v>63.034704</v>
+        <v>63.034707</v>
       </c>
       <c r="E94" t="n">
-        <v>60.075331</v>
+        <v>60.075335</v>
       </c>
       <c r="F94" t="n">
-        <v>61.274281</v>
+        <v>61.274284</v>
       </c>
       <c r="G94" t="n">
         <v>639521900</v>
@@ -8421,7 +8421,7 @@
         <v>0.009242999999999999</v>
       </c>
       <c r="K94" t="n">
-        <v>-0.000838</v>
+        <v>-0.000837</v>
       </c>
       <c r="L94" t="inlineStr">
         <is>
@@ -8482,22 +8482,22 @@
         </is>
       </c>
       <c r="C95" t="n">
-        <v>61.569197</v>
+        <v>61.56919</v>
       </c>
       <c r="D95" t="n">
-        <v>62.373428</v>
+        <v>62.373436</v>
       </c>
       <c r="E95" t="n">
-        <v>57.771363</v>
+        <v>57.771378</v>
       </c>
       <c r="F95" t="n">
-        <v>58.039455</v>
+        <v>58.039474</v>
       </c>
       <c r="G95" t="n">
         <v>863124200</v>
       </c>
       <c r="H95" t="n">
-        <v>-0.052793</v>
+        <v>-0.052792</v>
       </c>
       <c r="I95" t="n">
         <v>-0.054041</v>
@@ -8567,13 +8567,13 @@
         </is>
       </c>
       <c r="C96" t="n">
-        <v>58.405841</v>
+        <v>58.405833</v>
       </c>
       <c r="D96" t="n">
-        <v>59.165401</v>
+        <v>59.165393</v>
       </c>
       <c r="E96" t="n">
-        <v>54.786745</v>
+        <v>54.786738</v>
       </c>
       <c r="F96" t="n">
         <v>58.799023</v>
@@ -8591,7 +8591,7 @@
         <v>0.011191</v>
       </c>
       <c r="K96" t="n">
-        <v>0.001773</v>
+        <v>0.001772</v>
       </c>
       <c r="L96" t="inlineStr">
         <is>
@@ -8652,16 +8652,16 @@
         </is>
       </c>
       <c r="C97" t="n">
-        <v>59.254759</v>
+        <v>59.25477</v>
       </c>
       <c r="D97" t="n">
-        <v>59.656884</v>
+        <v>59.656888</v>
       </c>
       <c r="E97" t="n">
-        <v>57.131651</v>
+        <v>57.131655</v>
       </c>
       <c r="F97" t="n">
-        <v>58.524445</v>
+        <v>58.524448</v>
       </c>
       <c r="G97" t="n">
         <v>815856000</v>
@@ -8737,16 +8737,16 @@
         </is>
       </c>
       <c r="C98" t="n">
-        <v>59.962191</v>
+        <v>59.962184</v>
       </c>
       <c r="D98" t="n">
-        <v>60.914679</v>
+        <v>60.914686</v>
       </c>
       <c r="E98" t="n">
-        <v>59.458993</v>
+        <v>59.459005</v>
       </c>
       <c r="F98" t="n">
-        <v>60.088001</v>
+        <v>60.088009</v>
       </c>
       <c r="G98" t="n">
         <v>741836700</v>
@@ -8828,7 +8828,7 @@
         <v>61.337014</v>
       </c>
       <c r="E99" t="n">
-        <v>59.270279</v>
+        <v>59.270275</v>
       </c>
       <c r="F99" t="n">
         <v>60.294666</v>
@@ -8910,13 +8910,13 @@
         <v>60.087994</v>
       </c>
       <c r="D100" t="n">
-        <v>62.199499</v>
+        <v>62.199506</v>
       </c>
       <c r="E100" t="n">
         <v>59.791461</v>
       </c>
       <c r="F100" t="n">
-        <v>62.118443</v>
+        <v>62.11845</v>
       </c>
       <c r="G100" t="n">
         <v>557979300</v>
@@ -8931,7 +8931,7 @@
         <v>0.005522</v>
       </c>
       <c r="K100" t="n">
-        <v>0.000995</v>
+        <v>0.0009959999999999999</v>
       </c>
       <c r="L100" t="inlineStr">
         <is>
@@ -8992,16 +8992,16 @@
         </is>
       </c>
       <c r="C101" t="n">
-        <v>62.163465</v>
+        <v>62.163473</v>
       </c>
       <c r="D101" t="n">
-        <v>63.703608</v>
+        <v>63.703592</v>
       </c>
       <c r="E101" t="n">
-        <v>60.236054</v>
+        <v>60.236043</v>
       </c>
       <c r="F101" t="n">
-        <v>63.694599</v>
+        <v>63.694584</v>
       </c>
       <c r="G101" t="n">
         <v>835537700</v>
@@ -9016,7 +9016,7 @@
         <v>0.01093</v>
       </c>
       <c r="K101" t="n">
-        <v>0.0009829999999999999</v>
+        <v>0.000982</v>
       </c>
       <c r="L101" t="inlineStr">
         <is>
@@ -9086,7 +9086,7 @@
         <v>63.271282</v>
       </c>
       <c r="F102" t="n">
-        <v>65.973251</v>
+        <v>65.97326700000001</v>
       </c>
       <c r="G102" t="n">
         <v>680414200</v>
@@ -9101,7 +9101,7 @@
         <v>0.006209</v>
       </c>
       <c r="K102" t="n">
-        <v>0.003109</v>
+        <v>0.00311</v>
       </c>
       <c r="L102" t="inlineStr">
         <is>
@@ -9162,13 +9162,13 @@
         </is>
       </c>
       <c r="C103" t="n">
-        <v>65.98228</v>
+        <v>65.982257</v>
       </c>
       <c r="D103" t="n">
-        <v>66.486625</v>
+        <v>66.486617</v>
       </c>
       <c r="E103" t="n">
-        <v>62.477581</v>
+        <v>62.477596</v>
       </c>
       <c r="F103" t="n">
         <v>64.393013</v>
@@ -9247,16 +9247,16 @@
         </is>
       </c>
       <c r="C104" t="n">
-        <v>64.826714</v>
+        <v>64.826699</v>
       </c>
       <c r="D104" t="n">
-        <v>68.856347</v>
+        <v>68.85635499999999</v>
       </c>
       <c r="E104" t="n">
-        <v>64.465298</v>
+        <v>64.46531299999999</v>
       </c>
       <c r="F104" t="n">
-        <v>68.45880099999999</v>
+        <v>68.458809</v>
       </c>
       <c r="G104" t="n">
         <v>581695700</v>
@@ -9338,10 +9338,10 @@
         <v>69.82311199999999</v>
       </c>
       <c r="E105" t="n">
-        <v>67.726963</v>
+        <v>67.72694</v>
       </c>
       <c r="F105" t="n">
-        <v>68.187744</v>
+        <v>68.187759</v>
       </c>
       <c r="G105" t="n">
         <v>529245500</v>
@@ -9417,16 +9417,16 @@
         </is>
       </c>
       <c r="C106" t="n">
-        <v>68.747933</v>
+        <v>68.747941</v>
       </c>
       <c r="D106" t="n">
-        <v>72.08082899999999</v>
+        <v>72.080822</v>
       </c>
       <c r="E106" t="n">
-        <v>68.251008</v>
+        <v>68.251015</v>
       </c>
       <c r="F106" t="n">
-        <v>71.482697</v>
+        <v>71.482727</v>
       </c>
       <c r="G106" t="n">
         <v>503988800</v>
@@ -9505,10 +9505,10 @@
         <v>71.491749</v>
       </c>
       <c r="D107" t="n">
-        <v>75.66039499999999</v>
+        <v>75.66041800000001</v>
       </c>
       <c r="E107" t="n">
-        <v>69.190001</v>
+        <v>69.189986</v>
       </c>
       <c r="F107" t="n">
         <v>75.026054</v>
@@ -9587,7 +9587,7 @@
         </is>
       </c>
       <c r="C108" t="n">
-        <v>75.27977799999999</v>
+        <v>75.279786</v>
       </c>
       <c r="D108" t="n">
         <v>77.790031</v>
@@ -9672,16 +9672,16 @@
         </is>
       </c>
       <c r="C109" t="n">
-        <v>77.780967</v>
+        <v>77.780959</v>
       </c>
       <c r="D109" t="n">
-        <v>79.964417</v>
+        <v>79.964401</v>
       </c>
       <c r="E109" t="n">
-        <v>76.167861</v>
+        <v>76.167906</v>
       </c>
       <c r="F109" t="n">
-        <v>79.964417</v>
+        <v>79.964401</v>
       </c>
       <c r="G109" t="n">
         <v>651649200</v>
@@ -9757,16 +9757,16 @@
         </is>
       </c>
       <c r="C110" t="n">
-        <v>79.591712</v>
+        <v>79.591674</v>
       </c>
       <c r="D110" t="n">
-        <v>80.90991099999999</v>
+        <v>80.90987199999999</v>
       </c>
       <c r="E110" t="n">
-        <v>77.055301</v>
+        <v>77.05530899999999</v>
       </c>
       <c r="F110" t="n">
-        <v>78.428032</v>
+        <v>78.42802399999999</v>
       </c>
       <c r="G110" t="n">
         <v>831732700</v>
@@ -9842,16 +9842,16 @@
         </is>
       </c>
       <c r="C111" t="n">
-        <v>78.28259</v>
+        <v>78.28255900000001</v>
       </c>
       <c r="D111" t="n">
-        <v>83.034955</v>
+        <v>83.034963</v>
       </c>
       <c r="E111" t="n">
-        <v>76.128012</v>
+        <v>76.12802000000001</v>
       </c>
       <c r="F111" t="n">
-        <v>82.468971</v>
+        <v>82.468979</v>
       </c>
       <c r="G111" t="n">
         <v>713558700</v>
@@ -9930,13 +9930,13 @@
         <v>81.693051</v>
       </c>
       <c r="D112" t="n">
-        <v>83.400158</v>
+        <v>83.400143</v>
       </c>
       <c r="E112" t="n">
-        <v>79.05263600000001</v>
+        <v>79.052651</v>
       </c>
       <c r="F112" t="n">
-        <v>80.214607</v>
+        <v>80.2146</v>
       </c>
       <c r="G112" t="n">
         <v>809345400</v>
@@ -10012,22 +10012,22 @@
         </is>
       </c>
       <c r="C113" t="n">
-        <v>80.60802</v>
+        <v>80.60808</v>
       </c>
       <c r="D113" t="n">
-        <v>82.053712</v>
+        <v>82.053704</v>
       </c>
       <c r="E113" t="n">
-        <v>76.197959</v>
+        <v>76.197974</v>
       </c>
       <c r="F113" t="n">
-        <v>79.95843499999999</v>
+        <v>79.95845799999999</v>
       </c>
       <c r="G113" t="n">
         <v>1141398200</v>
       </c>
       <c r="H113" t="n">
-        <v>-0.003194</v>
+        <v>-0.003193</v>
       </c>
       <c r="I113" t="n">
         <v>-0.003816</v>
@@ -10097,22 +10097,22 @@
         </is>
       </c>
       <c r="C114" t="n">
-        <v>80.086529</v>
+        <v>80.08653700000001</v>
       </c>
       <c r="D114" t="n">
-        <v>83.673191</v>
+        <v>83.673168</v>
       </c>
       <c r="E114" t="n">
-        <v>78.256619</v>
+        <v>78.256597</v>
       </c>
       <c r="F114" t="n">
-        <v>83.545097</v>
+        <v>83.545074</v>
       </c>
       <c r="G114" t="n">
         <v>789193700</v>
       </c>
       <c r="H114" t="n">
-        <v>0.044857</v>
+        <v>0.044856</v>
       </c>
       <c r="I114" t="n">
         <v>0.043216</v>
@@ -10121,7 +10121,7 @@
         <v>0.00705</v>
       </c>
       <c r="K114" t="n">
-        <v>0.001641</v>
+        <v>0.00164</v>
       </c>
       <c r="L114" t="inlineStr">
         <is>
@@ -10182,13 +10182,13 @@
         </is>
       </c>
       <c r="C115" t="n">
-        <v>83.64575000000001</v>
+        <v>83.64572</v>
       </c>
       <c r="D115" t="n">
         <v>86.36589499999999</v>
       </c>
       <c r="E115" t="n">
-        <v>82.93208199999999</v>
+        <v>82.932051</v>
       </c>
       <c r="F115" t="n">
         <v>86.154892</v>
@@ -10267,16 +10267,16 @@
         </is>
       </c>
       <c r="C116" t="n">
-        <v>86.457633</v>
+        <v>86.45762499999999</v>
       </c>
       <c r="D116" t="n">
         <v>89.457601</v>
       </c>
       <c r="E116" t="n">
-        <v>85.89802299999999</v>
+        <v>85.897993</v>
       </c>
       <c r="F116" t="n">
-        <v>87.173203</v>
+        <v>87.173233</v>
       </c>
       <c r="G116" t="n">
         <v>661530400</v>
@@ -10352,22 +10352,22 @@
         </is>
       </c>
       <c r="C117" t="n">
-        <v>86.989726</v>
+        <v>86.98971899999999</v>
       </c>
       <c r="D117" t="n">
-        <v>91.659392</v>
+        <v>91.659384</v>
       </c>
       <c r="E117" t="n">
         <v>86.13653499999999</v>
       </c>
       <c r="F117" t="n">
-        <v>91.54012299999999</v>
+        <v>91.540115</v>
       </c>
       <c r="G117" t="n">
         <v>645904700</v>
       </c>
       <c r="H117" t="n">
-        <v>0.050095</v>
+        <v>0.050094</v>
       </c>
       <c r="I117" t="n">
         <v>0.048827</v>
@@ -10376,7 +10376,7 @@
         <v>0.004744</v>
       </c>
       <c r="K117" t="n">
-        <v>0.001268</v>
+        <v>0.001267</v>
       </c>
       <c r="L117" t="inlineStr">
         <is>
@@ -10440,13 +10440,13 @@
         <v>91.760317</v>
       </c>
       <c r="D118" t="n">
-        <v>92.47519699999999</v>
+        <v>92.475228</v>
       </c>
       <c r="E118" t="n">
-        <v>89.84512700000001</v>
+        <v>89.84515</v>
       </c>
       <c r="F118" t="n">
-        <v>90.84749600000001</v>
+        <v>90.847504</v>
       </c>
       <c r="G118" t="n">
         <v>755958700</v>
@@ -10525,19 +10525,19 @@
         <v>90.589994</v>
       </c>
       <c r="D119" t="n">
-        <v>93.56949400000001</v>
+        <v>93.569517</v>
       </c>
       <c r="E119" t="n">
-        <v>82.984922</v>
+        <v>82.984915</v>
       </c>
       <c r="F119" t="n">
-        <v>93.247635</v>
+        <v>93.247658</v>
       </c>
       <c r="G119" t="n">
         <v>1285037500</v>
       </c>
       <c r="H119" t="n">
-        <v>0.026419</v>
+        <v>0.02642</v>
       </c>
       <c r="I119" t="n">
         <v>0.026858</v>
@@ -10546,7 +10546,7 @@
         <v>0.013637</v>
       </c>
       <c r="K119" t="n">
-        <v>-0.000439</v>
+        <v>-0.000438</v>
       </c>
       <c r="L119" t="inlineStr">
         <is>
@@ -10607,16 +10607,16 @@
         </is>
       </c>
       <c r="C120" t="n">
-        <v>93.413197</v>
+        <v>93.41318099999999</v>
       </c>
       <c r="D120" t="n">
-        <v>97.707725</v>
+        <v>97.70774</v>
       </c>
       <c r="E120" t="n">
-        <v>92.57634899999999</v>
+        <v>92.57632599999999</v>
       </c>
       <c r="F120" t="n">
-        <v>97.487022</v>
+        <v>97.487038</v>
       </c>
       <c r="G120" t="n">
         <v>434990100</v>
@@ -10692,16 +10692,16 @@
         </is>
       </c>
       <c r="C121" t="n">
-        <v>97.220371</v>
+        <v>97.220325</v>
       </c>
       <c r="D121" t="n">
-        <v>97.40428900000001</v>
+        <v>97.40424299999999</v>
       </c>
       <c r="E121" t="n">
-        <v>91.88663699999999</v>
+        <v>91.88663</v>
       </c>
       <c r="F121" t="n">
-        <v>95.302719</v>
+        <v>95.30270400000001</v>
       </c>
       <c r="G121" t="n">
         <v>815702200</v>
@@ -10777,16 +10777,16 @@
         </is>
       </c>
       <c r="C122" t="n">
-        <v>95.773477</v>
+        <v>95.773447</v>
       </c>
       <c r="D122" t="n">
-        <v>96.530339</v>
+        <v>96.53034700000001</v>
       </c>
       <c r="E122" t="n">
-        <v>91.712147</v>
+        <v>91.712125</v>
       </c>
       <c r="F122" t="n">
-        <v>93.318192</v>
+        <v>93.31822200000001</v>
       </c>
       <c r="G122" t="n">
         <v>826291600</v>
@@ -10801,7 +10801,7 @@
         <v>0.011969</v>
       </c>
       <c r="K122" t="n">
-        <v>-8.6e-05</v>
+        <v>-8.500000000000001e-05</v>
       </c>
       <c r="L122" t="inlineStr">
         <is>
@@ -10862,16 +10862,16 @@
         </is>
       </c>
       <c r="C123" t="n">
-        <v>93.530485</v>
+        <v>93.530508</v>
       </c>
       <c r="D123" t="n">
-        <v>100.554761</v>
+        <v>100.554746</v>
       </c>
       <c r="E123" t="n">
-        <v>92.072098</v>
+        <v>92.072121</v>
       </c>
       <c r="F123" t="n">
-        <v>100.05632</v>
+        <v>100.056313</v>
       </c>
       <c r="G123" t="n">
         <v>472456500</v>
@@ -10947,16 +10947,16 @@
         </is>
       </c>
       <c r="C124" t="n">
-        <v>100.250132</v>
+        <v>100.250155</v>
       </c>
       <c r="D124" t="n">
-        <v>100.997783</v>
+        <v>100.997806</v>
       </c>
       <c r="E124" t="n">
-        <v>96.43781300000001</v>
+        <v>96.43780599999999</v>
       </c>
       <c r="F124" t="n">
-        <v>97.695999</v>
+        <v>97.695992</v>
       </c>
       <c r="G124" t="n">
         <v>633635600</v>
@@ -11032,13 +11032,13 @@
         </is>
       </c>
       <c r="C125" t="n">
-        <v>97.696016</v>
+        <v>97.695986</v>
       </c>
       <c r="D125" t="n">
-        <v>102.839871</v>
+        <v>102.83984</v>
       </c>
       <c r="E125" t="n">
-        <v>96.530299</v>
+        <v>96.530277</v>
       </c>
       <c r="F125" t="n">
         <v>99.57405900000001</v>
@@ -11117,22 +11117,22 @@
         </is>
       </c>
       <c r="C126" t="n">
-        <v>99.96262</v>
+        <v>99.962628</v>
       </c>
       <c r="D126" t="n">
-        <v>102.765821</v>
+        <v>102.765844</v>
       </c>
       <c r="E126" t="n">
         <v>98.06608199999999</v>
       </c>
       <c r="F126" t="n">
-        <v>101.81292</v>
+        <v>101.812935</v>
       </c>
       <c r="G126" t="n">
         <v>518233500</v>
       </c>
       <c r="H126" t="n">
-        <v>0.022484</v>
+        <v>0.022485</v>
       </c>
       <c r="I126" t="n">
         <v>0.021295</v>
@@ -11202,13 +11202,13 @@
         </is>
       </c>
       <c r="C127" t="n">
-        <v>102.358777</v>
+        <v>102.358754</v>
       </c>
       <c r="D127" t="n">
-        <v>103.048555</v>
+        <v>103.048532</v>
       </c>
       <c r="E127" t="n">
-        <v>98.885075</v>
+        <v>98.88508299999999</v>
       </c>
       <c r="F127" t="n">
         <v>99.28381299999999</v>
@@ -11226,7 +11226,7 @@
         <v>0.007996</v>
       </c>
       <c r="K127" t="n">
-        <v>-0.00011</v>
+        <v>-0.000111</v>
       </c>
       <c r="L127" t="inlineStr">
         <is>
@@ -11287,16 +11287,16 @@
         </is>
       </c>
       <c r="C128" t="n">
-        <v>100.266704</v>
+        <v>100.266711</v>
       </c>
       <c r="D128" t="n">
-        <v>106.07148</v>
+        <v>106.071488</v>
       </c>
       <c r="E128" t="n">
         <v>98.13399200000001</v>
       </c>
       <c r="F128" t="n">
-        <v>103.808922</v>
+        <v>103.808945</v>
       </c>
       <c r="G128" t="n">
         <v>644885700</v>
@@ -11372,16 +11372,16 @@
         </is>
       </c>
       <c r="C129" t="n">
-        <v>103.827471</v>
+        <v>103.827456</v>
       </c>
       <c r="D129" t="n">
-        <v>104.78258</v>
+        <v>104.782587</v>
       </c>
       <c r="E129" t="n">
         <v>78.57766599999999</v>
       </c>
       <c r="F129" t="n">
-        <v>96.724525</v>
+        <v>96.724495</v>
       </c>
       <c r="G129" t="n">
         <v>1010304800</v>
@@ -11457,16 +11457,16 @@
         </is>
       </c>
       <c r="C130" t="n">
-        <v>94.313585</v>
+        <v>94.313592</v>
       </c>
       <c r="D130" t="n">
-        <v>100.8231</v>
+        <v>100.823077</v>
       </c>
       <c r="E130" t="n">
-        <v>91.79161000000001</v>
+        <v>91.791617</v>
       </c>
       <c r="F130" t="n">
-        <v>94.589516</v>
+        <v>94.589539</v>
       </c>
       <c r="G130" t="n">
         <v>881201500</v>
@@ -11481,7 +11481,7 @@
         <v>0.015851</v>
       </c>
       <c r="K130" t="n">
-        <v>-0.000195</v>
+        <v>-0.000194</v>
       </c>
       <c r="L130" t="inlineStr">
         <is>
@@ -11542,16 +11542,16 @@
         </is>
       </c>
       <c r="C131" t="n">
-        <v>94.75683600000001</v>
+        <v>94.756829</v>
       </c>
       <c r="D131" t="n">
-        <v>106.04139</v>
+        <v>106.041382</v>
       </c>
       <c r="E131" t="n">
-        <v>93.39973999999999</v>
+        <v>93.39971799999999</v>
       </c>
       <c r="F131" t="n">
-        <v>105.344238</v>
+        <v>105.344231</v>
       </c>
       <c r="G131" t="n">
         <v>740627200</v>
@@ -11566,7 +11566,7 @@
         <v>0.009264</v>
       </c>
       <c r="K131" t="n">
-        <v>0.001821</v>
+        <v>0.00182</v>
       </c>
       <c r="L131" t="inlineStr">
         <is>
@@ -11627,22 +11627,22 @@
         </is>
       </c>
       <c r="C132" t="n">
-        <v>105.623095</v>
+        <v>105.62311</v>
       </c>
       <c r="D132" t="n">
-        <v>107.333433</v>
+        <v>107.333449</v>
       </c>
       <c r="E132" t="n">
-        <v>101.765531</v>
+        <v>101.765539</v>
       </c>
       <c r="F132" t="n">
-        <v>105.985619</v>
+        <v>105.985634</v>
       </c>
       <c r="G132" t="n">
         <v>543413300</v>
       </c>
       <c r="H132" t="n">
-        <v>0.006088</v>
+        <v>0.006089</v>
       </c>
       <c r="I132" t="n">
         <v>0.003373</v>
@@ -11712,16 +11712,16 @@
         </is>
       </c>
       <c r="C133" t="n">
-        <v>106.413211</v>
+        <v>106.413204</v>
       </c>
       <c r="D133" t="n">
-        <v>107.593721</v>
+        <v>107.593706</v>
       </c>
       <c r="E133" t="n">
-        <v>101.672583</v>
+        <v>101.672576</v>
       </c>
       <c r="F133" t="n">
-        <v>104.295364</v>
+        <v>104.295387</v>
       </c>
       <c r="G133" t="n">
         <v>757497500</v>
@@ -11797,16 +11797,16 @@
         </is>
       </c>
       <c r="C134" t="n">
-        <v>102.048372</v>
+        <v>102.048357</v>
       </c>
       <c r="D134" t="n">
-        <v>102.729</v>
+        <v>102.728984</v>
       </c>
       <c r="E134" t="n">
         <v>90.67342600000001</v>
       </c>
       <c r="F134" t="n">
-        <v>97.08815</v>
+        <v>97.088142</v>
       </c>
       <c r="G134" t="n">
         <v>1077308200</v>
@@ -11882,22 +11882,22 @@
         </is>
       </c>
       <c r="C135" t="n">
-        <v>96.621955</v>
+        <v>96.621932</v>
       </c>
       <c r="D135" t="n">
-        <v>97.712838</v>
+        <v>97.71281500000001</v>
       </c>
       <c r="E135" t="n">
-        <v>88.426366</v>
+        <v>88.426337</v>
       </c>
       <c r="F135" t="n">
-        <v>95.568352</v>
+        <v>95.568382</v>
       </c>
       <c r="G135" t="n">
         <v>942259600</v>
       </c>
       <c r="H135" t="n">
-        <v>-0.015654</v>
+        <v>-0.015653</v>
       </c>
       <c r="I135" t="n">
         <v>-0.018239</v>
@@ -11967,16 +11967,16 @@
         </is>
       </c>
       <c r="C136" t="n">
-        <v>96.482097</v>
+        <v>96.48207499999999</v>
       </c>
       <c r="D136" t="n">
-        <v>102.902795</v>
+        <v>102.902802</v>
       </c>
       <c r="E136" t="n">
-        <v>96.18373800000001</v>
+        <v>96.18371500000001</v>
       </c>
       <c r="F136" t="n">
-        <v>102.117294</v>
+        <v>102.117287</v>
       </c>
       <c r="G136" t="n">
         <v>601605100</v>
@@ -11991,7 +11991,7 @@
         <v>0.009018999999999999</v>
       </c>
       <c r="K136" t="n">
-        <v>0.001273</v>
+        <v>0.001272</v>
       </c>
       <c r="L136" t="inlineStr">
         <is>
@@ -12055,13 +12055,13 @@
         <v>101.50011</v>
       </c>
       <c r="D137" t="n">
-        <v>104.212043</v>
+        <v>104.211989</v>
       </c>
       <c r="E137" t="n">
-        <v>98.0775</v>
+        <v>98.07747000000001</v>
       </c>
       <c r="F137" t="n">
-        <v>98.863022</v>
+        <v>98.86299099999999</v>
       </c>
       <c r="G137" t="n">
         <v>559253800</v>
@@ -12137,22 +12137,22 @@
         </is>
       </c>
       <c r="C138" t="n">
-        <v>99.115494</v>
+        <v>99.115509</v>
       </c>
       <c r="D138" t="n">
-        <v>103.342321</v>
+        <v>103.342336</v>
       </c>
       <c r="E138" t="n">
-        <v>97.628613</v>
+        <v>97.62862800000001</v>
       </c>
       <c r="F138" t="n">
-        <v>103.183342</v>
+        <v>103.183357</v>
       </c>
       <c r="G138" t="n">
         <v>536482700</v>
       </c>
       <c r="H138" t="n">
-        <v>0.0437</v>
+        <v>0.043701</v>
       </c>
       <c r="I138" t="n">
         <v>0.042059</v>
@@ -12161,7 +12161,7 @@
         <v>0.008611000000000001</v>
       </c>
       <c r="K138" t="n">
-        <v>0.001641</v>
+        <v>0.001642</v>
       </c>
       <c r="L138" t="inlineStr">
         <is>
@@ -12222,16 +12222,16 @@
         </is>
       </c>
       <c r="C139" t="n">
-        <v>102.865398</v>
+        <v>102.86539</v>
       </c>
       <c r="D139" t="n">
-        <v>103.566769</v>
+        <v>103.566762</v>
       </c>
       <c r="E139" t="n">
-        <v>95.40394000000001</v>
+        <v>95.40391700000001</v>
       </c>
       <c r="F139" t="n">
-        <v>100.832809</v>
+        <v>100.832832</v>
       </c>
       <c r="G139" t="n">
         <v>577926300</v>
@@ -12307,16 +12307,16 @@
         </is>
       </c>
       <c r="C140" t="n">
-        <v>100.785928</v>
+        <v>100.785898</v>
       </c>
       <c r="D140" t="n">
-        <v>108.333869</v>
+        <v>108.333846</v>
       </c>
       <c r="E140" t="n">
-        <v>99.923306</v>
+        <v>99.923298</v>
       </c>
       <c r="F140" t="n">
-        <v>108.043205</v>
+        <v>108.043182</v>
       </c>
       <c r="G140" t="n">
         <v>421072600</v>
@@ -12331,7 +12331,7 @@
         <v>0.005228</v>
       </c>
       <c r="K140" t="n">
-        <v>0.000764</v>
+        <v>0.000763</v>
       </c>
       <c r="L140" t="inlineStr">
         <is>
@@ -12392,16 +12392,16 @@
         </is>
       </c>
       <c r="C141" t="n">
-        <v>108.118207</v>
+        <v>108.118192</v>
       </c>
       <c r="D141" t="n">
-        <v>110.649828</v>
+        <v>110.649805</v>
       </c>
       <c r="E141" t="n">
-        <v>107.096187</v>
+        <v>107.096194</v>
       </c>
       <c r="F141" t="n">
-        <v>109.177719</v>
+        <v>109.177742</v>
       </c>
       <c r="G141" t="n">
         <v>369269900</v>
@@ -12477,22 +12477,22 @@
         </is>
       </c>
       <c r="C142" t="n">
-        <v>109.215236</v>
+        <v>109.215244</v>
       </c>
       <c r="D142" t="n">
-        <v>112.064425</v>
+        <v>112.064394</v>
       </c>
       <c r="E142" t="n">
-        <v>106.542993</v>
+        <v>106.542978</v>
       </c>
       <c r="F142" t="n">
-        <v>111.594429</v>
+        <v>111.594421</v>
       </c>
       <c r="G142" t="n">
         <v>540756600</v>
       </c>
       <c r="H142" t="n">
-        <v>0.022136</v>
+        <v>0.022135</v>
       </c>
       <c r="I142" t="n">
         <v>0.021934</v>
@@ -12562,13 +12562,13 @@
         </is>
       </c>
       <c r="C143" t="n">
-        <v>111.453405</v>
+        <v>111.45342</v>
       </c>
       <c r="D143" t="n">
-        <v>112.477993</v>
+        <v>112.478001</v>
       </c>
       <c r="E143" t="n">
-        <v>108.9813</v>
+        <v>108.981277</v>
       </c>
       <c r="F143" t="n">
         <v>109.968262</v>
@@ -12647,13 +12647,13 @@
         </is>
       </c>
       <c r="C144" t="n">
-        <v>110.156271</v>
+        <v>110.156255</v>
       </c>
       <c r="D144" t="n">
         <v>112.337012</v>
       </c>
       <c r="E144" t="n">
-        <v>106.640735</v>
+        <v>106.640727</v>
       </c>
       <c r="F144" t="n">
         <v>110.447647</v>
@@ -12732,13 +12732,13 @@
         </is>
       </c>
       <c r="C145" t="n">
-        <v>110.410056</v>
+        <v>110.41004</v>
       </c>
       <c r="D145" t="n">
-        <v>114.564165</v>
+        <v>114.564157</v>
       </c>
       <c r="E145" t="n">
-        <v>108.30449</v>
+        <v>108.304498</v>
       </c>
       <c r="F145" t="n">
         <v>111.698166</v>
@@ -12817,16 +12817,16 @@
         </is>
       </c>
       <c r="C146" t="n">
-        <v>112.442945</v>
+        <v>112.442923</v>
       </c>
       <c r="D146" t="n">
-        <v>118.712286</v>
+        <v>118.712309</v>
       </c>
       <c r="E146" t="n">
-        <v>112.084699</v>
+        <v>112.084677</v>
       </c>
       <c r="F146" t="n">
-        <v>117.439575</v>
+        <v>117.439583</v>
       </c>
       <c r="G146" t="n">
         <v>366254600</v>
@@ -12902,16 +12902,16 @@
         </is>
       </c>
       <c r="C147" t="n">
-        <v>118.269203</v>
+        <v>118.269188</v>
       </c>
       <c r="D147" t="n">
-        <v>123.218683</v>
+        <v>123.218675</v>
       </c>
       <c r="E147" t="n">
         <v>117.712961</v>
       </c>
       <c r="F147" t="n">
-        <v>122.577599</v>
+        <v>122.577614</v>
       </c>
       <c r="G147" t="n">
         <v>307437600</v>
@@ -12987,16 +12987,16 @@
         </is>
       </c>
       <c r="C148" t="n">
-        <v>123.360111</v>
+        <v>123.360134</v>
       </c>
       <c r="D148" t="n">
-        <v>125.402203</v>
+        <v>125.402241</v>
       </c>
       <c r="E148" t="n">
-        <v>122.246854</v>
+        <v>122.246824</v>
       </c>
       <c r="F148" t="n">
-        <v>125.062103</v>
+        <v>125.062141</v>
       </c>
       <c r="G148" t="n">
         <v>442963500</v>
@@ -13072,16 +13072,16 @@
         </is>
       </c>
       <c r="C149" t="n">
-        <v>125.166018</v>
+        <v>125.166033</v>
       </c>
       <c r="D149" t="n">
-        <v>128.803224</v>
+        <v>128.803193</v>
       </c>
       <c r="E149" t="n">
-        <v>123.172675</v>
+        <v>123.172667</v>
       </c>
       <c r="F149" t="n">
-        <v>128.47258</v>
+        <v>128.472549</v>
       </c>
       <c r="G149" t="n">
         <v>388248100</v>
@@ -13157,16 +13157,16 @@
         </is>
       </c>
       <c r="C150" t="n">
-        <v>128.897634</v>
+        <v>128.897679</v>
       </c>
       <c r="D150" t="n">
-        <v>133.999198</v>
+        <v>133.999137</v>
       </c>
       <c r="E150" t="n">
-        <v>128.359127</v>
+        <v>128.359157</v>
       </c>
       <c r="F150" t="n">
-        <v>133.479599</v>
+        <v>133.479538</v>
       </c>
       <c r="G150" t="n">
         <v>532489700</v>
@@ -13242,22 +13242,22 @@
         </is>
       </c>
       <c r="C151" t="n">
-        <v>133.753523</v>
+        <v>133.753539</v>
       </c>
       <c r="D151" t="n">
-        <v>135.945292</v>
+        <v>135.945261</v>
       </c>
       <c r="E151" t="n">
         <v>129.068855</v>
       </c>
       <c r="F151" t="n">
-        <v>130.38559</v>
+        <v>130.385574</v>
       </c>
       <c r="G151" t="n">
         <v>1046003200</v>
       </c>
       <c r="H151" t="n">
-        <v>-0.02318</v>
+        <v>-0.023179</v>
       </c>
       <c r="I151" t="n">
         <v>-0.024509</v>
@@ -13327,16 +13327,16 @@
         </is>
       </c>
       <c r="C152" t="n">
-        <v>130.982413</v>
+        <v>130.982429</v>
       </c>
       <c r="D152" t="n">
-        <v>138.267148</v>
+        <v>138.267071</v>
       </c>
       <c r="E152" t="n">
-        <v>128.642555</v>
+        <v>128.642601</v>
       </c>
       <c r="F152" t="n">
-        <v>135.680969</v>
+        <v>135.680923</v>
       </c>
       <c r="G152" t="n">
         <v>705002300</v>
@@ -13412,16 +13412,16 @@
         </is>
       </c>
       <c r="C153" t="n">
-        <v>136.145116</v>
+        <v>136.145131</v>
       </c>
       <c r="D153" t="n">
-        <v>138.503928</v>
+        <v>138.503897</v>
       </c>
       <c r="E153" t="n">
-        <v>132.791674</v>
+        <v>132.791689</v>
       </c>
       <c r="F153" t="n">
-        <v>138.494446</v>
+        <v>138.494415</v>
       </c>
       <c r="G153" t="n">
         <v>810771900</v>
@@ -13500,19 +13500,19 @@
         <v>138.674391</v>
       </c>
       <c r="D154" t="n">
-        <v>138.958986</v>
+        <v>138.958909</v>
       </c>
       <c r="E154" t="n">
-        <v>134.905208</v>
+        <v>134.905117</v>
       </c>
       <c r="F154" t="n">
-        <v>138.08551</v>
+        <v>138.085526</v>
       </c>
       <c r="G154" t="n">
         <v>631562000</v>
       </c>
       <c r="H154" t="n">
-        <v>-0.002953</v>
+        <v>-0.002952</v>
       </c>
       <c r="I154" t="n">
         <v>-0.001553</v>
@@ -13521,7 +13521,7 @@
         <v>0.006022</v>
       </c>
       <c r="K154" t="n">
-        <v>-0.0014</v>
+        <v>-0.001399</v>
       </c>
       <c r="L154" t="inlineStr">
         <is>
@@ -13582,13 +13582,13 @@
         </is>
       </c>
       <c r="C155" t="n">
-        <v>138.294439</v>
+        <v>138.294378</v>
       </c>
       <c r="D155" t="n">
         <v>144.655151</v>
       </c>
       <c r="E155" t="n">
-        <v>137.591902</v>
+        <v>137.591841</v>
       </c>
       <c r="F155" t="n">
         <v>144.446289</v>
@@ -13667,16 +13667,16 @@
         </is>
       </c>
       <c r="C156" t="n">
-        <v>145.025437</v>
+        <v>145.025391</v>
       </c>
       <c r="D156" t="n">
         <v>148.756411</v>
       </c>
       <c r="E156" t="n">
-        <v>143.136169</v>
+        <v>143.136184</v>
       </c>
       <c r="F156" t="n">
-        <v>147.294388</v>
+        <v>147.294403</v>
       </c>
       <c r="G156" t="n">
         <v>584198400</v>
@@ -13752,16 +13752,16 @@
         </is>
       </c>
       <c r="C157" t="n">
-        <v>146.392552</v>
+        <v>146.392461</v>
       </c>
       <c r="D157" t="n">
-        <v>151.046334</v>
+        <v>151.046318</v>
       </c>
       <c r="E157" t="n">
-        <v>144.360874</v>
+        <v>144.360814</v>
       </c>
       <c r="F157" t="n">
-        <v>148.182739</v>
+        <v>148.182755</v>
       </c>
       <c r="G157" t="n">
         <v>622383900</v>
@@ -13840,19 +13840,19 @@
         <v>148.943819</v>
       </c>
       <c r="D158" t="n">
-        <v>162.633838</v>
+        <v>162.633777</v>
       </c>
       <c r="E158" t="n">
         <v>148.572792</v>
       </c>
       <c r="F158" t="n">
-        <v>161.15921</v>
+        <v>161.159164</v>
       </c>
       <c r="G158" t="n">
         <v>698394900</v>
       </c>
       <c r="H158" t="n">
-        <v>0.087571</v>
+        <v>0.08757</v>
       </c>
       <c r="I158" t="n">
         <v>0.086544</v>
@@ -13922,13 +13922,13 @@
         </is>
       </c>
       <c r="C159" t="n">
-        <v>159.922465</v>
+        <v>159.92245</v>
       </c>
       <c r="D159" t="n">
-        <v>162.424545</v>
+        <v>162.424499</v>
       </c>
       <c r="E159" t="n">
-        <v>142.826632</v>
+        <v>142.826661</v>
       </c>
       <c r="F159" t="n">
         <v>159.075775</v>
@@ -13946,7 +13946,7 @@
         <v>0.01925</v>
       </c>
       <c r="K159" t="n">
-        <v>0.0008229999999999999</v>
+        <v>0.000824</v>
       </c>
       <c r="L159" t="inlineStr">
         <is>
@@ -14007,22 +14007,22 @@
         </is>
       </c>
       <c r="C160" t="n">
-        <v>159.161384</v>
+        <v>159.1614</v>
       </c>
       <c r="D160" t="n">
-        <v>166.686547</v>
+        <v>166.686578</v>
       </c>
       <c r="E160" t="n">
-        <v>148.68993</v>
+        <v>148.689976</v>
       </c>
       <c r="F160" t="n">
-        <v>152.587311</v>
+        <v>152.587326</v>
       </c>
       <c r="G160" t="n">
         <v>1085306700</v>
       </c>
       <c r="H160" t="n">
-        <v>-0.040789</v>
+        <v>-0.040788</v>
       </c>
       <c r="I160" t="n">
         <v>-0.039871</v>
@@ -14092,16 +14092,16 @@
         </is>
       </c>
       <c r="C161" t="n">
-        <v>151.500996</v>
+        <v>151.501027</v>
       </c>
       <c r="D161" t="n">
         <v>159.133733</v>
       </c>
       <c r="E161" t="n">
-        <v>146.631695</v>
+        <v>146.631725</v>
       </c>
       <c r="F161" t="n">
-        <v>153.359131</v>
+        <v>153.359116</v>
       </c>
       <c r="G161" t="n">
         <v>987380500</v>
@@ -14116,7 +14116,7 @@
         <v>0.014637</v>
       </c>
       <c r="K161" t="n">
-        <v>0.001345</v>
+        <v>0.001344</v>
       </c>
       <c r="L161" t="inlineStr">
         <is>
@@ -14177,22 +14177,22 @@
         </is>
       </c>
       <c r="C162" t="n">
-        <v>152.958947</v>
+        <v>152.958902</v>
       </c>
       <c r="D162" t="n">
-        <v>163.13586</v>
+        <v>163.135937</v>
       </c>
       <c r="E162" t="n">
         <v>151.720175</v>
       </c>
       <c r="F162" t="n">
-        <v>162.059097</v>
+        <v>162.059174</v>
       </c>
       <c r="G162" t="n">
         <v>687987000</v>
       </c>
       <c r="H162" t="n">
-        <v>0.056729</v>
+        <v>0.05673</v>
       </c>
       <c r="I162" t="n">
         <v>0.054826</v>
@@ -14262,22 +14262,22 @@
         </is>
       </c>
       <c r="C163" t="n">
-        <v>162.869009</v>
+        <v>162.869069</v>
       </c>
       <c r="D163" t="n">
-        <v>169.95952</v>
+        <v>169.959535</v>
       </c>
       <c r="E163" t="n">
-        <v>161.546459</v>
+        <v>161.54652</v>
       </c>
       <c r="F163" t="n">
-        <v>163.91478</v>
+        <v>163.914764</v>
       </c>
       <c r="G163" t="n">
         <v>784338500</v>
       </c>
       <c r="H163" t="n">
-        <v>0.011451</v>
+        <v>0.01145</v>
       </c>
       <c r="I163" t="n">
         <v>0.010487</v>
@@ -14286,7 +14286,7 @@
         <v>0.008769000000000001</v>
       </c>
       <c r="K163" t="n">
-        <v>0.000964</v>
+        <v>0.000963</v>
       </c>
       <c r="L163" t="inlineStr">
         <is>
@@ -14347,13 +14347,13 @@
         </is>
       </c>
       <c r="C164" t="n">
-        <v>162.377322</v>
+        <v>162.377352</v>
       </c>
       <c r="D164" t="n">
         <v>174.686435</v>
       </c>
       <c r="E164" t="n">
-        <v>162.024</v>
+        <v>162.02403</v>
       </c>
       <c r="F164" t="n">
         <v>168.498459</v>
@@ -14432,16 +14432,16 @@
         </is>
       </c>
       <c r="C165" t="n">
-        <v>168.889967</v>
+        <v>168.889997</v>
       </c>
       <c r="D165" t="n">
-        <v>179.069608</v>
+        <v>179.069639</v>
       </c>
       <c r="E165" t="n">
-        <v>167.868216</v>
+        <v>167.868171</v>
       </c>
       <c r="F165" t="n">
-        <v>178.238815</v>
+        <v>178.23877</v>
       </c>
       <c r="G165" t="n">
         <v>667523000</v>
@@ -14517,13 +14517,13 @@
         </is>
       </c>
       <c r="C166" t="n">
-        <v>177.6945</v>
+        <v>177.694485</v>
       </c>
       <c r="D166" t="n">
-        <v>178.406481</v>
+        <v>178.406496</v>
       </c>
       <c r="E166" t="n">
-        <v>172.30865</v>
+        <v>172.308635</v>
       </c>
       <c r="F166" t="n">
         <v>177.736786</v>
@@ -14532,7 +14532,7 @@
         <v>645534400</v>
       </c>
       <c r="H166" t="n">
-        <v>-0.002817</v>
+        <v>-0.002816</v>
       </c>
       <c r="I166" t="n">
         <v>-0.003514</v>
@@ -14602,13 +14602,13 @@
         </is>
       </c>
       <c r="C167" t="n">
-        <v>178.770012</v>
+        <v>178.769997</v>
       </c>
       <c r="D167" t="n">
-        <v>179.401408</v>
+        <v>179.401392</v>
       </c>
       <c r="E167" t="n">
-        <v>153.150814</v>
+        <v>153.150829</v>
       </c>
       <c r="F167" t="n">
         <v>162.459061</v>
@@ -14687,16 +14687,16 @@
         </is>
       </c>
       <c r="C168" t="n">
-        <v>162.698196</v>
+        <v>162.698241</v>
       </c>
       <c r="D168" t="n">
-        <v>167.969391</v>
+        <v>167.969376</v>
       </c>
       <c r="E168" t="n">
-        <v>150.319101</v>
+        <v>150.319116</v>
       </c>
       <c r="F168" t="n">
-        <v>162.028564</v>
+        <v>162.028519</v>
       </c>
       <c r="G168" t="n">
         <v>1152121500</v>
@@ -14711,7 +14711,7 @@
         <v>0.017557</v>
       </c>
       <c r="K168" t="n">
-        <v>-5.3e-05</v>
+        <v>-5.4e-05</v>
       </c>
       <c r="L168" t="inlineStr">
         <is>
@@ -14772,16 +14772,16 @@
         </is>
       </c>
       <c r="C169" t="n">
-        <v>165.606449</v>
+        <v>165.60648</v>
       </c>
       <c r="D169" t="n">
-        <v>165.797777</v>
+        <v>165.797808</v>
       </c>
       <c r="E169" t="n">
-        <v>137.63436</v>
+        <v>137.634314</v>
       </c>
       <c r="F169" t="n">
-        <v>147.995758</v>
+        <v>147.995773</v>
       </c>
       <c r="G169" t="n">
         <v>1395544900</v>
@@ -14857,16 +14857,16 @@
         </is>
       </c>
       <c r="C170" t="n">
-        <v>144.858558</v>
+        <v>144.858543</v>
       </c>
       <c r="D170" t="n">
-        <v>162.12755</v>
+        <v>162.12758</v>
       </c>
       <c r="E170" t="n">
-        <v>143.419468</v>
+        <v>143.419437</v>
       </c>
       <c r="F170" t="n">
-        <v>161.331253</v>
+        <v>161.331284</v>
       </c>
       <c r="G170" t="n">
         <v>933706500</v>
@@ -14945,13 +14945,13 @@
         <v>160.534963</v>
       </c>
       <c r="D171" t="n">
-        <v>167.567323</v>
+        <v>167.567339</v>
       </c>
       <c r="E171" t="n">
-        <v>159.805817</v>
+        <v>159.805847</v>
       </c>
       <c r="F171" t="n">
-        <v>166.157028</v>
+        <v>166.157059</v>
       </c>
       <c r="G171" t="n">
         <v>535964100</v>
@@ -15027,22 +15027,22 @@
         </is>
       </c>
       <c r="C172" t="n">
-        <v>167.356276</v>
+        <v>167.356246</v>
       </c>
       <c r="D172" t="n">
-        <v>175.724759</v>
+        <v>175.724805</v>
       </c>
       <c r="E172" t="n">
-        <v>162.463367</v>
+        <v>162.463322</v>
       </c>
       <c r="F172" t="n">
-        <v>172.678009</v>
+        <v>172.677963</v>
       </c>
       <c r="G172" t="n">
         <v>781972700</v>
       </c>
       <c r="H172" t="n">
-        <v>0.039246</v>
+        <v>0.039245</v>
       </c>
       <c r="I172" t="n">
         <v>0.039625</v>
@@ -15051,7 +15051,7 @@
         <v>0.009148999999999999</v>
       </c>
       <c r="K172" t="n">
-        <v>-0.000379</v>
+        <v>-0.00038</v>
       </c>
       <c r="L172" t="inlineStr">
         <is>
@@ -15112,22 +15112,22 @@
         </is>
       </c>
       <c r="C173" t="n">
-        <v>174.456068</v>
+        <v>174.456037</v>
       </c>
       <c r="D173" t="n">
-        <v>183.884856</v>
+        <v>183.884841</v>
       </c>
       <c r="E173" t="n">
-        <v>173.744835</v>
+        <v>173.744805</v>
       </c>
       <c r="F173" t="n">
-        <v>182.173996</v>
+        <v>182.173965</v>
       </c>
       <c r="G173" t="n">
         <v>550157700</v>
       </c>
       <c r="H173" t="n">
-        <v>0.054992</v>
+        <v>0.054993</v>
       </c>
       <c r="I173" t="n">
         <v>0.054574</v>
@@ -15197,16 +15197,16 @@
         </is>
       </c>
       <c r="C174" t="n">
-        <v>183.365802</v>
+        <v>183.365818</v>
       </c>
       <c r="D174" t="n">
-        <v>183.884825</v>
+        <v>183.88484</v>
       </c>
       <c r="E174" t="n">
-        <v>167.112972</v>
+        <v>167.112988</v>
       </c>
       <c r="F174" t="n">
-        <v>167.189865</v>
+        <v>167.18988</v>
       </c>
       <c r="G174" t="n">
         <v>901554000</v>
@@ -15282,13 +15282,13 @@
         </is>
       </c>
       <c r="C175" t="n">
-        <v>166.738151</v>
+        <v>166.73812</v>
       </c>
       <c r="D175" t="n">
-        <v>182.395092</v>
+        <v>182.395061</v>
       </c>
       <c r="E175" t="n">
-        <v>162.69177</v>
+        <v>162.691739</v>
       </c>
       <c r="F175" t="n">
         <v>179.879654</v>
@@ -15367,16 +15367,16 @@
         </is>
       </c>
       <c r="C176" t="n">
-        <v>183.328093</v>
+        <v>183.328169</v>
       </c>
       <c r="D176" t="n">
-        <v>188.365967</v>
+        <v>188.365982</v>
       </c>
       <c r="E176" t="n">
-        <v>181.459361</v>
+        <v>181.459437</v>
       </c>
       <c r="F176" t="n">
-        <v>184.079483</v>
+        <v>184.079498</v>
       </c>
       <c r="G176" t="n">
         <v>494025500</v>
@@ -15458,16 +15458,16 @@
         <v>187.816881</v>
       </c>
       <c r="E177" t="n">
-        <v>172.616663</v>
+        <v>172.616648</v>
       </c>
       <c r="F177" t="n">
-        <v>180.58284</v>
+        <v>180.582809</v>
       </c>
       <c r="G177" t="n">
         <v>814286500</v>
       </c>
       <c r="H177" t="n">
-        <v>-0.018995</v>
+        <v>-0.018996</v>
       </c>
       <c r="I177" t="n">
         <v>-0.020102</v>
@@ -15537,16 +15537,16 @@
         </is>
       </c>
       <c r="C178" t="n">
-        <v>179.378794</v>
+        <v>179.378748</v>
       </c>
       <c r="D178" t="n">
-        <v>187.556849</v>
+        <v>187.556834</v>
       </c>
       <c r="E178" t="n">
-        <v>178.232509</v>
+        <v>178.232463</v>
       </c>
       <c r="F178" t="n">
-        <v>182.240433</v>
+        <v>182.240387</v>
       </c>
       <c r="G178" t="n">
         <v>550650200</v>
@@ -15622,22 +15622,22 @@
         </is>
       </c>
       <c r="C179" t="n">
-        <v>182.906355</v>
+        <v>182.906371</v>
       </c>
       <c r="D179" t="n">
-        <v>190.94652</v>
+        <v>190.946535</v>
       </c>
       <c r="E179" t="n">
         <v>175.493597</v>
       </c>
       <c r="F179" t="n">
-        <v>190.222641</v>
+        <v>190.222672</v>
       </c>
       <c r="G179" t="n">
         <v>576983400</v>
       </c>
       <c r="H179" t="n">
-        <v>0.0438</v>
+        <v>0.043801</v>
       </c>
       <c r="I179" t="n">
         <v>0.043149</v>
@@ -15707,16 +15707,16 @@
         </is>
       </c>
       <c r="C180" t="n">
-        <v>191.043007</v>
+        <v>191.043068</v>
       </c>
       <c r="D180" t="n">
         <v>198.880496</v>
       </c>
       <c r="E180" t="n">
-        <v>190.753457</v>
+        <v>190.753518</v>
       </c>
       <c r="F180" t="n">
-        <v>197.963577</v>
+        <v>197.963562</v>
       </c>
       <c r="G180" t="n">
         <v>351429700</v>
@@ -15792,22 +15792,22 @@
         </is>
       </c>
       <c r="C181" t="n">
-        <v>197.973214</v>
+        <v>197.973229</v>
       </c>
       <c r="D181" t="n">
         <v>207.543396</v>
       </c>
       <c r="E181" t="n">
-        <v>192.297792</v>
+        <v>192.297853</v>
       </c>
       <c r="F181" t="n">
-        <v>205.657166</v>
+        <v>205.657104</v>
       </c>
       <c r="G181" t="n">
         <v>429951100</v>
       </c>
       <c r="H181" t="n">
-        <v>0.038864</v>
+        <v>0.038863</v>
       </c>
       <c r="I181" t="n">
         <v>0.039196</v>
@@ -15816,7 +15816,7 @@
         <v>0.005757</v>
       </c>
       <c r="K181" t="n">
-        <v>-0.000332</v>
+        <v>-0.000333</v>
       </c>
       <c r="L181" t="inlineStr">
         <is>
@@ -15877,22 +15877,22 @@
         </is>
       </c>
       <c r="C182" t="n">
-        <v>207.388626</v>
+        <v>207.388596</v>
       </c>
       <c r="D182" t="n">
-        <v>218.493251</v>
+        <v>218.493205</v>
       </c>
       <c r="E182" t="n">
-        <v>205.299261</v>
+        <v>205.299276</v>
       </c>
       <c r="F182" t="n">
-        <v>211.905899</v>
+        <v>211.905914</v>
       </c>
       <c r="G182" t="n">
         <v>585493000</v>
       </c>
       <c r="H182" t="n">
-        <v>0.030384</v>
+        <v>0.030385</v>
       </c>
       <c r="I182" t="n">
         <v>0.029593</v>
@@ -15962,16 +15962,16 @@
         </is>
       </c>
       <c r="C183" t="n">
-        <v>212.940929</v>
+        <v>212.940899</v>
       </c>
       <c r="D183" t="n">
-        <v>229.704206</v>
+        <v>229.70416</v>
       </c>
       <c r="E183" t="n">
-        <v>191.689398</v>
+        <v>191.689428</v>
       </c>
       <c r="F183" t="n">
-        <v>199.069885</v>
+        <v>199.069916</v>
       </c>
       <c r="G183" t="n">
         <v>952392300</v>
@@ -16047,22 +16047,22 @@
         </is>
       </c>
       <c r="C184" t="n">
-        <v>202.049142</v>
+        <v>202.049171</v>
       </c>
       <c r="D184" t="n">
-        <v>212.428247</v>
+        <v>212.428279</v>
       </c>
       <c r="E184" t="n">
-        <v>159.876414</v>
+        <v>159.87637</v>
       </c>
       <c r="F184" t="n">
-        <v>184.565964</v>
+        <v>184.565979</v>
       </c>
       <c r="G184" t="n">
         <v>2191775700</v>
       </c>
       <c r="H184" t="n">
-        <v>-0.07285800000000001</v>
+        <v>-0.07285899999999999</v>
       </c>
       <c r="I184" t="n">
         <v>-0.07661800000000001</v>
@@ -16132,22 +16132,22 @@
         </is>
       </c>
       <c r="C185" t="n">
-        <v>179.108461</v>
+        <v>179.108476</v>
       </c>
       <c r="D185" t="n">
-        <v>213.297789</v>
+        <v>213.297743</v>
       </c>
       <c r="E185" t="n">
-        <v>175.318264</v>
+        <v>175.318279</v>
       </c>
       <c r="F185" t="n">
-        <v>212.202423</v>
+        <v>212.202377</v>
       </c>
       <c r="G185" t="n">
         <v>1092071200</v>
       </c>
       <c r="H185" t="n">
-        <v>0.149738</v>
+        <v>0.149737</v>
       </c>
       <c r="I185" t="n">
         <v>0.151918</v>
@@ -16156,7 +16156,7 @@
         <v>0.026616</v>
       </c>
       <c r="K185" t="n">
-        <v>-0.00218</v>
+        <v>-0.002181</v>
       </c>
       <c r="L185" t="inlineStr">
         <is>
@@ -16217,16 +16217,16 @@
         </is>
       </c>
       <c r="C186" t="n">
-        <v>207.927502</v>
+        <v>207.927471</v>
       </c>
       <c r="D186" t="n">
-        <v>226.442292</v>
+        <v>226.442231</v>
       </c>
       <c r="E186" t="n">
-        <v>204.651065</v>
+        <v>204.65105</v>
       </c>
       <c r="F186" t="n">
-        <v>226.209641</v>
+        <v>226.209579</v>
       </c>
       <c r="G186" t="n">
         <v>846592000</v>
@@ -16302,16 +16302,16 @@
         </is>
       </c>
       <c r="C187" t="n">
-        <v>225.337203</v>
+        <v>225.337218</v>
       </c>
       <c r="D187" t="n">
-        <v>243.877877</v>
+        <v>243.877892</v>
       </c>
       <c r="E187" t="n">
-        <v>224.377546</v>
+        <v>224.377516</v>
       </c>
       <c r="F187" t="n">
-        <v>240.43071</v>
+        <v>240.430725</v>
       </c>
       <c r="G187" t="n">
         <v>928360400</v>
@@ -16390,19 +16390,19 @@
         <v>240.469546</v>
       </c>
       <c r="D188" t="n">
-        <v>261.978226</v>
+        <v>261.97821</v>
       </c>
       <c r="E188" t="n">
         <v>239.925764</v>
       </c>
       <c r="F188" t="n">
-        <v>258.094086</v>
+        <v>258.093994</v>
       </c>
       <c r="G188" t="n">
         <v>924935100</v>
       </c>
       <c r="H188" t="n">
-        <v>0.073466</v>
+        <v>0.073465</v>
       </c>
       <c r="I188" t="n">
         <v>0.07374600000000001</v>
@@ -16472,16 +16472,16 @@
         </is>
       </c>
       <c r="C189" t="n">
-        <v>260.240092</v>
+        <v>260.240031</v>
       </c>
       <c r="D189" t="n">
-        <v>288.157524</v>
+        <v>288.157462</v>
       </c>
       <c r="E189" t="n">
-        <v>256.9676</v>
+        <v>256.967631</v>
       </c>
       <c r="F189" t="n">
-        <v>286.341675</v>
+        <v>286.341614</v>
       </c>
       <c r="G189" t="n">
         <v>701414600</v>
@@ -16496,7 +16496,7 @@
         <v>0.010558</v>
       </c>
       <c r="K189" t="n">
-        <v>-0.001028</v>
+        <v>-0.001027</v>
       </c>
       <c r="L189" t="inlineStr">
         <is>
@@ -16557,16 +16557,16 @@
         </is>
       </c>
       <c r="C190" t="n">
-        <v>289.002358</v>
+        <v>289.002328</v>
       </c>
       <c r="D190" t="n">
         <v>294.712125</v>
       </c>
       <c r="E190" t="n">
-        <v>252.578376</v>
+        <v>252.578347</v>
       </c>
       <c r="F190" t="n">
-        <v>269.795044</v>
+        <v>269.795074</v>
       </c>
       <c r="G190" t="n">
         <v>1325374300</v>
@@ -16645,13 +16645,13 @@
         <v>273.63072</v>
       </c>
       <c r="D191" t="n">
-        <v>288.846954</v>
+        <v>288.846893</v>
       </c>
       <c r="E191" t="n">
-        <v>259.337027</v>
+        <v>259.336967</v>
       </c>
       <c r="F191" t="n">
-        <v>261.580139</v>
+        <v>261.580078</v>
       </c>
       <c r="G191" t="n">
         <v>936826500</v>
@@ -16666,7 +16666,7 @@
         <v>0.017982</v>
       </c>
       <c r="K191" t="n">
-        <v>0.001528</v>
+        <v>0.001527</v>
       </c>
       <c r="L191" t="inlineStr">
         <is>
@@ -16730,19 +16730,19 @@
         <v>263.978538</v>
       </c>
       <c r="D192" t="n">
-        <v>291.478589</v>
+        <v>291.478558</v>
       </c>
       <c r="E192" t="n">
         <v>259.239835</v>
       </c>
       <c r="F192" t="n">
-        <v>290.944427</v>
+        <v>290.944458</v>
       </c>
       <c r="G192" t="n">
         <v>751645800</v>
       </c>
       <c r="H192" t="n">
-        <v>0.112257</v>
+        <v>0.112258</v>
       </c>
       <c r="I192" t="n">
         <v>0.109959</v>
@@ -16751,7 +16751,7 @@
         <v>0.015029</v>
       </c>
       <c r="K192" t="n">
-        <v>0.002298</v>
+        <v>0.002299</v>
       </c>
       <c r="L192" t="inlineStr">
         <is>
@@ -16812,7 +16812,7 @@
         </is>
       </c>
       <c r="C193" t="n">
-        <v>293.226401</v>
+        <v>293.22634</v>
       </c>
       <c r="D193" t="n">
         <v>306.131938</v>
@@ -16821,7 +16821,7 @@
         <v>289.458746</v>
       </c>
       <c r="F193" t="n">
-        <v>305.207764</v>
+        <v>305.207733</v>
       </c>
       <c r="G193" t="n">
         <v>569870600</v>
@@ -16897,16 +16897,16 @@
         </is>
       </c>
       <c r="C194" t="n">
-        <v>306.54051</v>
+        <v>306.540542</v>
       </c>
       <c r="D194" t="n">
-        <v>321.336932</v>
+        <v>321.336901</v>
       </c>
       <c r="E194" t="n">
-        <v>296.880566</v>
+        <v>296.880596</v>
       </c>
       <c r="F194" t="n">
-        <v>306.005463</v>
+        <v>306.005524</v>
       </c>
       <c r="G194" t="n">
         <v>655263000</v>
@@ -16988,10 +16988,10 @@
         <v>328.992905</v>
       </c>
       <c r="E195" t="n">
-        <v>302.42554</v>
+        <v>302.425601</v>
       </c>
       <c r="F195" t="n">
-        <v>305.596893</v>
+        <v>305.596954</v>
       </c>
       <c r="G195" t="n">
         <v>795468600</v>
@@ -17067,16 +17067,16 @@
         </is>
       </c>
       <c r="C196" t="n">
-        <v>310.587483</v>
+        <v>310.587453</v>
       </c>
       <c r="D196" t="n">
-        <v>315.509753</v>
+        <v>315.509784</v>
       </c>
       <c r="E196" t="n">
-        <v>289.360821</v>
+        <v>289.36085</v>
       </c>
       <c r="F196" t="n">
-        <v>310.843323</v>
+        <v>310.843292</v>
       </c>
       <c r="G196" t="n">
         <v>1621173600</v>
@@ -17091,7 +17091,7 @@
         <v>0.018965</v>
       </c>
       <c r="K196" t="n">
-        <v>0.00307</v>
+        <v>0.003069</v>
       </c>
       <c r="L196" t="inlineStr">
         <is>
@@ -17152,16 +17152,16 @@
         </is>
       </c>
       <c r="C197" t="n">
-        <v>314.680979</v>
+        <v>314.681039</v>
       </c>
       <c r="D197" t="n">
-        <v>333.898675</v>
+        <v>333.898705</v>
       </c>
       <c r="E197" t="n">
-        <v>314.427721</v>
+        <v>314.427781</v>
       </c>
       <c r="F197" t="n">
-        <v>329.213593</v>
+        <v>329.213531</v>
       </c>
       <c r="G197" t="n">
         <v>771139800</v>
@@ -17237,16 +17237,16 @@
         </is>
       </c>
       <c r="C198" t="n">
-        <v>330.421428</v>
+        <v>330.421367</v>
       </c>
       <c r="D198" t="n">
-        <v>331.171423</v>
+        <v>331.171362</v>
       </c>
       <c r="E198" t="n">
-        <v>307.794564</v>
+        <v>307.794595</v>
       </c>
       <c r="F198" t="n">
-        <v>325.259033</v>
+        <v>325.259003</v>
       </c>
       <c r="G198" t="n">
         <v>965410800</v>
@@ -17322,16 +17322,16 @@
         </is>
       </c>
       <c r="C199" t="n">
-        <v>326.593348</v>
+        <v>326.59341</v>
       </c>
       <c r="D199" t="n">
-        <v>346.407315</v>
+        <v>346.407254</v>
       </c>
       <c r="E199" t="n">
-        <v>319.755692</v>
+        <v>319.755783</v>
       </c>
       <c r="F199" t="n">
-        <v>345.627167</v>
+        <v>345.627106</v>
       </c>
       <c r="G199" t="n">
         <v>751288500</v>
@@ -17407,16 +17407,16 @@
         </is>
       </c>
       <c r="C200" t="n">
-        <v>345.276182</v>
+        <v>345.276121</v>
       </c>
       <c r="D200" t="n">
-        <v>359.728102</v>
+        <v>359.728071</v>
       </c>
       <c r="E200" t="n">
-        <v>343.296552</v>
+        <v>343.296522</v>
       </c>
       <c r="F200" t="n">
-        <v>355.515381</v>
+        <v>355.51532</v>
       </c>
       <c r="G200" t="n">
         <v>813285700</v>
@@ -17495,10 +17495,10 @@
         <v>357.182823</v>
       </c>
       <c r="D201" t="n">
-        <v>371.303194</v>
+        <v>371.303317</v>
       </c>
       <c r="E201" t="n">
-        <v>351.019848</v>
+        <v>351.019757</v>
       </c>
       <c r="F201" t="n">
         <v>370.513367</v>
@@ -17580,13 +17580,13 @@
         <v>371.576282</v>
       </c>
       <c r="D202" t="n">
-        <v>373.273001</v>
+        <v>373.273032</v>
       </c>
       <c r="E202" t="n">
-        <v>348.616956</v>
+        <v>348.616926</v>
       </c>
       <c r="F202" t="n">
-        <v>349.456512</v>
+        <v>349.456482</v>
       </c>
       <c r="G202" t="n">
         <v>931849900</v>
@@ -17662,16 +17662,16 @@
         </is>
       </c>
       <c r="C203" t="n">
-        <v>350.081326</v>
+        <v>350.081296</v>
       </c>
       <c r="D203" t="n">
-        <v>377.103658</v>
+        <v>377.103749</v>
       </c>
       <c r="E203" t="n">
-        <v>341.997966</v>
+        <v>341.997936</v>
       </c>
       <c r="F203" t="n">
-        <v>376.937683</v>
+        <v>376.937775</v>
       </c>
       <c r="G203" t="n">
         <v>878747900</v>
@@ -17747,22 +17747,22 @@
         </is>
       </c>
       <c r="C204" t="n">
-        <v>377.377021</v>
+        <v>377.377112</v>
       </c>
       <c r="D204" t="n">
-        <v>399.000856</v>
+        <v>399.000918</v>
       </c>
       <c r="E204" t="n">
-        <v>375.287874</v>
+        <v>375.287964</v>
       </c>
       <c r="F204" t="n">
-        <v>384.464691</v>
+        <v>384.4646</v>
       </c>
       <c r="G204" t="n">
         <v>922244500</v>
       </c>
       <c r="H204" t="n">
-        <v>0.019969</v>
+        <v>0.019968</v>
       </c>
       <c r="I204" t="n">
         <v>0.018009</v>
@@ -17771,7 +17771,7 @@
         <v>0.010662</v>
       </c>
       <c r="K204" t="n">
-        <v>0.00196</v>
+        <v>0.001959</v>
       </c>
       <c r="L204" t="inlineStr">
         <is>
@@ -17832,13 +17832,13 @@
         </is>
       </c>
       <c r="C205" t="n">
-        <v>388.818722</v>
+        <v>388.818691</v>
       </c>
       <c r="D205" t="n">
-        <v>395.473432</v>
+        <v>395.473463</v>
       </c>
       <c r="E205" t="n">
-        <v>368.973722</v>
+        <v>368.973692</v>
       </c>
       <c r="F205" t="n">
         <v>388.89502</v>
@@ -17847,7 +17847,7 @@
         <v>1232817200</v>
       </c>
       <c r="H205" t="n">
-        <v>0.011523</v>
+        <v>0.011524</v>
       </c>
       <c r="I205" t="n">
         <v>0.011413</v>
@@ -17856,7 +17856,7 @@
         <v>0.01503</v>
       </c>
       <c r="K205" t="n">
-        <v>0.00011</v>
+        <v>0.000111</v>
       </c>
       <c r="L205" t="inlineStr">
         <is>
@@ -17917,16 +17917,16 @@
         </is>
       </c>
       <c r="C206" t="n">
-        <v>390.067956</v>
+        <v>390.067986</v>
       </c>
       <c r="D206" t="n">
-        <v>393.225212</v>
+        <v>393.225181</v>
       </c>
       <c r="E206" t="n">
-        <v>326.628791</v>
+        <v>326.628704</v>
       </c>
       <c r="F206" t="n">
-        <v>354.878204</v>
+        <v>354.878265</v>
       </c>
       <c r="G206" t="n">
         <v>1847203000</v>
@@ -18002,13 +18002,13 @@
         </is>
       </c>
       <c r="C207" t="n">
-        <v>356.227232</v>
+        <v>356.227201</v>
       </c>
       <c r="D207" t="n">
-        <v>361.769639</v>
+        <v>361.769608</v>
       </c>
       <c r="E207" t="n">
-        <v>311.096406</v>
+        <v>311.096434</v>
       </c>
       <c r="F207" t="n">
         <v>338.994019</v>
@@ -18087,16 +18087,16 @@
         </is>
       </c>
       <c r="C208" t="n">
-        <v>337.967682</v>
+        <v>337.96762</v>
       </c>
       <c r="D208" t="n">
-        <v>363.909922</v>
+        <v>363.909983</v>
       </c>
       <c r="E208" t="n">
-        <v>310.304689</v>
+        <v>310.304719</v>
       </c>
       <c r="F208" t="n">
-        <v>354.817902</v>
+        <v>354.817871</v>
       </c>
       <c r="G208" t="n">
         <v>1686792800</v>
@@ -18172,16 +18172,16 @@
         </is>
       </c>
       <c r="C209" t="n">
-        <v>355.082152</v>
+        <v>355.08203</v>
       </c>
       <c r="D209" t="n">
-        <v>361.443604</v>
+        <v>361.443634</v>
       </c>
       <c r="E209" t="n">
-        <v>305.941579</v>
+        <v>305.941518</v>
       </c>
       <c r="F209" t="n">
-        <v>306.577728</v>
+        <v>306.577667</v>
       </c>
       <c r="G209" t="n">
         <v>1501959100</v>
@@ -18257,16 +18257,16 @@
         </is>
       </c>
       <c r="C210" t="n">
-        <v>306.166642</v>
+        <v>306.166762</v>
       </c>
       <c r="D210" t="n">
-        <v>323.254804</v>
+        <v>323.254834</v>
       </c>
       <c r="E210" t="n">
         <v>274.241537</v>
       </c>
       <c r="F210" t="n">
-        <v>301.713593</v>
+        <v>301.713654</v>
       </c>
       <c r="G210" t="n">
         <v>1951162500</v>
@@ -18281,7 +18281,7 @@
         <v>0.026925</v>
       </c>
       <c r="K210" t="n">
-        <v>0.00068</v>
+        <v>0.000681</v>
       </c>
       <c r="L210" t="inlineStr">
         <is>
@@ -18345,13 +18345,13 @@
         <v>303.856937</v>
       </c>
       <c r="D211" t="n">
-        <v>307.859844</v>
+        <v>307.859814</v>
       </c>
       <c r="E211" t="n">
-        <v>263.544303</v>
+        <v>263.544242</v>
       </c>
       <c r="F211" t="n">
-        <v>274.83725</v>
+        <v>274.837341</v>
       </c>
       <c r="G211" t="n">
         <v>1359608000</v>
@@ -18427,16 +18427,16 @@
         </is>
       </c>
       <c r="C212" t="n">
-        <v>273.533126</v>
+        <v>273.533096</v>
       </c>
       <c r="D212" t="n">
-        <v>310.24607</v>
+        <v>310.246131</v>
       </c>
       <c r="E212" t="n">
-        <v>271.375818</v>
+        <v>271.375848</v>
       </c>
       <c r="F212" t="n">
-        <v>309.334106</v>
+        <v>309.334167</v>
       </c>
       <c r="G212" t="n">
         <v>1178025500</v>
@@ -18512,16 +18512,16 @@
         </is>
       </c>
       <c r="C213" t="n">
-        <v>307.559351</v>
+        <v>307.559321</v>
       </c>
       <c r="D213" t="n">
-        <v>327.925973</v>
+        <v>327.926003</v>
       </c>
       <c r="E213" t="n">
-        <v>292.644614</v>
+        <v>292.644644</v>
       </c>
       <c r="F213" t="n">
-        <v>293.458527</v>
+        <v>293.458496</v>
       </c>
       <c r="G213" t="n">
         <v>1069920100</v>
@@ -18597,16 +18597,16 @@
         </is>
       </c>
       <c r="C214" t="n">
-        <v>290.958078</v>
+        <v>290.958048</v>
       </c>
       <c r="D214" t="n">
         <v>305.039205</v>
       </c>
       <c r="E214" t="n">
-        <v>262.383898</v>
+        <v>262.383929</v>
       </c>
       <c r="F214" t="n">
-        <v>262.541077</v>
+        <v>262.541107</v>
       </c>
       <c r="G214" t="n">
         <v>1370988700</v>
@@ -18685,13 +18685,13 @@
         <v>264.319195</v>
       </c>
       <c r="D215" t="n">
-        <v>279.574992</v>
+        <v>279.574901</v>
       </c>
       <c r="E215" t="n">
-        <v>249.770587</v>
+        <v>249.770616</v>
       </c>
       <c r="F215" t="n">
-        <v>273.042328</v>
+        <v>273.042358</v>
       </c>
       <c r="G215" t="n">
         <v>1356809000</v>
@@ -18767,13 +18767,13 @@
         </is>
       </c>
       <c r="C216" t="n">
-        <v>276.529723</v>
+        <v>276.52966</v>
       </c>
       <c r="D216" t="n">
         <v>288.28831</v>
       </c>
       <c r="E216" t="n">
-        <v>254.505464</v>
+        <v>254.505524</v>
       </c>
       <c r="F216" t="n">
         <v>288.180237</v>
@@ -18791,7 +18791,7 @@
         <v>0.024235</v>
       </c>
       <c r="K216" t="n">
-        <v>0.0006890000000000001</v>
+        <v>0.000688</v>
       </c>
       <c r="L216" t="inlineStr">
         <is>
@@ -18852,16 +18852,16 @@
         </is>
       </c>
       <c r="C217" t="n">
-        <v>288.504436</v>
+        <v>288.504405</v>
       </c>
       <c r="D217" t="n">
         <v>291.638102</v>
       </c>
       <c r="E217" t="n">
-        <v>255.7549</v>
+        <v>255.754869</v>
       </c>
       <c r="F217" t="n">
-        <v>262.20459</v>
+        <v>262.204651</v>
       </c>
       <c r="G217" t="n">
         <v>1057037700</v>
@@ -18876,7 +18876,7 @@
         <v>0.014424</v>
       </c>
       <c r="K217" t="n">
-        <v>0.000494</v>
+        <v>0.000495</v>
       </c>
       <c r="L217" t="inlineStr">
         <is>
@@ -18940,19 +18940,19 @@
         <v>264.538383</v>
       </c>
       <c r="D218" t="n">
-        <v>293.695221</v>
+        <v>293.695159</v>
       </c>
       <c r="E218" t="n">
         <v>256.355523</v>
       </c>
       <c r="F218" t="n">
-        <v>290.110901</v>
+        <v>290.11087</v>
       </c>
       <c r="G218" t="n">
         <v>961927300</v>
       </c>
       <c r="H218" t="n">
-        <v>0.10643</v>
+        <v>0.106429</v>
       </c>
       <c r="I218" t="n">
         <v>0.106234</v>
@@ -19022,13 +19022,13 @@
         </is>
       </c>
       <c r="C219" t="n">
-        <v>289.904138</v>
+        <v>289.904168</v>
       </c>
       <c r="D219" t="n">
-        <v>308.879244</v>
+        <v>308.879182</v>
       </c>
       <c r="E219" t="n">
-        <v>285.610801</v>
+        <v>285.610862</v>
       </c>
       <c r="F219" t="n">
         <v>289.067108</v>
@@ -19107,16 +19107,16 @@
         </is>
       </c>
       <c r="C220" t="n">
-        <v>288.771695</v>
+        <v>288.771725</v>
       </c>
       <c r="D220" t="n">
-        <v>316.74419</v>
+        <v>316.744129</v>
       </c>
       <c r="E220" t="n">
         <v>280.825205</v>
       </c>
       <c r="F220" t="n">
-        <v>316.507477</v>
+        <v>316.507416</v>
       </c>
       <c r="G220" t="n">
         <v>1544782600</v>
@@ -19131,7 +19131,7 @@
         <v>0.01284</v>
       </c>
       <c r="K220" t="n">
-        <v>0.000324</v>
+        <v>0.000323</v>
       </c>
       <c r="L220" t="inlineStr">
         <is>
@@ -19195,13 +19195,13 @@
         <v>314.377232</v>
       </c>
       <c r="D221" t="n">
-        <v>318.203777</v>
+        <v>318.203716</v>
       </c>
       <c r="E221" t="n">
-        <v>305.619603</v>
+        <v>305.619633</v>
       </c>
       <c r="F221" t="n">
-        <v>318.115021</v>
+        <v>318.11496</v>
       </c>
       <c r="G221" t="n">
         <v>993494600</v>
@@ -19280,13 +19280,13 @@
         <v>317.651464</v>
       </c>
       <c r="D222" t="n">
-        <v>349.052653</v>
+        <v>349.052715</v>
       </c>
       <c r="E222" t="n">
-        <v>310.777531</v>
+        <v>310.777562</v>
       </c>
       <c r="F222" t="n">
-        <v>343.194519</v>
+        <v>343.19458</v>
       </c>
       <c r="G222" t="n">
         <v>1149079300</v>
@@ -19362,22 +19362,22 @@
         </is>
       </c>
       <c r="C223" t="n">
-        <v>342.938131</v>
+        <v>342.938191</v>
       </c>
       <c r="D223" t="n">
         <v>367.711954</v>
       </c>
       <c r="E223" t="n">
-        <v>341.882869</v>
+        <v>341.882929</v>
       </c>
       <c r="F223" t="n">
-        <v>364.82901</v>
+        <v>364.829041</v>
       </c>
       <c r="G223" t="n">
         <v>1137710300</v>
       </c>
       <c r="H223" t="n">
-        <v>0.063039</v>
+        <v>0.063038</v>
       </c>
       <c r="I223" t="n">
         <v>0.064902</v>
@@ -19450,10 +19450,10 @@
         <v>365.470935</v>
       </c>
       <c r="D224" t="n">
-        <v>383.158391</v>
+        <v>383.15836</v>
       </c>
       <c r="E224" t="n">
-        <v>358.893717</v>
+        <v>358.893686</v>
       </c>
       <c r="F224" t="n">
         <v>378.911774</v>
@@ -19532,16 +19532,16 @@
         </is>
       </c>
       <c r="C225" t="n">
-        <v>377.558883</v>
+        <v>377.558761</v>
       </c>
       <c r="D225" t="n">
-        <v>378.793349</v>
+        <v>378.793226</v>
       </c>
       <c r="E225" t="n">
         <v>350.30178</v>
       </c>
       <c r="F225" t="n">
-        <v>373.29248</v>
+        <v>373.292511</v>
       </c>
       <c r="G225" t="n">
         <v>1202220400</v>
@@ -19617,13 +19617,13 @@
         </is>
       </c>
       <c r="C226" t="n">
-        <v>375.672537</v>
+        <v>375.672475</v>
       </c>
       <c r="D226" t="n">
-        <v>376.097186</v>
+        <v>376.097124</v>
       </c>
       <c r="E226" t="n">
-        <v>347.495734</v>
+        <v>347.495704</v>
       </c>
       <c r="F226" t="n">
         <v>354.329742</v>
@@ -19705,10 +19705,10 @@
         <v>354.596748</v>
       </c>
       <c r="D227" t="n">
-        <v>369.629545</v>
+        <v>369.629607</v>
       </c>
       <c r="E227" t="n">
-        <v>338.584872</v>
+        <v>338.584812</v>
       </c>
       <c r="F227" t="n">
         <v>347.011139</v>
@@ -19787,16 +19787,16 @@
         </is>
       </c>
       <c r="C228" t="n">
-        <v>347.851818</v>
+        <v>347.851758</v>
       </c>
       <c r="D228" t="n">
         <v>389.805284</v>
       </c>
       <c r="E228" t="n">
-        <v>347.752912</v>
+        <v>347.752852</v>
       </c>
       <c r="F228" t="n">
-        <v>384.553589</v>
+        <v>384.553619</v>
       </c>
       <c r="G228" t="n">
         <v>971319100</v>
@@ -19963,7 +19963,7 @@
         <v>426.195683</v>
       </c>
       <c r="E230" t="n">
-        <v>391.979089</v>
+        <v>391.979059</v>
       </c>
       <c r="F230" t="n">
         <v>413.425232</v>
@@ -20042,13 +20042,13 @@
         </is>
       </c>
       <c r="C231" t="n">
-        <v>415.22976</v>
+        <v>415.22973</v>
       </c>
       <c r="D231" t="n">
-        <v>436.844411</v>
+        <v>436.84438</v>
       </c>
       <c r="E231" t="n">
-        <v>414.25808</v>
+        <v>414.25805</v>
       </c>
       <c r="F231" t="n">
         <v>435.267914</v>
@@ -20127,16 +20127,16 @@
         </is>
       </c>
       <c r="C232" t="n">
-        <v>436.160237</v>
+        <v>436.160267</v>
       </c>
       <c r="D232" t="n">
         <v>446.109113</v>
       </c>
       <c r="E232" t="n">
-        <v>429.061118</v>
+        <v>429.061088</v>
       </c>
       <c r="F232" t="n">
-        <v>440.817444</v>
+        <v>440.817413</v>
       </c>
       <c r="G232" t="n">
         <v>904777500</v>
@@ -20212,16 +20212,16 @@
         </is>
       </c>
       <c r="C233" t="n">
-        <v>441.770578</v>
+        <v>441.770547</v>
       </c>
       <c r="D233" t="n">
-        <v>444.312168</v>
+        <v>444.312138</v>
       </c>
       <c r="E233" t="n">
         <v>410.099892</v>
       </c>
       <c r="F233" t="n">
-        <v>421.537048</v>
+        <v>421.537079</v>
       </c>
       <c r="G233" t="n">
         <v>1066402100</v>
@@ -20236,7 +20236,7 @@
         <v>0.01187</v>
       </c>
       <c r="K233" t="n">
-        <v>0.000853</v>
+        <v>0.000854</v>
       </c>
       <c r="L233" t="inlineStr">
         <is>
@@ -20297,16 +20297,16 @@
         </is>
       </c>
       <c r="C234" t="n">
-        <v>420.107451</v>
+        <v>420.10739</v>
       </c>
       <c r="D234" t="n">
         <v>457.268329</v>
       </c>
       <c r="E234" t="n">
-        <v>417.605539</v>
+        <v>417.605569</v>
       </c>
       <c r="F234" t="n">
-        <v>447.469269</v>
+        <v>447.469238</v>
       </c>
       <c r="G234" t="n">
         <v>730587500</v>
@@ -20467,13 +20467,13 @@
         </is>
       </c>
       <c r="C236" t="n">
-        <v>477.345909</v>
+        <v>477.345878</v>
       </c>
       <c r="D236" t="n">
-        <v>500.694092</v>
+        <v>500.694123</v>
       </c>
       <c r="E236" t="n">
-        <v>451.601154</v>
+        <v>451.601184</v>
       </c>
       <c r="F236" t="n">
         <v>468.426208</v>
@@ -20555,13 +20555,13 @@
         <v>469.112359</v>
       </c>
       <c r="D237" t="n">
-        <v>482.815036</v>
+        <v>482.815004</v>
       </c>
       <c r="E237" t="n">
-        <v>421.07349</v>
+        <v>421.07352</v>
       </c>
       <c r="F237" t="n">
-        <v>473.596985</v>
+        <v>473.597046</v>
       </c>
       <c r="G237" t="n">
         <v>908585600</v>
@@ -20637,13 +20637,13 @@
         </is>
       </c>
       <c r="C238" t="n">
-        <v>470.54426</v>
+        <v>470.544292</v>
       </c>
       <c r="D238" t="n">
         <v>491.619103</v>
       </c>
       <c r="E238" t="n">
-        <v>445.674651</v>
+        <v>445.67462</v>
       </c>
       <c r="F238" t="n">
         <v>486.012848</v>
@@ -20661,7 +20661,7 @@
         <v>0.013263</v>
       </c>
       <c r="K238" t="n">
-        <v>0.001386</v>
+        <v>0.001385</v>
       </c>
       <c r="L238" t="inlineStr">
         <is>
@@ -20892,13 +20892,13 @@
         </is>
       </c>
       <c r="C241" t="n">
-        <v>508.856174</v>
+        <v>508.856114</v>
       </c>
       <c r="D241" t="n">
         <v>536.877583</v>
       </c>
       <c r="E241" t="n">
-        <v>507.143406</v>
+        <v>507.143466</v>
       </c>
       <c r="F241" t="n">
         <v>514.264648</v>
